--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
+    <sheet name="tx_chain" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -177,6 +178,39 @@
   </si>
   <si>
     <t>DSA (I.L. + setting)</t>
+  </si>
+  <si>
+    <t>output power (dBm)</t>
+  </si>
+  <si>
+    <t>amp3 (dB)</t>
+  </si>
+  <si>
+    <t>amp2 (dB)</t>
+  </si>
+  <si>
+    <t>saw2 (dB)</t>
+  </si>
+  <si>
+    <t>amp1 (dB)</t>
+  </si>
+  <si>
+    <t>saw1 (dB)</t>
+  </si>
+  <si>
+    <t>mixer (dB)</t>
+  </si>
+  <si>
+    <t>DAC out / mixer in (dBm)</t>
+  </si>
+  <si>
+    <t>GVA-84+</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>proposed</t>
   </si>
 </sst>
 </file>
@@ -186,7 +220,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -512,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -540,18 +574,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -596,10 +618,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -883,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,10 +955,10 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="28">
         <v>39000000</v>
       </c>
     </row>
@@ -926,103 +970,103 @@
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="34" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34" t="s">
+      <c r="S6" s="29"/>
+      <c r="T6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1033,7 +1077,7 @@
       <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="42">
         <f>10^(E7/10)</f>
         <v>1</v>
       </c>
@@ -1062,11 +1106,11 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="57">
+      <c r="Q7" s="53">
         <f t="shared" ref="Q7:Q18" si="1">Q8-E7</f>
         <v>-40.4</v>
       </c>
-      <c r="R7" s="59">
+      <c r="R7" s="55">
         <f>10^((Q7-30)/10)*1000000</f>
         <v>9.1201083935590621E-2</v>
       </c>
@@ -1078,11 +1122,11 @@
       <c r="E8" s="13">
         <v>-1</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="43">
         <f>10^(E8/10)</f>
         <v>0.79432823472428149</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="47">
         <v>1</v>
       </c>
       <c r="H8" s="14">
@@ -1110,7 +1154,7 @@
         <f t="shared" si="1"/>
         <v>-40.4</v>
       </c>
-      <c r="R8" s="60">
+      <c r="R8" s="56">
         <f t="shared" ref="R8:R22" si="3">10^((Q8-30)/10)*1000000</f>
         <v>9.1201083935590621E-2</v>
       </c>
@@ -1126,11 +1170,11 @@
       <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="39">
         <f t="shared" ref="F9:F22" si="4">10^(E9/10)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="47">
         <f>ABS(E9)</f>
         <v>0</v>
       </c>
@@ -1159,7 +1203,7 @@
         <f t="shared" si="1"/>
         <v>-41.4</v>
       </c>
-      <c r="R9" s="60">
+      <c r="R9" s="56">
         <f t="shared" si="3"/>
         <v>7.2443596007498792E-2</v>
       </c>
@@ -1175,11 +1219,11 @@
       <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="47">
         <f>ABS(E10)</f>
         <v>0</v>
       </c>
@@ -1208,7 +1252,7 @@
         <f t="shared" si="1"/>
         <v>-41.4</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="56">
         <f t="shared" si="3"/>
         <v>7.2443596007498792E-2</v>
       </c>
@@ -1221,18 +1265,18 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="39">
         <f t="shared" si="4"/>
         <v>69.183097091893657</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="47">
         <v>0.27</v>
       </c>
       <c r="H11" s="14">
@@ -1262,11 +1306,11 @@
       <c r="P11">
         <v>-27.4</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="Q11" s="54">
         <f>Q12-E11</f>
         <v>-41.4</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="56">
         <f t="shared" si="3"/>
         <v>7.2443596007498792E-2</v>
       </c>
@@ -1286,18 +1330,18 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="58" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13">
         <v>-2</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="39">
         <f t="shared" ref="F12" si="9">10^(E12/10)</f>
         <v>0.63095734448019325</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="47">
         <f>ABS(E12)</f>
         <v>2</v>
       </c>
@@ -1326,7 +1370,7 @@
         <f t="shared" ref="Q12" si="14">Q13-E12</f>
         <v>-23</v>
       </c>
-      <c r="R12" s="60">
+      <c r="R12" s="56">
         <f t="shared" ref="R12" si="15">10^((Q12-30)/10)*1000000</f>
         <v>5.0118723362727193</v>
       </c>
@@ -1339,18 +1383,18 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15">
         <v>-1.5</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="44">
         <f t="shared" si="4"/>
         <v>0.70794578438413791</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="47">
         <f>ABS(E13)</f>
         <v>1.5</v>
       </c>
@@ -1379,7 +1423,7 @@
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="56">
         <f t="shared" si="3"/>
         <v>3.1622776601683769</v>
       </c>
@@ -1392,18 +1436,18 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="25">
         <v>14</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="39">
         <f t="shared" si="4"/>
         <v>25.118864315095799</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="47">
         <v>1.4</v>
       </c>
       <c r="H14" s="14">
@@ -1430,11 +1474,11 @@
       <c r="O14">
         <v>21</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="Q14" s="54">
         <f t="shared" si="1"/>
         <v>-26.5</v>
       </c>
-      <c r="R14" s="60">
+      <c r="R14" s="56">
         <f t="shared" si="3"/>
         <v>2.2387211385683328</v>
       </c>
@@ -1460,11 +1504,11 @@
       <c r="E15" s="13">
         <v>-2</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="39">
         <f t="shared" si="4"/>
         <v>0.63095734448019325</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="47">
         <f>ABS(E15)</f>
         <v>2</v>
       </c>
@@ -1493,7 +1537,7 @@
         <f t="shared" si="1"/>
         <v>-12.5</v>
       </c>
-      <c r="R15" s="60">
+      <c r="R15" s="56">
         <f t="shared" si="3"/>
         <v>56.234132519034887</v>
       </c>
@@ -1503,10 +1547,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="7"/>
@@ -1517,7 +1561,7 @@
         <f t="shared" si="4"/>
         <v>0.19952623149688795</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="48">
         <v>7</v>
       </c>
       <c r="H16" s="17">
@@ -1548,11 +1592,11 @@
       <c r="P16" s="7">
         <v>-10</v>
       </c>
-      <c r="Q16" s="58">
+      <c r="Q16" s="54">
         <f t="shared" si="1"/>
         <v>-14.5</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="57">
         <f t="shared" si="3"/>
         <v>35.481338923357477</v>
       </c>
@@ -1568,7 +1612,7 @@
         <f t="shared" si="8"/>
         <v>3.23634126004817E-2</v>
       </c>
-      <c r="W16" s="55" t="s">
+      <c r="W16" s="51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1582,11 +1626,11 @@
       <c r="E17" s="13">
         <v>-1.4</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="39">
         <f t="shared" si="4"/>
         <v>0.72443596007499012</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="47">
         <f>ABS(E17)</f>
         <v>1.4</v>
       </c>
@@ -1615,7 +1659,7 @@
         <f t="shared" si="1"/>
         <v>-21.5</v>
       </c>
-      <c r="R17" s="60">
+      <c r="R17" s="56">
         <f t="shared" si="3"/>
         <v>7.0794578438413627</v>
       </c>
@@ -1628,18 +1672,18 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42">
+      <c r="D18" s="37"/>
+      <c r="E18" s="38">
         <v>16</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="39">
         <f t="shared" si="4"/>
         <v>39.810717055349755</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="49">
         <v>7</v>
       </c>
       <c r="H18" s="24">
@@ -1669,11 +1713,11 @@
       <c r="P18">
         <v>-7</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="54">
         <f t="shared" si="1"/>
         <v>-22.9</v>
       </c>
-      <c r="R18" s="60">
+      <c r="R18" s="56">
         <f t="shared" si="3"/>
         <v>5.1286138399136441</v>
       </c>
@@ -1689,7 +1733,7 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="27">
         <f>-0.5-6.3-0.8</f>
         <v>-7.6</v>
       </c>
@@ -1697,7 +1741,7 @@
         <f t="shared" si="4"/>
         <v>0.17378008287493749</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="47">
         <f>ABS(E19)</f>
         <v>7.6</v>
       </c>
@@ -1726,7 +1770,7 @@
         <f>Q20-E19</f>
         <v>-6.9</v>
       </c>
-      <c r="R19" s="60">
+      <c r="R19" s="56">
         <f t="shared" si="3"/>
         <v>204.17379446695287</v>
       </c>
@@ -1736,21 +1780,21 @@
       </c>
     </row>
     <row r="20" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15">
         <v>-1.5</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="44">
         <f t="shared" si="4"/>
         <v>0.70794578438413791</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="47">
         <f>ABS(E20)</f>
         <v>1.5</v>
       </c>
@@ -1779,7 +1823,7 @@
         <f t="shared" ref="Q20:Q21" si="20">Q21-E20</f>
         <v>-14.5</v>
       </c>
-      <c r="R20" s="60">
+      <c r="R20" s="56">
         <f t="shared" si="3"/>
         <v>35.481338923357477</v>
       </c>
@@ -1789,18 +1833,18 @@
       </c>
     </row>
     <row r="21" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="35" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="26">
         <v>26</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="45">
         <f t="shared" si="4"/>
         <v>398.10717055349761</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="49">
         <v>8</v>
       </c>
       <c r="H21" s="24">
@@ -1830,11 +1874,11 @@
       <c r="P21">
         <v>-17</v>
       </c>
-      <c r="Q21" s="58">
+      <c r="Q21" s="54">
         <f t="shared" si="20"/>
         <v>-16</v>
       </c>
-      <c r="R21" s="60">
+      <c r="R21" s="56">
         <f t="shared" si="3"/>
         <v>25.118864315095792</v>
       </c>
@@ -1853,18 +1897,18 @@
       <c r="E22" s="13">
         <v>0</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="47">
         <v>27</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="2"/>
         <v>501.18723362727269</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="39">
         <f t="shared" si="17"/>
         <v>1.4922408497981681</v>
       </c>
@@ -1901,7 +1945,7 @@
     </row>
     <row r="23" spans="2:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E23" s="18"/>
-      <c r="F23" s="50"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="J23" s="1"/>
@@ -1913,24 +1957,24 @@
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="N24" s="2"/>
-      <c r="AB24" s="29" t="s">
+      <c r="AB24" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="AB25" s="28" t="s">
+      <c r="AB25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AB26">
@@ -1953,7 +1997,7 @@
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z27" s="27" t="s">
+      <c r="Z27" s="60" t="s">
         <v>23</v>
       </c>
       <c r="AA27" s="6">
@@ -1979,7 +2023,7 @@
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z28" s="27"/>
+      <c r="Z28" s="60"/>
       <c r="AA28" s="6">
         <v>-10</v>
       </c>
@@ -2003,7 +2047,7 @@
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z29" s="27"/>
+      <c r="Z29" s="60"/>
       <c r="AA29" s="6">
         <v>-12</v>
       </c>
@@ -2029,7 +2073,7 @@
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="Z30" s="27"/>
+      <c r="Z30" s="60"/>
       <c r="AA30" s="6">
         <v>-14</v>
       </c>
@@ -2053,7 +2097,7 @@
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z31" s="27"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="6">
         <v>-16</v>
       </c>
@@ -2077,7 +2121,7 @@
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z32" s="27"/>
+      <c r="Z32" s="60"/>
       <c r="AA32" s="6">
         <v>-18</v>
       </c>
@@ -2105,25 +2149,25 @@
     </row>
     <row r="34" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z34" s="6"/>
-      <c r="AB34" s="29" t="s">
+      <c r="AB34" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
     </row>
     <row r="35" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z35" s="6"/>
-      <c r="AB35" s="28" t="s">
+      <c r="AB35" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
     </row>
     <row r="36" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z36" s="6"/>
@@ -2147,7 +2191,7 @@
       </c>
     </row>
     <row r="37" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z37" s="27" t="s">
+      <c r="Z37" s="60" t="s">
         <v>23</v>
       </c>
       <c r="AA37" s="6">
@@ -2173,7 +2217,7 @@
       </c>
     </row>
     <row r="38" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z38" s="27"/>
+      <c r="Z38" s="60"/>
       <c r="AA38" s="6">
         <v>-10</v>
       </c>
@@ -2197,7 +2241,7 @@
       </c>
     </row>
     <row r="39" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z39" s="27"/>
+      <c r="Z39" s="60"/>
       <c r="AA39" s="6">
         <v>-12</v>
       </c>
@@ -2221,7 +2265,7 @@
       </c>
     </row>
     <row r="40" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z40" s="27"/>
+      <c r="Z40" s="60"/>
       <c r="AA40" s="6">
         <v>-14</v>
       </c>
@@ -2245,7 +2289,7 @@
       </c>
     </row>
     <row r="41" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z41" s="27"/>
+      <c r="Z41" s="60"/>
       <c r="AA41" s="6">
         <v>-16</v>
       </c>
@@ -2269,7 +2313,7 @@
       </c>
     </row>
     <row r="42" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z42" s="27"/>
+      <c r="Z42" s="60"/>
       <c r="AA42" s="6">
         <v>-18</v>
       </c>
@@ -2297,25 +2341,25 @@
     </row>
     <row r="44" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z44" s="6"/>
-      <c r="AB44" s="29" t="s">
+      <c r="AB44" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
     </row>
     <row r="45" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z45" s="6"/>
-      <c r="AB45" s="28" t="s">
+      <c r="AB45" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
     </row>
     <row r="46" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z46" s="6"/>
@@ -2339,7 +2383,7 @@
       </c>
     </row>
     <row r="47" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z47" s="27" t="s">
+      <c r="Z47" s="60" t="s">
         <v>23</v>
       </c>
       <c r="AA47" s="6">
@@ -2365,7 +2409,7 @@
       </c>
     </row>
     <row r="48" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z48" s="27"/>
+      <c r="Z48" s="60"/>
       <c r="AA48" s="6">
         <v>-10</v>
       </c>
@@ -2389,7 +2433,7 @@
       </c>
     </row>
     <row r="49" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z49" s="27"/>
+      <c r="Z49" s="60"/>
       <c r="AA49" s="6">
         <v>-12</v>
       </c>
@@ -2413,7 +2457,7 @@
       </c>
     </row>
     <row r="50" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z50" s="27"/>
+      <c r="Z50" s="60"/>
       <c r="AA50" s="6">
         <v>-14</v>
       </c>
@@ -2437,7 +2481,7 @@
       </c>
     </row>
     <row r="51" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z51" s="27"/>
+      <c r="Z51" s="60"/>
       <c r="AA51" s="6">
         <v>-16</v>
       </c>
@@ -2461,7 +2505,7 @@
       </c>
     </row>
     <row r="52" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z52" s="27"/>
+      <c r="Z52" s="60"/>
       <c r="AA52" s="6">
         <v>-18</v>
       </c>
@@ -2655,4 +2699,150 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="66"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="66"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="65">
+        <v>1</v>
+      </c>
+      <c r="G11" s="65">
+        <v>1</v>
+      </c>
+      <c r="H11" s="65">
+        <v>1</v>
+      </c>
+      <c r="I11" s="64"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="64">
+        <v>-7</v>
+      </c>
+      <c r="G12" s="64">
+        <v>-7</v>
+      </c>
+      <c r="H12" s="64">
+        <v>-7</v>
+      </c>
+      <c r="I12" s="64"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>-2</v>
+      </c>
+      <c r="G13">
+        <v>-2</v>
+      </c>
+      <c r="H13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>15.6</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>-2</v>
+      </c>
+      <c r="G15">
+        <v>-2</v>
+      </c>
+      <c r="H15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>15.6</v>
+      </c>
+      <c r="G16">
+        <v>15.6</v>
+      </c>
+      <c r="H16">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="63">
+        <f>SUM(F11:F18)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G19" s="63">
+        <f>SUM(G11:G18)</f>
+        <v>29.6</v>
+      </c>
+      <c r="H19" s="63">
+        <f>SUM(H11:H18)</f>
+        <v>21.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
-    <sheet name="tx_chain" sheetId="2" r:id="rId2"/>
+    <sheet name="phase_noise" sheetId="4" r:id="rId2"/>
+    <sheet name="tx_chain" sheetId="2" r:id="rId3"/>
+    <sheet name="power_budget" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -211,6 +213,30 @@
   </si>
   <si>
     <t>proposed</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Imax</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>Vmin</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>PP5V</t>
+  </si>
+  <si>
+    <t>VIN48V</t>
   </si>
 </sst>
 </file>
@@ -927,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,11 +1134,11 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="53">
         <f t="shared" ref="Q7:Q18" si="1">Q8-E7</f>
-        <v>-40.4</v>
+        <v>-31.4</v>
       </c>
       <c r="R7" s="55">
         <f>10^((Q7-30)/10)*1000000</f>
-        <v>9.1201083935590621E-2</v>
+        <v>0.72443596007499</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1127,6 +1153,7 @@
         <v>0.79432823472428149</v>
       </c>
       <c r="G8" s="47">
+        <f>ABS(E8)</f>
         <v>1</v>
       </c>
       <c r="H8" s="14">
@@ -1152,11 +1179,11 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>-40.4</v>
+        <v>-31.4</v>
       </c>
       <c r="R8" s="56">
         <f t="shared" ref="R8:R22" si="3">10^((Q8-30)/10)*1000000</f>
-        <v>9.1201083935590621E-2</v>
+        <v>0.72443596007499</v>
       </c>
       <c r="V8" s="3">
         <f>K8-K7</f>
@@ -1201,11 +1228,11 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>-41.4</v>
+        <v>-32.4</v>
       </c>
       <c r="R9" s="56">
         <f t="shared" si="3"/>
-        <v>7.2443596007498792E-2</v>
+        <v>0.57543993733715548</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ref="V9:V22" si="8">K9-K8</f>
@@ -1250,11 +1277,11 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>-41.4</v>
+        <v>-32.4</v>
       </c>
       <c r="R10" s="56">
         <f t="shared" si="3"/>
-        <v>7.2443596007498792E-2</v>
+        <v>0.57543993733715548</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="8"/>
@@ -1308,18 +1335,18 @@
       </c>
       <c r="Q11" s="54">
         <f>Q12-E11</f>
-        <v>-41.4</v>
+        <v>-32.4</v>
       </c>
       <c r="R11" s="56">
         <f t="shared" si="3"/>
-        <v>7.2443596007498792E-2</v>
+        <v>0.57543993733715548</v>
       </c>
       <c r="T11">
         <v>19.100000000000001</v>
       </c>
       <c r="U11">
         <f>Q11 - (T11-Q11)*3</f>
-        <v>-222.9</v>
+        <v>-186.9</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="8"/>
@@ -1368,11 +1395,11 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" ref="Q12" si="14">Q13-E12</f>
-        <v>-23</v>
+        <v>-14</v>
       </c>
       <c r="R12" s="56">
         <f t="shared" ref="R12" si="15">10^((Q12-30)/10)*1000000</f>
-        <v>5.0118723362727193</v>
+        <v>39.810717055349635</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" si="8"/>
@@ -1388,48 +1415,48 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15">
-        <v>-1.5</v>
+        <v>-8</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="4"/>
-        <v>0.70794578438413791</v>
+        <v>0.15848931924611132</v>
       </c>
       <c r="G13" s="47">
         <f>ABS(E13)</f>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="2"/>
-        <v>1.4125375446227544</v>
+        <v>6.3095734448019343</v>
       </c>
       <c r="J13" s="2">
         <f>J12+((H13-1)/N12)</f>
-        <v>1.3622177066202468</v>
+        <v>1.5034497647008338</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>1.3424652110698347</v>
+        <v>1.770889214437138</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13">
         <f>E13+M12</f>
-        <v>13.899999999999999</v>
+        <v>7.3999999999999986</v>
       </c>
       <c r="N13" s="2">
         <f>N12*F13</f>
-        <v>24.547089156850305</v>
+        <v>5.4954087385762449</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>-25</v>
+        <v>-16</v>
       </c>
       <c r="R13" s="56">
         <f t="shared" si="3"/>
-        <v>3.1622776601683769</v>
+        <v>25.118864315095792</v>
       </c>
       <c r="V13" s="3">
         <f>K13-K12</f>
-        <v>3.8098229048106891E-2</v>
+        <v>0.46652223241541013</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1456,42 +1483,42 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="5"/>
-        <v>1.3777138113588705</v>
+        <v>1.5726683219907935</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>1.3915901216089965</v>
+        <v>1.9663713895014889</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>27.9</v>
+        <v>21.4</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>616.59500186148216</v>
+        <v>138.03842646028846</v>
       </c>
       <c r="O14">
         <v>21</v>
       </c>
       <c r="Q14" s="54">
         <f t="shared" si="1"/>
-        <v>-26.5</v>
+        <v>-24</v>
       </c>
       <c r="R14" s="56">
         <f t="shared" si="3"/>
-        <v>2.2387211385683328</v>
+        <v>3.9810717055349656</v>
       </c>
       <c r="T14">
         <v>21</v>
       </c>
       <c r="U14">
         <f>Q14 - (T14-Q14)*3</f>
-        <v>-169</v>
+        <v>-159</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="8"/>
-        <v>4.9124910539161792E-2</v>
+        <v>0.19548217506435095</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1518,32 +1545,32 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="5"/>
-        <v>1.3786623970442804</v>
+        <v>1.5769054986050124</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>1.3945793038823999</v>
+        <v>1.9780566754315518</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15">
         <f t="shared" si="6"/>
-        <v>25.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>389.04514499428058</v>
+        <v>87.096358995608057</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>-12.5</v>
+        <v>-10</v>
       </c>
       <c r="R15" s="56">
         <f t="shared" si="3"/>
-        <v>56.234132519034887</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" si="8"/>
-        <v>2.9891822734033902E-3</v>
+        <v>1.1685285930062905E-2</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1571,20 +1598,20 @@
       <c r="I16" s="7"/>
       <c r="J16" s="10">
         <f t="shared" si="5"/>
-        <v>1.388974496778443</v>
+        <v>1.6229679561237593</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
-        <v>1.4269427164828816</v>
+        <v>2.1030994520145514</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="7">
         <f t="shared" si="6"/>
-        <v>18.899999999999999</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="7"/>
-        <v>77.62471166286916</v>
+        <v>17.378008287493753</v>
       </c>
       <c r="O16" s="7">
         <v>0</v>
@@ -1594,11 +1621,11 @@
       </c>
       <c r="Q16" s="54">
         <f t="shared" si="1"/>
-        <v>-14.5</v>
+        <v>-12</v>
       </c>
       <c r="R16" s="57">
         <f t="shared" si="3"/>
-        <v>35.481338923357477</v>
+        <v>63.095734448019279</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7">
@@ -1606,11 +1633,11 @@
       </c>
       <c r="U16" s="7">
         <f>Q16 - (T16-Q16)*3</f>
-        <v>-166</v>
+        <v>-156</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="8"/>
-        <v>3.23634126004817E-2</v>
+        <v>0.12504277658299956</v>
       </c>
       <c r="W16" s="51" t="s">
         <v>12</v>
@@ -1640,32 +1667,32 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="5"/>
-        <v>1.3938747953619008</v>
+        <v>1.6448567858624719</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>1.4422376506363574</v>
+        <v>2.1612809084692648</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17">
         <f t="shared" ref="M17:M19" si="16">E17+M16</f>
-        <v>17.5</v>
+        <v>10.999999999999998</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="7"/>
-        <v>56.234132519034901</v>
+        <v>12.589254117941671</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="1"/>
-        <v>-21.5</v>
+        <v>-19</v>
       </c>
       <c r="R17" s="56">
         <f t="shared" si="3"/>
-        <v>7.0794578438413627</v>
+        <v>12.589254117941659</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="8"/>
-        <v>1.5294934153475825E-2</v>
+        <v>5.8181456454713398E-2</v>
       </c>
     </row>
     <row r="18" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1692,20 +1719,20 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="5"/>
-        <v>1.4652170950748862</v>
+        <v>1.963531132943541</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
-        <v>1.6590197705050622</v>
+        <v>2.9303779165603934</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18">
         <f t="shared" si="16"/>
-        <v>33.5</v>
+        <v>27</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="7"/>
-        <v>2238.7211385683408</v>
+        <v>501.18723362727263</v>
       </c>
       <c r="O18">
         <v>-6</v>
@@ -1715,15 +1742,15 @@
       </c>
       <c r="Q18" s="54">
         <f t="shared" si="1"/>
-        <v>-22.9</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="R18" s="56">
         <f t="shared" si="3"/>
-        <v>5.1286138399136441</v>
+        <v>9.1201083935590823</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="8"/>
-        <v>0.21678211986870477</v>
+        <v>0.76909700809112858</v>
       </c>
     </row>
     <row r="19" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1751,32 +1778,32 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="5"/>
-        <v>1.4673408072655041</v>
+        <v>1.9730174068435409</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="0"/>
-        <v>1.6653099559164675</v>
+        <v>2.9513091680959085</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>25.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="7"/>
-        <v>389.04514499428069</v>
+        <v>87.096358995608099</v>
       </c>
       <c r="Q19" s="2">
         <f>Q20-E19</f>
-        <v>-6.9</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="R19" s="56">
         <f t="shared" si="3"/>
-        <v>204.17379446695287</v>
+        <v>363.07805477010101</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="8"/>
-        <v>6.2901854114052469E-3</v>
+        <v>2.0931251535515116E-2</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1788,48 +1815,48 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="F20" s="44">
         <f t="shared" si="4"/>
-        <v>0.70794578438413791</v>
+        <v>0.3981071705534972</v>
       </c>
       <c r="G20" s="47">
         <f>ABS(E20)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="2"/>
-        <v>1.4125375446227544</v>
+        <v>2.5118864315095806</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ref="J20:J22" si="17">J19+((H20-1)/N19)</f>
-        <v>1.4684011920304363</v>
+        <v>1.9903761856598381</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" si="0"/>
-        <v>1.6684472838713211</v>
+        <v>2.9893516681981103</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20">
         <f t="shared" ref="M20:M22" si="18">E20+M19</f>
-        <v>24.4</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" ref="N20:N22" si="19">N19*F20</f>
-        <v>275.42287033381672</v>
+        <v>34.673685045253173</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20:Q21" si="20">Q21-E20</f>
-        <v>-14.5</v>
+        <v>-12</v>
       </c>
       <c r="R20" s="56">
         <f t="shared" si="3"/>
-        <v>35.481338923357477</v>
+        <v>63.095734448019279</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" si="8"/>
-        <v>3.1373279548536637E-3</v>
+        <v>3.8042500102201782E-2</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1853,20 +1880,20 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="17"/>
-        <v>1.4876790880104129</v>
+        <v>2.1435059564895704</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="0"/>
-        <v>1.7250925826820693</v>
+        <v>3.31124694689179</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21">
         <f t="shared" si="18"/>
-        <v>50.4</v>
+        <v>41.4</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="19"/>
-        <v>109647.81961431864</v>
+        <v>13803.842646028865</v>
       </c>
       <c r="O21">
         <v>-16</v>
@@ -1884,7 +1911,7 @@
       </c>
       <c r="V21" s="3">
         <f t="shared" si="8"/>
-        <v>5.6645298810748201E-2</v>
+        <v>0.32189527869367973</v>
       </c>
     </row>
     <row r="22" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,20 +1937,20 @@
       </c>
       <c r="J22" s="39">
         <f t="shared" si="17"/>
-        <v>1.4922408497981681</v>
+        <v>2.1797413183705729</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="0"/>
-        <v>1.738389245418674</v>
+        <v>3.38404956599926</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22">
         <f t="shared" si="18"/>
-        <v>50.4</v>
+        <v>41.4</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="19"/>
-        <v>109647.81961431864</v>
+        <v>13803.842646028865</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -1940,7 +1967,7 @@
       </c>
       <c r="V22" s="3">
         <f t="shared" si="8"/>
-        <v>1.3296662736604681E-2</v>
+        <v>7.280261910746999E-2</v>
       </c>
     </row>
     <row r="23" spans="2:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2703,9 +2730,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G9:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <f>4.98*0.98</f>
+        <v>4.8804000000000007</v>
+      </c>
+      <c r="K10">
+        <f>4.98*1.02</f>
+        <v>5.0796000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -2845,4 +2923,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -648,6 +648,16 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,16 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -954,7 +954,7 @@
   <dimension ref="B2:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="20" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="21" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="35" t="s">
         <v>46</v>
       </c>
@@ -1984,24 +1984,24 @@
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="N24" s="2"/>
-      <c r="AB24" s="62" t="s">
+      <c r="AB24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="AB25" s="61" t="s">
+      <c r="AB25" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="61"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AB26">
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z27" s="60" t="s">
+      <c r="Z27" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AA27" s="6">
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z28" s="60"/>
+      <c r="Z28" s="66"/>
       <c r="AA28" s="6">
         <v>-10</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z29" s="60"/>
+      <c r="Z29" s="66"/>
       <c r="AA29" s="6">
         <v>-12</v>
       </c>
@@ -2100,7 +2100,7 @@
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="Z30" s="60"/>
+      <c r="Z30" s="66"/>
       <c r="AA30" s="6">
         <v>-14</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z31" s="60"/>
+      <c r="Z31" s="66"/>
       <c r="AA31" s="6">
         <v>-16</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="Z32" s="60"/>
+      <c r="Z32" s="66"/>
       <c r="AA32" s="6">
         <v>-18</v>
       </c>
@@ -2176,25 +2176,25 @@
     </row>
     <row r="34" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z34" s="6"/>
-      <c r="AB34" s="62" t="s">
+      <c r="AB34" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
     </row>
     <row r="35" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z35" s="6"/>
-      <c r="AB35" s="61" t="s">
+      <c r="AB35" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="61"/>
-      <c r="AG35" s="61"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z36" s="6"/>
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="37" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z37" s="60" t="s">
+      <c r="Z37" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AA37" s="6">
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="38" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z38" s="60"/>
+      <c r="Z38" s="66"/>
       <c r="AA38" s="6">
         <v>-10</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="39" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z39" s="60"/>
+      <c r="Z39" s="66"/>
       <c r="AA39" s="6">
         <v>-12</v>
       </c>
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="40" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z40" s="60"/>
+      <c r="Z40" s="66"/>
       <c r="AA40" s="6">
         <v>-14</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="41" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z41" s="60"/>
+      <c r="Z41" s="66"/>
       <c r="AA41" s="6">
         <v>-16</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
     </row>
     <row r="42" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z42" s="60"/>
+      <c r="Z42" s="66"/>
       <c r="AA42" s="6">
         <v>-18</v>
       </c>
@@ -2368,25 +2368,25 @@
     </row>
     <row r="44" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z44" s="6"/>
-      <c r="AB44" s="62" t="s">
+      <c r="AB44" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
     </row>
     <row r="45" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z45" s="6"/>
-      <c r="AB45" s="61" t="s">
+      <c r="AB45" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="61"/>
-      <c r="AE45" s="61"/>
-      <c r="AF45" s="61"/>
-      <c r="AG45" s="61"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="67"/>
+      <c r="AF45" s="67"/>
+      <c r="AG45" s="67"/>
     </row>
     <row r="46" spans="26:33" x14ac:dyDescent="0.25">
       <c r="Z46" s="6"/>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="47" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z47" s="60" t="s">
+      <c r="Z47" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AA47" s="6">
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="48" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z48" s="60"/>
+      <c r="Z48" s="66"/>
       <c r="AA48" s="6">
         <v>-10</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="49" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z49" s="60"/>
+      <c r="Z49" s="66"/>
       <c r="AA49" s="6">
         <v>-12</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="50" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z50" s="60"/>
+      <c r="Z50" s="66"/>
       <c r="AA50" s="6">
         <v>-14</v>
       </c>
@@ -2508,7 +2508,7 @@
       </c>
     </row>
     <row r="51" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z51" s="60"/>
+      <c r="Z51" s="66"/>
       <c r="AA51" s="6">
         <v>-16</v>
       </c>
@@ -2532,7 +2532,7 @@
       </c>
     </row>
     <row r="52" spans="26:33" x14ac:dyDescent="0.25">
-      <c r="Z52" s="60"/>
+      <c r="Z52" s="66"/>
       <c r="AA52" s="6">
         <v>-18</v>
       </c>
@@ -2801,43 +2801,43 @@
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="66"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="67" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="61">
         <v>1</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="61">
         <v>1</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="61">
         <v>1</v>
       </c>
-      <c r="I11" s="64"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="60">
         <v>-7</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="60">
         <v>-7</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="60">
         <v>-7</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
@@ -2907,15 +2907,15 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="59">
         <f>SUM(F11:F18)</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="59">
         <f>SUM(G11:G18)</f>
         <v>29.6</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="59">
         <f>SUM(H11:H18)</f>
         <v>21.2</v>
       </c>

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -17,7 +17,7 @@
     <sheet name="tx_chain" sheetId="2" r:id="rId3"/>
     <sheet name="power_budget" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -237,6 +237,27 @@
   </si>
   <si>
     <t>VIN48V</t>
+  </si>
+  <si>
+    <t>meas</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>noise floor</t>
+  </si>
+  <si>
+    <t>dbm/Hz</t>
+  </si>
+  <si>
+    <t>noise figure</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>mhz</t>
   </si>
 </sst>
 </file>
@@ -572,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -670,6 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -954,7 +976,7 @@
   <dimension ref="B2:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,11 +1156,11 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="53">
         <f t="shared" ref="Q7:Q18" si="1">Q8-E7</f>
-        <v>-31.4</v>
+        <v>-42.9</v>
       </c>
       <c r="R7" s="55">
         <f>10^((Q7-30)/10)*1000000</f>
-        <v>0.72443596007499</v>
+        <v>5.1286138399136226E-2</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1146,48 +1168,48 @@
         <v>48</v>
       </c>
       <c r="E8" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="43">
         <f>10^(E8/10)</f>
-        <v>0.79432823472428149</v>
+        <v>1</v>
       </c>
       <c r="G8" s="47">
         <f>ABS(E8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" ref="H8:H22" si="2">10^(G8/10)</f>
-        <v>1.2589254117941673</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <f>J7+((H8-1)/N7)</f>
-        <v>1.2589254117941673</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8">
         <f>E8+M7</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <f>N7*F8</f>
-        <v>0.79432823472428149</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>-31.4</v>
+        <v>-42.9</v>
       </c>
       <c r="R8" s="56">
         <f t="shared" ref="R8:R22" si="3">10^((Q8-30)/10)*1000000</f>
-        <v>0.72443596007499</v>
+        <v>5.1286138399136226E-2</v>
       </c>
       <c r="V8" s="3">
         <f>K8-K7</f>
-        <v>1.0000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -1211,28 +1233,28 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ref="J9:J19" si="5">J8+((H9-1)/N8)</f>
-        <v>1.2589254117941673</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9">
         <f t="shared" ref="M9:M16" si="6">E9+M8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ref="N9:N19" si="7">N8*F9</f>
-        <v>0.79432823472428149</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>-32.4</v>
+        <v>-42.9</v>
       </c>
       <c r="R9" s="56">
         <f t="shared" si="3"/>
-        <v>0.57543993733715548</v>
+        <v>5.1286138399136226E-2</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ref="V9:V22" si="8">K9-K8</f>
@@ -1260,28 +1282,28 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="5"/>
-        <v>1.2589254117941673</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="7"/>
-        <v>0.79432823472428149</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>-32.4</v>
+        <v>-42.9</v>
       </c>
       <c r="R10" s="56">
         <f t="shared" si="3"/>
-        <v>0.57543993733715548</v>
+        <v>5.1286138399136226E-2</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="8"/>
@@ -1312,20 +1334,20 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="5"/>
-        <v>1.3396766874259352</v>
+        <v>1.0641430182243161</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>1.2700000000000002</v>
+        <v>0.2700000000000003</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>17.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="7"/>
-        <v>54.954087385762463</v>
+        <v>69.183097091893657</v>
       </c>
       <c r="O11">
         <v>2.4</v>
@@ -1335,22 +1357,22 @@
       </c>
       <c r="Q11" s="54">
         <f>Q12-E11</f>
-        <v>-32.4</v>
+        <v>-42.9</v>
       </c>
       <c r="R11" s="56">
         <f t="shared" si="3"/>
-        <v>0.57543993733715548</v>
+        <v>5.1286138399136226E-2</v>
       </c>
       <c r="T11">
         <v>19.100000000000001</v>
       </c>
       <c r="U11">
         <f>Q11 - (T11-Q11)*3</f>
-        <v>-186.9</v>
+        <v>-228.9</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="8"/>
-        <v>0.27</v>
+        <v>0.2700000000000003</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,32 +1400,32 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ref="J12" si="11">J11+((H12-1)/N11)</f>
-        <v>1.3503199938711015</v>
+        <v>1.0725972970445345</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>1.3043669820217278</v>
+        <v>0.30436698202172757</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12">
         <f t="shared" ref="M12" si="12">E12+M11</f>
-        <v>15.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" ref="N12" si="13">N11*F12</f>
-        <v>34.673685045253166</v>
+        <v>43.651583224016605</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ref="Q12" si="14">Q13-E12</f>
-        <v>-14</v>
+        <v>-24.5</v>
       </c>
       <c r="R12" s="56">
         <f t="shared" ref="R12" si="15">10^((Q12-30)/10)*1000000</f>
-        <v>39.810717055349635</v>
+        <v>3.5481338923357506</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" si="8"/>
-        <v>3.436698202172761E-2</v>
+        <v>3.4366982021727277E-2</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1415,48 +1437,48 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15">
-        <v>-8</v>
+        <v>-1.5</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="4"/>
-        <v>0.15848931924611132</v>
+        <v>0.70794578438413791</v>
       </c>
       <c r="G13" s="47">
         <f>ABS(E13)</f>
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="2"/>
-        <v>6.3095734448019343</v>
+        <v>1.4125375446227544</v>
       </c>
       <c r="J13" s="2">
         <f>J12+((H13-1)/N12)</f>
-        <v>1.5034497647008338</v>
+        <v>1.0820479862098196</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>1.770889214437138</v>
+        <v>0.34246521106983385</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13">
         <f>E13+M12</f>
-        <v>7.3999999999999986</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="N13" s="2">
         <f>N12*F13</f>
-        <v>5.4954087385762449</v>
+        <v>30.902954325135912</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-26.5</v>
       </c>
       <c r="R13" s="56">
         <f t="shared" si="3"/>
-        <v>25.118864315095792</v>
+        <v>2.2387211385683328</v>
       </c>
       <c r="V13" s="3">
         <f>K13-K12</f>
-        <v>0.46652223241541013</v>
+        <v>3.809822904810628E-2</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1483,42 +1505,42 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="5"/>
-        <v>1.5726683219907935</v>
+        <v>1.094356979731953</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>1.9663713895014889</v>
+        <v>0.39159012160899515</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>21.4</v>
+        <v>28.9</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>138.03842646028846</v>
+        <v>776.24711662869186</v>
       </c>
       <c r="O14">
         <v>21</v>
       </c>
       <c r="Q14" s="54">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>-28</v>
       </c>
       <c r="R14" s="56">
         <f t="shared" si="3"/>
-        <v>3.9810717055349656</v>
+        <v>1.5848931924611112</v>
       </c>
       <c r="T14">
         <v>21</v>
       </c>
       <c r="U14">
         <f>Q14 - (T14-Q14)*3</f>
-        <v>-159</v>
+        <v>-175</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="8"/>
-        <v>0.19548217506435095</v>
+        <v>4.9124910539161293E-2</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1545,32 +1567,32 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="5"/>
-        <v>1.5769054986050124</v>
+        <v>1.0951104681249293</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>1.9780566754315518</v>
+        <v>0.39457930388239837</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15">
         <f t="shared" si="6"/>
-        <v>19.399999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>87.096358995608057</v>
+        <v>489.77881936844625</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="R15" s="56">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>39.810717055349635</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" si="8"/>
-        <v>1.1685285930062905E-2</v>
+        <v>2.9891822734032236E-3</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1598,20 +1620,20 @@
       <c r="I16" s="7"/>
       <c r="J16" s="10">
         <f t="shared" si="5"/>
-        <v>1.6229679561237593</v>
+        <v>1.1033016601030674</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
-        <v>2.1030994520145514</v>
+        <v>0.42694271648287996</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="7">
         <f t="shared" si="6"/>
-        <v>12.399999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="7"/>
-        <v>17.378008287493753</v>
+        <v>97.723722095581067</v>
       </c>
       <c r="O16" s="7">
         <v>0</v>
@@ -1621,11 +1643,11 @@
       </c>
       <c r="Q16" s="54">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="R16" s="57">
         <f t="shared" si="3"/>
-        <v>63.095734448019279</v>
+        <v>25.118864315095792</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7">
@@ -1633,11 +1655,11 @@
       </c>
       <c r="U16" s="7">
         <f>Q16 - (T16-Q16)*3</f>
-        <v>-156</v>
+        <v>-172</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="8"/>
-        <v>0.12504277658299956</v>
+        <v>3.2363412600481589E-2</v>
       </c>
       <c r="W16" s="51" t="s">
         <v>12</v>
@@ -1667,32 +1689,32 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="5"/>
-        <v>1.6448567858624719</v>
+        <v>1.1071941056264873</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>2.1612809084692648</v>
+        <v>0.44223765063635562</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17">
         <f t="shared" ref="M17:M19" si="16">E17+M16</f>
-        <v>10.999999999999998</v>
+        <v>18.5</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="7"/>
-        <v>12.589254117941671</v>
+        <v>70.794578438413794</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="1"/>
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="R17" s="56">
         <f t="shared" si="3"/>
-        <v>12.589254117941659</v>
+        <v>5.0118723362727193</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="8"/>
-        <v>5.8181456454713398E-2</v>
+        <v>1.5294934153475659E-2</v>
       </c>
     </row>
     <row r="18" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1719,20 +1741,20 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="5"/>
-        <v>1.963531132943541</v>
+        <v>1.1638633086186736</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
-        <v>2.9303779165603934</v>
+        <v>0.65901977050506033</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="7"/>
-        <v>501.18723362727263</v>
+        <v>2818.3829312644561</v>
       </c>
       <c r="O18">
         <v>-6</v>
@@ -1742,15 +1764,15 @@
       </c>
       <c r="Q18" s="54">
         <f t="shared" si="1"/>
-        <v>-20.399999999999999</v>
+        <v>-24.4</v>
       </c>
       <c r="R18" s="56">
         <f t="shared" si="3"/>
-        <v>9.1201083935590823</v>
+        <v>3.6307805477010153</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="8"/>
-        <v>0.76909700809112858</v>
+        <v>0.21678211986870471</v>
       </c>
     </row>
     <row r="19" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1778,32 +1800,32 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="5"/>
-        <v>1.9730174068435409</v>
+        <v>1.1655502331741094</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="0"/>
-        <v>2.9513091680959085</v>
+        <v>0.66530995591646536</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19">
         <f t="shared" si="16"/>
-        <v>19.399999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="7"/>
-        <v>87.096358995608099</v>
+        <v>489.77881936844642</v>
       </c>
       <c r="Q19" s="2">
         <f>Q20-E19</f>
-        <v>-4.4000000000000004</v>
+        <v>-8.4</v>
       </c>
       <c r="R19" s="56">
         <f t="shared" si="3"/>
-        <v>363.07805477010101</v>
+        <v>144.54397707459268</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="8"/>
-        <v>2.0931251535515116E-2</v>
+        <v>6.2901854114050249E-3</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1815,48 +1837,48 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F20" s="44">
         <f t="shared" si="4"/>
-        <v>0.3981071705534972</v>
+        <v>1</v>
       </c>
       <c r="G20" s="47">
         <f>ABS(E20)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="2"/>
-        <v>2.5118864315095806</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ref="J20:J22" si="17">J19+((H20-1)/N19)</f>
-        <v>1.9903761856598381</v>
+        <v>1.1655502331741094</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" si="0"/>
-        <v>2.9893516681981103</v>
+        <v>0.66530995591646536</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20">
         <f t="shared" ref="M20:M22" si="18">E20+M19</f>
-        <v>15.399999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" ref="N20:N22" si="19">N19*F20</f>
-        <v>34.673685045253173</v>
+        <v>489.77881936844642</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20:Q21" si="20">Q21-E20</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="R20" s="56">
         <f t="shared" si="3"/>
-        <v>63.095734448019279</v>
+        <v>25.118864315095792</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" si="8"/>
-        <v>3.8042500102201782E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1880,20 +1902,20 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="17"/>
-        <v>2.1435059564895704</v>
+        <v>1.1763909907463712</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="0"/>
-        <v>3.31124694689179</v>
+        <v>0.70551689853971411</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21">
         <f t="shared" si="18"/>
-        <v>41.4</v>
+        <v>52.9</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="19"/>
-        <v>13803.842646028865</v>
+        <v>194984.45997580478</v>
       </c>
       <c r="O21">
         <v>-16</v>
@@ -1911,7 +1933,7 @@
       </c>
       <c r="V21" s="3">
         <f t="shared" si="8"/>
-        <v>0.32189527869367973</v>
+        <v>4.0206942623248754E-2</v>
       </c>
     </row>
     <row r="22" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1937,20 +1959,20 @@
       </c>
       <c r="J22" s="39">
         <f t="shared" si="17"/>
-        <v>2.1797413183705729</v>
+        <v>1.1789562579153001</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="0"/>
-        <v>3.38404956599926</v>
+        <v>0.7149769203450923</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22">
         <f t="shared" si="18"/>
-        <v>41.4</v>
+        <v>52.9</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="19"/>
-        <v>13803.842646028865</v>
+        <v>194984.45997580478</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -1967,7 +1989,7 @@
       </c>
       <c r="V22" s="3">
         <f t="shared" si="8"/>
-        <v>7.280261910746999E-2</v>
+        <v>9.4600218053781937E-3</v>
       </c>
     </row>
     <row r="23" spans="2:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2004,6 +2026,15 @@
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26">
+        <v>35</v>
+      </c>
+      <c r="P26" t="s">
+        <v>76</v>
+      </c>
       <c r="AB26">
         <v>0</v>
       </c>
@@ -2024,6 +2055,15 @@
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27">
+        <v>-31</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
       <c r="Z27" s="66" t="s">
         <v>23</v>
       </c>
@@ -2050,6 +2090,15 @@
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="69">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
       <c r="Z28" s="66"/>
       <c r="AA28" s="6">
         <v>-10</v>
@@ -2074,6 +2123,13 @@
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f>O27-O28</f>
+        <v>-91</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
       <c r="Z29" s="66"/>
       <c r="AA29" s="6">
         <v>-12</v>
@@ -2100,6 +2156,15 @@
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="69">
+        <v>51.9</v>
+      </c>
+      <c r="P30" t="s">
+        <v>3</v>
+      </c>
       <c r="Z30" s="66"/>
       <c r="AA30" s="6">
         <v>-14</v>
@@ -2124,6 +2189,13 @@
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f>O29-O30</f>
+        <v>-142.9</v>
+      </c>
+      <c r="P31" t="s">
+        <v>6</v>
+      </c>
       <c r="Z31" s="66"/>
       <c r="AA31" s="6">
         <v>-16</v>
@@ -2171,10 +2243,29 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="33" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>72</v>
+      </c>
+      <c r="O33">
+        <v>-174</v>
+      </c>
+      <c r="P33" t="s">
+        <v>73</v>
+      </c>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34">
+        <f>O31-O33</f>
+        <v>31.099999999999994</v>
+      </c>
+      <c r="P34" t="s">
+        <v>3</v>
+      </c>
       <c r="Z34" s="6"/>
       <c r="AB34" s="68" t="s">
         <v>21</v>
@@ -2185,7 +2276,7 @@
       <c r="AF34" s="68"/>
       <c r="AG34" s="68"/>
     </row>
-    <row r="35" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:33" x14ac:dyDescent="0.25">
       <c r="Z35" s="6"/>
       <c r="AB35" s="67" t="s">
         <v>22</v>
@@ -2196,7 +2287,7 @@
       <c r="AF35" s="67"/>
       <c r="AG35" s="67"/>
     </row>
-    <row r="36" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:33" x14ac:dyDescent="0.25">
       <c r="Z36" s="6"/>
       <c r="AB36">
         <v>0</v>
@@ -2217,7 +2308,16 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37">
+        <v>915</v>
+      </c>
+      <c r="P37" t="s">
+        <v>76</v>
+      </c>
       <c r="Z37" s="66" t="s">
         <v>23</v>
       </c>
@@ -2243,7 +2343,16 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="38" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38">
+        <v>-54</v>
+      </c>
+      <c r="P38" t="s">
+        <v>6</v>
+      </c>
       <c r="Z38" s="66"/>
       <c r="AA38" s="6">
         <v>-10</v>
@@ -2267,7 +2376,16 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="39" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>71</v>
+      </c>
+      <c r="O39" s="69">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s">
+        <v>26</v>
+      </c>
       <c r="Z39" s="66"/>
       <c r="AA39" s="6">
         <v>-12</v>
@@ -2291,7 +2409,14 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="40" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <f>O38-O39</f>
+        <v>-114</v>
+      </c>
+      <c r="P40" t="s">
+        <v>6</v>
+      </c>
       <c r="Z40" s="66"/>
       <c r="AA40" s="6">
         <v>-14</v>
@@ -2315,7 +2440,16 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="41" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="69">
+        <v>28.9</v>
+      </c>
+      <c r="P41" t="s">
+        <v>3</v>
+      </c>
       <c r="Z41" s="66"/>
       <c r="AA41" s="6">
         <v>-16</v>
@@ -2339,7 +2473,14 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="42" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f>O40-O41</f>
+        <v>-142.9</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
       <c r="Z42" s="66"/>
       <c r="AA42" s="6">
         <v>-18</v>
@@ -2363,10 +2504,19 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="43" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:33" x14ac:dyDescent="0.25">
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44">
+        <v>-174</v>
+      </c>
+      <c r="P44" t="s">
+        <v>73</v>
+      </c>
       <c r="Z44" s="6"/>
       <c r="AB44" s="68" t="s">
         <v>25</v>
@@ -2377,7 +2527,17 @@
       <c r="AF44" s="68"/>
       <c r="AG44" s="68"/>
     </row>
-    <row r="45" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:33" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45">
+        <f>O42-O44</f>
+        <v>31.099999999999994</v>
+      </c>
+      <c r="P45" t="s">
+        <v>3</v>
+      </c>
       <c r="Z45" s="6"/>
       <c r="AB45" s="67" t="s">
         <v>22</v>
@@ -2388,7 +2548,7 @@
       <c r="AF45" s="67"/>
       <c r="AG45" s="67"/>
     </row>
-    <row r="46" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:33" x14ac:dyDescent="0.25">
       <c r="Z46" s="6"/>
       <c r="AB46">
         <v>0</v>
@@ -2409,7 +2569,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:33" x14ac:dyDescent="0.25">
       <c r="Z47" s="66" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2595,7 @@
         <v>-20.8</v>
       </c>
     </row>
-    <row r="48" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:33" x14ac:dyDescent="0.25">
       <c r="Z48" s="66"/>
       <c r="AA48" s="6">
         <v>-10</v>

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel2\projects\graviton\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\graviton\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="tx_chain" sheetId="2" r:id="rId3"/>
     <sheet name="power_budget" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -654,9 +654,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -669,14 +666,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -713,7 +713,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arc 1"/>
+        <xdr:cNvPr id="2" name="Arc 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -771,7 +777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -848,7 +860,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -925,7 +943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Arc 6"/>
+        <xdr:cNvPr id="7" name="Arc 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1236,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
@@ -2505,7 +2529,7 @@
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="38" t="s">
@@ -2577,8 +2601,8 @@
     </row>
     <row r="21" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="53" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="12"/>
@@ -2676,7 +2700,7 @@
         <f t="shared" si="17"/>
         <v>1.2779024184081174</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="54">
         <f t="shared" si="0"/>
         <v>1.0649769203450923</v>
       </c>
@@ -2698,7 +2722,7 @@
       <c r="Q22" s="11">
         <v>10</v>
       </c>
-      <c r="R22" s="56">
+      <c r="R22" s="55">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
@@ -2727,12 +2751,12 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="59"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="58"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="60"/>
+      <c r="J23" s="59"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="12"/>
@@ -2786,14 +2810,14 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="64" t="s">
+      <c r="AB24" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
       <c r="AH24" s="12"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -2897,8 +2921,8 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
@@ -2908,7 +2932,7 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="66" t="s">
+      <c r="Z27" s="64" t="s">
         <v>21</v>
       </c>
       <c r="AA27" s="15">
@@ -2949,8 +2973,8 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
@@ -2960,7 +2984,7 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="66"/>
+      <c r="Z28" s="64"/>
       <c r="AA28" s="15">
         <v>-10</v>
       </c>
@@ -2999,8 +3023,8 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
@@ -3010,7 +3034,7 @@
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="66"/>
+      <c r="Z29" s="64"/>
       <c r="AA29" s="15">
         <v>-12</v>
       </c>
@@ -3037,7 +3061,7 @@
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="12"/>
@@ -3051,8 +3075,8 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
@@ -3062,7 +3086,7 @@
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
-      <c r="Z30" s="66"/>
+      <c r="Z30" s="64"/>
       <c r="AA30" s="15">
         <v>-14</v>
       </c>
@@ -3101,8 +3125,8 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
@@ -3112,7 +3136,7 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="66"/>
+      <c r="Z31" s="64"/>
       <c r="AA31" s="15">
         <v>-16</v>
       </c>
@@ -3138,7 +3162,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3155,8 +3179,8 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
@@ -3166,7 +3190,7 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="66"/>
+      <c r="Z32" s="64"/>
       <c r="AA32" s="15">
         <v>-18</v>
       </c>
@@ -3205,8 +3229,8 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
@@ -3241,8 +3265,8 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
@@ -3254,14 +3278,14 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="12"/>
-      <c r="AB34" s="64" t="s">
+      <c r="AB34" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
       <c r="AH34" s="12"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -3279,8 +3303,8 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
@@ -3317,8 +3341,8 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
@@ -3365,8 +3389,8 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
@@ -3376,7 +3400,7 @@
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
-      <c r="Z37" s="66" t="s">
+      <c r="Z37" s="64" t="s">
         <v>21</v>
       </c>
       <c r="AA37" s="15">
@@ -3417,8 +3441,8 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
@@ -3428,7 +3452,7 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
-      <c r="Z38" s="66"/>
+      <c r="Z38" s="64"/>
       <c r="AA38" s="15">
         <v>-10</v>
       </c>
@@ -3467,8 +3491,8 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
@@ -3478,7 +3502,7 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
-      <c r="Z39" s="66"/>
+      <c r="Z39" s="64"/>
       <c r="AA39" s="15">
         <v>-12</v>
       </c>
@@ -3517,8 +3541,8 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
@@ -3528,7 +3552,7 @@
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
-      <c r="Z40" s="66"/>
+      <c r="Z40" s="64"/>
       <c r="AA40" s="15">
         <v>-14</v>
       </c>
@@ -3567,8 +3591,8 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
@@ -3578,7 +3602,7 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="66"/>
+      <c r="Z41" s="64"/>
       <c r="AA41" s="15">
         <v>-16</v>
       </c>
@@ -3617,8 +3641,8 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
@@ -3628,7 +3652,7 @@
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="66"/>
+      <c r="Z42" s="64"/>
       <c r="AA42" s="15">
         <v>-18</v>
       </c>
@@ -3667,8 +3691,8 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
@@ -3703,8 +3727,8 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
@@ -3716,14 +3740,14 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="64" t="s">
+      <c r="AB44" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="64"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="64"/>
-      <c r="AG44" s="64"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
       <c r="AH44" s="12"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -3741,8 +3765,8 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
@@ -3838,7 +3862,7 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="Z47" s="66" t="s">
+      <c r="Z47" s="64" t="s">
         <v>21</v>
       </c>
       <c r="AA47" s="15">
@@ -3890,7 +3914,7 @@
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
-      <c r="Z48" s="66"/>
+      <c r="Z48" s="64"/>
       <c r="AA48" s="15">
         <v>-10</v>
       </c>
@@ -3940,7 +3964,7 @@
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
-      <c r="Z49" s="66"/>
+      <c r="Z49" s="64"/>
       <c r="AA49" s="15">
         <v>-12</v>
       </c>
@@ -3990,7 +4014,7 @@
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
-      <c r="Z50" s="66"/>
+      <c r="Z50" s="64"/>
       <c r="AA50" s="15">
         <v>-14</v>
       </c>
@@ -4040,7 +4064,7 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="66"/>
+      <c r="Z51" s="64"/>
       <c r="AA51" s="15">
         <v>-16</v>
       </c>
@@ -4090,7 +4114,7 @@
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
-      <c r="Z52" s="66"/>
+      <c r="Z52" s="64"/>
       <c r="AA52" s="15">
         <v>-18</v>
       </c>
@@ -4379,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4460,7 +4484,7 @@
         <v>24</v>
       </c>
       <c r="H14">
-        <v>15.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
@@ -4513,7 +4537,7 @@
       </c>
       <c r="H19" s="5">
         <f>SUM(H11:H18)</f>
-        <v>21.2</v>
+        <v>29.6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -18,6 +18,7 @@
     <sheet name="power_budget" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -176,36 +177,9 @@
     <t>output power (dBm)</t>
   </si>
   <si>
-    <t>amp3 (dB)</t>
-  </si>
-  <si>
-    <t>amp2 (dB)</t>
-  </si>
-  <si>
-    <t>saw2 (dB)</t>
-  </si>
-  <si>
-    <t>amp1 (dB)</t>
-  </si>
-  <si>
-    <t>saw1 (dB)</t>
-  </si>
-  <si>
-    <t>mixer (dB)</t>
-  </si>
-  <si>
     <t>DAC out / mixer in (dBm)</t>
   </si>
   <si>
-    <t>GVA-84+</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>proposed</t>
-  </si>
-  <si>
     <t>Supply</t>
   </si>
   <si>
@@ -249,6 +223,45 @@
   </si>
   <si>
     <t>things that you can program</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>chebychev filter</t>
+  </si>
+  <si>
+    <t>mixer filter</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>amp output</t>
+  </si>
+  <si>
+    <t>mixer (dB), MAX2031</t>
+  </si>
+  <si>
+    <t>amp1 (dB), GVA-85+</t>
+  </si>
+  <si>
+    <t>amp2 (dB), ALM-31122</t>
+  </si>
+  <si>
+    <t>saw1 (dB), SF2098H</t>
+  </si>
+  <si>
+    <t>saw2 (dB), SF2098H</t>
+  </si>
+  <si>
+    <t>dB, estimated</t>
+  </si>
+  <si>
+    <t>transformer</t>
   </si>
 </sst>
 </file>
@@ -260,7 +273,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +333,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -346,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -573,12 +600,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -586,14 +622,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -678,6 +709,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1289,729 +1330,729 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <v>39000000</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="13" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="20" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="13" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
     </row>
     <row r="7" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="23">
+      <c r="D7" s="9"/>
+      <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <f>10^(E7/10)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f>10^(G7/10)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="26">
+      <c r="I7" s="9"/>
+      <c r="J7" s="23">
         <f>H7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <f t="shared" ref="K7:K22" si="0">10*LOG10(J7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27">
+      <c r="L7" s="23"/>
+      <c r="M7" s="24">
         <v>0</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <f>F7</f>
         <v>1</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25">
         <f>Q8-E7</f>
         <v>-42.55</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="26">
         <f>10^((Q7-30)/10)*1000000</f>
         <v>5.5590425727040267E-2</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
     </row>
     <row r="8" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="30">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f>10^(E8/10)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="29">
         <f>ABS(E8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="30">
         <f t="shared" ref="H8:H22" si="1">10^(G8/10)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="34">
+      <c r="I8" s="9"/>
+      <c r="J8" s="31">
         <f>J7+((H8-1)/N7)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="12">
+      <c r="L8" s="31"/>
+      <c r="M8" s="9">
         <f>E8+M7</f>
         <v>0</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="31">
         <f>N7*F8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="34">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="31">
         <f t="shared" ref="Q8:Q18" si="2">Q9-E8</f>
         <v>-42.55</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="32">
         <f t="shared" ref="R8:R22" si="3">10^((Q8-30)/10)*1000000</f>
         <v>5.5590425727040267E-2</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="36">
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="33">
         <f>K8-K7</f>
         <v>0</v>
       </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="30">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="27">
         <v>-0.1</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="34">
         <f t="shared" ref="F9:F22" si="4">10^(E9/10)</f>
         <v>0.97723722095581067</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="29">
         <f>ABS(E9)</f>
         <v>0.1</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="30">
         <f t="shared" si="1"/>
         <v>1.0232929922807541</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="34">
+      <c r="I9" s="9"/>
+      <c r="J9" s="31">
         <f>J8+((H9-1)/N8)</f>
         <v>1.0232929922807541</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="31">
         <f t="shared" si="0"/>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="12">
+      <c r="L9" s="31"/>
+      <c r="M9" s="9">
         <f>E9+M8</f>
         <v>-0.1</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="31">
         <f>N8*F9</f>
         <v>0.97723722095581067</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="34">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="31">
         <f t="shared" si="2"/>
         <v>-42.55</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="32">
         <f t="shared" si="3"/>
         <v>5.5590425727040267E-2</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="36">
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="33">
         <f>K9-K8</f>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
     </row>
     <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="30">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="27">
         <v>-0.25</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="34">
         <f t="shared" si="4"/>
         <v>0.94406087628592339</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="29">
         <f>ABS(E10)</f>
         <v>0.25</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>1.0592537251772889</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="34">
+      <c r="I10" s="9"/>
+      <c r="J10" s="31">
         <f t="shared" ref="J10:J19" si="5">J9+((H10-1)/N9)</f>
         <v>1.0839269140212036</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="31">
         <f t="shared" si="0"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="12">
+      <c r="L10" s="31"/>
+      <c r="M10" s="9">
         <f t="shared" ref="M10:M16" si="6">E10+M9</f>
         <v>-0.35</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="31">
         <f t="shared" ref="N10:N19" si="7">N9*F10</f>
         <v>0.92257142715476315</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="34">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="31">
         <f t="shared" si="2"/>
         <v>-42.65</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="32">
         <f t="shared" si="3"/>
         <v>5.4325033149243231E-2</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="36">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="33">
         <f t="shared" ref="V10:V22" si="8">K10-K9</f>
         <v>0.25000000000000022</v>
       </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
     </row>
     <row r="11" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="30">
+      <c r="D11" s="12"/>
+      <c r="E11" s="27">
         <v>18.399999999999999</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="34">
         <f t="shared" si="4"/>
         <v>69.183097091893657</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="29">
         <v>0.27</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>1.0641430182243161</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="34">
+      <c r="I11" s="9"/>
+      <c r="J11" s="31">
         <f t="shared" si="5"/>
         <v>1.1534532578210923</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="31">
         <f t="shared" si="0"/>
         <v>0.62000000000000033</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="12">
+      <c r="L11" s="31"/>
+      <c r="M11" s="9">
         <f t="shared" si="6"/>
         <v>18.049999999999997</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="31">
         <f t="shared" si="7"/>
         <v>63.826348619054876</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <v>2.4</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="9">
         <v>-27.4</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="36">
         <f>Q12-E11</f>
         <v>-42.9</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="32">
         <f t="shared" si="3"/>
         <v>5.1286138399136226E-2</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12">
+      <c r="S11" s="9"/>
+      <c r="T11" s="9">
         <v>19.100000000000001</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="9">
         <f>Q11 - (T11-Q11)*3</f>
         <v>-228.9</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="33">
         <f t="shared" si="8"/>
         <v>0.27000000000000024</v>
       </c>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
     </row>
     <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="30">
+      <c r="D12" s="12"/>
+      <c r="E12" s="27">
         <v>-2</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="34">
         <f t="shared" ref="F12" si="9">10^(E12/10)</f>
         <v>0.63095734448019325</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="29">
         <f>ABS(E12)</f>
         <v>2</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="30">
         <f t="shared" ref="H12" si="10">10^(G12/10)</f>
         <v>1.5848931924611136</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="34">
+      <c r="I12" s="9"/>
+      <c r="J12" s="31">
         <f t="shared" ref="J12" si="11">J11+((H12-1)/N11)</f>
         <v>1.1626170781729666</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="31">
         <f t="shared" si="0"/>
         <v>0.65436698202172783</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="12">
+      <c r="L12" s="31"/>
+      <c r="M12" s="9">
         <f t="shared" ref="M12" si="12">E12+M11</f>
         <v>16.049999999999997</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="31">
         <f t="shared" ref="N12" si="13">N11*F12</f>
         <v>40.271703432545912</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="34">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="31">
         <f t="shared" ref="Q12" si="14">Q13-E12</f>
         <v>-24.5</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="32">
         <f t="shared" ref="R12" si="15">10^((Q12-30)/10)*1000000</f>
         <v>3.5481338923357506</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="36">
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="33">
         <f t="shared" si="8"/>
         <v>3.4366982021727499E-2</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
     </row>
     <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1">
         <v>-1.5</v>
       </c>
@@ -2019,523 +2060,523 @@
         <f t="shared" si="4"/>
         <v>0.70794578438413791</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="29">
         <f>ABS(E13)</f>
         <v>1.5</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>1.4125375446227544</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="34">
+      <c r="I13" s="9"/>
+      <c r="J13" s="31">
         <f>J12+((H13-1)/N12)</f>
         <v>1.1728609345152676</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="31">
         <f t="shared" si="0"/>
         <v>0.69246521106983427</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="12">
+      <c r="L13" s="31"/>
+      <c r="M13" s="9">
         <f>E13+M12</f>
         <v>14.549999999999997</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="31">
         <f>N12*F13</f>
         <v>28.510182675039093</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="34">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="31">
         <f t="shared" si="2"/>
         <v>-26.5</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="32">
         <f t="shared" si="3"/>
         <v>2.2387211385683328</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="36">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="33">
         <f>K13-K12</f>
         <v>3.8098229048106447E-2</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
     </row>
     <row r="14" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="2">
         <v>14</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="34">
         <f t="shared" si="4"/>
         <v>25.118864315095799</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="29">
         <v>1.4</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>1.3803842646028848</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="34">
+      <c r="I14" s="9"/>
+      <c r="J14" s="31">
         <f t="shared" si="5"/>
         <v>1.1862029838784207</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="31">
         <f t="shared" si="0"/>
         <v>0.74159012160899551</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="12">
+      <c r="L14" s="31"/>
+      <c r="M14" s="9">
         <f t="shared" si="6"/>
         <v>28.549999999999997</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="31">
         <f t="shared" si="7"/>
         <v>716.14341021290193</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="9">
         <v>21</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="39">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="36">
         <f t="shared" si="2"/>
         <v>-28</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="32">
         <f t="shared" si="3"/>
         <v>1.5848931924611112</v>
       </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9">
         <v>21</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="9">
         <f>Q14 - (T14-Q14)*3</f>
         <v>-175</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="33">
         <f t="shared" si="8"/>
         <v>4.9124910539161237E-2</v>
       </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
     </row>
     <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="30">
+      <c r="D15" s="9"/>
+      <c r="E15" s="27">
         <v>-2</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="34">
         <f t="shared" si="4"/>
         <v>0.63095734448019325</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="29">
         <f>ABS(E15)</f>
         <v>2</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="30">
         <f t="shared" si="1"/>
         <v>1.5848931924611136</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="34">
+      <c r="I15" s="9"/>
+      <c r="J15" s="31">
         <f t="shared" si="5"/>
         <v>1.1870197102269704</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="31">
         <f t="shared" si="0"/>
         <v>0.74457930388239912</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="12">
+      <c r="L15" s="31"/>
+      <c r="M15" s="9">
         <f t="shared" si="6"/>
         <v>26.549999999999997</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="31">
         <f t="shared" si="7"/>
         <v>451.85594437492233</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="34">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="31">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="32">
         <f t="shared" si="3"/>
         <v>39.810717055349635</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="36">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="33">
         <f t="shared" si="8"/>
         <v>2.9891822734036122E-3</v>
       </c>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
     </row>
     <row r="16" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40">
         <v>-7</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="41">
         <f t="shared" si="4"/>
         <v>0.19952623149688795</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="42">
         <v>7</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="43">
         <f t="shared" si="1"/>
         <v>5.0118723362727229</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="44">
+      <c r="I16" s="39"/>
+      <c r="J16" s="41">
         <f t="shared" si="5"/>
         <v>1.1958983636699887</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="41">
         <f t="shared" si="0"/>
         <v>0.77694271648288016</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="42">
+      <c r="L16" s="41"/>
+      <c r="M16" s="39">
         <f t="shared" si="6"/>
         <v>19.549999999999997</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="41">
         <f t="shared" si="7"/>
         <v>90.157113760595678</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="39">
         <v>0</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="39">
         <v>-10</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="36">
         <f t="shared" si="2"/>
         <v>-16</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="44">
         <f t="shared" si="3"/>
         <v>25.118864315095792</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42">
+      <c r="S16" s="39"/>
+      <c r="T16" s="39">
         <v>36</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="39">
         <f>Q16 - (T16-Q16)*3</f>
         <v>-172</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="45">
         <f t="shared" si="8"/>
         <v>3.2363412600481034E-2</v>
       </c>
-      <c r="W16" s="49" t="s">
+      <c r="W16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="30">
+      <c r="D17" s="9"/>
+      <c r="E17" s="27">
         <v>-1.4</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="34">
         <f t="shared" si="4"/>
         <v>0.72443596007499012</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="29">
         <f>ABS(E17)</f>
         <v>1.4</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="30">
         <f t="shared" si="1"/>
         <v>1.3803842646028848</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="34">
+      <c r="I17" s="9"/>
+      <c r="J17" s="31">
         <f t="shared" si="5"/>
         <v>1.2001174901341849</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="31">
         <f t="shared" si="0"/>
         <v>0.79223765063635554</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="12">
+      <c r="L17" s="31"/>
+      <c r="M17" s="9">
         <f t="shared" ref="M17:M19" si="16">E17+M16</f>
         <v>18.149999999999999</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="31">
         <f t="shared" si="7"/>
         <v>65.313055264747234</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="34">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="31">
         <f t="shared" si="2"/>
         <v>-23</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="32">
         <f t="shared" si="3"/>
         <v>5.0118723362727193</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="36">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="33">
         <f t="shared" si="8"/>
         <v>1.5294934153475381E-2</v>
       </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
     </row>
     <row r="18" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49">
         <v>16</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="34">
         <f t="shared" si="4"/>
         <v>39.810717055349755</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="29">
         <v>7</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="30">
         <f t="shared" si="1"/>
         <v>5.0118723362727229</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="34">
+      <c r="I18" s="9"/>
+      <c r="J18" s="31">
         <f t="shared" si="5"/>
         <v>1.2615427644535464</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="31">
         <f t="shared" si="0"/>
         <v>1.0090197705050601</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="12">
+      <c r="L18" s="31"/>
+      <c r="M18" s="9">
         <f t="shared" si="16"/>
         <v>34.15</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="31">
         <f t="shared" si="7"/>
         <v>2600.159563165274</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="9">
         <v>-6</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="9">
         <v>-7</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="36">
         <f t="shared" si="2"/>
         <v>-24.4</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="32">
         <f t="shared" si="3"/>
         <v>3.6307805477010153</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="36">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="33">
         <f t="shared" si="8"/>
         <v>0.21678211986870455</v>
       </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="30">
+      <c r="D19" s="9"/>
+      <c r="E19" s="27">
         <f>-0.5-6.3-0.8</f>
         <v>-7.6</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="34">
         <f t="shared" si="4"/>
         <v>0.17378008287493749</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="29">
         <f>ABS(E19)</f>
         <v>7.6</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="30">
         <f t="shared" si="1"/>
         <v>5.7543993733715713</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="34">
+      <c r="I19" s="9"/>
+      <c r="J19" s="31">
         <f t="shared" si="5"/>
         <v>1.2633712673811066</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="31">
         <f t="shared" si="0"/>
         <v>1.0153099559164653</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="12">
+      <c r="L19" s="31"/>
+      <c r="M19" s="9">
         <f t="shared" si="16"/>
         <v>26.549999999999997</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="31">
         <f t="shared" si="7"/>
         <v>451.85594437492256</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="34">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="31">
         <f>Q20-E19</f>
         <v>-8.4</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="32">
         <f t="shared" si="3"/>
         <v>144.54397707459268</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="36">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="33">
         <f t="shared" si="8"/>
         <v>6.2901854114052469E-3</v>
       </c>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1">
         <v>0</v>
       </c>
@@ -2543,69 +2584,69 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="29">
         <f>ABS(E20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="34">
+      <c r="I20" s="9"/>
+      <c r="J20" s="31">
         <f t="shared" ref="J20:J22" si="17">J19+((H20-1)/N19)</f>
         <v>1.2633712673811066</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="31">
         <f t="shared" si="0"/>
         <v>1.0153099559164653</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="12">
+      <c r="L20" s="31"/>
+      <c r="M20" s="9">
         <f t="shared" ref="M20:M22" si="18">E20+M19</f>
         <v>26.549999999999997</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="31">
         <f t="shared" ref="N20:N22" si="19">N19*F20</f>
         <v>451.85594437492256</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="34">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="31">
         <f t="shared" ref="Q20:Q21" si="20">Q21-E20</f>
         <v>-16</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="32">
         <f t="shared" si="3"/>
         <v>25.118864315095792</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="36">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
     </row>
     <row r="21" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2">
         <v>26</v>
       </c>
@@ -2613,1566 +2654,1566 @@
         <f t="shared" si="4"/>
         <v>398.10717055349761</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="29">
         <v>8</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="30">
         <f t="shared" si="1"/>
         <v>6.3095734448019343</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="34">
+      <c r="I21" s="9"/>
+      <c r="J21" s="31">
         <f t="shared" si="17"/>
         <v>1.2751218562820603</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="34">
         <f t="shared" si="0"/>
         <v>1.0555168985397141</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="12">
+      <c r="L21" s="31"/>
+      <c r="M21" s="9">
         <f t="shared" si="18"/>
         <v>52.55</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="31">
         <f t="shared" si="19"/>
         <v>179887.09151287904</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="9">
         <v>-16</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="9">
         <v>-17</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="36">
         <f t="shared" si="20"/>
         <v>-16</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="32">
         <f t="shared" si="3"/>
         <v>25.118864315095792</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="36">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="33">
         <f t="shared" si="8"/>
         <v>4.0206942623248754E-2</v>
       </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
     </row>
     <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="30">
+      <c r="D22" s="9"/>
+      <c r="E22" s="27">
         <v>0</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="29">
         <v>27</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="30">
         <f t="shared" si="1"/>
         <v>501.18723362727269</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="37">
+      <c r="I22" s="9"/>
+      <c r="J22" s="34">
         <f t="shared" si="17"/>
         <v>1.2779024184081174</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="51">
         <f t="shared" si="0"/>
         <v>1.0649769203450923</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="12">
+      <c r="L22" s="31"/>
+      <c r="M22" s="9">
         <f t="shared" si="18"/>
         <v>52.55</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="31">
         <f t="shared" si="19"/>
         <v>179887.09151287904</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="9">
         <v>10</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="9">
         <v>9</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="8">
         <v>10</v>
       </c>
-      <c r="R22" s="55">
+      <c r="R22" s="52">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="36">
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="33">
         <f t="shared" si="8"/>
         <v>9.4600218053781937E-3</v>
       </c>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="66" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="12"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="9"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="65" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="12"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="9"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9">
         <v>0</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AC26" s="9">
         <v>-2</v>
       </c>
-      <c r="AD26" s="15">
+      <c r="AD26" s="12">
         <v>-4</v>
       </c>
-      <c r="AE26" s="15">
+      <c r="AE26" s="12">
         <v>-6</v>
       </c>
-      <c r="AF26" s="15">
+      <c r="AF26" s="12">
         <v>-8</v>
       </c>
-      <c r="AG26" s="15">
+      <c r="AG26" s="12">
         <v>-10</v>
       </c>
-      <c r="AH26" s="12"/>
+      <c r="AH26" s="9"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="64" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AA27" s="15">
+      <c r="AA27" s="12">
         <v>-8</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB27" s="9">
         <v>3.7</v>
       </c>
-      <c r="AC27" s="12">
+      <c r="AC27" s="9">
         <v>3.8</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AD27" s="9">
         <v>3.8</v>
       </c>
-      <c r="AE27" s="12">
+      <c r="AE27" s="9">
         <v>4</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="9">
         <v>4.2</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AG27" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH27" s="12"/>
+      <c r="AH27" s="9"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="12">
         <v>-10</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AB28" s="9">
         <v>4.3</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AD28" s="15">
+      <c r="AD28" s="12">
         <v>4.5</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AE28" s="9">
         <v>4.7</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AF28" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AG28" s="9">
         <v>5.3</v>
       </c>
-      <c r="AH28" s="12"/>
+      <c r="AH28" s="9"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="12">
         <v>-12</v>
       </c>
-      <c r="AB29" s="12">
+      <c r="AB29" s="9">
         <v>5.2</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AC29" s="9">
         <v>5.3</v>
       </c>
-      <c r="AD29" s="12">
+      <c r="AD29" s="9">
         <v>5.4</v>
       </c>
-      <c r="AE29" s="12">
+      <c r="AE29" s="9">
         <v>5.6</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="AF29" s="9">
         <v>5.9</v>
       </c>
-      <c r="AG29" s="12">
+      <c r="AG29" s="9">
         <v>6.4</v>
       </c>
-      <c r="AH29" s="12"/>
+      <c r="AH29" s="9"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="12">
         <v>-14</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="9">
         <v>6.2</v>
       </c>
-      <c r="AC30" s="12">
+      <c r="AC30" s="9">
         <v>6.3</v>
       </c>
-      <c r="AD30" s="12">
+      <c r="AD30" s="9">
         <v>6.5</v>
       </c>
-      <c r="AE30" s="12">
+      <c r="AE30" s="9">
         <v>6.8</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="9">
         <v>7.1</v>
       </c>
-      <c r="AG30" s="12">
+      <c r="AG30" s="9">
         <v>7.7</v>
       </c>
-      <c r="AH30" s="12"/>
+      <c r="AH30" s="9"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="12">
         <v>-16</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AB31" s="9">
         <v>7.5</v>
       </c>
-      <c r="AC31" s="12">
+      <c r="AC31" s="9">
         <v>7.6</v>
       </c>
-      <c r="AD31" s="12">
+      <c r="AD31" s="9">
         <v>7.8</v>
       </c>
-      <c r="AE31" s="12">
+      <c r="AE31" s="9">
         <v>8.1</v>
       </c>
-      <c r="AF31" s="12">
+      <c r="AF31" s="9">
         <v>8.5</v>
       </c>
-      <c r="AG31" s="12">
+      <c r="AG31" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AH31" s="12"/>
+      <c r="AH31" s="9"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="12">
         <v>-18</v>
       </c>
-      <c r="AB32" s="12">
+      <c r="AB32" s="9">
         <v>9</v>
       </c>
-      <c r="AC32" s="12">
+      <c r="AC32" s="9">
         <v>9.1</v>
       </c>
-      <c r="AD32" s="12">
+      <c r="AD32" s="9">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AE32" s="12">
+      <c r="AE32" s="9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AF32" s="9">
         <v>10.1</v>
       </c>
-      <c r="AG32" s="12">
+      <c r="AG32" s="9">
         <v>10.8</v>
       </c>
-      <c r="AH32" s="12"/>
+      <c r="AH32" s="9"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="66" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="12"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="9"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="65" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="12"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="9"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9">
         <v>0</v>
       </c>
-      <c r="AC36" s="12">
+      <c r="AC36" s="9">
         <v>-2</v>
       </c>
-      <c r="AD36" s="15">
+      <c r="AD36" s="12">
         <v>-4</v>
       </c>
-      <c r="AE36" s="15">
+      <c r="AE36" s="12">
         <v>-6</v>
       </c>
-      <c r="AF36" s="15">
+      <c r="AF36" s="12">
         <v>-8</v>
       </c>
-      <c r="AG36" s="15">
+      <c r="AG36" s="12">
         <v>-10</v>
       </c>
-      <c r="AH36" s="12"/>
+      <c r="AH36" s="9"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="64" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AA37" s="15">
+      <c r="AA37" s="12">
         <v>-8</v>
       </c>
-      <c r="AB37" s="12">
+      <c r="AB37" s="9">
         <v>-10.6</v>
       </c>
-      <c r="AC37" s="12">
+      <c r="AC37" s="9">
         <v>-8.6</v>
       </c>
-      <c r="AD37" s="12">
+      <c r="AD37" s="9">
         <v>-6.6</v>
       </c>
-      <c r="AE37" s="12">
+      <c r="AE37" s="9">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AF37" s="9">
         <v>-2.6</v>
       </c>
-      <c r="AG37" s="12">
+      <c r="AG37" s="9">
         <v>-0.6</v>
       </c>
-      <c r="AH37" s="12"/>
+      <c r="AH37" s="9"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="12">
         <v>-10</v>
       </c>
-      <c r="AB38" s="12">
+      <c r="AB38" s="9">
         <v>-10.6</v>
       </c>
-      <c r="AC38" s="12">
+      <c r="AC38" s="9">
         <v>-8.6</v>
       </c>
-      <c r="AD38" s="15">
+      <c r="AD38" s="12">
         <v>-6.6</v>
       </c>
-      <c r="AE38" s="12">
+      <c r="AE38" s="9">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AF38" s="9">
         <v>-2.6</v>
       </c>
-      <c r="AG38" s="12">
+      <c r="AG38" s="9">
         <v>-0.6</v>
       </c>
-      <c r="AH38" s="12"/>
+      <c r="AH38" s="9"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="12">
         <v>-12</v>
       </c>
-      <c r="AB39" s="12">
+      <c r="AB39" s="9">
         <v>-10.6</v>
       </c>
-      <c r="AC39" s="12">
+      <c r="AC39" s="9">
         <v>-8.6</v>
       </c>
-      <c r="AD39" s="12">
+      <c r="AD39" s="9">
         <v>-6.6</v>
       </c>
-      <c r="AE39" s="12">
+      <c r="AE39" s="9">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AF39" s="12">
+      <c r="AF39" s="9">
         <v>-2.6</v>
       </c>
-      <c r="AG39" s="12">
+      <c r="AG39" s="9">
         <v>-0.6</v>
       </c>
-      <c r="AH39" s="12"/>
+      <c r="AH39" s="9"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="12">
         <v>-14</v>
       </c>
-      <c r="AB40" s="12">
+      <c r="AB40" s="9">
         <v>-10.6</v>
       </c>
-      <c r="AC40" s="12">
+      <c r="AC40" s="9">
         <v>-8.6</v>
       </c>
-      <c r="AD40" s="12">
+      <c r="AD40" s="9">
         <v>-6.6</v>
       </c>
-      <c r="AE40" s="12">
+      <c r="AE40" s="9">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AF40" s="9">
         <v>-2.6</v>
       </c>
-      <c r="AG40" s="12">
+      <c r="AG40" s="9">
         <v>-0.6</v>
       </c>
-      <c r="AH40" s="12"/>
+      <c r="AH40" s="9"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="64"/>
-      <c r="AA41" s="15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="12">
         <v>-16</v>
       </c>
-      <c r="AB41" s="12">
+      <c r="AB41" s="9">
         <v>-10.6</v>
       </c>
-      <c r="AC41" s="12">
+      <c r="AC41" s="9">
         <v>-8.6</v>
       </c>
-      <c r="AD41" s="12">
+      <c r="AD41" s="9">
         <v>-6.6</v>
       </c>
-      <c r="AE41" s="12">
+      <c r="AE41" s="9">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AF41" s="9">
         <v>-2.6</v>
       </c>
-      <c r="AG41" s="12">
+      <c r="AG41" s="9">
         <v>-0.6</v>
       </c>
-      <c r="AH41" s="12"/>
+      <c r="AH41" s="9"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="12">
         <v>-18</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="9">
         <v>-10.6</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="9">
         <v>-8.6</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="9">
         <v>-6.6</v>
       </c>
-      <c r="AE42" s="12">
+      <c r="AE42" s="9">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="9">
         <v>-2.6</v>
       </c>
-      <c r="AG42" s="12">
+      <c r="AG42" s="9">
         <v>-0.6</v>
       </c>
-      <c r="AH42" s="12"/>
+      <c r="AH42" s="9"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="66" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="12"/>
+      <c r="AC44" s="63"/>
+      <c r="AD44" s="63"/>
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="9"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="65" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="12"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="9"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9">
         <v>0</v>
       </c>
-      <c r="AC46" s="12">
+      <c r="AC46" s="9">
         <v>-2</v>
       </c>
-      <c r="AD46" s="15">
+      <c r="AD46" s="12">
         <v>-4</v>
       </c>
-      <c r="AE46" s="15">
+      <c r="AE46" s="12">
         <v>-6</v>
       </c>
-      <c r="AF46" s="15">
+      <c r="AF46" s="12">
         <v>-8</v>
       </c>
-      <c r="AG46" s="15">
+      <c r="AG46" s="12">
         <v>-10</v>
       </c>
-      <c r="AH46" s="12"/>
+      <c r="AH46" s="9"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="64" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AA47" s="15">
+      <c r="AA47" s="12">
         <v>-8</v>
       </c>
-      <c r="AB47" s="12">
+      <c r="AB47" s="9">
         <v>-30.8</v>
       </c>
-      <c r="AC47" s="12">
+      <c r="AC47" s="9">
         <v>-28.8</v>
       </c>
-      <c r="AD47" s="12">
+      <c r="AD47" s="9">
         <v>-26.8</v>
       </c>
-      <c r="AE47" s="12">
+      <c r="AE47" s="9">
         <v>-24.8</v>
       </c>
-      <c r="AF47" s="12">
+      <c r="AF47" s="9">
         <v>-22.8</v>
       </c>
-      <c r="AG47" s="12">
+      <c r="AG47" s="9">
         <v>-20.8</v>
       </c>
-      <c r="AH47" s="12"/>
+      <c r="AH47" s="9"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="64"/>
-      <c r="AA48" s="15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="12">
         <v>-10</v>
       </c>
-      <c r="AB48" s="12">
+      <c r="AB48" s="9">
         <v>-28.8</v>
       </c>
-      <c r="AC48" s="12">
+      <c r="AC48" s="9">
         <v>-26.8</v>
       </c>
-      <c r="AD48" s="15">
+      <c r="AD48" s="12">
         <v>-24.8</v>
       </c>
-      <c r="AE48" s="12">
+      <c r="AE48" s="9">
         <v>-22.8</v>
       </c>
-      <c r="AF48" s="12">
+      <c r="AF48" s="9">
         <v>-20.8</v>
       </c>
-      <c r="AG48" s="12">
+      <c r="AG48" s="9">
         <v>-18.8</v>
       </c>
-      <c r="AH48" s="12"/>
+      <c r="AH48" s="9"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="64"/>
-      <c r="AA49" s="15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="12">
         <v>-12</v>
       </c>
-      <c r="AB49" s="12">
+      <c r="AB49" s="9">
         <v>-26.8</v>
       </c>
-      <c r="AC49" s="12">
+      <c r="AC49" s="9">
         <v>-24.8</v>
       </c>
-      <c r="AD49" s="12">
+      <c r="AD49" s="9">
         <v>-22.8</v>
       </c>
-      <c r="AE49" s="12">
+      <c r="AE49" s="9">
         <v>-20.8</v>
       </c>
-      <c r="AF49" s="12">
+      <c r="AF49" s="9">
         <v>-18.8</v>
       </c>
-      <c r="AG49" s="12">
+      <c r="AG49" s="9">
         <v>-16.8</v>
       </c>
-      <c r="AH49" s="12"/>
+      <c r="AH49" s="9"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="12">
         <v>-14</v>
       </c>
-      <c r="AB50" s="12">
+      <c r="AB50" s="9">
         <v>-24.8</v>
       </c>
-      <c r="AC50" s="12">
+      <c r="AC50" s="9">
         <v>-22.8</v>
       </c>
-      <c r="AD50" s="12">
+      <c r="AD50" s="9">
         <v>-20.8</v>
       </c>
-      <c r="AE50" s="12">
+      <c r="AE50" s="9">
         <v>-18.8</v>
       </c>
-      <c r="AF50" s="12">
+      <c r="AF50" s="9">
         <v>-16.8</v>
       </c>
-      <c r="AG50" s="12">
+      <c r="AG50" s="9">
         <v>-14.8</v>
       </c>
-      <c r="AH50" s="12"/>
+      <c r="AH50" s="9"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="12">
         <v>-16</v>
       </c>
-      <c r="AB51" s="12">
+      <c r="AB51" s="9">
         <v>-22.8</v>
       </c>
-      <c r="AC51" s="12">
+      <c r="AC51" s="9">
         <v>-20.8</v>
       </c>
-      <c r="AD51" s="12">
+      <c r="AD51" s="9">
         <v>-18.8</v>
       </c>
-      <c r="AE51" s="12">
+      <c r="AE51" s="9">
         <v>-16.8</v>
       </c>
-      <c r="AF51" s="12">
+      <c r="AF51" s="9">
         <v>-14.8</v>
       </c>
-      <c r="AG51" s="12">
+      <c r="AG51" s="9">
         <v>-12.8</v>
       </c>
-      <c r="AH51" s="12"/>
+      <c r="AH51" s="9"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="12">
         <v>-18</v>
       </c>
-      <c r="AB52" s="12">
+      <c r="AB52" s="9">
         <v>-20.8</v>
       </c>
-      <c r="AC52" s="12">
+      <c r="AC52" s="9">
         <v>-18.8</v>
       </c>
-      <c r="AD52" s="12">
+      <c r="AD52" s="9">
         <v>-16.8</v>
       </c>
-      <c r="AE52" s="12">
+      <c r="AE52" s="9">
         <v>-14.8</v>
       </c>
-      <c r="AF52" s="12">
+      <c r="AF52" s="9">
         <v>-12.8</v>
       </c>
-      <c r="AG52" s="12">
+      <c r="AG52" s="9">
         <v>-10.8</v>
       </c>
-      <c r="AH52" s="12"/>
+      <c r="AH52" s="9"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4360,30 +4401,30 @@
   <sheetData>
     <row r="9" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <f>4.98*0.98</f>
@@ -4401,143 +4442,219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:I19"/>
+  <dimension ref="E9:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="3" t="s">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="67">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="73">
+        <v>-1.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="73">
+        <v>-0.35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="68">
+        <v>-7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="68">
+        <v>-0.4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="69">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="69">
+        <v>-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="69">
+        <v>15.6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="71">
+        <f>SUM(F11:F18)</f>
+        <v>29.35</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="69"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="69">
+        <v>-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-7</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-7</v>
-      </c>
-      <c r="H12" s="6">
-        <v>-7</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13">
-        <v>-2</v>
-      </c>
-      <c r="G13">
-        <v>-2</v>
-      </c>
-      <c r="H13">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14">
-        <v>15.6</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>-2</v>
-      </c>
-      <c r="G15">
-        <v>-2</v>
-      </c>
-      <c r="H15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>15.6</v>
-      </c>
-      <c r="G16">
-        <v>15.6</v>
-      </c>
-      <c r="H16">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="F23" s="69">
+        <v>0.27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="70"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="5">
-        <f>SUM(F11:F18)</f>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G19" s="5">
-        <f>SUM(G11:G18)</f>
-        <v>29.6</v>
-      </c>
-      <c r="H19" s="5">
-        <f>SUM(H11:H18)</f>
-        <v>29.6</v>
+      <c r="F25" s="71">
+        <f>SUM(F20:F24)</f>
+        <v>27.62</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="69"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="69">
+        <v>-0.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="72"/>
+    </row>
+    <row r="29" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="69">
+        <f>F25+F27</f>
+        <v>27.12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="69">
+        <f>-5.53+30</f>
+        <v>24.47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="65">
+        <f>F29-F30</f>
+        <v>2.6500000000000021</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>transformer</t>
+  </si>
+  <si>
+    <t>meas</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -4442,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:G32"/>
+  <dimension ref="E9:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,15 +4462,30 @@
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
@@ -4471,8 +4495,20 @@
       <c r="G11" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="68">
+        <f>F11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="K11">
+        <f>-32.9+30+3</f>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E12" s="5" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4518,20 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="69">
+        <f>H11+F12</f>
+        <v>-0.5</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="69">
+        <f>K11+F12</f>
+        <v>-1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
@@ -4493,8 +4541,20 @@
       <c r="G13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="69">
+        <f t="shared" ref="H13:H19" si="0">H12+F13</f>
+        <v>-0.85</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="69">
+        <f>M12+F13</f>
+        <v>-1.7499999999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E14" s="5" t="s">
         <v>71</v>
       </c>
@@ -4504,8 +4564,24 @@
       <c r="G14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="69">
+        <f t="shared" si="0"/>
+        <v>-7.85</v>
+      </c>
+      <c r="K14" s="68">
+        <f>-38.3+30</f>
+        <v>-8.2999999999999972</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="69">
+        <f>M13+F14</f>
+        <v>-8.7499999999999982</v>
+      </c>
+      <c r="N14" s="69"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15" s="64" t="s">
         <v>67</v>
       </c>
@@ -4515,99 +4591,189 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="69">
-        <v>24</v>
+      <c r="H15" s="69">
+        <f t="shared" si="0"/>
+        <v>-8.25</v>
+      </c>
+      <c r="K15" s="68"/>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="69">
+        <f>K14+F15</f>
+        <v>-8.6999999999999975</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="68">
+        <v>-2</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="69">
+        <f t="shared" si="0"/>
+        <v>-10.25</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="69">
+        <f>N15+F16</f>
+        <v>-10.699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="69">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="69">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="69">
+        <f>N16+F17</f>
+        <v>13.300000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="69">
-        <v>15.6</v>
+        <v>-2</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="66" t="s">
+      <c r="H18" s="69">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="69">
+        <f>N17+F18</f>
+        <v>11.300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="69">
+        <v>15.6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="69">
+        <f t="shared" si="0"/>
+        <v>27.35</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="69">
+        <f>N18+F19</f>
+        <v>26.900000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="70"/>
+      <c r="K20" s="70"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="71">
-        <f>SUM(F11:F18)</f>
-        <v>29.35</v>
-      </c>
-      <c r="G20" s="66" t="s">
+      <c r="F21" s="71">
+        <f>SUM(F11:F19)</f>
+        <v>27.35</v>
+      </c>
+      <c r="G21" s="66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="69"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="69">
-        <v>-2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="69"/>
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="69">
-        <v>0.27</v>
+        <v>-0.27</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="69">
+        <f>H19+F23</f>
+        <v>27.080000000000002</v>
+      </c>
+      <c r="K23" s="69">
+        <v>-0.27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="69">
+        <f>N19+K23</f>
+        <v>26.630000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F24" s="70"/>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K24" s="70"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E25" s="66" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="71">
-        <f>SUM(F20:F24)</f>
-        <v>27.62</v>
+        <f>SUM(F21:F24)</f>
+        <v>27.080000000000002</v>
       </c>
       <c r="G25" s="66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F26" s="69"/>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K26" s="69"/>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>60</v>
       </c>
@@ -4617,23 +4783,42 @@
       <c r="G27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="69">
+        <f>H23+F27</f>
+        <v>26.580000000000002</v>
+      </c>
+      <c r="K27" s="69">
+        <v>-0.5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="69">
+        <f>N23+K27</f>
+        <v>26.130000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="72"/>
-    </row>
-    <row r="29" spans="5:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="72"/>
+    </row>
+    <row r="29" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="69">
         <f>F25+F27</f>
-        <v>27.12</v>
+        <v>26.580000000000002</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K29" s="69"/>
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>65</v>
       </c>
@@ -4644,16 +4829,30 @@
       <c r="G30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K30" s="69">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="69">
+        <f>K30-N27</f>
+        <v>-1.1300000000000026</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>69</v>
       </c>
       <c r="F32" s="65">
         <f>F29-F30</f>
-        <v>2.6500000000000021</v>
+        <v>2.110000000000003</v>
       </c>
       <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="65"/>
+      <c r="L32" t="s">
         <v>3</v>
       </c>
     </row>

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\graviton\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
-    <sheet name="phase_noise" sheetId="4" r:id="rId2"/>
-    <sheet name="tx_chain" sheetId="2" r:id="rId3"/>
-    <sheet name="power_budget" sheetId="3" r:id="rId4"/>
+    <sheet name="tx_chain" sheetId="2" r:id="rId2"/>
+    <sheet name="power_budget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -138,9 +137,6 @@
     <t>MGA-16116</t>
   </si>
   <si>
-    <t>antenna</t>
-  </si>
-  <si>
     <t>SF2098H</t>
   </si>
   <si>
@@ -180,36 +176,9 @@
     <t>DAC out / mixer in (dBm)</t>
   </si>
   <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>Vmin</t>
-  </si>
-  <si>
-    <t>Vmax</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>PP5V</t>
-  </si>
-  <si>
-    <t>VIN48V</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>HMC545</t>
-  </si>
-  <si>
     <t>cable</t>
   </si>
   <si>
@@ -280,6 +249,66 @@
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>diversity switch</t>
+  </si>
+  <si>
+    <t>PE42820</t>
+  </si>
+  <si>
+    <t>5.5V Supply</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>volts</t>
+  </si>
+  <si>
+    <t>amps</t>
+  </si>
+  <si>
+    <t>watts</t>
+  </si>
+  <si>
+    <t>ADC Digital</t>
+  </si>
+  <si>
+    <t>DAC Digital</t>
+  </si>
+  <si>
+    <t>MCU/PHY</t>
+  </si>
+  <si>
+    <t>Amps</t>
+  </si>
+  <si>
+    <t>OCXO</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Switche</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>29V Supply</t>
+  </si>
+  <si>
+    <t>5V supply</t>
+  </si>
+  <si>
+    <t>TX PA #1</t>
+  </si>
+  <si>
+    <t>TX PA #2</t>
   </si>
 </sst>
 </file>
@@ -291,7 +320,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +409,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -406,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -643,12 +680,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -660,12 +699,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -758,8 +892,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +905,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -802,7 +961,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>205891</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>27946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -943,13 +1102,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1026,13 +1185,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>698423</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1352,37 +1511,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH60"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH57" sqref="AH57"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="1.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1418,7 +1577,7 @@
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -1460,7 +1619,7 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1496,7 +1655,7 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1532,7 +1691,7 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
         <v>33</v>
@@ -1590,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1604,7 +1763,7 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
     </row>
-    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8"/>
@@ -1666,11 +1825,11 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
     </row>
-    <row r="7" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="16">
@@ -1693,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="19">
-        <f t="shared" ref="K7:K26" si="0">10*LOG10(J7)</f>
+        <f t="shared" ref="K7:K15" si="0">10*LOG10(J7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="19"/>
@@ -1707,12 +1866,12 @@
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="21">
-        <f>Q8-E7</f>
-        <v>-40.800000000000004</v>
+        <f t="shared" ref="Q7:Q15" si="1">Q8-E7</f>
+        <v>-44.4</v>
       </c>
       <c r="R7" s="22">
-        <f>10^((Q7-30)/10)*1000000</f>
-        <v>8.3176377110266819E-2</v>
+        <f t="shared" ref="R7:R15" si="2">10^((Q7-30)/10)*1000000</f>
+        <v>3.6307805477010006E-2</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -1731,11 +1890,11 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
     </row>
-    <row r="8" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="23">
@@ -1750,12 +1909,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="26">
-        <f t="shared" ref="H8:H26" si="1">10^(G8/10)</f>
+        <f t="shared" ref="H8:H22" si="3">10^(G8/10)</f>
         <v>1</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="27">
-        <f t="shared" ref="J8:J16" si="2">J7+((H8-1)/N7)</f>
+        <f t="shared" ref="J8:J15" si="4">J7+((H8-1)/N7)</f>
         <v>1</v>
       </c>
       <c r="K8" s="27">
@@ -1764,22 +1923,22 @@
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="5">
-        <f t="shared" ref="M8:M16" si="3">E8+M7</f>
+        <f t="shared" ref="M8:M15" si="5">E8+M7</f>
         <v>0</v>
       </c>
       <c r="N8" s="27">
-        <f t="shared" ref="N8:N16" si="4">N7*F8</f>
+        <f t="shared" ref="N8:N15" si="6">N7*F8</f>
         <v>1</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="27">
-        <f t="shared" ref="Q8:Q22" si="5">Q9-E8</f>
-        <v>-40.800000000000004</v>
+        <f t="shared" si="1"/>
+        <v>-44.4</v>
       </c>
       <c r="R8" s="28">
-        <f t="shared" ref="R8:R26" si="6">10^((Q8-30)/10)*1000000</f>
-        <v>8.3176377110266819E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.6307805477010006E-2</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -1801,62 +1960,64 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="30">
-        <f t="shared" ref="F9:F26" si="7">10^(E9/10)</f>
-        <v>1.0471285480508996</v>
+        <f t="shared" ref="F9:F22" si="7">10^(E9/10)</f>
+        <v>1.0592537251772889</v>
       </c>
       <c r="G9" s="25">
         <f>ABS(E9)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" si="1"/>
-        <v>1.0471285480508996</v>
+        <f t="shared" si="3"/>
+        <v>1.0592537251772889</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="27">
-        <f t="shared" si="2"/>
-        <v>1.0471285480508996</v>
+        <f t="shared" si="4"/>
+        <v>1.0592537251772889</v>
       </c>
       <c r="K9" s="27">
         <f t="shared" si="0"/>
-        <v>0.20000000000000032</v>
+        <v>0.25</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="5"/>
+        <v>0.25</v>
       </c>
       <c r="N9" s="27">
-        <f t="shared" si="4"/>
-        <v>1.0471285480508996</v>
+        <f t="shared" si="6"/>
+        <v>1.0592537251772889</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="27">
-        <f t="shared" si="5"/>
-        <v>-40.800000000000004</v>
+        <f t="shared" si="1"/>
+        <v>-44.4</v>
       </c>
       <c r="R9" s="28">
-        <f t="shared" si="6"/>
-        <v>8.3176377110266819E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.6307805477010006E-2</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="29">
-        <f t="shared" ref="V9:V16" si="8">K9-K8</f>
-        <v>0.20000000000000032</v>
+        <f t="shared" ref="V9:V15" si="8">K9-K8</f>
+        <v>0.25</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -1871,64 +2032,64 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" ref="F10" si="9">10^(E10/10)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1.0592537251772889</v>
       </c>
       <c r="G10" s="25">
         <f>ABS(E10)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="26">
-        <f t="shared" ref="H10" si="10">10^(G10/10)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.0592537251772889</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="27">
-        <f t="shared" ref="J10:J15" si="11">J9+((H10-1)/N9)</f>
-        <v>1.0471285480508996</v>
+        <f t="shared" ref="J10" si="9">J9+((H10-1)/N9)</f>
+        <v>1.1151928488913656</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" ref="K10:K15" si="12">10*LOG10(J10)</f>
-        <v>0.20000000000000032</v>
+        <f t="shared" ref="K10" si="10">10*LOG10(J10)</f>
+        <v>0.47349975875009437</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="5">
-        <f t="shared" ref="M10:M15" si="13">E10+M9</f>
-        <v>0.2</v>
+        <f t="shared" ref="M10" si="11">E10+M9</f>
+        <v>0.5</v>
       </c>
       <c r="N10" s="27">
-        <f t="shared" ref="N10:N15" si="14">N9*F10</f>
-        <v>1.0471285480508996</v>
+        <f t="shared" ref="N10" si="12">N9*F10</f>
+        <v>1.1220184543019633</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="27">
-        <f t="shared" si="5"/>
-        <v>-40.6</v>
+        <f t="shared" si="1"/>
+        <v>-44.15</v>
       </c>
       <c r="R10" s="28">
-        <f t="shared" ref="R10" si="15">10^((Q10-30)/10)*1000000</f>
-        <v>8.7096358995608067E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8459178204535212E-2</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V10" s="29" t="e">
+        <f>K10-#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -1943,64 +2104,72 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
     </row>
-    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="23">
-        <v>0.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" si="7"/>
-        <v>1.0471285480508996</v>
+        <v>69.183097091893657</v>
       </c>
       <c r="G11" s="25">
-        <f>ABS(E11)</f>
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
-        <v>1.0471285480508996</v>
+        <f t="shared" si="3"/>
+        <v>1.0641430182243161</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="27">
-        <f t="shared" si="11"/>
-        <v>1.0921359620294637</v>
+        <f t="shared" ref="J11:J14" si="13">J10+((H11-1)/N10)</f>
+        <v>1.1723603740585173</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="12"/>
-        <v>0.38276707859123105</v>
+        <f t="shared" ref="K11:K14" si="14">10*LOG10(J11)</f>
+        <v>0.69061130801401582</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="5">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
+        <f t="shared" ref="M11:M14" si="15">E11+M10</f>
+        <v>18.899999999999999</v>
       </c>
       <c r="N11" s="27">
-        <f t="shared" si="14"/>
-        <v>1.0964781961431851</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="27">
-        <f t="shared" si="5"/>
-        <v>-40.6</v>
+        <f t="shared" ref="N11:N14" si="16">N10*F11</f>
+        <v>77.624711662869174</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-27.4</v>
+      </c>
+      <c r="Q11" s="32">
+        <f t="shared" si="1"/>
+        <v>-43.9</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="6"/>
-        <v>8.7096358995608067E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.0738027780411107E-2</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="T11" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="U11" s="5">
+        <f>Q11 - (T11-Q11)*3</f>
+        <v>-232.9</v>
+      </c>
       <c r="V11" s="29">
         <f t="shared" si="8"/>
-        <v>0.18276707859123073</v>
+        <v>0.21711154926392146</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -2015,72 +2184,64 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
     </row>
-    <row r="12" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="23">
-        <v>18.399999999999999</v>
+      <c r="E12" s="70">
+        <v>-0.5</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="7"/>
-        <v>69.183097091893657</v>
+        <v>0.89125093813374545</v>
       </c>
       <c r="G12" s="25">
-        <v>0.27</v>
+        <f>ABS(E12)</f>
+        <v>0.5</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="1"/>
-        <v>1.0641430182243161</v>
+        <f t="shared" si="3"/>
+        <v>1.1220184543019636</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="27">
-        <f t="shared" si="11"/>
-        <v>1.1506350899190436</v>
+        <f t="shared" si="13"/>
+        <v>1.1739322762490452</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="12"/>
-        <v>0.60937614193076839</v>
+        <f t="shared" si="14"/>
+        <v>0.69643043334336086</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="5">
-        <f t="shared" si="13"/>
-        <v>18.799999999999997</v>
+        <f t="shared" si="15"/>
+        <v>18.399999999999999</v>
       </c>
       <c r="N12" s="27">
-        <f t="shared" si="14"/>
-        <v>75.857757502918389</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="P12" s="5">
-        <v>-27.4</v>
-      </c>
-      <c r="Q12" s="32">
-        <f>Q13-E12</f>
-        <v>-40.4</v>
+        <f t="shared" si="16"/>
+        <v>69.183097091893643</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="27">
+        <f t="shared" si="1"/>
+        <v>-25.5</v>
       </c>
       <c r="R12" s="28">
-        <f t="shared" si="6"/>
-        <v>9.1201083935590621E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.8183829312644528</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="T12" s="5">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="U12" s="5">
-        <f>Q12 - (T12-Q12)*3</f>
-        <v>-218.9</v>
-      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="29">
         <f t="shared" si="8"/>
-        <v>0.22660906333953734</v>
+        <v>5.8191253293450318E-3</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -2095,64 +2256,64 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="23">
-        <v>-7.4</v>
+        <v>-2</v>
       </c>
       <c r="F13" s="30">
-        <f t="shared" si="7"/>
-        <v>0.18197008586099833</v>
+        <f t="shared" ref="F13" si="17">10^(E13/10)</f>
+        <v>0.63095734448019325</v>
       </c>
       <c r="G13" s="25">
         <f>ABS(E13)</f>
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="1"/>
-        <v>5.4954087385762458</v>
+        <f t="shared" ref="H13" si="18">10^(G13/10)</f>
+        <v>1.5848931924611136</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="27">
-        <f t="shared" si="11"/>
-        <v>1.2098961185409784</v>
+        <f t="shared" si="13"/>
+        <v>1.1823865550692636</v>
       </c>
       <c r="K13" s="27">
-        <f t="shared" si="12"/>
-        <v>0.82748083472517264</v>
+        <f t="shared" si="14"/>
+        <v>0.72759482711418422</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="5">
-        <f t="shared" si="13"/>
-        <v>11.399999999999997</v>
+        <f t="shared" si="15"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="N13" s="27">
-        <f t="shared" si="14"/>
-        <v>13.803842646028849</v>
+        <f t="shared" si="16"/>
+        <v>43.651583224016591</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="27">
-        <f>Q14-E13</f>
-        <v>-22</v>
+        <f t="shared" si="1"/>
+        <v>-26</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="6"/>
-        <v>6.3095734448019209</v>
+        <f t="shared" si="2"/>
+        <v>2.5118864315095806</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="29">
         <f t="shared" si="8"/>
-        <v>0.21810469279440425</v>
+        <v>3.1164393770823362E-2</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -2167,62 +2328,72 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
     </row>
-    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="23">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" ref="F14" si="16">10^(E14/10)</f>
-        <v>0.79432823472428149</v>
+        <f t="shared" ref="F14" si="19">10^(E14/10)</f>
+        <v>25.118864315095799</v>
       </c>
       <c r="G14" s="25">
-        <f>ABS(E14)</f>
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="H14" s="26">
-        <f t="shared" ref="H14" si="17">10^(G14/10)</f>
-        <v>1.2589254117941673</v>
+        <f t="shared" ref="H14" si="20">10^(G14/10)</f>
+        <v>1.0641430182243161</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="27">
-        <f t="shared" si="11"/>
-        <v>1.2286536064690705</v>
+        <f t="shared" si="13"/>
+        <v>1.1838559867252734</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="12"/>
-        <v>0.89429459775524345</v>
+        <f t="shared" si="14"/>
+        <v>0.73298874705688644</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="5">
-        <f t="shared" si="13"/>
-        <v>10.399999999999997</v>
+        <f t="shared" si="15"/>
+        <v>30.4</v>
       </c>
       <c r="N14" s="27">
-        <f t="shared" si="14"/>
-        <v>10.96478196143185</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="27">
-        <f t="shared" ref="Q14" si="18">Q15-E14</f>
-        <v>-29.4</v>
+        <f t="shared" si="16"/>
+        <v>1096.4781961431847</v>
+      </c>
+      <c r="O14" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-27.4</v>
+      </c>
+      <c r="Q14" s="32">
+        <f t="shared" si="1"/>
+        <v>-28</v>
       </c>
       <c r="R14" s="28">
-        <f t="shared" ref="R14" si="19">10^((Q14-30)/10)*1000000</f>
-        <v>1.1481536214968826</v>
+        <f t="shared" si="2"/>
+        <v>1.5848931924611112</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="T14" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="U14" s="5">
+        <f>Q14 - (T14-Q14)*3</f>
+        <v>-169.3</v>
+      </c>
       <c r="V14" s="29">
         <f t="shared" si="8"/>
-        <v>6.6813763030070805E-2</v>
+        <v>5.3939199427022189E-3</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -2237,72 +2408,64 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
     </row>
-    <row r="15" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="23">
-        <v>18.399999999999999</v>
+        <v>-2</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" ref="F15" si="20">10^(E15/10)</f>
-        <v>69.183097091893657</v>
+        <f t="shared" ref="F15" si="21">10^(E15/10)</f>
+        <v>0.63095734448019325</v>
       </c>
       <c r="G15" s="25">
-        <v>0.27</v>
+        <f>ABS(E15)</f>
+        <v>2</v>
       </c>
       <c r="H15" s="26">
-        <f t="shared" ref="H15" si="21">10^(G15/10)</f>
-        <v>1.0641430182243161</v>
+        <f t="shared" ref="H15" si="22">10^(G15/10)</f>
+        <v>1.5848931924611136</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="27">
-        <f t="shared" si="11"/>
-        <v>1.2345035192580285</v>
+        <f t="shared" si="4"/>
+        <v>1.1843894156566634</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" si="12"/>
-        <v>0.91492332333697235</v>
+        <f t="shared" si="0"/>
+        <v>0.73494517644612989</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="5">
-        <f t="shared" si="13"/>
-        <v>28.799999999999997</v>
+        <f t="shared" si="5"/>
+        <v>28.4</v>
       </c>
       <c r="N15" s="27">
-        <f t="shared" si="14"/>
-        <v>758.57757502918389</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="P15" s="5">
-        <v>-27.4</v>
-      </c>
-      <c r="Q15" s="32">
-        <f>Q16-E15</f>
-        <v>-30.4</v>
+        <f t="shared" si="6"/>
+        <v>691.83097091893626</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="27">
+        <f t="shared" si="1"/>
+        <v>-14</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" ref="R15" si="22">10^((Q15-30)/10)*1000000</f>
-        <v>0.91201083935590899</v>
+        <f t="shared" si="2"/>
+        <v>39.810717055349635</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="5">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="U15" s="5">
-        <f>Q15 - (T15-Q15)*3</f>
-        <v>-178.9</v>
-      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="29">
         <f t="shared" si="8"/>
-        <v>2.0628725581728902E-2</v>
+        <v>1.9564293892434526E-3</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -2317,66 +2480,76 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
     </row>
-    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="23">
-        <v>-2</v>
-      </c>
-      <c r="F16" s="30">
-        <f t="shared" ref="F16" si="23">10^(E16/10)</f>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="G16" s="25">
-        <f>ABS(E16)</f>
-        <v>2</v>
-      </c>
-      <c r="H16" s="26">
-        <f t="shared" ref="H16" si="24">10^(G16/10)</f>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="27">
-        <f t="shared" si="2"/>
-        <v>1.2352745586503262</v>
-      </c>
-      <c r="K16" s="27">
-        <f t="shared" si="0"/>
-        <v>0.9176349691101604</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="5">
+      <c r="B16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36">
+        <v>-7</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="7"/>
+        <v>0.19952623149688795</v>
+      </c>
+      <c r="G16" s="38">
+        <v>7</v>
+      </c>
+      <c r="H16" s="39">
         <f t="shared" si="3"/>
-        <v>26.799999999999997</v>
-      </c>
-      <c r="N16" s="27">
-        <f t="shared" si="4"/>
-        <v>478.6300923226384</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="27">
-        <f t="shared" ref="Q16" si="25">Q17-E16</f>
-        <v>-12</v>
-      </c>
-      <c r="R16" s="28">
-        <f t="shared" ref="R16" si="26">10^((Q16-30)/10)*1000000</f>
-        <v>63.095734448019279</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="29">
-        <f t="shared" si="8"/>
-        <v>2.7116457731880539E-3</v>
-      </c>
-      <c r="W16" s="5"/>
+        <v>5.0118723362727229</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="37">
+        <f t="shared" ref="J16:J22" si="23">J15+((H16-1)/N15)</f>
+        <v>1.1901883354866674</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" ref="K16:K22" si="24">10*LOG10(J16)</f>
+        <v>0.75615689620089421</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="35">
+        <f t="shared" ref="M16:M22" si="25">E16+M15</f>
+        <v>21.4</v>
+      </c>
+      <c r="N16" s="37">
+        <f t="shared" ref="N16:N22" si="26">N15*F16</f>
+        <v>138.03842646028843</v>
+      </c>
+      <c r="O16" s="35">
+        <v>0</v>
+      </c>
+      <c r="P16" s="35">
+        <v>-10</v>
+      </c>
+      <c r="Q16" s="32">
+        <f t="shared" ref="Q16:Q18" si="27">Q17-E16</f>
+        <v>-16</v>
+      </c>
+      <c r="R16" s="40">
+        <f t="shared" ref="R16:R22" si="28">10^((Q16-30)/10)*1000000</f>
+        <v>25.118864315095792</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35">
+        <v>36</v>
+      </c>
+      <c r="U16" s="35">
+        <f>Q16 - (T16-Q16)*3</f>
+        <v>-172</v>
+      </c>
+      <c r="V16" s="41" t="e">
+        <f>K16-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="42" t="s">
+        <v>10</v>
+      </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -2389,64 +2562,64 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
     </row>
-    <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1">
-        <v>-2</v>
-      </c>
-      <c r="F17" s="3">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="23">
+        <v>-1.4</v>
+      </c>
+      <c r="F17" s="30">
         <f t="shared" si="7"/>
-        <v>0.63095734448019325</v>
+        <v>0.72443596007499012</v>
       </c>
       <c r="G17" s="25">
         <f>ABS(E17)</f>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="1"/>
-        <v>1.5848931924611136</v>
+        <f t="shared" si="3"/>
+        <v>1.3803842646028848</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="27">
-        <f>J16+((H17-1)/N16)</f>
-        <v>1.2364965737342981</v>
+        <f t="shared" si="23"/>
+        <v>1.1929439758859175</v>
       </c>
       <c r="K17" s="27">
-        <f t="shared" si="0"/>
-        <v>0.92192917292261933</v>
+        <f t="shared" si="24"/>
+        <v>0.76620048418944586</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="5">
-        <f t="shared" ref="M17:M20" si="27">E17+M16</f>
-        <v>24.799999999999997</v>
+        <f t="shared" si="25"/>
+        <v>20</v>
       </c>
       <c r="N17" s="27">
-        <f t="shared" ref="N17:N23" si="28">N16*F17</f>
-        <v>301.99517204020168</v>
+        <f t="shared" si="26"/>
+        <v>99.999999999999972</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="27">
-        <f t="shared" si="5"/>
-        <v>-14</v>
+        <f t="shared" si="27"/>
+        <v>-23</v>
       </c>
       <c r="R17" s="28">
-        <f t="shared" si="6"/>
-        <v>39.810717055349635</v>
+        <f t="shared" si="28"/>
+        <v>5.0118723362727193</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="29">
-        <f t="shared" ref="V17:V18" si="29">K17-K16</f>
-        <v>4.2942038124589299E-3</v>
+        <f t="shared" ref="V17:V22" si="29">K17-K16</f>
+        <v>1.004358798855165E-2</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
@@ -2461,70 +2634,67 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
     </row>
-    <row r="18" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="2">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45">
+        <v>16</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" si="7"/>
-        <v>25.118864315095799</v>
+        <v>39.810717055349755</v>
       </c>
       <c r="G18" s="25">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3803842646028848</v>
+        <f t="shared" si="3"/>
+        <v>5.0118723362727229</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="27">
-        <f t="shared" ref="J18:J23" si="30">J17+((H18-1)/N17)</f>
-        <v>1.2377561444156209</v>
+        <f t="shared" si="23"/>
+        <v>1.2330626992486446</v>
       </c>
       <c r="K18" s="27">
-        <f t="shared" si="0"/>
-        <v>0.92635090914792362</v>
+        <f t="shared" si="24"/>
+        <v>0.90985160330845127</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="5">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="N18" s="27">
+        <f t="shared" si="26"/>
+        <v>3981.0717055349746</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-6</v>
+      </c>
+      <c r="P18" s="5">
+        <v>-7</v>
+      </c>
+      <c r="Q18" s="32">
         <f t="shared" si="27"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="N18" s="27">
+        <v>-24.4</v>
+      </c>
+      <c r="R18" s="28">
         <f t="shared" si="28"/>
-        <v>7585.7757502918384</v>
-      </c>
-      <c r="O18" s="5">
-        <v>21</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="32">
-        <f t="shared" si="5"/>
-        <v>-16</v>
-      </c>
-      <c r="R18" s="28">
-        <f t="shared" si="6"/>
-        <v>25.118864315095792</v>
+        <v>3.6307805477010153</v>
       </c>
       <c r="S18" s="5"/>
-      <c r="T18" s="5">
-        <v>21</v>
-      </c>
-      <c r="U18" s="5">
-        <f>Q18 - (T18-Q18)*3</f>
-        <v>-127</v>
-      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="29">
         <f t="shared" si="29"/>
-        <v>4.4217362253042847E-3</v>
+        <v>0.14365111911900541</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -2539,64 +2709,65 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
     </row>
-    <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="23">
-        <v>-2</v>
+        <f>-0.5-6.3-0.8</f>
+        <v>-7.6</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="7"/>
-        <v>0.63095734448019325</v>
+        <v>0.17378008287493749</v>
       </c>
       <c r="G19" s="25">
         <f>ABS(E19)</f>
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" si="1"/>
-        <v>1.5848931924611136</v>
+        <f t="shared" si="3"/>
+        <v>5.7543993733715713</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="27">
-        <f t="shared" si="30"/>
-        <v>1.2378332483548506</v>
+        <f t="shared" si="23"/>
+        <v>1.2342569503762395</v>
       </c>
       <c r="K19" s="27">
-        <f t="shared" si="0"/>
-        <v>0.92662143717207091</v>
+        <f t="shared" si="24"/>
+        <v>0.91405581507569555</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="5">
-        <f t="shared" si="27"/>
-        <v>36.799999999999997</v>
+        <f t="shared" si="25"/>
+        <v>28.4</v>
       </c>
       <c r="N19" s="27">
-        <f t="shared" si="28"/>
-        <v>4786.3009232263839</v>
+        <f t="shared" si="26"/>
+        <v>691.8309709189366</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="27">
-        <f t="shared" si="5"/>
-        <v>-2</v>
+        <f>Q20-E19</f>
+        <v>-8.4</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="6"/>
-        <v>630.95734448019243</v>
+        <f t="shared" si="28"/>
+        <v>144.54397707459268</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="29">
-        <f t="shared" ref="V19:V26" si="31">K19-K18</f>
-        <v>2.7052802414728738E-4</v>
+        <f t="shared" si="29"/>
+        <v>4.2042117672442814E-3</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -2611,76 +2782,66 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
     </row>
-    <row r="20" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="34" t="s">
-        <v>42</v>
+      <c r="B20" s="71" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36">
-        <v>-7</v>
-      </c>
-      <c r="F20" s="37">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="7"/>
-        <v>0.19952623149688795</v>
-      </c>
-      <c r="G20" s="38">
-        <v>7</v>
-      </c>
-      <c r="H20" s="39">
-        <f t="shared" si="1"/>
-        <v>5.0118723362727229</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="37">
-        <f t="shared" si="30"/>
-        <v>1.2386714472898162</v>
-      </c>
-      <c r="K20" s="37">
-        <f t="shared" si="0"/>
-        <v>0.92956126754455737</v>
-      </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="35">
-        <f t="shared" si="27"/>
-        <v>29.799999999999997</v>
-      </c>
-      <c r="N20" s="37">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <f>ABS(E20)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="27">
+        <f t="shared" si="23"/>
+        <v>1.2342569503762395</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="24"/>
+        <v>0.91405581507569555</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="5">
+        <f t="shared" si="25"/>
+        <v>28.4</v>
+      </c>
+      <c r="N20" s="27">
+        <f t="shared" si="26"/>
+        <v>691.8309709189366</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="27">
+        <f t="shared" ref="Q20:Q21" si="30">Q21-E20</f>
+        <v>-16</v>
+      </c>
+      <c r="R20" s="28">
         <f t="shared" si="28"/>
-        <v>954.99258602143595</v>
-      </c>
-      <c r="O20" s="35">
+        <v>25.118864315095792</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="29">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35">
-        <v>-10</v>
-      </c>
-      <c r="Q20" s="32">
-        <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="R20" s="40">
-        <f t="shared" si="6"/>
-        <v>398.1071705534971</v>
-      </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35">
-        <v>36</v>
-      </c>
-      <c r="U20" s="35">
-        <f>Q20 - (T20-Q20)*3</f>
-        <v>-124</v>
-      </c>
-      <c r="V20" s="41">
-        <f t="shared" si="31"/>
-        <v>2.9398303724864627E-3</v>
-      </c>
-      <c r="W20" s="42" t="s">
-        <v>10</v>
-      </c>
+      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -2693,64 +2854,65 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
     </row>
-    <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
+      <c r="B21" s="71"/>
+      <c r="C21" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="23">
-        <v>-1.4</v>
-      </c>
-      <c r="F21" s="30">
+      <c r="E21" s="2">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="7"/>
-        <v>0.72443596007499012</v>
+        <v>398.10717055349761</v>
       </c>
       <c r="G21" s="25">
-        <f>ABS(E21)</f>
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="1"/>
-        <v>1.3803842646028848</v>
+        <f t="shared" si="3"/>
+        <v>6.3095734448019343</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="27">
-        <f t="shared" si="30"/>
-        <v>1.2390697585125112</v>
-      </c>
-      <c r="K21" s="27">
-        <f t="shared" si="0"/>
-        <v>0.93095757452917405</v>
+        <f t="shared" si="23"/>
+        <v>1.2419316189990526</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="24"/>
+        <v>0.94097684158646444</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:M23" si="32">E21+M20</f>
-        <v>28.4</v>
+        <f t="shared" si="25"/>
+        <v>54.4</v>
       </c>
       <c r="N21" s="27">
+        <f t="shared" si="26"/>
+        <v>275422.87033381691</v>
+      </c>
+      <c r="O21" s="5">
+        <v>-16</v>
+      </c>
+      <c r="P21" s="5">
+        <v>-17</v>
+      </c>
+      <c r="Q21" s="32">
+        <f t="shared" si="30"/>
+        <v>-16</v>
+      </c>
+      <c r="R21" s="28">
         <f t="shared" si="28"/>
-        <v>691.83097091893649</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="27">
-        <f t="shared" si="5"/>
-        <v>-11</v>
-      </c>
-      <c r="R21" s="28">
-        <f t="shared" si="6"/>
-        <v>79.432823472428154</v>
+        <v>25.118864315095792</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="29">
-        <f t="shared" si="31"/>
-        <v>1.3963069846166798E-3</v>
+        <f t="shared" si="29"/>
+        <v>2.6921026510768886E-2</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -2765,67 +2927,66 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
     </row>
-    <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="23">
+        <v>0</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" si="7"/>
-        <v>39.810717055349755</v>
+        <v>1</v>
       </c>
       <c r="G22" s="25">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="1"/>
-        <v>5.0118723362727229</v>
+        <f t="shared" si="3"/>
+        <v>501.18723362727269</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="27">
-        <f t="shared" si="30"/>
-        <v>1.2448686783425151</v>
-      </c>
-      <c r="K22" s="27">
-        <f t="shared" si="0"/>
-        <v>0.95123539962460368</v>
+      <c r="J22" s="30">
+        <f t="shared" si="23"/>
+        <v>1.2437476890771149</v>
+      </c>
+      <c r="K22" s="47">
+        <f t="shared" si="24"/>
+        <v>0.9473228682152901</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="5">
-        <f t="shared" si="32"/>
-        <v>44.4</v>
+        <f t="shared" si="25"/>
+        <v>54.4</v>
       </c>
       <c r="N22" s="27">
+        <f t="shared" si="26"/>
+        <v>275422.87033381691</v>
+      </c>
+      <c r="O22" s="5">
+        <v>10</v>
+      </c>
+      <c r="P22" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>10</v>
+      </c>
+      <c r="R22" s="48">
         <f t="shared" si="28"/>
-        <v>27542.287033381686</v>
-      </c>
-      <c r="O22" s="5">
-        <v>-6</v>
-      </c>
-      <c r="P22" s="5">
-        <v>-7</v>
-      </c>
-      <c r="Q22" s="32">
-        <f t="shared" si="5"/>
-        <v>-12.4</v>
-      </c>
-      <c r="R22" s="28">
-        <f t="shared" si="6"/>
-        <v>57.543993733715574</v>
+        <v>10000</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="29">
-        <f t="shared" si="31"/>
-        <v>2.0277825095429636E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.3460266288256628E-3</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -2840,68 +3001,31 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
     </row>
-    <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="23">
-        <f>-0.5-6.3-0.8</f>
-        <v>-7.6</v>
-      </c>
-      <c r="F23" s="30">
-        <f t="shared" si="7"/>
-        <v>0.17378008287493749</v>
-      </c>
-      <c r="G23" s="25">
-        <f>ABS(E23)</f>
-        <v>7.6</v>
-      </c>
-      <c r="H23" s="26">
-        <f t="shared" si="1"/>
-        <v>5.7543993733715713</v>
-      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="27">
-        <f t="shared" si="30"/>
-        <v>1.2450413001501235</v>
-      </c>
-      <c r="K23" s="27">
-        <f t="shared" si="0"/>
-        <v>0.95183757961719906</v>
-      </c>
+      <c r="J23" s="52"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="5">
-        <f t="shared" si="32"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="N23" s="27">
-        <f t="shared" si="28"/>
-        <v>4786.3009232263857</v>
-      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="27">
-        <f>Q24-E23</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="R23" s="28">
-        <f t="shared" si="6"/>
-        <v>2290.8676527677735</v>
-      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="29">
-        <f t="shared" si="31"/>
-        <v>6.0217999259537525E-4</v>
-      </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -2913,262 +3037,183 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
     </row>
-    <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="1">
-        <v>-12</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="7"/>
-        <v>6.3095734448019317E-2</v>
-      </c>
-      <c r="G24" s="25">
-        <f>ABS(E24)</f>
-        <v>12</v>
-      </c>
-      <c r="H24" s="26">
-        <f t="shared" si="1"/>
-        <v>15.848931924611136</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="27">
-        <f t="shared" ref="J24:J26" si="33">J23+((H24-1)/N23)</f>
-        <v>1.2481436817518641</v>
-      </c>
-      <c r="K24" s="27">
-        <f t="shared" si="0"/>
-        <v>0.96264582622210937</v>
-      </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="5">
-        <f t="shared" ref="M24:M26" si="34">E24+M23</f>
-        <v>24.799999999999997</v>
-      </c>
-      <c r="N24" s="27">
-        <f t="shared" ref="N24:N26" si="35">N23*F24</f>
-        <v>301.99517204020174</v>
-      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="27">
-        <f t="shared" ref="Q24:Q25" si="36">Q25-E24</f>
-        <v>-4</v>
-      </c>
-      <c r="R24" s="28">
-        <f t="shared" si="6"/>
-        <v>398.1071705534971</v>
-      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="29">
-        <f t="shared" si="31"/>
-        <v>1.080824660491031E-2</v>
-      </c>
+      <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
+      <c r="AB24" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
       <c r="AH24" s="5"/>
     </row>
-    <row r="25" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="46" t="s">
-        <v>44</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="2">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="7"/>
-        <v>398.10717055349761</v>
-      </c>
-      <c r="G25" s="25">
-        <v>8</v>
-      </c>
-      <c r="H25" s="26">
-        <f t="shared" si="1"/>
-        <v>6.3095734448019343</v>
-      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="27">
-        <f t="shared" si="33"/>
-        <v>1.2657253318455786</v>
-      </c>
-      <c r="K25" s="30">
-        <f t="shared" si="0"/>
-        <v>1.023394720274819</v>
-      </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="5">
-        <f t="shared" si="34"/>
-        <v>50.8</v>
-      </c>
-      <c r="N25" s="27">
-        <f t="shared" si="35"/>
-        <v>120226.44346174145</v>
-      </c>
-      <c r="O25" s="5">
-        <v>-16</v>
-      </c>
-      <c r="P25" s="5">
-        <v>-17</v>
-      </c>
-      <c r="Q25" s="32">
-        <f t="shared" si="36"/>
-        <v>-16</v>
-      </c>
-      <c r="R25" s="28">
-        <f t="shared" si="6"/>
-        <v>25.118864315095792</v>
-      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="29">
-        <f t="shared" si="31"/>
-        <v>6.0748894052709668E-2</v>
-      </c>
+      <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
+      <c r="AB25" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
       <c r="AH25" s="5"/>
     </row>
-    <row r="26" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="25">
-        <v>27</v>
-      </c>
-      <c r="H26" s="26">
-        <f t="shared" si="1"/>
-        <v>501.18723362727269</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="30">
-        <f t="shared" si="33"/>
-        <v>1.2698857080425709</v>
-      </c>
-      <c r="K26" s="47">
-        <f t="shared" si="0"/>
-        <v>1.0376463544410592</v>
-      </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="5">
-        <f t="shared" si="34"/>
-        <v>50.8</v>
-      </c>
-      <c r="N26" s="27">
-        <f t="shared" si="35"/>
-        <v>120226.44346174145</v>
-      </c>
-      <c r="O26" s="5">
-        <v>10</v>
-      </c>
-      <c r="P26" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>10</v>
-      </c>
-      <c r="R26" s="48">
-        <f t="shared" si="6"/>
-        <v>10000</v>
-      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="29">
-        <f t="shared" si="31"/>
-        <v>1.4251634166240201E-2</v>
-      </c>
+      <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>-2</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>-4</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>-6</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>-8</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>-10</v>
+      </c>
       <c r="AH26" s="5"/>
     </row>
-    <row r="27" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="51"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
+      <c r="Z27" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>-8</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="AH27" s="5"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3182,9 +3227,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -3194,19 +3239,31 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="8">
+        <v>-10</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>5.3</v>
+      </c>
       <c r="AH28" s="5"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3221,8 +3278,8 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -3232,35 +3289,49 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="8">
+        <v>-12</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>6.4</v>
+      </c>
       <c r="AH29" s="5"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="54" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -3270,29 +3341,31 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="8">
+        <v>-14</v>
+      </c>
       <c r="AB30" s="5">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC30" s="5">
-        <v>-2</v>
-      </c>
-      <c r="AD30" s="8">
-        <v>-4</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>-6</v>
-      </c>
-      <c r="AF30" s="8">
-        <v>-8</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>-10</v>
+        <v>6.3</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>7.7</v>
       </c>
       <c r="AH30" s="5"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3318,36 +3391,38 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="73" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z31" s="72"/>
       <c r="AA31" s="8">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="AB31" s="5">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="AC31" s="5">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" s="5">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="AE31" s="5">
-        <v>4</v>
+        <v>8.1</v>
       </c>
       <c r="AF31" s="5">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="AG31" s="5">
-        <v>4.4000000000000004</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AH31" s="5"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3370,31 +3445,31 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="73"/>
+      <c r="Z32" s="72"/>
       <c r="AA32" s="8">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="AB32" s="5">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="AC32" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>4.5</v>
+        <v>9.1</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>9.3000000000000007</v>
       </c>
       <c r="AE32" s="5">
-        <v>4.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AF32" s="5">
-        <v>4.9000000000000004</v>
+        <v>10.1</v>
       </c>
       <c r="AG32" s="5">
-        <v>5.3</v>
+        <v>10.8</v>
       </c>
       <c r="AH32" s="5"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3420,44 +3495,28 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="8">
-        <v>-12</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>6.4</v>
-      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="54" t="s">
-        <v>62</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3472,31 +3531,19 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="8">
-        <v>-14</v>
-      </c>
-      <c r="AB34" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="AC34" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="AE34" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="AF34" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>7.7</v>
-      </c>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
       <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3522,38 +3569,22 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="8">
-        <v>-16</v>
-      </c>
-      <c r="AB35" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="AC35" s="5">
-        <v>7.6</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="AE35" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="AF35" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
       <c r="AH35" s="5"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3576,31 +3607,29 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="8">
-        <v>-18</v>
-      </c>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="5"/>
       <c r="AB36" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AE36" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AF36" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="AG36" s="5">
-        <v>10.8</v>
+        <v>-2</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>-4</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>-6</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>-8</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>-10</v>
       </c>
       <c r="AH36" s="5"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3626,17 +3655,33 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
+      <c r="Z37" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>-8</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>-10.6</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>-8.6</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>-6.6</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>-2.6</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>-0.6</v>
+      </c>
       <c r="AH37" s="5"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3662,19 +3707,31 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC38" s="75"/>
-      <c r="AD38" s="75"/>
-      <c r="AE38" s="75"/>
-      <c r="AF38" s="75"/>
-      <c r="AG38" s="75"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="8">
+        <v>-10</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>-10.6</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>-8.6</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>-6.6</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>-2.6</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>-0.6</v>
+      </c>
       <c r="AH38" s="5"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3700,19 +3757,31 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="74"/>
-      <c r="AF39" s="74"/>
-      <c r="AG39" s="74"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="8">
+        <v>-12</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>-10.6</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>-8.6</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>-6.6</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>-2.6</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>-0.6</v>
+      </c>
       <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3738,29 +3807,31 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="5"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="8">
+        <v>-14</v>
+      </c>
       <c r="AB40" s="5">
-        <v>0</v>
+        <v>-10.6</v>
       </c>
       <c r="AC40" s="5">
-        <v>-2</v>
-      </c>
-      <c r="AD40" s="8">
-        <v>-4</v>
-      </c>
-      <c r="AE40" s="8">
-        <v>-6</v>
-      </c>
-      <c r="AF40" s="8">
-        <v>-8</v>
-      </c>
-      <c r="AG40" s="8">
-        <v>-10</v>
+        <v>-8.6</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>-6.6</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>-2.6</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>-0.6</v>
       </c>
       <c r="AH40" s="5"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3786,11 +3857,9 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="73" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z41" s="72"/>
       <c r="AA41" s="8">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="AB41" s="5">
         <v>-10.6</v>
@@ -3812,7 +3881,7 @@
       </c>
       <c r="AH41" s="5"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3838,9 +3907,9 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="73"/>
+      <c r="Z42" s="72"/>
       <c r="AA42" s="8">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="AB42" s="5">
         <v>-10.6</v>
@@ -3848,7 +3917,7 @@
       <c r="AC42" s="5">
         <v>-8.6</v>
       </c>
-      <c r="AD42" s="8">
+      <c r="AD42" s="5">
         <v>-6.6</v>
       </c>
       <c r="AE42" s="5">
@@ -3862,7 +3931,7 @@
       </c>
       <c r="AH42" s="5"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3888,31 +3957,17 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="8">
-        <v>-12</v>
-      </c>
-      <c r="AB43" s="5">
-        <v>-10.6</v>
-      </c>
-      <c r="AC43" s="5">
-        <v>-8.6</v>
-      </c>
-      <c r="AD43" s="5">
-        <v>-6.6</v>
-      </c>
-      <c r="AE43" s="5">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="AF43" s="5">
-        <v>-2.6</v>
-      </c>
-      <c r="AG43" s="5">
-        <v>-0.6</v>
-      </c>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3938,31 +3993,19 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="73"/>
-      <c r="AA44" s="8">
-        <v>-14</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>-10.6</v>
-      </c>
-      <c r="AC44" s="5">
-        <v>-8.6</v>
-      </c>
-      <c r="AD44" s="5">
-        <v>-6.6</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>-2.6</v>
-      </c>
-      <c r="AG44" s="5">
-        <v>-0.6</v>
-      </c>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="74"/>
       <c r="AH44" s="5"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3988,31 +4031,19 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="73"/>
-      <c r="AA45" s="8">
-        <v>-16</v>
-      </c>
-      <c r="AB45" s="5">
-        <v>-10.6</v>
-      </c>
-      <c r="AC45" s="5">
-        <v>-8.6</v>
-      </c>
-      <c r="AD45" s="5">
-        <v>-6.6</v>
-      </c>
-      <c r="AE45" s="5">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="AF45" s="5">
-        <v>-2.6</v>
-      </c>
-      <c r="AG45" s="5">
-        <v>-0.6</v>
-      </c>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
       <c r="AH45" s="5"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4027,8 +4058,8 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
@@ -4038,31 +4069,29 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="73"/>
-      <c r="AA46" s="8">
-        <v>-18</v>
-      </c>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="5"/>
       <c r="AB46" s="5">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="5">
-        <v>-8.6</v>
-      </c>
-      <c r="AD46" s="5">
-        <v>-6.6</v>
-      </c>
-      <c r="AE46" s="5">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="AF46" s="5">
-        <v>-2.6</v>
-      </c>
-      <c r="AG46" s="5">
-        <v>-0.6</v>
+        <v>-2</v>
+      </c>
+      <c r="AD46" s="8">
+        <v>-4</v>
+      </c>
+      <c r="AE46" s="8">
+        <v>-6</v>
+      </c>
+      <c r="AF46" s="8">
+        <v>-8</v>
+      </c>
+      <c r="AG46" s="8">
+        <v>-10</v>
       </c>
       <c r="AH46" s="5"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4077,8 +4106,8 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
@@ -4088,17 +4117,33 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
+      <c r="Z47" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>-8</v>
+      </c>
+      <c r="AB47" s="5">
+        <v>-30.8</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>-28.8</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>-26.8</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>-24.8</v>
+      </c>
+      <c r="AF47" s="5">
+        <v>-22.8</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>-20.8</v>
+      </c>
       <c r="AH47" s="5"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4113,8 +4158,8 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -4124,19 +4169,31 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC48" s="75"/>
-      <c r="AD48" s="75"/>
-      <c r="AE48" s="75"/>
-      <c r="AF48" s="75"/>
-      <c r="AG48" s="75"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="8">
+        <v>-10</v>
+      </c>
+      <c r="AB48" s="5">
+        <v>-28.8</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>-26.8</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>-24.8</v>
+      </c>
+      <c r="AE48" s="5">
+        <v>-22.8</v>
+      </c>
+      <c r="AF48" s="5">
+        <v>-20.8</v>
+      </c>
+      <c r="AG48" s="5">
+        <v>-18.8</v>
+      </c>
       <c r="AH48" s="5"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4151,8 +4208,8 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -4162,19 +4219,31 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC49" s="74"/>
-      <c r="AD49" s="74"/>
-      <c r="AE49" s="74"/>
-      <c r="AF49" s="74"/>
-      <c r="AG49" s="74"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="8">
+        <v>-12</v>
+      </c>
+      <c r="AB49" s="5">
+        <v>-26.8</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>-24.8</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>-22.8</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>-20.8</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>-18.8</v>
+      </c>
+      <c r="AG49" s="5">
+        <v>-16.8</v>
+      </c>
       <c r="AH49" s="5"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4200,29 +4269,31 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="5"/>
+      <c r="Z50" s="72"/>
+      <c r="AA50" s="8">
+        <v>-14</v>
+      </c>
       <c r="AB50" s="5">
-        <v>0</v>
+        <v>-24.8</v>
       </c>
       <c r="AC50" s="5">
-        <v>-2</v>
-      </c>
-      <c r="AD50" s="8">
-        <v>-4</v>
-      </c>
-      <c r="AE50" s="8">
-        <v>-6</v>
-      </c>
-      <c r="AF50" s="8">
-        <v>-8</v>
-      </c>
-      <c r="AG50" s="8">
-        <v>-10</v>
+        <v>-22.8</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>-20.8</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>-18.8</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>-16.8</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>-14.8</v>
       </c>
       <c r="AH50" s="5"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4248,33 +4319,31 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="73" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z51" s="72"/>
       <c r="AA51" s="8">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="AB51" s="5">
-        <v>-30.8</v>
+        <v>-22.8</v>
       </c>
       <c r="AC51" s="5">
-        <v>-28.8</v>
+        <v>-20.8</v>
       </c>
       <c r="AD51" s="5">
-        <v>-26.8</v>
+        <v>-18.8</v>
       </c>
       <c r="AE51" s="5">
-        <v>-24.8</v>
+        <v>-16.8</v>
       </c>
       <c r="AF51" s="5">
-        <v>-22.8</v>
+        <v>-14.8</v>
       </c>
       <c r="AG51" s="5">
-        <v>-20.8</v>
+        <v>-12.8</v>
       </c>
       <c r="AH51" s="5"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4300,31 +4369,31 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="73"/>
+      <c r="Z52" s="72"/>
       <c r="AA52" s="8">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="AB52" s="5">
-        <v>-28.8</v>
+        <v>-20.8</v>
       </c>
       <c r="AC52" s="5">
-        <v>-26.8</v>
-      </c>
-      <c r="AD52" s="8">
-        <v>-24.8</v>
+        <v>-18.8</v>
+      </c>
+      <c r="AD52" s="5">
+        <v>-16.8</v>
       </c>
       <c r="AE52" s="5">
-        <v>-22.8</v>
+        <v>-14.8</v>
       </c>
       <c r="AF52" s="5">
-        <v>-20.8</v>
+        <v>-12.8</v>
       </c>
       <c r="AG52" s="5">
-        <v>-18.8</v>
+        <v>-10.8</v>
       </c>
       <c r="AH52" s="5"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4350,251 +4419,51 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="73"/>
-      <c r="AA53" s="8">
-        <v>-12</v>
-      </c>
-      <c r="AB53" s="5">
-        <v>-26.8</v>
-      </c>
-      <c r="AC53" s="5">
-        <v>-24.8</v>
-      </c>
-      <c r="AD53" s="5">
-        <v>-22.8</v>
-      </c>
-      <c r="AE53" s="5">
-        <v>-20.8</v>
-      </c>
-      <c r="AF53" s="5">
-        <v>-18.8</v>
-      </c>
-      <c r="AG53" s="5">
-        <v>-16.8</v>
-      </c>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="8">
-        <v>-14</v>
-      </c>
-      <c r="AB54" s="5">
-        <v>-24.8</v>
-      </c>
-      <c r="AC54" s="5">
-        <v>-22.8</v>
-      </c>
-      <c r="AD54" s="5">
-        <v>-20.8</v>
-      </c>
-      <c r="AE54" s="5">
-        <v>-18.8</v>
-      </c>
-      <c r="AF54" s="5">
-        <v>-16.8</v>
-      </c>
-      <c r="AG54" s="5">
-        <v>-14.8</v>
-      </c>
-      <c r="AH54" s="5"/>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="73"/>
-      <c r="AA55" s="8">
-        <v>-16</v>
-      </c>
-      <c r="AB55" s="5">
-        <v>-22.8</v>
-      </c>
-      <c r="AC55" s="5">
-        <v>-20.8</v>
-      </c>
-      <c r="AD55" s="5">
-        <v>-18.8</v>
-      </c>
-      <c r="AE55" s="5">
-        <v>-16.8</v>
-      </c>
-      <c r="AF55" s="5">
-        <v>-14.8</v>
-      </c>
-      <c r="AG55" s="5">
-        <v>-12.8</v>
-      </c>
-      <c r="AH55" s="5"/>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="8">
-        <v>-18</v>
-      </c>
-      <c r="AB56" s="5">
-        <v>-20.8</v>
-      </c>
-      <c r="AC56" s="5">
-        <v>-18.8</v>
-      </c>
-      <c r="AD56" s="5">
-        <v>-16.8</v>
-      </c>
-      <c r="AE56" s="5">
-        <v>-14.8</v>
-      </c>
-      <c r="AF56" s="5">
-        <v>-12.8</v>
-      </c>
-      <c r="AG56" s="5">
-        <v>-10.8</v>
-      </c>
-      <c r="AH56" s="5"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K59" t="s">
-        <v>82</v>
-      </c>
-      <c r="L59">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K60" t="s">
-        <v>83</v>
-      </c>
-      <c r="L60">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>73</v>
+      </c>
+      <c r="L56">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="Z51:Z56"/>
-    <mergeCell ref="AB29:AG29"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AB48:AG48"/>
-    <mergeCell ref="AB49:AG49"/>
-    <mergeCell ref="Z31:Z36"/>
-    <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AB38:AG38"/>
-    <mergeCell ref="Z41:Z46"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="Z47:Z52"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AB44:AG44"/>
+    <mergeCell ref="AB45:AG45"/>
+    <mergeCell ref="Z27:Z32"/>
+    <mergeCell ref="AB35:AG35"/>
+    <mergeCell ref="AB34:AG34"/>
+    <mergeCell ref="Z37:Z42"/>
   </mergeCells>
-  <conditionalFormatting sqref="AD31:AG36">
+  <conditionalFormatting sqref="AD27:AG32">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4606,7 +4475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD41:AG46">
+  <conditionalFormatting sqref="AD37:AG42">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4618,7 +4487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD51:AG56">
+  <conditionalFormatting sqref="AD47:AG52">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4630,7 +4499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC52:AC56">
+  <conditionalFormatting sqref="AC48:AC52">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4642,7 +4511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31:AG36">
+  <conditionalFormatting sqref="AC27:AG32">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4654,7 +4523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC41:AG46">
+  <conditionalFormatting sqref="AC37:AG42">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4666,7 +4535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC51:AG56">
+  <conditionalFormatting sqref="AC47:AG52">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4678,7 +4547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB53:AB56">
+  <conditionalFormatting sqref="AB49:AB52">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4690,7 +4559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AB56">
+  <conditionalFormatting sqref="AB48:AB52">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4702,7 +4571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB31:AG36">
+  <conditionalFormatting sqref="AB27:AG32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4714,7 +4583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB41:AG46">
+  <conditionalFormatting sqref="AB37:AG42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4726,7 +4595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AG56">
+  <conditionalFormatting sqref="AB47:AG52">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4738,8 +4607,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V26">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="V8:V22">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4758,48 +4627,411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G9:K10"/>
+  <dimension ref="E9:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9.1640625" style="56"/>
+    <col min="5" max="5" width="32.83203125" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="56"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E10" s="58"/>
+      <c r="F10" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="K10" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E11" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="61">
+        <v>4</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="62">
+        <f>F11</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="K11" s="56">
+        <f>-32.9+30+3</f>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="62">
+        <v>-1.5</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="63">
+        <f>H11+F12</f>
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="62"/>
+      <c r="L12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="63">
+        <f>K11+F12</f>
+        <v>-1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E13" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="62">
+        <v>-0.35</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="63">
+        <f t="shared" ref="H13:H19" si="0">H12+F13</f>
+        <v>2.15</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="63">
+        <f>M12+F13</f>
+        <v>-1.7499999999999987</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E14" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="62">
+        <v>-7</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="63">
+        <f t="shared" si="0"/>
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="K14" s="62">
+        <f>-38.3+30</f>
+        <v>-8.2999999999999972</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="63">
+        <f>M13+F14</f>
+        <v>-8.7499999999999982</v>
+      </c>
+      <c r="N14" s="63"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E15" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="62">
+        <v>-0.4</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="63">
+        <f t="shared" si="0"/>
+        <v>-5.25</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="63">
+        <f>K14+F15</f>
+        <v>-8.6999999999999975</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E16" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="62">
+        <v>-2</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="0"/>
+        <v>-7.25</v>
+      </c>
+      <c r="K16" s="62"/>
+      <c r="L16" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="63">
+        <f>N15+F16</f>
+        <v>-10.699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E17" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="63">
+        <v>24</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="63">
+        <f t="shared" si="0"/>
+        <v>16.75</v>
+      </c>
+      <c r="K17" s="63"/>
+      <c r="L17" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="63">
+        <f>N16+F17</f>
+        <v>13.300000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E18" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="63">
+        <v>-2</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="63">
+        <f t="shared" si="0"/>
+        <v>14.75</v>
+      </c>
+      <c r="K18" s="63"/>
+      <c r="L18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="63">
+        <f>N17+F18</f>
+        <v>11.300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E19" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="63">
+        <v>15.6</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="63">
+        <f t="shared" si="0"/>
+        <v>30.35</v>
+      </c>
+      <c r="K19" s="63"/>
+      <c r="L19" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="63">
+        <f>N18+F19</f>
+        <v>26.900000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F20" s="65"/>
+      <c r="K20" s="65"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E21" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="67">
+        <f>SUM(F11:F19)</f>
+        <v>30.35</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F22" s="63"/>
+      <c r="K22" s="63"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E23" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="63">
+        <v>-0.27</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="63">
+        <f>H19+F23</f>
+        <v>30.080000000000002</v>
+      </c>
+      <c r="K23" s="63">
+        <v>-0.27</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="63">
+        <f>N19+K23</f>
+        <v>26.630000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F24" s="65"/>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E25" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="67">
+        <f>SUM(F21:F24)</f>
+        <v>30.080000000000002</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F26" s="63"/>
+      <c r="K26" s="63"/>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E27" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F27" s="63">
+        <v>-0.5</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="63">
+        <f>H23+F27</f>
+        <v>29.580000000000002</v>
+      </c>
+      <c r="K27" s="63">
+        <v>-0.5</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="63">
+        <f>N23+K27</f>
+        <v>26.130000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="68"/>
+      <c r="K28" s="68"/>
+    </row>
+    <row r="29" spans="5:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="63">
+        <f>F25+F27</f>
+        <v>29.580000000000002</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="63"/>
+      <c r="L29" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E30" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10">
-        <f>4.98*0.98</f>
-        <v>4.8804000000000007</v>
-      </c>
-      <c r="K10">
-        <f>4.98*1.02</f>
-        <v>5.0796000000000001</v>
+      <c r="F30" s="63">
+        <f>-5.53+30</f>
+        <v>24.47</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="63">
+        <v>25</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="63">
+        <f>K30-N27</f>
+        <v>-1.1300000000000026</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E32" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="69">
+        <f>F29-F30</f>
+        <v>5.110000000000003</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="69"/>
+      <c r="L32" s="56" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4809,425 +5041,390 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:Q32"/>
+  <dimension ref="B5:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="56"/>
-    <col min="5" max="5" width="32.85546875" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="56"/>
+    <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F9" s="57"/>
-    </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="58"/>
-      <c r="F10" s="59" t="s">
+    <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+    </row>
+    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="K10" s="56" t="s">
+      <c r="E7" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="80"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="81">
+        <v>0.85</v>
+      </c>
+      <c r="C8" s="82">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="82">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E8" s="83">
+        <f>C8*D8/B8</f>
+        <v>0.90423529411764703</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="85">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="86">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="86">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="87">
+        <f t="shared" ref="E9:E17" si="0">C9*D9/B9</f>
+        <v>1.1294117647058823</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="85">
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="86">
+        <v>3.3</v>
+      </c>
+      <c r="D10" s="86">
+        <v>1</v>
+      </c>
+      <c r="E10" s="87">
+        <f t="shared" si="0"/>
+        <v>3.8823529411764706</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="85">
+        <v>1</v>
+      </c>
+      <c r="C11" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="86">
+        <v>2</v>
+      </c>
+      <c r="E11" s="87">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="85">
+        <v>1</v>
+      </c>
+      <c r="C12" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="87">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="85">
+        <v>1</v>
+      </c>
+      <c r="C13" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="86">
+        <v>2</v>
+      </c>
+      <c r="E13" s="87">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="85">
+        <v>1</v>
+      </c>
+      <c r="C14" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D14" s="86">
+        <v>2</v>
+      </c>
+      <c r="E14" s="87">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="85">
+        <v>1</v>
+      </c>
+      <c r="C15" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D15" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="87">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="85">
+        <v>1</v>
+      </c>
+      <c r="C16" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="87">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="85">
+        <v>1</v>
+      </c>
+      <c r="C17" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D17" s="86">
+        <v>1</v>
+      </c>
+      <c r="E17" s="87">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="80"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="87">
+        <f>SUM(E8:E17)</f>
+        <v>48.265999999999991</v>
+      </c>
+      <c r="F19" s="80"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="56" t="s">
+      <c r="E20" s="87">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="80"/>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="90">
+        <f>E19/E20</f>
+        <v>8.7756363636363623</v>
+      </c>
+      <c r="F21" s="91"/>
+    </row>
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="93" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="61">
-        <v>4</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="62">
-        <f>F11</f>
-        <v>4</v>
-      </c>
-      <c r="I11" s="60"/>
-      <c r="K11" s="56">
-        <f>-32.9+30+3</f>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="62">
-        <v>-1.5</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="63">
-        <f>H11+F12</f>
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="63">
-        <f>K11+F12</f>
-        <v>-1.3999999999999986</v>
-      </c>
-    </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="62">
-        <v>-0.35</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="63">
-        <f t="shared" ref="H13:H19" si="0">H12+F13</f>
-        <v>2.15</v>
-      </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="63">
-        <f>M12+F13</f>
-        <v>-1.7499999999999987</v>
-      </c>
-    </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="62">
-        <v>-7</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="63">
-        <f t="shared" si="0"/>
-        <v>-4.8499999999999996</v>
-      </c>
-      <c r="K14" s="62">
-        <f>-38.3+30</f>
-        <v>-8.2999999999999972</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="63">
-        <f>M13+F14</f>
-        <v>-8.7499999999999982</v>
-      </c>
-      <c r="N14" s="63"/>
-    </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="62">
-        <v>-0.4</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="63">
-        <f t="shared" si="0"/>
-        <v>-5.25</v>
-      </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="63">
-        <f>K14+F15</f>
-        <v>-8.6999999999999975</v>
-      </c>
-    </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="62">
-        <v>-2</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="63">
-        <f t="shared" si="0"/>
-        <v>-7.25</v>
-      </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="63">
-        <f>N15+F16</f>
-        <v>-10.699999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E17" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="63">
-        <v>24</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="63">
-        <f t="shared" si="0"/>
-        <v>16.75</v>
-      </c>
-      <c r="K17" s="63"/>
-      <c r="L17" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="63">
-        <f>N16+F17</f>
-        <v>13.300000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="63">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="63">
-        <f t="shared" si="0"/>
-        <v>14.75</v>
-      </c>
-      <c r="K18" s="63"/>
-      <c r="L18" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="63">
-        <f>N17+F18</f>
-        <v>11.300000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="63">
-        <v>15.6</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="63">
-        <f t="shared" si="0"/>
-        <v>30.35</v>
-      </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="63">
-        <f>N18+F19</f>
-        <v>26.900000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F20" s="65"/>
-      <c r="K20" s="65"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E21" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="67">
-        <f>SUM(F11:F19)</f>
-        <v>30.35</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="63"/>
-      <c r="K22" s="63"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E23" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="63">
-        <v>-0.27</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="63">
-        <f>H19+F23</f>
-        <v>30.080000000000002</v>
-      </c>
-      <c r="K23" s="63">
-        <v>-0.27</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="63">
-        <f>N19+K23</f>
-        <v>26.630000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F24" s="65"/>
-      <c r="K24" s="65"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E25" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="67">
-        <f>SUM(F21:F24)</f>
-        <v>30.080000000000002</v>
-      </c>
-      <c r="G25" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="63"/>
-      <c r="K26" s="63"/>
-    </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E27" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="63">
-        <v>-0.5</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="63">
-        <f>H23+F27</f>
-        <v>29.580000000000002</v>
-      </c>
-      <c r="K27" s="63">
-        <v>-0.5</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="63">
-        <f>N23+K27</f>
-        <v>26.130000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="68"/>
-      <c r="K28" s="68"/>
-    </row>
-    <row r="29" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="63">
-        <f>F25+F27</f>
-        <v>29.580000000000002</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E30" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="63">
-        <v>28.6</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="63">
-        <v>25</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="63">
-        <f>K30-N27</f>
-        <v>-1.1300000000000026</v>
-      </c>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E32" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="69">
-        <f>F29-F30</f>
-        <v>0.98000000000000043</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="69"/>
-      <c r="L32" s="56" t="s">
-        <v>3</v>
-      </c>
+      <c r="F25" s="94"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="85">
+        <v>0.85</v>
+      </c>
+      <c r="C26" s="86">
+        <v>5.5</v>
+      </c>
+      <c r="D26" s="86">
+        <v>6.3</v>
+      </c>
+      <c r="E26" s="87">
+        <f t="shared" ref="E26:E28" si="1">C26*D26/B26</f>
+        <v>40.764705882352942</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="85">
+        <v>1</v>
+      </c>
+      <c r="C27" s="86">
+        <v>29</v>
+      </c>
+      <c r="D27" s="86">
+        <v>1.8</v>
+      </c>
+      <c r="E27" s="87">
+        <f t="shared" si="1"/>
+        <v>52.2</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="85">
+        <v>1</v>
+      </c>
+      <c r="C28" s="86">
+        <v>29</v>
+      </c>
+      <c r="D28" s="86">
+        <v>1.8</v>
+      </c>
+      <c r="E28" s="87">
+        <f t="shared" si="1"/>
+        <v>52.2</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="80"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="87">
+        <f>SUM(E26:E28)</f>
+        <v>145.16470588235296</v>
+      </c>
+      <c r="F30" s="80"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="87">
+        <v>29</v>
+      </c>
+      <c r="F31" s="80"/>
+    </row>
+    <row r="32" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="90">
+        <f>E30/E31</f>
+        <v>5.0056795131845853</v>
+      </c>
+      <c r="F32" s="91"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B24:F24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2D5794-3F99-4245-A40E-CC092C47D5FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C4BC19-DFA8-0B48-946C-24FC1D8EA1D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="48580" windowHeight="27880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="15420" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="power_budget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -45,9 +45,6 @@
     <t>dBm</t>
   </si>
   <si>
-    <t>ADC (250 Msps)</t>
-  </si>
-  <si>
     <t>uW</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>part number</t>
   </si>
   <si>
-    <t>MAAL-009120</t>
-  </si>
-  <si>
-    <t>MGA-16116</t>
-  </si>
-  <si>
     <t>SF2098H</t>
   </si>
   <si>
@@ -138,27 +129,12 @@
     <t>AMP</t>
   </si>
   <si>
-    <t>SAW filter / image reject</t>
-  </si>
-  <si>
     <t>DSA (I.L. + setting)</t>
   </si>
   <si>
-    <t>output power (dBm)</t>
-  </si>
-  <si>
-    <t>DAC out / mixer in (dBm)</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>cable</t>
-  </si>
-  <si>
-    <t>connector</t>
-  </si>
-  <si>
     <t>legend</t>
   </si>
   <si>
@@ -168,54 +144,12 @@
     <t>things that you can program</t>
   </si>
   <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>chebychev filter</t>
-  </si>
-  <si>
-    <t>mixer filter</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-  <si>
     <t>amp output</t>
   </si>
   <si>
-    <t>mixer (dB), MAX2031</t>
-  </si>
-  <si>
-    <t>amp1 (dB), GVA-85+</t>
-  </si>
-  <si>
-    <t>amp2 (dB), ALM-31122</t>
-  </si>
-  <si>
-    <t>saw1 (dB), SF2098H</t>
-  </si>
-  <si>
-    <t>saw2 (dB), SF2098H</t>
-  </si>
-  <si>
-    <t>dB, estimated</t>
-  </si>
-  <si>
-    <t>transformer</t>
-  </si>
-  <si>
-    <t>meas</t>
-  </si>
-  <si>
     <t>budget</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>PE42820</t>
   </si>
   <si>
@@ -288,9 +222,6 @@
     <t>3.7V Supply</t>
   </si>
   <si>
-    <t>antenna</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -310,16 +241,107 @@
   </si>
   <si>
     <t>MEM2012SC470</t>
+  </si>
+  <si>
+    <t>SKY67150-396LF</t>
+  </si>
+  <si>
+    <t>baseband, fc (Hz)</t>
+  </si>
+  <si>
+    <t>50-Ohm S.E.</t>
+  </si>
+  <si>
+    <t>50-Ohm D.E.</t>
+  </si>
+  <si>
+    <t>100-Ohm D.E.</t>
+  </si>
+  <si>
+    <t>300-Ohm D.E.</t>
+  </si>
+  <si>
+    <t>output Z</t>
+  </si>
+  <si>
+    <t>377-Ohms S.E.</t>
+  </si>
+  <si>
+    <t>antenna IL</t>
+  </si>
+  <si>
+    <t>cable IL</t>
+  </si>
+  <si>
+    <t>connector IL</t>
+  </si>
+  <si>
+    <t>switch IL</t>
+  </si>
+  <si>
+    <t>SAW filter IL</t>
+  </si>
+  <si>
+    <t>subcarrier bw (Hz)</t>
+  </si>
+  <si>
+    <t>subcarrier noise floor (dBm)</t>
+  </si>
+  <si>
+    <t>ADC (250 Msps), Vpp(diff) = 2.0V</t>
+  </si>
+  <si>
+    <t>DAC3484</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>MMG3004NT1</t>
+  </si>
+  <si>
+    <t>preamp</t>
+  </si>
+  <si>
+    <t>SF2098</t>
+  </si>
+  <si>
+    <t>SAW filter</t>
+  </si>
+  <si>
+    <t>MMG3006NT1</t>
+  </si>
+  <si>
+    <t>NPA1006</t>
+  </si>
+  <si>
+    <t>power amplifier</t>
+  </si>
+  <si>
+    <t>PE42820MLBA-X</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>(12.5W max)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -397,13 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,8 +426,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +464,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -575,15 +603,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -745,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -753,7 +772,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -790,7 +808,6 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -817,57 +834,61 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -892,13 +913,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>536168</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>205891</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>27946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -956,13 +977,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1038,15 +1059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>72020</xdr:rowOff>
+      <xdr:colOff>219678</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>14870</xdr:rowOff>
+      <xdr:colOff>86329</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1061,8 +1082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7791450" y="6349678"/>
-          <a:ext cx="1932410" cy="328673"/>
+          <a:off x="8145121" y="6590817"/>
+          <a:ext cx="1932411" cy="328672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,15 +1142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>52969</xdr:rowOff>
+      <xdr:colOff>210153</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>698423</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>52667</xdr:rowOff>
+      <xdr:colOff>746651</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1144,8 +1165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="6300000">
-          <a:off x="8765705" y="4904759"/>
-          <a:ext cx="1993116" cy="1243839"/>
+          <a:off x="9034977" y="5061499"/>
+          <a:ext cx="2161913" cy="1243840"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst/>
@@ -1186,13 +1207,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>594810</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>4738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>264533</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1250,13 +1271,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>677766</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>24115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>892215</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>157465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1595,16 +1616,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" customWidth="1"/>
@@ -1632,8 +1654,12 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="84">
+        <v>915000000</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1655,19 +1681,18 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5">
-        <v>39000000</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="84">
+        <v>35000000</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1696,8 +1721,13 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="84">
+        <f>125000000/4096</f>
+        <v>30517.578125</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1725,9 +1755,16 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="83">
+        <f>-174+10*LOG10(H3)</f>
+        <v>-129.15449934959719</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1749,238 +1786,177 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <f>10^(E7/10)</f>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <f>10^(G7/10)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="17">
-        <f>H7</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" ref="K7:K8" si="0">10*LOG10(J7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
-        <f>F7</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19">
-        <f>Q8-E7</f>
-        <v>-44.6</v>
-      </c>
-      <c r="R7" s="20">
-        <f t="shared" ref="R7:R28" si="1">10^((Q7-30)/10)*1000000</f>
-        <v>3.4673685045253172E-2</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="21">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
-        <f>10^(E8/10)</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="23">
-        <f>ABS(E8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" ref="H8:H29" si="2">10^(G8/10)</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="25">
-        <f>J7+((H8-1)/N7)</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="3">
-        <f>E8+M7</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
-        <f>N7*F8</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="25">
-        <f t="shared" ref="Q8:Q27" si="3">Q9-E8</f>
-        <v>-44.6</v>
-      </c>
-      <c r="R8" s="33">
-        <f t="shared" si="1"/>
-        <v>3.4673685045253172E-2</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="26">
-        <f>K8-K7</f>
-        <v>0</v>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1988,126 +1964,123 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="38" t="s">
-        <v>41</v>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="21">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="22">
-        <f t="shared" ref="F9:F10" si="4">10^(E9/10)</f>
+      <c r="F9" s="14">
+        <f>10^(E9/10)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="23">
-        <f t="shared" ref="G9:G10" si="5">ABS(E9)</f>
+      <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="24">
-        <f t="shared" ref="H9:H10" si="6">10^(G9/10)</f>
+      <c r="H9" s="15">
+        <f>10^(G9/10)</f>
         <v>1</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="25">
-        <f t="shared" ref="J9:J10" si="7">J8+((H9-1)/N8)</f>
+      <c r="J9" s="16">
+        <f>H9</f>
         <v>1</v>
       </c>
-      <c r="K9" s="25">
-        <f t="shared" ref="K9:K10" si="8">10*LOG10(J9)</f>
+      <c r="K9" s="16">
+        <f t="shared" ref="K9:K10" si="0">10*LOG10(J9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="3">
-        <f t="shared" ref="M9:M10" si="9">E9+M8</f>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17">
         <v>0</v>
       </c>
-      <c r="N9" s="25">
-        <f t="shared" ref="N9:N10" si="10">N8*F9</f>
+      <c r="N9" s="16">
+        <f>F9</f>
         <v>1</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="25">
-        <f t="shared" si="3"/>
-        <v>-44.6</v>
-      </c>
-      <c r="R9" s="33">
-        <f t="shared" si="1"/>
-        <v>3.4673685045253172E-2</v>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18">
+        <f>Q10-E9</f>
+        <v>-40.46</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" ref="R9:R31" si="1">10^((Q9-30)/10)*1000000</f>
+        <v>8.9949758153003115E-2</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="26">
-        <f t="shared" ref="V9:V12" si="11">K9-K8</f>
-        <v>0</v>
-      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="80">
-        <v>132136</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>42</v>
+    <row r="10" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
-        <f t="shared" si="4"/>
+      <c r="F10" s="21">
+        <f>10^(E10/10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="23">
-        <f t="shared" si="5"/>
+      <c r="G10" s="22">
+        <f>ABS(E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
-        <f t="shared" si="6"/>
+      <c r="H10" s="23">
+        <f t="shared" ref="H10:H32" si="2">10^(G10/10)</f>
         <v>1</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="25">
-        <f t="shared" si="7"/>
+      <c r="J10" s="24">
+        <f>J9+((H10-1)/N9)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="25">
-        <f t="shared" si="8"/>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="3">
-        <f t="shared" si="9"/>
+        <f>E10+M9</f>
         <v>0</v>
       </c>
-      <c r="N10" s="25">
-        <f t="shared" si="10"/>
+      <c r="N10" s="24">
+        <f>N9*F10</f>
         <v>1</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="25">
-        <f t="shared" si="3"/>
-        <v>-44.6</v>
-      </c>
-      <c r="R10" s="33">
+      <c r="Q10" s="24">
+        <f t="shared" ref="Q10:Q30" si="3">Q11-E10</f>
+        <v>-40.46</v>
+      </c>
+      <c r="R10" s="31">
         <f t="shared" si="1"/>
-        <v>3.4673685045253172E-2</v>
+        <v>8.9949758153003115E-2</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="26">
-        <f t="shared" si="11"/>
+      <c r="V10" s="25">
+        <f>K10-K9</f>
         <v>0</v>
       </c>
       <c r="W10" s="3"/>
@@ -2117,63 +2090,63 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>40</v>
+      <c r="A11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="21">
-        <v>-0.3</v>
-      </c>
-      <c r="F11" s="27">
-        <f t="shared" ref="F11:F29" si="12">10^(E11/10)</f>
-        <v>0.93325430079699101</v>
-      </c>
-      <c r="G11" s="23">
-        <f>ABS(E11)</f>
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="24">
-        <f t="shared" si="2"/>
-        <v>1.0715193052376064</v>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" ref="F11:F12" si="4">10^(E11/10)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" ref="G11:G12" si="5">ABS(E11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" ref="H11:H12" si="6">10^(G11/10)</f>
+        <v>1</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="25">
-        <f t="shared" ref="J11:J28" si="13">J10+((H11-1)/N10)</f>
-        <v>1.0715193052376064</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" ref="K11:K28" si="14">10*LOG10(J11)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L11" s="25"/>
+      <c r="J11" s="24">
+        <f t="shared" ref="J11:J12" si="7">J10+((H11-1)/N10)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" ref="K11:K12" si="8">10*LOG10(J11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="24"/>
       <c r="M11" s="3">
-        <f t="shared" ref="M11:M28" si="15">E11+M10</f>
-        <v>-0.3</v>
-      </c>
-      <c r="N11" s="25">
-        <f t="shared" ref="N11:N28" si="16">N10*F11</f>
-        <v>0.93325430079699101</v>
+        <f t="shared" ref="M11:M12" si="9">E11+M10</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" ref="N11:N12" si="10">N10*F11</f>
+        <v>1</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="25">
+      <c r="Q11" s="24">
         <f t="shared" si="3"/>
-        <v>-44.6</v>
-      </c>
-      <c r="R11" s="33">
+        <v>-40.46</v>
+      </c>
+      <c r="R11" s="31">
         <f t="shared" si="1"/>
-        <v>3.4673685045253172E-2</v>
+        <v>8.9949758153003115E-2</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="26">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
+      <c r="V11" s="25">
+        <f t="shared" ref="V11:V14" si="11">K11-K10</f>
+        <v>0</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -2182,62 +2155,65 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F12" s="27">
-        <f t="shared" si="12"/>
-        <v>69.183097091893657</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" si="2"/>
-        <v>1.0543868963912588</v>
+      <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="72">
+        <v>132136</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="25">
-        <f t="shared" si="13"/>
-        <v>1.1297959146727978</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" si="14"/>
-        <v>0.53</v>
-      </c>
-      <c r="L12" s="25"/>
+      <c r="J12" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="24"/>
       <c r="M12" s="3">
-        <f t="shared" si="15"/>
-        <v>18.099999999999998</v>
-      </c>
-      <c r="N12" s="25">
-        <f t="shared" si="16"/>
-        <v>64.56542290346556</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="25">
+      <c r="Q12" s="24">
         <f t="shared" si="3"/>
-        <v>-44.9</v>
-      </c>
-      <c r="R12" s="33">
+        <v>-40.46</v>
+      </c>
+      <c r="R12" s="31">
         <f t="shared" si="1"/>
-        <v>3.235936569296273E-2</v>
+        <v>8.9949758153003115E-2</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="26">
+      <c r="V12" s="25">
         <f t="shared" si="11"/>
-        <v>0.23000000000000004</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -2246,63 +2222,65 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="21">
-        <v>-2</v>
-      </c>
-      <c r="F13" s="27">
-        <f t="shared" ref="F13" si="17">10^(E13/10)</f>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="E13" s="20">
+        <v>-0.3</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" ref="F13:F32" si="12">10^(E13/10)</f>
+        <v>0.93325430079699101</v>
+      </c>
+      <c r="G13" s="22">
         <f>ABS(E13)</f>
-        <v>2</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" ref="H13" si="18">10^(G13/10)</f>
-        <v>1.5848931924611136</v>
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0715193052376064</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="25">
-        <f t="shared" si="13"/>
-        <v>1.1388548376405234</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" si="14"/>
-        <v>0.5646837093653454</v>
-      </c>
-      <c r="L13" s="25"/>
+      <c r="J13" s="24">
+        <f t="shared" ref="J13:J30" si="13">J12+((H13-1)/N12)</f>
+        <v>1.0715193052376064</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" ref="K13:K30" si="14">10*LOG10(J13)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="24"/>
       <c r="M13" s="3">
-        <f t="shared" si="15"/>
-        <v>16.099999999999998</v>
-      </c>
-      <c r="N13" s="25">
-        <f t="shared" si="16"/>
-        <v>40.738027780411279</v>
+        <f t="shared" ref="M13:M30" si="15">E13+M12</f>
+        <v>-0.3</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" ref="N13:N30" si="16">N12*F13</f>
+        <v>0.93325430079699101</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="25">
+      <c r="Q13" s="24">
         <f t="shared" si="3"/>
-        <v>-26.5</v>
-      </c>
-      <c r="R13" s="33">
+        <v>-40.46</v>
+      </c>
+      <c r="R13" s="31">
         <f t="shared" si="1"/>
-        <v>2.2387211385683328</v>
+        <v>8.9949758153003115E-2</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="26">
-        <f t="shared" ref="V13:V18" si="19">K13-K12</f>
-        <v>3.4683709365345372E-2</v>
+      <c r="V13" s="25">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2311,63 +2289,64 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="55">
-        <v>-0.5</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="A14" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="F14" s="26">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
-      </c>
-      <c r="G14" s="23">
-        <f>ABS(E14)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="24">
+        <v>112.20184543019634</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="H14" s="23">
         <f t="shared" si="2"/>
-        <v>1.1220184543019636</v>
+        <v>1.0543868963912588</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <f t="shared" si="13"/>
-        <v>1.1418500355170549</v>
-      </c>
-      <c r="K14" s="25">
+        <v>1.1297959146727978</v>
+      </c>
+      <c r="K14" s="24">
         <f t="shared" si="14"/>
-        <v>0.57609069738140828</v>
-      </c>
-      <c r="L14" s="25"/>
+        <v>0.53</v>
+      </c>
+      <c r="L14" s="24"/>
       <c r="M14" s="3">
         <f t="shared" si="15"/>
-        <v>15.599999999999998</v>
-      </c>
-      <c r="N14" s="25">
+        <v>20.2</v>
+      </c>
+      <c r="N14" s="24">
         <f t="shared" si="16"/>
-        <v>36.307805477010135</v>
+        <v>104.71285480508995</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="25">
+      <c r="Q14" s="24">
         <f t="shared" si="3"/>
-        <v>-28.5</v>
-      </c>
-      <c r="R14" s="33">
+        <v>-40.76</v>
+      </c>
+      <c r="R14" s="31">
         <f t="shared" si="1"/>
-        <v>1.412537544622753</v>
+        <v>8.3945998651939982E-2</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="26">
-        <f t="shared" si="19"/>
-        <v>1.140698801606288E-2</v>
+      <c r="V14" s="25">
+        <f t="shared" si="11"/>
+        <v>0.23000000000000004</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2376,63 +2355,65 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>-2</v>
       </c>
-      <c r="F15" s="27">
-        <f t="shared" ref="F15" si="20">10^(E15/10)</f>
+      <c r="F15" s="26">
+        <f t="shared" ref="F15" si="17">10^(E15/10)</f>
         <v>0.63095734448019325</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <f>ABS(E15)</f>
         <v>2</v>
       </c>
-      <c r="H15" s="24">
-        <f t="shared" ref="H15" si="21">10^(G15/10)</f>
+      <c r="H15" s="23">
+        <f t="shared" ref="H15" si="18">10^(G15/10)</f>
         <v>1.5848931924611136</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" si="13"/>
-        <v>1.1579593317076897</v>
-      </c>
-      <c r="K15" s="25">
+        <v>1.1353816012969455</v>
+      </c>
+      <c r="K15" s="24">
         <f t="shared" si="14"/>
-        <v>0.63693306951792228</v>
-      </c>
-      <c r="L15" s="25"/>
+        <v>0.55141852263929469</v>
+      </c>
+      <c r="L15" s="24"/>
       <c r="M15" s="3">
         <f t="shared" si="15"/>
-        <v>13.599999999999998</v>
-      </c>
-      <c r="N15" s="25">
+        <v>18.2</v>
+      </c>
+      <c r="N15" s="24">
         <f t="shared" si="16"/>
-        <v>22.908676527677731</v>
+        <v>66.069344800759595</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="25">
+      <c r="Q15" s="24">
         <f t="shared" si="3"/>
-        <v>-29</v>
-      </c>
-      <c r="R15" s="33">
+        <v>-20.259999999999998</v>
+      </c>
+      <c r="R15" s="31">
         <f t="shared" si="1"/>
-        <v>1.2589254117941642</v>
+        <v>9.4188959652284083</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="26">
-        <f t="shared" si="19"/>
-        <v>6.0842372136514E-2</v>
+      <c r="V15" s="25">
+        <f t="shared" ref="V15:V20" si="19">K15-K14</f>
+        <v>2.1418522639294668E-2</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -2441,62 +2422,65 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="21">
-        <v>19.5</v>
-      </c>
-      <c r="F16" s="27">
-        <f t="shared" ref="F16" si="22">10^(E16/10)</f>
-        <v>89.125093813374562</v>
-      </c>
-      <c r="G16" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="H16" s="24">
-        <f t="shared" ref="H16" si="23">10^(G16/10)</f>
-        <v>2.1877616239495525</v>
+      <c r="C16" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="50">
+        <v>-0.5</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="12"/>
+        <v>0.89125093813374545</v>
+      </c>
+      <c r="G16" s="22">
+        <f>ABS(E16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="2"/>
+        <v>1.1220184543019636</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <f t="shared" si="13"/>
-        <v>1.2098070070858167</v>
-      </c>
-      <c r="K16" s="25">
+        <v>1.1372284253372009</v>
+      </c>
+      <c r="K16" s="24">
         <f t="shared" si="14"/>
-        <v>0.82716095570481885</v>
-      </c>
-      <c r="L16" s="25"/>
+        <v>0.55847706464067903</v>
+      </c>
+      <c r="L16" s="24"/>
       <c r="M16" s="3">
         <f t="shared" si="15"/>
-        <v>33.099999999999994</v>
-      </c>
-      <c r="N16" s="25">
+        <v>17.7</v>
+      </c>
+      <c r="N16" s="24">
         <f t="shared" si="16"/>
-        <v>2041.7379446695295</v>
+        <v>58.884365535558885</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="25">
+      <c r="Q16" s="24">
         <f t="shared" si="3"/>
-        <v>-31</v>
-      </c>
-      <c r="R16" s="33">
+        <v>-22.259999999999998</v>
+      </c>
+      <c r="R16" s="31">
         <f t="shared" si="1"/>
-        <v>0.79432823472428116</v>
+        <v>5.9429215861557241</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="26">
+      <c r="V16" s="25">
         <f t="shared" si="19"/>
-        <v>0.19022788618689657</v>
+        <v>7.0585420013843381E-3</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -2505,138 +2489,131 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="82">
-        <v>-7</v>
-      </c>
-      <c r="F17" s="83">
-        <f t="shared" si="12"/>
-        <v>0.19952623149688795</v>
-      </c>
-      <c r="G17" s="84">
-        <v>7</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="2"/>
-        <v>5.0118723362727229</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="83">
+      <c r="A17" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="20">
+        <v>-2</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" ref="F17" si="20">10^(E17/10)</f>
+        <v>0.63095734448019325</v>
+      </c>
+      <c r="G17" s="22">
+        <f>ABS(E17)</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" ref="H17" si="21">10^(G17/10)</f>
+        <v>1.5848931924611136</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="24">
         <f t="shared" si="13"/>
-        <v>1.2117719371821332</v>
-      </c>
-      <c r="K17" s="83">
+        <v>1.1471613368518527</v>
+      </c>
+      <c r="K17" s="24">
         <f t="shared" si="14"/>
-        <v>0.83420890669120062</v>
-      </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="78">
+        <v>0.59624501403528196</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="3">
         <f t="shared" si="15"/>
-        <v>26.099999999999994</v>
-      </c>
-      <c r="N17" s="83">
+        <v>15.7</v>
+      </c>
+      <c r="N17" s="24">
         <f t="shared" si="16"/>
-        <v>407.38027780411272</v>
-      </c>
-      <c r="O17" s="78">
-        <v>0</v>
-      </c>
-      <c r="P17" s="78">
-        <v>-10</v>
-      </c>
-      <c r="Q17" s="83">
+        <v>37.153522909717246</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="24">
         <f t="shared" si="3"/>
-        <v>-11.5</v>
-      </c>
-      <c r="R17" s="87">
+        <v>-22.759999999999998</v>
+      </c>
+      <c r="R17" s="31">
         <f t="shared" si="1"/>
-        <v>70.794578438413708</v>
-      </c>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78">
-        <v>36</v>
-      </c>
-      <c r="U17" s="78">
-        <f>Q17 - (T17-Q17)*3</f>
-        <v>-154</v>
-      </c>
-      <c r="V17" s="86">
+        <v>5.2966344389165778</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="25">
         <f t="shared" si="19"/>
-        <v>7.0479509863817791E-3</v>
-      </c>
-      <c r="W17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
+        <v>3.7767949394602929E-2</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1">
-        <v>-1.4</v>
-      </c>
-      <c r="F18" s="27">
-        <f t="shared" si="12"/>
-        <v>0.72443596007499012</v>
-      </c>
-      <c r="G18" s="23">
-        <f>ABS(E18)</f>
-        <v>1.4</v>
-      </c>
-      <c r="H18" s="24">
-        <f t="shared" si="2"/>
-        <v>1.3803842646028848</v>
+      <c r="A18" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" ref="F18" si="22">10^(E18/10)</f>
+        <v>112.20184543019634</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" ref="H18" si="23">10^(G18/10)</f>
+        <v>1.0543868963912588</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <f t="shared" si="13"/>
-        <v>1.2127056698278402</v>
-      </c>
-      <c r="K18" s="25">
+        <v>1.1486251790969992</v>
+      </c>
+      <c r="K18" s="24">
         <f t="shared" si="14"/>
-        <v>0.83755408055034541</v>
-      </c>
-      <c r="L18" s="25"/>
+        <v>0.60178332250763344</v>
+      </c>
+      <c r="L18" s="24"/>
       <c r="M18" s="3">
         <f t="shared" si="15"/>
-        <v>24.699999999999996</v>
-      </c>
-      <c r="N18" s="25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="N18" s="24">
         <f t="shared" si="16"/>
-        <v>295.12092266663859</v>
+        <v>4168.6938347033529</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="25">
+      <c r="Q18" s="24">
         <f t="shared" si="3"/>
-        <v>-18.5</v>
-      </c>
-      <c r="R18" s="33">
+        <v>-24.759999999999998</v>
+      </c>
+      <c r="R18" s="31">
         <f t="shared" si="1"/>
-        <v>14.125375446227546</v>
+        <v>3.3419504002611373</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="26">
+      <c r="V18" s="25">
         <f t="shared" si="19"/>
-        <v>3.3451738591447899E-3</v>
+        <v>5.538308472351483E-3</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2645,127 +2622,142 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="A19" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="74">
+        <v>-7</v>
+      </c>
+      <c r="F19" s="75">
         <f t="shared" si="12"/>
-        <v>0.79432823472428149</v>
-      </c>
-      <c r="G19" s="23">
-        <f>ABS(E19)</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="24">
-        <f t="shared" ref="H19" si="24">10^(G19/10)</f>
-        <v>1.2589254117941673</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="25">
+        <v>0.19952623149688795</v>
+      </c>
+      <c r="G19" s="76">
+        <v>7</v>
+      </c>
+      <c r="H19" s="77">
+        <f t="shared" si="2"/>
+        <v>5.0118723362727229</v>
+      </c>
+      <c r="I19" s="70"/>
+      <c r="J19" s="75">
         <f t="shared" si="13"/>
-        <v>1.2135830234544642</v>
-      </c>
-      <c r="K19" s="25">
+        <v>1.1495875602397148</v>
+      </c>
+      <c r="K19" s="75">
         <f t="shared" si="14"/>
-        <v>0.84069492571343729</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="3">
+        <v>0.60542055623317403</v>
+      </c>
+      <c r="L19" s="75"/>
+      <c r="M19" s="70">
         <f t="shared" si="15"/>
-        <v>23.699999999999996</v>
-      </c>
-      <c r="N19" s="25">
+        <v>29.200000000000003</v>
+      </c>
+      <c r="N19" s="75">
         <f t="shared" si="16"/>
-        <v>234.42288153199223</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="25">
+        <v>831.76377110267072</v>
+      </c>
+      <c r="O19" s="70">
+        <v>0</v>
+      </c>
+      <c r="P19" s="70">
+        <v>-10</v>
+      </c>
+      <c r="Q19" s="75">
         <f t="shared" si="3"/>
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="R19" s="33">
+        <v>-4.26</v>
+      </c>
+      <c r="R19" s="79">
         <f t="shared" si="1"/>
-        <v>10.232929922807521</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="26">
-        <f t="shared" ref="V19" si="25">K19-K18</f>
-        <v>3.1408451630918766E-3</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+        <v>374.97300224548354</v>
+      </c>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70">
+        <v>36</v>
+      </c>
+      <c r="U19" s="70">
+        <f>Q19 - (T19-Q19)*3</f>
+        <v>-125.04</v>
+      </c>
+      <c r="V19" s="78">
+        <f t="shared" si="19"/>
+        <v>3.6372337255405895E-3</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="82" t="s">
+        <v>74</v>
+      </c>
       <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31">
-        <v>7.3</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="D20" s="3"/>
+      <c r="E20" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="F20" s="26">
         <f t="shared" si="12"/>
-        <v>5.3703179637025285</v>
-      </c>
-      <c r="G20" s="81">
-        <v>10</v>
-      </c>
-      <c r="H20" s="24">
+        <v>0.72443596007499012</v>
+      </c>
+      <c r="G20" s="22">
+        <f>ABS(E20)</f>
+        <v>1.4</v>
+      </c>
+      <c r="H20" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1.3803842646028848</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <f t="shared" si="13"/>
-        <v>1.2519751801466075</v>
-      </c>
-      <c r="K20" s="25">
+        <v>1.1500448827125349</v>
+      </c>
+      <c r="K20" s="24">
         <f t="shared" si="14"/>
-        <v>0.97595719264015501</v>
-      </c>
-      <c r="L20" s="25"/>
+        <v>0.60714789861454543</v>
+      </c>
+      <c r="L20" s="24"/>
       <c r="M20" s="3">
         <f t="shared" si="15"/>
-        <v>30.999999999999996</v>
-      </c>
-      <c r="N20" s="25">
+        <v>27.800000000000004</v>
+      </c>
+      <c r="N20" s="24">
         <f t="shared" si="16"/>
-        <v>1258.9254117941675</v>
+        <v>602.55958607435753</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="25">
+      <c r="Q20" s="24">
         <f t="shared" si="3"/>
-        <v>-20.9</v>
-      </c>
-      <c r="R20" s="33">
+        <v>-11.26</v>
+      </c>
+      <c r="R20" s="31">
         <f t="shared" si="1"/>
-        <v>8.1283051616409825</v>
+        <v>74.816950051115413</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="26">
-        <f>K20-K18</f>
-        <v>0.1384031120898096</v>
+      <c r="V20" s="25">
+        <f t="shared" si="19"/>
+        <v>1.7273423813713995E-3</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2774,63 +2766,65 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31">
-        <v>-0.5</v>
-      </c>
-      <c r="F21" s="27">
+        <v>66</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1">
+        <v>-0.37</v>
+      </c>
+      <c r="F21" s="26">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
-      </c>
-      <c r="G21" s="23">
+        <v>0.9183325964835809</v>
+      </c>
+      <c r="G21" s="22">
         <f>ABS(E21)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="24">
-        <f t="shared" si="2"/>
-        <v>1.1220184543019636</v>
+        <v>0.37</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" ref="H21" si="24">10^(G21/10)</f>
+        <v>1.0889300933334334</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <f t="shared" si="13"/>
-        <v>1.252072102850017</v>
-      </c>
-      <c r="K21" s="25">
+        <v>1.1501924699311084</v>
+      </c>
+      <c r="K21" s="24">
         <f t="shared" si="14"/>
-        <v>0.97629339232431234</v>
-      </c>
-      <c r="L21" s="25"/>
+        <v>0.60770520036116904</v>
+      </c>
+      <c r="L21" s="24"/>
       <c r="M21" s="3">
         <f t="shared" si="15"/>
-        <v>30.499999999999996</v>
-      </c>
-      <c r="N21" s="25">
+        <v>27.430000000000003</v>
+      </c>
+      <c r="N21" s="24">
         <f t="shared" si="16"/>
-        <v>1122.0184543019636</v>
+        <v>553.35010921573655</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="25">
+      <c r="Q21" s="24">
         <f t="shared" si="3"/>
-        <v>-13.6</v>
-      </c>
-      <c r="R21" s="33">
+        <v>-12.66</v>
+      </c>
+      <c r="R21" s="31">
         <f t="shared" si="1"/>
-        <v>43.651583224016562</v>
+        <v>54.200089040162347</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="26">
-        <f t="shared" ref="V21:V28" si="26">K21-K19</f>
-        <v>0.13559846661087505</v>
+      <c r="V21" s="25">
+        <f t="shared" ref="V21" si="25">K21-K20</f>
+        <v>5.5730174662360632E-4</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2839,63 +2833,64 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
+        <v>22</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="F22" s="26">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="23">
-        <f>ABS(E22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
+        <v>5.3703179637025285</v>
+      </c>
+      <c r="G22" s="73">
+        <v>10</v>
+      </c>
+      <c r="H22" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="25">
+      <c r="J22" s="24">
         <f t="shared" si="13"/>
-        <v>1.252072102850017</v>
-      </c>
-      <c r="K22" s="25">
+        <v>1.1664570370652068</v>
+      </c>
+      <c r="K22" s="24">
         <f t="shared" si="14"/>
-        <v>0.97629339232431234</v>
-      </c>
-      <c r="L22" s="25"/>
+        <v>0.66868747494007263</v>
+      </c>
+      <c r="L22" s="24"/>
       <c r="M22" s="3">
         <f t="shared" si="15"/>
-        <v>30.499999999999996</v>
-      </c>
-      <c r="N22" s="25">
+        <v>34.730000000000004</v>
+      </c>
+      <c r="N22" s="24">
         <f t="shared" si="16"/>
-        <v>1122.0184543019636</v>
+        <v>2971.666031738026</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="25">
+      <c r="Q22" s="24">
         <f t="shared" si="3"/>
-        <v>-14.1</v>
-      </c>
-      <c r="R22" s="33">
+        <v>-13.03</v>
+      </c>
+      <c r="R22" s="31">
         <f t="shared" si="1"/>
-        <v>38.904514499428046</v>
+        <v>49.773708497893601</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="26">
-        <f t="shared" si="26"/>
-        <v>3.3619968415732338E-4</v>
+      <c r="V22" s="25">
+        <f>K22-K20</f>
+        <v>6.1539576325527201E-2</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2904,62 +2899,65 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="F23" s="26">
         <f t="shared" si="12"/>
-        <v>5.3703179637025285</v>
-      </c>
-      <c r="G23" s="81">
-        <v>10</v>
-      </c>
-      <c r="H23" s="24">
+        <v>0.89125093813374545</v>
+      </c>
+      <c r="G23" s="22">
+        <f>ABS(E23)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1.1220184543019636</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <f t="shared" si="13"/>
-        <v>1.2600933612932208</v>
-      </c>
-      <c r="K23" s="25">
+        <v>1.1664980976867567</v>
+      </c>
+      <c r="K23" s="24">
         <f t="shared" si="14"/>
-        <v>1.004027235242128</v>
-      </c>
-      <c r="L23" s="25"/>
+        <v>0.6688403488732132</v>
+      </c>
+      <c r="L23" s="24"/>
       <c r="M23" s="3">
         <f t="shared" si="15"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="N23" s="25">
+        <v>34.230000000000004</v>
+      </c>
+      <c r="N23" s="24">
         <f t="shared" si="16"/>
-        <v>6025.5958607435796</v>
+        <v>2648.5001386067001</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="25">
+      <c r="Q23" s="24">
         <f t="shared" si="3"/>
-        <v>-14.1</v>
-      </c>
-      <c r="R23" s="33">
+        <v>-5.7299999999999995</v>
+      </c>
+      <c r="R23" s="31">
         <f t="shared" si="1"/>
-        <v>38.904514499428046</v>
+        <v>267.30064086633115</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="26">
-        <f t="shared" si="26"/>
-        <v>2.7733842917815665E-2</v>
+      <c r="V23" s="25">
+        <f t="shared" ref="V23:V31" si="26">K23-K21</f>
+        <v>6.1135148512044157E-2</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -2968,63 +2966,65 @@
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="6"/>
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
-      </c>
-      <c r="G24" s="23">
-        <f>E24</f>
-        <v>-0.5</v>
-      </c>
-      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <f>ABS(E24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="23">
         <f t="shared" si="2"/>
-        <v>0.89125093813374545</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <f t="shared" si="13"/>
-        <v>1.2600753134412939</v>
-      </c>
-      <c r="K24" s="25">
+        <v>1.1664980976867567</v>
+      </c>
+      <c r="K24" s="24">
         <f t="shared" si="14"/>
-        <v>1.0039650324016531</v>
-      </c>
-      <c r="L24" s="25"/>
+        <v>0.6688403488732132</v>
+      </c>
+      <c r="L24" s="24"/>
       <c r="M24" s="3">
         <f t="shared" si="15"/>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="N24" s="25">
+        <v>34.230000000000004</v>
+      </c>
+      <c r="N24" s="24">
         <f t="shared" si="16"/>
-        <v>5370.3179637025287</v>
+        <v>2648.5001386067001</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="25">
+      <c r="Q24" s="24">
         <f t="shared" si="3"/>
-        <v>-6.8</v>
-      </c>
-      <c r="R24" s="33">
+        <v>-6.2299999999999995</v>
+      </c>
+      <c r="R24" s="31">
         <f t="shared" si="1"/>
-        <v>208.92961308540387</v>
+        <v>238.23194693586913</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="26">
+      <c r="V24" s="25">
         <f t="shared" si="26"/>
-        <v>2.7671640077340798E-2</v>
+        <v>1.5287393314056263E-4</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3033,63 +3033,64 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="6"/>
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="23">
-        <f>E25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="24">
+        <v>5.3703179637025285</v>
+      </c>
+      <c r="G25" s="73">
+        <v>10</v>
+      </c>
+      <c r="H25" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <f t="shared" si="13"/>
-        <v>1.2600753134412939</v>
-      </c>
-      <c r="K25" s="25">
+        <v>1.1698962474050854</v>
+      </c>
+      <c r="K25" s="24">
         <f t="shared" si="14"/>
-        <v>1.0039650324016531</v>
-      </c>
-      <c r="L25" s="25"/>
+        <v>0.68147347919290835</v>
+      </c>
+      <c r="L25" s="24"/>
       <c r="M25" s="3">
         <f t="shared" si="15"/>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="N25" s="25">
+        <v>41.53</v>
+      </c>
+      <c r="N25" s="24">
         <f t="shared" si="16"/>
-        <v>5370.3179637025287</v>
+        <v>14223.287871228198</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="25">
+      <c r="Q25" s="24">
         <f t="shared" si="3"/>
-        <v>-7.3</v>
-      </c>
-      <c r="R25" s="33">
+        <v>-6.2299999999999995</v>
+      </c>
+      <c r="R25" s="31">
         <f t="shared" si="1"/>
-        <v>186.20871366628677</v>
+        <v>238.23194693586913</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="26">
+      <c r="V25" s="25">
         <f t="shared" si="26"/>
-        <v>-6.2202840474867571E-5</v>
+        <v>1.2633130319695152E-2</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3098,62 +3099,65 @@
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6"/>
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="1">
-        <v>7.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="12"/>
-        <v>5.3703179637025285</v>
-      </c>
-      <c r="G26" s="81">
-        <v>10</v>
-      </c>
-      <c r="H26" s="24">
+        <v>0.89125093813374545</v>
+      </c>
+      <c r="G26" s="22">
+        <f>E26</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H26" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0.89125093813374545</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <f t="shared" si="13"/>
-        <v>1.2617511918642905</v>
-      </c>
-      <c r="K26" s="25">
+        <v>1.1698886015595642</v>
+      </c>
+      <c r="K26" s="24">
         <f t="shared" si="14"/>
-        <v>1.0097372364534312</v>
-      </c>
-      <c r="L26" s="25"/>
+        <v>0.68144509582662738</v>
+      </c>
+      <c r="L26" s="24"/>
       <c r="M26" s="3">
         <f t="shared" si="15"/>
-        <v>44.599999999999994</v>
-      </c>
-      <c r="N26" s="25">
+        <v>41.03</v>
+      </c>
+      <c r="N26" s="24">
         <f t="shared" si="16"/>
-        <v>28840.315031266073</v>
+        <v>12676.518658578454</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="25">
-        <f t="shared" ref="Q26:Q27" si="27">Q31-E26</f>
-        <v>-7.3</v>
-      </c>
-      <c r="R26" s="33">
+      <c r="Q26" s="24">
+        <f t="shared" si="3"/>
+        <v>1.0700000000000003</v>
+      </c>
+      <c r="R26" s="31">
         <f t="shared" si="1"/>
-        <v>186.20871366628677</v>
+        <v>1279.3813041575243</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="26">
+      <c r="V26" s="25">
         <f t="shared" si="26"/>
-        <v>5.7722040517780293E-3</v>
+        <v>1.2604746953414181E-2</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3161,64 +3165,66 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="6"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
-      </c>
-      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
         <f>E27</f>
-        <v>-0.5</v>
-      </c>
-      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
         <f t="shared" si="2"/>
-        <v>0.89125093813374545</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="25">
+      <c r="J27" s="24">
         <f t="shared" si="13"/>
-        <v>1.2617474211335704</v>
-      </c>
-      <c r="K27" s="25">
+        <v>1.1698886015595642</v>
+      </c>
+      <c r="K27" s="24">
         <f t="shared" si="14"/>
-        <v>1.009724257587217</v>
-      </c>
-      <c r="L27" s="25"/>
+        <v>0.68144509582662738</v>
+      </c>
+      <c r="L27" s="24"/>
       <c r="M27" s="3">
         <f t="shared" si="15"/>
-        <v>44.099999999999994</v>
-      </c>
-      <c r="N27" s="25">
+        <v>41.03</v>
+      </c>
+      <c r="N27" s="24">
         <f t="shared" si="16"/>
-        <v>25703.957827688646</v>
+        <v>12676.518658578454</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="25">
-        <f t="shared" si="27"/>
-        <v>0.5</v>
-      </c>
-      <c r="R27" s="33">
+      <c r="Q27" s="24">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="R27" s="31">
         <f t="shared" si="1"/>
-        <v>1122.0184543019623</v>
+        <v>1140.2497875611678</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="26">
+      <c r="V27" s="25">
         <f t="shared" si="26"/>
-        <v>5.759225185563821E-3</v>
+        <v>-2.8383366280970712E-5</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3226,63 +3232,65 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
-        <v>8</v>
-      </c>
-      <c r="H28" s="24">
+        <v>5.3703179637025285</v>
+      </c>
+      <c r="G28" s="73">
+        <v>10</v>
+      </c>
+      <c r="H28" s="23">
         <f t="shared" si="2"/>
-        <v>6.3095734448019343</v>
+        <v>10</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="25">
+      <c r="J28" s="24">
         <f t="shared" si="13"/>
-        <v>1.2619539875106396</v>
-      </c>
-      <c r="K28" s="25">
+        <v>1.1705985756654209</v>
+      </c>
+      <c r="K28" s="24">
         <f t="shared" si="14"/>
-        <v>1.0104352025318206</v>
-      </c>
-      <c r="L28" s="25"/>
+        <v>0.68407991347421571</v>
+      </c>
+      <c r="L28" s="24"/>
       <c r="M28" s="3">
         <f t="shared" si="15"/>
-        <v>44.099999999999994</v>
-      </c>
-      <c r="N28" s="25">
+        <v>48.33</v>
+      </c>
+      <c r="N28" s="24">
         <f t="shared" si="16"/>
-        <v>25703.957827688646</v>
+        <v>68076.935869374152</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="28">
-        <f t="shared" ref="Q28" si="28">Q29-E28</f>
-        <v>7</v>
-      </c>
-      <c r="R28" s="33">
+      <c r="Q28" s="24">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="R28" s="31">
         <f t="shared" si="1"/>
-        <v>5011.8723362727214</v>
+        <v>1140.2497875611678</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="26">
+      <c r="V28" s="25">
         <f t="shared" si="26"/>
-        <v>6.979660783894559E-4</v>
+        <v>2.6348176475883278E-3</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3290,66 +3298,66 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="23">
-        <v>27</v>
-      </c>
-      <c r="H29" s="24">
+        <v>0.89125093813374545</v>
+      </c>
+      <c r="G29" s="22">
+        <f>E29</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H29" s="23">
         <f t="shared" si="2"/>
-        <v>501.18723362727269</v>
+        <v>0.89125093813374545</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="88">
-        <f>J28+((H29-1)/N28)</f>
-        <v>1.2814135289937205</v>
-      </c>
-      <c r="K29" s="32">
-        <f t="shared" ref="K29" si="29">10*LOG10(J29)</f>
-        <v>1.0768930490346287</v>
-      </c>
-      <c r="L29" s="25"/>
+      <c r="J29" s="24">
+        <f t="shared" si="13"/>
+        <v>1.1705969782218744</v>
+      </c>
+      <c r="K29" s="24">
+        <f t="shared" si="14"/>
+        <v>0.68407398692172172</v>
+      </c>
+      <c r="L29" s="24"/>
       <c r="M29" s="3">
-        <f>E29+M28</f>
-        <v>44.099999999999994</v>
-      </c>
-      <c r="N29" s="25">
-        <f>N28*F29</f>
-        <v>25703.957827688646</v>
-      </c>
-      <c r="O29" s="3">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="89">
-        <v>7</v>
-      </c>
-      <c r="R29" s="33">
-        <f t="shared" ref="R29" si="30">10^((Q29-30)/10)*1000000</f>
-        <v>5011.8723362727214</v>
+        <f t="shared" si="15"/>
+        <v>47.83</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="16"/>
+        <v>60673.63295885054</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="24">
+        <f t="shared" si="3"/>
+        <v>7.87</v>
+      </c>
+      <c r="R29" s="31">
+        <f t="shared" si="1"/>
+        <v>6123.5039172477318</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="26">
-        <f>K29-K28</f>
-        <v>6.645784650280806E-2</v>
+      <c r="V29" s="25">
+        <f t="shared" si="26"/>
+        <v>2.6288910950943434E-3</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -3357,108 +3365,222 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="36"/>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
+        <f>ABS(E30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="25"/>
+      <c r="J30" s="24">
+        <f t="shared" si="13"/>
+        <v>1.1705969782218744</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" si="14"/>
+        <v>0.68407398692172172</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="3">
+        <f t="shared" si="15"/>
+        <v>47.83</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" si="16"/>
+        <v>60673.63295885054</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="Q30" s="24">
+        <f t="shared" si="3"/>
+        <v>7.37</v>
+      </c>
+      <c r="R30" s="31">
+        <f t="shared" si="1"/>
+        <v>5457.5786109127084</v>
+      </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="V30" s="25">
+        <f t="shared" si="26"/>
+        <v>-5.9265524939844383E-6</v>
+      </c>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="E31" s="1">
+        <v>-0.37</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="12"/>
+        <v>0.9183325964835809</v>
+      </c>
+      <c r="G31" s="22">
+        <f>ABS(E31)</f>
+        <v>0.37</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0889300933334334</v>
+      </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="25"/>
+      <c r="J31" s="24">
+        <f t="shared" ref="J31" si="27">J30+((H31-1)/N30)</f>
+        <v>1.1705984439342274</v>
+      </c>
+      <c r="K31" s="24">
+        <f t="shared" ref="K31" si="28">10*LOG10(J31)</f>
+        <v>0.68407942474874783</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="3">
+        <f t="shared" ref="M31" si="29">E31+M30</f>
+        <v>47.46</v>
+      </c>
+      <c r="N31" s="24">
+        <f t="shared" ref="N31" si="30">N30*F31</f>
+        <v>55718.574893192985</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="Q31" s="24">
+        <f>Q32-E31</f>
+        <v>7.37</v>
+      </c>
+      <c r="R31" s="31">
+        <f t="shared" si="1"/>
+        <v>5457.5786109127084</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="V31" s="25">
+        <f t="shared" si="26"/>
+        <v>5.437827026111286E-6</v>
+      </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="22">
+        <v>27</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="2"/>
+        <v>501.18723362727269</v>
+      </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="J32" s="80">
+        <f>J30+((H32-1)/N30)</f>
+        <v>1.178840876093731</v>
+      </c>
+      <c r="K32" s="30">
+        <f t="shared" ref="K32" si="31">10*LOG10(J32)</f>
+        <v>0.71455186521429559</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" s="3">
+        <f>E32+M30</f>
+        <v>47.83</v>
+      </c>
+      <c r="N32" s="24">
+        <f>N30*F32</f>
+        <v>60673.63295885054</v>
+      </c>
+      <c r="O32" s="3">
+        <v>9</v>
+      </c>
+      <c r="P32" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="81">
+        <v>7</v>
+      </c>
+      <c r="R32" s="31">
+        <f t="shared" ref="R32" si="32">10^((Q32-30)/10)*1000000</f>
+        <v>5011.8723362727214</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="V32" s="25">
+        <f>K32-K30</f>
+        <v>3.0477878292573868E-2</v>
+      </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="24"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3467,11 +3589,11 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3487,9 +3609,9 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3517,8 +3639,8 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3546,8 +3668,8 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3563,22 +3685,20 @@
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3606,8 +3726,8 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3622,12 +3742,8 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3639,8 +3755,8 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3656,20 +3772,22 @@
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3697,8 +3815,8 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -3713,8 +3831,12 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3726,8 +3848,8 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -3755,8 +3877,8 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -3784,8 +3906,8 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -3813,8 +3935,8 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -3842,8 +3964,8 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -3871,8 +3993,8 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -3900,8 +4022,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -3929,8 +4051,8 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -3958,8 +4080,8 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -3987,8 +4109,8 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4016,8 +4138,8 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4045,8 +4167,8 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4074,8 +4196,8 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -4103,8 +4225,8 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -4175,8 +4297,95 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="V8:V29">
+  <conditionalFormatting sqref="V10:V32">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4196,411 +4405,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E9:Q32"/>
+  <dimension ref="D9:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="A6" zoomScale="177" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.1640625" style="41"/>
-    <col min="5" max="5" width="32.83203125" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="41"/>
+    <col min="1" max="3" width="9.1640625" style="39"/>
+    <col min="4" max="4" width="13.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E10" s="43"/>
-      <c r="F10" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="K10" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E11" s="45" t="s">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="41"/>
+      <c r="F10" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="46">
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="44">
         <v>7</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="47">
-        <f>F11</f>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="89"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="44">
         <v>7</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="K11" s="41">
-        <f>-32.9+30+3</f>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="L11" s="41" t="s">
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="44">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="45">
+        <v>-1.4</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="45">
+        <v>-0.37</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="45">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="45">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="45">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="45">
+        <v>-2</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="45">
+        <v>17.5</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="46">
+        <v>14</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="46">
+        <v>-0.3</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="47"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="49">
+        <f>SUM(F11:F23)</f>
+        <v>53.83</v>
+      </c>
+      <c r="G27" s="48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E12" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="47">
-        <v>-1.5</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="48">
-        <f>H11+F12</f>
-        <v>5.5</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="48">
-        <f>K11+F12</f>
-        <v>-1.3999999999999986</v>
-      </c>
-    </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E13" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="47">
-        <v>-0.35</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="48">
-        <f t="shared" ref="H13:H19" si="0">H12+F13</f>
-        <v>5.15</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="48">
-        <f>M12+F13</f>
-        <v>-1.7499999999999987</v>
-      </c>
-    </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E14" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="47">
-        <v>-7</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>-1.8499999999999996</v>
-      </c>
-      <c r="K14" s="47">
-        <f>-38.3+30</f>
-        <v>-8.2999999999999972</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="48">
-        <f>M13+F14</f>
-        <v>-8.7499999999999982</v>
-      </c>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E15" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="47">
-        <v>-0.4</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="48">
-        <f t="shared" si="0"/>
-        <v>-2.2499999999999996</v>
-      </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="48">
-        <f>K14+F15</f>
-        <v>-8.6999999999999975</v>
-      </c>
-    </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E16" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="47">
-        <v>0</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>-2.2499999999999996</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="48">
-        <f>N15+F16</f>
-        <v>-8.6999999999999975</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E17" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="48">
-        <v>17</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="48">
-        <f t="shared" si="0"/>
-        <v>14.75</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="48">
-        <f>N16+F17</f>
-        <v>8.3000000000000025</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="48">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="48">
-        <f t="shared" si="0"/>
-        <v>12.75</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="48">
-        <f>N17+F18</f>
-        <v>6.3000000000000025</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E19" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="48">
-        <v>17</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="48">
-        <f t="shared" si="0"/>
-        <v>29.75</v>
-      </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="48">
-        <f>N18+F19</f>
-        <v>23.300000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F20" s="50"/>
-      <c r="K20" s="50"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E21" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="52">
-        <f>SUM(F11:F19)</f>
-        <v>29.75</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F22" s="48"/>
-      <c r="K22" s="48"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E23" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="48">
-        <v>-0.27</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="48">
-        <f>H19+F23</f>
-        <v>29.48</v>
-      </c>
-      <c r="K23" s="48">
-        <v>-0.27</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="48">
-        <f>N19+K23</f>
-        <v>23.030000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F24" s="50"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E25" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="52">
-        <f>SUM(F21:F24)</f>
-        <v>29.48</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F26" s="48"/>
-      <c r="K26" s="48"/>
-    </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E27" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="48">
-        <v>-0.5</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="48">
-        <f>H23+F27</f>
-        <v>28.98</v>
-      </c>
-      <c r="K27" s="48">
-        <v>-0.5</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="48">
-        <f>N23+K27</f>
-        <v>22.530000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="53"/>
-      <c r="K28" s="53"/>
-    </row>
-    <row r="29" spans="5:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="48">
-        <f>F25+F27</f>
-        <v>28.98</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E30" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="48">
-        <f>-5.53+30</f>
-        <v>24.47</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="48">
-        <v>25</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="48">
-        <f>K30-N27</f>
-        <v>2.4699999999999953</v>
-      </c>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E32" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="54">
-        <f>F29-F30</f>
-        <v>4.5100000000000016</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="41" t="s">
-        <v>3</v>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="91">
+        <f>10^(F27/10)/1000</f>
+        <v>241.54608344449414</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4624,552 +4651,552 @@
   <sheetData>
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
+      <c r="B6" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
     </row>
     <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="58"/>
+      <c r="B7" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="59">
+      <c r="B8" s="54">
         <v>0.85</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="55">
         <v>1.8</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="55">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="56">
         <f>C8*D8/B8</f>
         <v>0.90423529411764703</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>68</v>
+      <c r="F8" s="57" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="63">
+      <c r="B9" s="58">
         <v>0.85</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="59">
         <v>1.2</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="59">
         <v>0.8</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="60">
         <f t="shared" ref="E9:E17" si="0">C9*D9/B9</f>
         <v>1.1294117647058823</v>
       </c>
-      <c r="F9" s="58" t="s">
-        <v>69</v>
+      <c r="F9" s="53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="63">
+      <c r="B10" s="58">
         <v>0.85</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="59">
         <v>3.3</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="60">
         <f t="shared" si="0"/>
         <v>3.8823529411764706</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>70</v>
+      <c r="F10" s="53" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="63">
+      <c r="B11" s="58">
         <v>1</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="59">
         <v>5.5</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="59">
         <v>2</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>71</v>
+      <c r="F11" s="53" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="63">
+      <c r="B12" s="58">
         <v>1</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="59">
         <v>5.5</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="59">
         <v>0.5</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="60">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>72</v>
+      <c r="F12" s="53" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="63">
+      <c r="B13" s="58">
         <v>1</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="59">
         <v>5.5</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="59">
         <v>2</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F13" s="58" t="s">
-        <v>71</v>
+      <c r="F13" s="53" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="63">
+      <c r="B14" s="58">
         <v>1</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="59">
         <v>5.5</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="59">
         <v>2</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>73</v>
+      <c r="F14" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="63">
+      <c r="B15" s="58">
         <v>1</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="59">
         <v>5.5</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="59">
         <v>0.1</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="60">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>74</v>
+      <c r="F15" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="63">
+      <c r="B16" s="58">
         <v>1</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="59">
         <v>5.5</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="59">
         <v>0.1</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="60">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>75</v>
+      <c r="F16" s="53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="63">
+      <c r="B17" s="58">
         <v>1</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="59">
         <v>5.5</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="59">
         <v>1</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="60">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>76</v>
+      <c r="F17" s="53" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="65">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="60">
         <f>SUM(E8:E17)</f>
         <v>48.265999999999991</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="65">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="60">
         <v>5.5</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="68">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="63">
         <f>E19/E20</f>
         <v>8.7756363636363623</v>
       </c>
-      <c r="F21" s="69"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
+      <c r="B24" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="72"/>
+      <c r="B25" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="63">
+      <c r="B26" s="58">
         <v>0.85</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="59">
         <v>5.5</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="59">
         <v>6.3</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="60">
         <f t="shared" ref="E26:E28" si="1">C26*D26/B26</f>
         <v>40.764705882352942</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>78</v>
+      <c r="F26" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="63">
+      <c r="B27" s="58">
         <v>1</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="59">
         <v>29</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="59">
         <v>1.8</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="60">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="F27" s="58" t="s">
-        <v>79</v>
+      <c r="F27" s="53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="63">
+      <c r="B28" s="58">
         <v>1</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="59">
         <v>29</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="59">
         <v>1.8</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="60">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="F28" s="58" t="s">
-        <v>80</v>
+      <c r="F28" s="53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="65">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="60">
         <f>SUM(E26:E28)</f>
         <v>145.16470588235296</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="65">
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="60">
         <v>29</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="68">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="63">
         <f>E30/E31</f>
         <v>5.0056795131845853</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="37" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="B38" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="58"/>
+      <c r="B39" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="59">
+      <c r="B40" s="54">
         <v>1</v>
       </c>
-      <c r="C40" s="60">
+      <c r="C40" s="55">
         <v>3.7</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="55">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="56">
         <f>C40*D40/B40</f>
         <v>0.49950000000000006</v>
       </c>
-      <c r="F40" s="62" t="s">
-        <v>81</v>
+      <c r="F40" s="57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="63">
+      <c r="B41" s="58">
         <v>1</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="59">
         <v>3.7</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="59">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="60">
         <f t="shared" ref="E41:E43" si="2">C41*D41/B41</f>
         <v>1.9314000000000002</v>
       </c>
-      <c r="F41" s="58" t="s">
-        <v>82</v>
+      <c r="F41" s="53" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="63">
+      <c r="B42" s="58">
         <v>1</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="59">
         <v>3.7</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="59">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="60">
         <f t="shared" si="2"/>
         <v>2.4605000000000001</v>
       </c>
-      <c r="F42" s="58" t="s">
-        <v>83</v>
+      <c r="F42" s="53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="63">
+      <c r="B43" s="58">
         <v>1</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="59">
         <v>3.7</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="59">
         <v>0.435</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="60">
         <f t="shared" si="2"/>
         <v>1.6095000000000002</v>
       </c>
-      <c r="F43" s="58" t="s">
-        <v>84</v>
+      <c r="F43" s="53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="65">
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="60">
         <f>SUM(E40:E49)</f>
         <v>6.5009000000000015</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="65">
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="60">
         <v>3.9</v>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="68">
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="63">
         <f>E51/E52</f>
         <v>1.6668974358974362</v>
       </c>
-      <c r="F53" s="69"/>
+      <c r="F53" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C4BC19-DFA8-0B48-946C-24FC1D8EA1D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7DD3CA18-4A1A-BB4B-99C1-447BC53626E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="15420" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33580" yWindow="15440" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -331,6 +331,60 @@
   </si>
   <si>
     <t>(12.5W max)</t>
+  </si>
+  <si>
+    <t>power divider</t>
+  </si>
+  <si>
+    <t>FC0402E1000BST1</t>
+  </si>
+  <si>
+    <t>IF amp</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>vrms</t>
+  </si>
+  <si>
+    <t>irms</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>output z</t>
+  </si>
+  <si>
+    <t>100 D.E.</t>
+  </si>
+  <si>
+    <t>30nA</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>Vrms</t>
+  </si>
+  <si>
+    <t>DAC output power</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Ohms</t>
+  </si>
+  <si>
+    <t>saw filter</t>
   </si>
 </sst>
 </file>
@@ -389,14 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -433,8 +479,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,18 +514,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -759,12 +807,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -811,7 +874,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -822,24 +884,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -852,8 +914,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -864,16 +926,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -889,6 +949,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1059,15 +1125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219678</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>144361</xdr:rowOff>
+      <xdr:colOff>186547</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86329</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>87211</xdr:rowOff>
+      <xdr:colOff>53198</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1082,8 +1148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8145121" y="6590817"/>
-          <a:ext cx="1932411" cy="328672"/>
+          <a:off x="5255504" y="5964274"/>
+          <a:ext cx="1931781" cy="318328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,15 +1208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>210153</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>125310</xdr:rowOff>
+      <xdr:colOff>177022</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>746651</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>125008</xdr:rowOff>
+      <xdr:colOff>713520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1165,8 +1231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="6300000">
-          <a:off x="9034977" y="5061499"/>
-          <a:ext cx="2161913" cy="1243840"/>
+          <a:off x="6464118" y="4749170"/>
+          <a:ext cx="1523698" cy="1243281"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst/>
@@ -1616,16 +1682,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -1657,7 +1723,7 @@
       <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="84">
+      <c r="H1" s="81">
         <v>915000000</v>
       </c>
       <c r="I1" s="3"/>
@@ -1691,7 +1757,7 @@
       <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="81">
         <v>35000000</v>
       </c>
       <c r="I2" s="3"/>
@@ -1724,7 +1790,7 @@
       <c r="G3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="81">
         <f>125000000/4096</f>
         <v>30517.578125</v>
       </c>
@@ -1758,7 +1824,7 @@
       <c r="G4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="80">
         <f>-174+10*LOG10(H3)</f>
         <v>-129.15449934959719</v>
       </c>
@@ -2008,11 +2074,11 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18">
         <f>Q10-E9</f>
-        <v>-40.46</v>
+        <v>-38.03</v>
       </c>
       <c r="R9" s="19">
-        <f t="shared" ref="R9:R31" si="1">10^((Q9-30)/10)*1000000</f>
-        <v>8.9949758153003115E-2</v>
+        <f t="shared" ref="R9:R28" si="1">10^((Q9-30)/10)*1000000</f>
+        <v>0.15739828644662179</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -2029,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="3"/>
@@ -2045,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="23">
-        <f t="shared" ref="H10:H32" si="2">10^(G10/10)</f>
+        <f t="shared" ref="H10:H29" si="2">10^(G10/10)</f>
         <v>1</v>
       </c>
       <c r="I10" s="3"/>
@@ -2069,12 +2135,12 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="24">
-        <f t="shared" ref="Q10:Q30" si="3">Q11-E10</f>
-        <v>-40.46</v>
-      </c>
-      <c r="R10" s="31">
+        <f t="shared" ref="Q10:Q27" si="3">Q11-E10</f>
+        <v>-38.03</v>
+      </c>
+      <c r="R10" s="30">
         <f t="shared" si="1"/>
-        <v>8.9949758153003115E-2</v>
+        <v>0.15739828644662179</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2094,7 +2160,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="3"/>
@@ -2135,11 +2201,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="24">
         <f t="shared" si="3"/>
-        <v>-40.46</v>
-      </c>
-      <c r="R11" s="31">
+        <v>-38.03</v>
+      </c>
+      <c r="R11" s="30">
         <f t="shared" si="1"/>
-        <v>8.9949758153003115E-2</v>
+        <v>0.15739828644662179</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2158,10 +2224,10 @@
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="71">
         <v>132136</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="3"/>
@@ -2202,11 +2268,11 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="24">
         <f t="shared" si="3"/>
-        <v>-40.46</v>
-      </c>
-      <c r="R12" s="31">
+        <v>-38.03</v>
+      </c>
+      <c r="R12" s="30">
         <f t="shared" si="1"/>
-        <v>8.9949758153003115E-2</v>
+        <v>0.15739828644662179</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2228,7 +2294,7 @@
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="3"/>
@@ -2236,7 +2302,7 @@
         <v>-0.3</v>
       </c>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:F32" si="12">10^(E13/10)</f>
+        <f t="shared" ref="F13:F29" si="12">10^(E13/10)</f>
         <v>0.93325430079699101</v>
       </c>
       <c r="G13" s="22">
@@ -2249,31 +2315,31 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="24">
-        <f t="shared" ref="J13:J30" si="13">J12+((H13-1)/N12)</f>
+        <f t="shared" ref="J13:J27" si="13">J12+((H13-1)/N12)</f>
         <v>1.0715193052376064</v>
       </c>
       <c r="K13" s="24">
-        <f t="shared" ref="K13:K30" si="14">10*LOG10(J13)</f>
+        <f t="shared" ref="K13:K27" si="14">10*LOG10(J13)</f>
         <v>0.3</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="3">
-        <f t="shared" ref="M13:M30" si="15">E13+M12</f>
+        <f t="shared" ref="M13:M27" si="15">E13+M12</f>
         <v>-0.3</v>
       </c>
       <c r="N13" s="24">
-        <f t="shared" ref="N13:N30" si="16">N12*F13</f>
+        <f t="shared" ref="N13:N27" si="16">N12*F13</f>
         <v>0.93325430079699101</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="24">
         <f t="shared" si="3"/>
-        <v>-40.46</v>
-      </c>
-      <c r="R13" s="31">
+        <v>-38.03</v>
+      </c>
+      <c r="R13" s="30">
         <f t="shared" si="1"/>
-        <v>8.9949758153003115E-2</v>
+        <v>0.15739828644662179</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2289,13 +2355,13 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5"/>
@@ -2335,11 +2401,11 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="24">
         <f t="shared" si="3"/>
-        <v>-40.76</v>
-      </c>
-      <c r="R14" s="31">
+        <v>-38.33</v>
+      </c>
+      <c r="R14" s="30">
         <f t="shared" si="1"/>
-        <v>8.3945998651939982E-2</v>
+        <v>0.1468926277643863</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2355,13 +2421,13 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="68" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="3"/>
@@ -2402,11 +2468,11 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="24">
         <f t="shared" si="3"/>
-        <v>-20.259999999999998</v>
-      </c>
-      <c r="R15" s="31">
+        <v>-17.829999999999998</v>
+      </c>
+      <c r="R15" s="30">
         <f t="shared" si="1"/>
-        <v>9.4188959652284083</v>
+        <v>16.481623915255096</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2422,17 +2488,17 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>-0.5</v>
       </c>
       <c r="F16" s="26">
@@ -2469,11 +2535,11 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="24">
         <f t="shared" si="3"/>
-        <v>-22.259999999999998</v>
-      </c>
-      <c r="R16" s="31">
+        <v>-19.829999999999998</v>
+      </c>
+      <c r="R16" s="30">
         <f t="shared" si="1"/>
-        <v>5.9429215861557241</v>
+        <v>10.399201658290584</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2489,13 +2555,13 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="3"/>
@@ -2536,11 +2602,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="24">
         <f t="shared" si="3"/>
-        <v>-22.759999999999998</v>
-      </c>
-      <c r="R17" s="31">
+        <v>-20.329999999999998</v>
+      </c>
+      <c r="R17" s="30">
         <f t="shared" si="1"/>
-        <v>5.2966344389165778</v>
+        <v>9.2682982337934909</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2556,13 +2622,13 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="68" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5"/>
@@ -2602,11 +2668,11 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="24">
         <f t="shared" si="3"/>
-        <v>-24.759999999999998</v>
-      </c>
-      <c r="R18" s="31">
+        <v>-22.33</v>
+      </c>
+      <c r="R18" s="30">
         <f t="shared" si="1"/>
-        <v>3.3419504002611373</v>
+        <v>5.8479008414448073</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2622,71 +2688,71 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="74">
+      <c r="D19" s="69"/>
+      <c r="E19" s="72">
         <v>-7</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="73">
         <f t="shared" si="12"/>
         <v>0.19952623149688795</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="74">
         <v>7</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="75">
         <f t="shared" si="2"/>
         <v>5.0118723362727229</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="75">
+      <c r="I19" s="69"/>
+      <c r="J19" s="73">
         <f t="shared" si="13"/>
         <v>1.1495875602397148</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="73">
         <f t="shared" si="14"/>
         <v>0.60542055623317403</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="70">
+      <c r="L19" s="73"/>
+      <c r="M19" s="69">
         <f t="shared" si="15"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="N19" s="75">
+      <c r="N19" s="73">
         <f t="shared" si="16"/>
         <v>831.76377110267072</v>
       </c>
-      <c r="O19" s="70">
+      <c r="O19" s="69">
         <v>0</v>
       </c>
-      <c r="P19" s="70">
+      <c r="P19" s="69">
         <v>-10</v>
       </c>
-      <c r="Q19" s="75">
+      <c r="Q19" s="73">
         <f t="shared" si="3"/>
-        <v>-4.26</v>
-      </c>
-      <c r="R19" s="79">
+        <v>-1.83</v>
+      </c>
+      <c r="R19" s="77">
         <f t="shared" si="1"/>
-        <v>374.97300224548354</v>
-      </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70">
+        <v>656.14526630290527</v>
+      </c>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69">
         <v>36</v>
       </c>
-      <c r="U19" s="70">
+      <c r="U19" s="69">
         <f>Q19 - (T19-Q19)*3</f>
-        <v>-125.04</v>
-      </c>
-      <c r="V19" s="78">
+        <v>-115.32</v>
+      </c>
+      <c r="V19" s="76">
         <f t="shared" si="19"/>
         <v>3.6372337255405895E-3</v>
       </c>
@@ -2699,13 +2765,13 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="79" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="3"/>
@@ -2746,11 +2812,11 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="24">
         <f t="shared" si="3"/>
-        <v>-11.26</v>
-      </c>
-      <c r="R20" s="31">
+        <v>-8.83</v>
+      </c>
+      <c r="R20" s="30">
         <f t="shared" si="1"/>
-        <v>74.816950051115413</v>
+        <v>130.91819229994064</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2770,61 +2836,61 @@
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>69</v>
+        <v>102</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1">
-        <v>-0.37</v>
+        <v>-3</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="12"/>
-        <v>0.9183325964835809</v>
+        <v>0.50118723362727224</v>
       </c>
       <c r="G21" s="22">
         <f>ABS(E21)</f>
-        <v>0.37</v>
+        <v>3</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" ref="H21" si="24">10^(G21/10)</f>
-        <v>1.0889300933334334</v>
+        <v>1.9952623149688797</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="24">
         <f t="shared" si="13"/>
-        <v>1.1501924699311084</v>
+        <v>1.1516966070199233</v>
       </c>
       <c r="K21" s="24">
         <f t="shared" si="14"/>
-        <v>0.60770520036116904</v>
+        <v>0.61338087376535011</v>
       </c>
       <c r="L21" s="24"/>
-      <c r="M21" s="3">
+      <c r="M21" s="24">
         <f t="shared" si="15"/>
-        <v>27.430000000000003</v>
+        <v>24.800000000000004</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="16"/>
-        <v>553.35010921573655</v>
+        <v>301.99517204020151</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="24">
         <f t="shared" si="3"/>
-        <v>-12.66</v>
-      </c>
-      <c r="R21" s="31">
+        <v>-10.23</v>
+      </c>
+      <c r="R21" s="30">
         <f t="shared" si="1"/>
-        <v>54.200089040162347</v>
+        <v>94.841846330089453</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="25">
         <f t="shared" ref="V21" si="25">K21-K20</f>
-        <v>5.5730174662360632E-4</v>
+        <v>6.232975150804676E-3</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2839,18 +2905,18 @@
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="70" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="29">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
       <c r="F22" s="26">
         <f t="shared" si="12"/>
-        <v>5.3703179637025285</v>
-      </c>
-      <c r="G22" s="73">
+        <v>12.022644346174133</v>
+      </c>
+      <c r="G22" s="90">
         <v>10</v>
       </c>
       <c r="H22" s="23">
@@ -2860,37 +2926,37 @@
       <c r="I22" s="3"/>
       <c r="J22" s="24">
         <f t="shared" si="13"/>
-        <v>1.1664570370652068</v>
+        <v>1.1814984079533564</v>
       </c>
       <c r="K22" s="24">
         <f t="shared" si="14"/>
-        <v>0.66868747494007263</v>
+        <v>0.72433140765223958</v>
       </c>
       <c r="L22" s="24"/>
-      <c r="M22" s="3">
+      <c r="M22" s="24">
         <f t="shared" si="15"/>
-        <v>34.730000000000004</v>
+        <v>35.600000000000009</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="16"/>
-        <v>2971.666031738026</v>
+        <v>3630.7805477010133</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="24">
         <f t="shared" si="3"/>
-        <v>-13.03</v>
-      </c>
-      <c r="R22" s="31">
+        <v>-13.23</v>
+      </c>
+      <c r="R22" s="30">
         <f t="shared" si="1"/>
-        <v>49.773708497893601</v>
+        <v>47.533522594280456</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="25">
         <f>K22-K20</f>
-        <v>6.1539576325527201E-2</v>
+        <v>0.11718350903769414</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2905,7 +2971,7 @@
       <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="70" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="28"/>
@@ -2927,37 +2993,37 @@
       <c r="I23" s="3"/>
       <c r="J23" s="24">
         <f t="shared" si="13"/>
-        <v>1.1664980976867567</v>
+        <v>1.181532014626274</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="14"/>
-        <v>0.6688403488732132</v>
+        <v>0.72445493710378428</v>
       </c>
       <c r="L23" s="24"/>
-      <c r="M23" s="3">
+      <c r="M23" s="24">
         <f t="shared" si="15"/>
-        <v>34.230000000000004</v>
+        <v>35.100000000000009</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="16"/>
-        <v>2648.5001386067001</v>
+        <v>3235.9365692962824</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="24">
         <f t="shared" si="3"/>
-        <v>-5.7299999999999995</v>
-      </c>
-      <c r="R23" s="31">
+        <v>-2.4300000000000006</v>
+      </c>
+      <c r="R23" s="30">
         <f t="shared" si="1"/>
-        <v>267.30064086633115</v>
+        <v>571.47863667186675</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="25">
-        <f t="shared" ref="V23:V31" si="26">K23-K21</f>
-        <v>6.1135148512044157E-2</v>
+        <f t="shared" ref="V23:V29" si="26">K23-K21</f>
+        <v>0.11107406333843417</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -2972,7 +3038,7 @@
       <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="68" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="3"/>
@@ -2994,37 +3060,37 @@
       <c r="I24" s="3"/>
       <c r="J24" s="24">
         <f t="shared" si="13"/>
-        <v>1.1664980976867567</v>
+        <v>1.181532014626274</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" si="14"/>
-        <v>0.6688403488732132</v>
+        <v>0.72445493710378428</v>
       </c>
       <c r="L24" s="24"/>
-      <c r="M24" s="3">
+      <c r="M24" s="24">
         <f t="shared" si="15"/>
-        <v>34.230000000000004</v>
+        <v>35.100000000000009</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="16"/>
-        <v>2648.5001386067001</v>
+        <v>3235.9365692962824</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="24">
         <f t="shared" si="3"/>
-        <v>-6.2299999999999995</v>
-      </c>
-      <c r="R24" s="31">
+        <v>-2.9300000000000006</v>
+      </c>
+      <c r="R24" s="30">
         <f t="shared" si="1"/>
-        <v>238.23194693586913</v>
+        <v>509.330871057195</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="25">
         <f t="shared" si="26"/>
-        <v>1.5287393314056263E-4</v>
+        <v>1.2352945154470163E-4</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3036,21 +3102,21 @@
       <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="1">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="12"/>
-        <v>5.3703179637025285</v>
-      </c>
-      <c r="G25" s="73">
+        <v>12.022644346174133</v>
+      </c>
+      <c r="G25" s="90">
         <v>10</v>
       </c>
       <c r="H25" s="23">
@@ -3060,37 +3126,37 @@
       <c r="I25" s="3"/>
       <c r="J25" s="24">
         <f t="shared" si="13"/>
-        <v>1.1698962474050854</v>
+        <v>1.1843132805155363</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="14"/>
-        <v>0.68147347919290835</v>
+        <v>0.73466599348462724</v>
       </c>
       <c r="L25" s="24"/>
-      <c r="M25" s="3">
+      <c r="M25" s="24">
         <f t="shared" si="15"/>
-        <v>41.53</v>
+        <v>45.900000000000006</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="16"/>
-        <v>14223.287871228198</v>
+        <v>38904.514499428071</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="24">
         <f t="shared" si="3"/>
-        <v>-6.2299999999999995</v>
-      </c>
-      <c r="R25" s="31">
+        <v>-2.9300000000000006</v>
+      </c>
+      <c r="R25" s="30">
         <f t="shared" si="1"/>
-        <v>238.23194693586913</v>
+        <v>509.330871057195</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="25">
         <f t="shared" si="26"/>
-        <v>1.2633130319695152E-2</v>
+        <v>1.0211056380842964E-2</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3102,10 +3168,10 @@
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="70" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="5"/>
@@ -3127,37 +3193,37 @@
       <c r="I26" s="3"/>
       <c r="J26" s="24">
         <f t="shared" si="13"/>
-        <v>1.1698886015595642</v>
+        <v>1.1843104852342363</v>
       </c>
       <c r="K26" s="24">
         <f t="shared" si="14"/>
-        <v>0.68144509582662738</v>
+        <v>0.73465574301546033</v>
       </c>
       <c r="L26" s="24"/>
-      <c r="M26" s="3">
+      <c r="M26" s="24">
         <f t="shared" si="15"/>
-        <v>41.03</v>
+        <v>45.400000000000006</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="16"/>
-        <v>12676.518658578454</v>
+        <v>34673.685045253173</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="24">
         <f t="shared" si="3"/>
-        <v>1.0700000000000003</v>
-      </c>
-      <c r="R26" s="31">
-        <f t="shared" si="1"/>
-        <v>1279.3813041575243</v>
+        <v>7.87</v>
+      </c>
+      <c r="R26" s="30">
+        <f t="shared" ref="R26:R27" si="27">10^((Q26-30)/10)*1000000</f>
+        <v>6123.5039172477318</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="25">
         <f t="shared" si="26"/>
-        <v>1.2604746953414181E-2</v>
+        <v>1.0200805911676047E-2</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3169,10 +3235,10 @@
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="5"/>
@@ -3194,37 +3260,37 @@
       <c r="I27" s="3"/>
       <c r="J27" s="24">
         <f t="shared" si="13"/>
-        <v>1.1698886015595642</v>
+        <v>1.1843104852342363</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="14"/>
-        <v>0.68144509582662738</v>
+        <v>0.73465574301546033</v>
       </c>
       <c r="L27" s="24"/>
-      <c r="M27" s="3">
+      <c r="M27" s="24">
         <f t="shared" si="15"/>
-        <v>41.03</v>
+        <v>45.400000000000006</v>
       </c>
       <c r="N27" s="24">
         <f t="shared" si="16"/>
-        <v>12676.518658578454</v>
+        <v>34673.685045253173</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="24">
         <f t="shared" si="3"/>
-        <v>0.57000000000000028</v>
-      </c>
-      <c r="R27" s="31">
-        <f t="shared" si="1"/>
-        <v>1140.2497875611678</v>
+        <v>7.37</v>
+      </c>
+      <c r="R27" s="30">
+        <f t="shared" si="27"/>
+        <v>5457.5786109127084</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="25">
         <f t="shared" si="26"/>
-        <v>-2.8383366280970712E-5</v>
+        <v>-1.0250469166916965E-5</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3232,65 +3298,66 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="1">
-        <v>7.3</v>
+        <v>-0.37</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="12"/>
-        <v>5.3703179637025285</v>
-      </c>
-      <c r="G28" s="73">
-        <v>10</v>
+        <v>0.9183325964835809</v>
+      </c>
+      <c r="G28" s="22">
+        <f>ABS(E28)</f>
+        <v>0.37</v>
       </c>
       <c r="H28" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1.0889300933334334</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="24">
-        <f t="shared" si="13"/>
-        <v>1.1705985756654209</v>
+        <f t="shared" ref="J28:J29" si="28">J27+((H28-1)/N27)</f>
+        <v>1.1843130500061438</v>
       </c>
       <c r="K28" s="24">
-        <f t="shared" si="14"/>
-        <v>0.68407991347421571</v>
+        <f t="shared" ref="K28:K29" si="29">10*LOG10(J28)</f>
+        <v>0.73466514819336393</v>
       </c>
       <c r="L28" s="24"/>
-      <c r="M28" s="3">
-        <f t="shared" si="15"/>
-        <v>48.33</v>
+      <c r="M28" s="24">
+        <f t="shared" ref="M28:M29" si="30">E28+M27</f>
+        <v>45.030000000000008</v>
       </c>
       <c r="N28" s="24">
-        <f t="shared" si="16"/>
-        <v>68076.935869374152</v>
+        <f t="shared" ref="N28:N29" si="31">N27*F28</f>
+        <v>31841.975217261253</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="24">
-        <f t="shared" si="3"/>
-        <v>0.57000000000000028</v>
-      </c>
-      <c r="R28" s="31">
+        <f>Q29-E28</f>
+        <v>7.37</v>
+      </c>
+      <c r="R28" s="30">
         <f t="shared" si="1"/>
-        <v>1140.2497875611678</v>
+        <v>5457.5786109127084</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="25">
         <f t="shared" si="26"/>
-        <v>2.6348176475883278E-3</v>
+        <v>9.4051779035986272E-6</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3298,66 +3365,66 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="F29" s="2">
+    <row r="29" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="20">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
+        <v>1</v>
       </c>
       <c r="G29" s="22">
-        <f>E29</f>
-        <v>-0.5</v>
+        <v>27</v>
       </c>
       <c r="H29" s="23">
         <f t="shared" si="2"/>
-        <v>0.89125093813374545</v>
+        <v>501.18723362727269</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="24">
-        <f t="shared" si="13"/>
-        <v>1.1705969782218744</v>
-      </c>
-      <c r="K29" s="24">
-        <f t="shared" si="14"/>
-        <v>0.68407398692172172</v>
+      <c r="J29" s="25">
+        <f t="shared" si="28"/>
+        <v>1.2000214735638672</v>
+      </c>
+      <c r="K29" s="89">
+        <f t="shared" si="29"/>
+        <v>0.79189017520003158</v>
       </c>
       <c r="L29" s="24"/>
-      <c r="M29" s="3">
-        <f t="shared" si="15"/>
-        <v>47.83</v>
+      <c r="M29" s="24">
+        <f t="shared" si="30"/>
+        <v>45.030000000000008</v>
       </c>
       <c r="N29" s="24">
-        <f t="shared" si="16"/>
-        <v>60673.63295885054</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="24">
-        <f t="shared" si="3"/>
-        <v>7.87</v>
-      </c>
-      <c r="R29" s="31">
-        <f t="shared" si="1"/>
-        <v>6123.5039172477318</v>
+        <f t="shared" si="31"/>
+        <v>31841.975217261253</v>
+      </c>
+      <c r="O29" s="3">
+        <v>9</v>
+      </c>
+      <c r="P29" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="78">
+        <v>7</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" ref="R29" si="32">10^((Q29-30)/10)*1000000</f>
+        <v>5011.8723362727214</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="25">
         <f t="shared" si="26"/>
-        <v>2.6288910950943434E-3</v>
+        <v>5.7234432184571249E-2</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -3366,221 +3433,107 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>65</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="22">
-        <f>ABS(E30)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="24">
-        <f t="shared" si="13"/>
-        <v>1.1705969782218744</v>
-      </c>
-      <c r="K30" s="24">
-        <f t="shared" si="14"/>
-        <v>0.68407398692172172</v>
-      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="24"/>
-      <c r="M30" s="3">
-        <f t="shared" si="15"/>
-        <v>47.83</v>
-      </c>
-      <c r="N30" s="24">
-        <f t="shared" si="16"/>
-        <v>60673.63295885054</v>
-      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="24"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="24">
-        <f t="shared" si="3"/>
-        <v>7.37</v>
-      </c>
-      <c r="R30" s="31">
-        <f t="shared" si="1"/>
-        <v>5457.5786109127084</v>
-      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="25">
-        <f t="shared" si="26"/>
-        <v>-5.9265524939844383E-6</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="V30" s="3"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="1">
-        <v>-0.37</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="12"/>
-        <v>0.9183325964835809</v>
-      </c>
-      <c r="G31" s="22">
-        <f>ABS(E31)</f>
-        <v>0.37</v>
-      </c>
-      <c r="H31" s="23">
-        <f t="shared" si="2"/>
-        <v>1.0889300933334334</v>
-      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="24">
-        <f t="shared" ref="J31" si="27">J30+((H31-1)/N30)</f>
-        <v>1.1705984439342274</v>
-      </c>
-      <c r="K31" s="24">
-        <f t="shared" ref="K31" si="28">10*LOG10(J31)</f>
-        <v>0.68407942474874783</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="3">
-        <f t="shared" ref="M31" si="29">E31+M30</f>
-        <v>47.46</v>
-      </c>
-      <c r="N31" s="24">
-        <f t="shared" ref="N31" si="30">N30*F31</f>
-        <v>55718.574893192985</v>
-      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="24">
-        <f>Q32-E31</f>
-        <v>7.37</v>
-      </c>
-      <c r="R31" s="31">
-        <f t="shared" si="1"/>
-        <v>5457.5786109127084</v>
-      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="25">
-        <f t="shared" si="26"/>
-        <v>5.437827026111286E-6</v>
-      </c>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="22">
-        <v>27</v>
-      </c>
-      <c r="H32" s="23">
-        <f t="shared" si="2"/>
-        <v>501.18723362727269</v>
-      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="80">
-        <f>J30+((H32-1)/N30)</f>
-        <v>1.178840876093731</v>
-      </c>
-      <c r="K32" s="30">
-        <f t="shared" ref="K32" si="31">10*LOG10(J32)</f>
-        <v>0.71455186521429559</v>
-      </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="3">
-        <f>E32+M30</f>
-        <v>47.83</v>
-      </c>
-      <c r="N32" s="24">
-        <f>N30*F32</f>
-        <v>60673.63295885054</v>
-      </c>
-      <c r="O32" s="3">
-        <v>9</v>
-      </c>
-      <c r="P32" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="81">
-        <v>7</v>
-      </c>
-      <c r="R32" s="31">
-        <f t="shared" ref="R32" si="32">10^((Q32-30)/10)*1000000</f>
-        <v>5011.8723362727214</v>
-      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="25">
-        <f>K32-K30</f>
-        <v>3.0477878292573868E-2</v>
-      </c>
+      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="24"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3589,11 +3542,11 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3609,9 +3562,9 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3639,8 +3592,8 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3668,8 +3621,8 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3685,20 +3638,22 @@
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3726,8 +3681,8 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3742,8 +3697,12 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3755,8 +3714,8 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3772,22 +3731,20 @@
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3815,8 +3772,8 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -3831,12 +3788,8 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3848,8 +3801,8 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -3877,8 +3830,8 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -3906,8 +3859,8 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -3935,8 +3888,8 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -3964,8 +3917,8 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -3993,8 +3946,8 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -4022,8 +3975,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -4051,8 +4004,8 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4080,8 +4033,8 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -4109,8 +4062,8 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4138,8 +4091,8 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4167,8 +4120,8 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -4196,8 +4149,8 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -4225,8 +4178,8 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -4297,96 +4250,9 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="V10:V32">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="V10:V29">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4405,232 +4271,576 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D9:H28"/>
+  <dimension ref="C7:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="177" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A8" zoomScale="177" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" style="39"/>
-    <col min="4" max="4" width="13.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="39"/>
+    <col min="1" max="3" width="9.1640625" style="38"/>
+    <col min="4" max="4" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="38" customWidth="1"/>
+    <col min="6" max="10" width="9.1640625" style="38"/>
+    <col min="11" max="11" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E10" s="41"/>
-      <c r="F10" s="42" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="86">
+        <f>0.002/65535</f>
+        <v>3.0518043793392845E-8</v>
+      </c>
+      <c r="L7" s="86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D11" s="89" t="s">
+      <c r="G10" s="40"/>
+      <c r="J10" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="86"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>7</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D12" s="89"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="44">
+      <c r="H11" s="45">
+        <f>F11</f>
         <v>7</v>
       </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D13" s="89" t="s">
+      <c r="J11" s="38">
+        <f>10^(H11/10)/1000</f>
+        <v>5.0118723362727229E-3</v>
+      </c>
+      <c r="K11" s="38">
+        <v>50</v>
+      </c>
+      <c r="L11" s="38">
+        <f>SQRT(J11/K11)</f>
+        <v>1.0011865297009067E-2</v>
+      </c>
+      <c r="M11" s="38">
+        <f>SQRT(J11*K11)</f>
+        <v>0.5005932648504533</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="45">
+        <f>H11+F12</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" ref="J12:J20" si="0">10^(H12/10)/1000</f>
+        <v>5.0118723362727229E-3</v>
+      </c>
+      <c r="K12" s="38">
+        <v>200</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" ref="L12:L23" si="1">SQRT(J12/K12)</f>
+        <v>5.0059326485045333E-3</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" ref="M12:M23" si="2">SQRT(J12*K12)</f>
+        <v>1.0011865297009066</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" ref="H13:H23" si="3">H12+F13</f>
+        <v>7</v>
+      </c>
+      <c r="J13" s="38">
+        <f t="shared" si="0"/>
+        <v>5.0118723362727229E-3</v>
+      </c>
+      <c r="K13" s="38">
+        <v>50</v>
+      </c>
+      <c r="L13" s="38">
+        <f t="shared" si="1"/>
+        <v>1.0011865297009067E-2</v>
+      </c>
+      <c r="M13" s="38">
+        <f t="shared" si="2"/>
+        <v>0.5005932648504533</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="92">
+        <v>-24</v>
+      </c>
+      <c r="H14" s="45">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" si="0"/>
+        <v>1.9952623149688793E-5</v>
+      </c>
+      <c r="K14" s="38">
+        <v>50</v>
+      </c>
+      <c r="L14" s="38">
+        <f t="shared" si="1"/>
+        <v>6.3170599410942421E-4</v>
+      </c>
+      <c r="M14" s="38">
+        <f t="shared" si="2"/>
+        <v>3.1585299705471206E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E15" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F15" s="43">
         <v>-7</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="45">
-        <v>-1.4</v>
-      </c>
-      <c r="G14" s="39" t="s">
+      <c r="H15" s="45">
+        <f t="shared" si="3"/>
+        <v>-24</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="0"/>
+        <v>3.9810717055349717E-6</v>
+      </c>
+      <c r="K15" s="38">
+        <v>50</v>
+      </c>
+      <c r="L15" s="38">
+        <f t="shared" si="1"/>
+        <v>2.8217270263209272E-4</v>
+      </c>
+      <c r="M15" s="38">
+        <f t="shared" si="2"/>
+        <v>1.4108635131604636E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="44">
+        <v>-0.37</v>
+      </c>
+      <c r="G16" s="86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="45">
-        <v>-0.37</v>
-      </c>
-      <c r="G15" s="89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="45">
-        <v>0</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="45">
+        <f t="shared" si="3"/>
+        <v>-24.37</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="shared" si="0"/>
+        <v>3.6559479161312441E-6</v>
+      </c>
+      <c r="K16" s="38">
+        <v>50</v>
+      </c>
+      <c r="L16" s="38">
+        <f t="shared" si="1"/>
+        <v>2.7040517436362953E-4</v>
+      </c>
+      <c r="M16" s="38">
+        <f t="shared" si="2"/>
+        <v>1.3520258718181476E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="45">
-        <v>0</v>
-      </c>
-      <c r="G17" s="39" t="s">
+      <c r="E17" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="44">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D18" s="39" t="s">
+      <c r="H17" s="45">
+        <f t="shared" si="3"/>
+        <v>-4.9700000000000024</v>
+      </c>
+      <c r="J17" s="38">
+        <f t="shared" si="0"/>
+        <v>3.1841975217261224E-4</v>
+      </c>
+      <c r="K17" s="38">
+        <v>50</v>
+      </c>
+      <c r="L17" s="38">
+        <f t="shared" si="1"/>
+        <v>2.5235679193261759E-3</v>
+      </c>
+      <c r="M17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.12617839596630881</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D18" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="44">
+        <v>-2</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="45">
+        <f t="shared" si="3"/>
+        <v>-6.9700000000000024</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F19" s="44">
         <v>19.399999999999999</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G19" s="86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D19" s="89" t="s">
+      <c r="H19" s="45">
+        <f t="shared" si="3"/>
+        <v>12.429999999999996</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" si="0"/>
+        <v>1.7498466886246559E-2</v>
+      </c>
+      <c r="K19" s="38">
+        <v>50</v>
+      </c>
+      <c r="L19" s="38">
+        <f t="shared" si="1"/>
+        <v>1.8707467432149419E-2</v>
+      </c>
+      <c r="M19" s="38">
+        <f t="shared" si="2"/>
+        <v>0.93537337160747103</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E20" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F20" s="44">
         <v>-2</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="39" t="s">
+      <c r="H20" s="45">
+        <f t="shared" si="3"/>
+        <v>10.429999999999996</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="0"/>
+        <v>1.1040786199020727E-2</v>
+      </c>
+      <c r="K20" s="38">
+        <v>50</v>
+      </c>
+      <c r="L20" s="38">
+        <f t="shared" si="1"/>
+        <v>1.4859869581541237E-2</v>
+      </c>
+      <c r="M20" s="38">
+        <f t="shared" si="2"/>
+        <v>0.74299347907706181</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D21" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E21" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F21" s="44">
         <v>17.5</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G21" s="86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="89" t="s">
+      <c r="H21" s="45">
+        <f t="shared" si="3"/>
+        <v>27.929999999999996</v>
+      </c>
+      <c r="J21" s="38">
+        <f>10^(H21/10)/1000</f>
+        <v>0.62086903423006379</v>
+      </c>
+      <c r="K21" s="38">
+        <v>50</v>
+      </c>
+      <c r="L21" s="38">
+        <f t="shared" si="1"/>
+        <v>0.11143330150633282</v>
+      </c>
+      <c r="M21" s="38">
+        <f t="shared" si="2"/>
+        <v>5.5716650753166403</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E22" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F22" s="45">
         <v>14</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G22" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="89" t="s">
+      <c r="H22" s="45">
+        <f t="shared" si="3"/>
+        <v>41.929999999999993</v>
+      </c>
+      <c r="I22" s="86" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="39" t="s">
+      <c r="J22" s="38">
+        <f t="shared" ref="J22:J23" si="4">10^(H22/10)/1000</f>
+        <v>15.595525028269527</v>
+      </c>
+      <c r="K22" s="38">
+        <v>50</v>
+      </c>
+      <c r="L22" s="38">
+        <f t="shared" si="1"/>
+        <v>0.55848948115912667</v>
+      </c>
+      <c r="M22" s="38">
+        <f t="shared" si="2"/>
+        <v>27.924474057956335</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E23" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F23" s="45">
         <v>-0.3</v>
       </c>
-      <c r="G22" s="89" t="s">
+      <c r="G23" s="86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E27" s="48" t="s">
+      <c r="H23" s="45">
+        <f t="shared" si="3"/>
+        <v>41.629999999999995</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" si="4"/>
+        <v>14.554590805819654</v>
+      </c>
+      <c r="K23" s="38">
+        <v>50</v>
+      </c>
+      <c r="L23" s="38">
+        <f t="shared" si="1"/>
+        <v>0.53952925418033915</v>
+      </c>
+      <c r="M23" s="38">
+        <f t="shared" si="2"/>
+        <v>26.97646270901696</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F26" s="45"/>
+      <c r="I26" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F27" s="46"/>
+      <c r="I27" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="38">
+        <v>50</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="86"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E28" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="49">
-        <f>SUM(F11:F23)</f>
-        <v>53.83</v>
-      </c>
-      <c r="G27" s="48" t="s">
+      <c r="F28" s="48">
+        <f>SUM(F11:F24)</f>
+        <v>41.629999999999995</v>
+      </c>
+      <c r="G28" s="47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E28" s="89" t="s">
+      <c r="I28" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="86">
+        <f>0.5*SQRT(2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E29" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="91">
-        <f>10^(F27/10)/1000</f>
-        <v>241.54608344449414</v>
-      </c>
-      <c r="G28" s="89" t="s">
+      <c r="F29" s="88">
+        <f>10^(F28/10)/1000</f>
+        <v>14.554590805819654</v>
+      </c>
+      <c r="G29" s="86" t="s">
         <v>99</v>
       </c>
+      <c r="I29" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="38">
+        <f>J28/SQRT(2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I30" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="38">
+        <f>J29*J29/J27</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K30" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I31" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="38">
+        <f>10*LOG10(J30)+30</f>
+        <v>6.9897000433601875</v>
+      </c>
+      <c r="K31" s="86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F32" s="38">
+        <f>10^(1.2)</f>
+        <v>15.848931924611136</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I26:K26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4651,552 +4861,552 @@
   <sheetData>
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>0.85</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>1.8</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <f>C8*D8/B8</f>
         <v>0.90423529411764703</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>0.85</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="58">
         <v>1.2</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="58">
         <v>0.8</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <f t="shared" ref="E9:E17" si="0">C9*D9/B9</f>
         <v>1.1294117647058823</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="58">
+      <c r="B10" s="57">
         <v>0.85</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="58">
         <v>3.3</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="58">
         <v>1</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <f t="shared" si="0"/>
         <v>3.8823529411764706</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="58">
+      <c r="B11" s="57">
         <v>1</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>5.5</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="58">
         <v>2</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="57">
         <v>1</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="58">
         <v>5.5</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="58">
         <v>0.5</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="58">
+      <c r="B13" s="57">
         <v>1</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="58">
         <v>5.5</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="58">
         <v>2</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="58">
+      <c r="B14" s="57">
         <v>1</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="58">
         <v>5.5</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="58">
         <v>2</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <v>1</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="58">
         <v>5.5</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="58">
         <v>0.1</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="59">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="58">
+      <c r="B16" s="57">
         <v>1</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="58">
         <v>5.5</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="58">
         <v>0.1</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="59">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>1</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="58">
         <v>5.5</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="58">
         <v>1</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="59">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="59">
         <f>SUM(E8:E17)</f>
         <v>48.265999999999991</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="59">
         <v>5.5</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="62">
         <f>E19/E20</f>
         <v>8.7756363636363623</v>
       </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
     </row>
     <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="58">
+      <c r="B26" s="57">
         <v>0.85</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="58">
         <v>5.5</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="58">
         <v>6.3</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="59">
         <f t="shared" ref="E26:E28" si="1">C26*D26/B26</f>
         <v>40.764705882352942</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="58">
+      <c r="B27" s="57">
         <v>1</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="58">
         <v>29</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="58">
         <v>1.8</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="59">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="58">
+      <c r="B28" s="57">
         <v>1</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="58">
         <v>29</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="58">
         <v>1.8</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="59">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59" t="s">
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="59">
         <f>SUM(E26:E28)</f>
         <v>145.16470588235296</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="59">
         <v>29</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="62">
         <f>E30/E31</f>
         <v>5.0056795131845853</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="37" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="87"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="54">
+      <c r="B40" s="53">
         <v>1</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>3.7</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="54">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="55">
         <f>C40*D40/B40</f>
         <v>0.49950000000000006</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58">
+      <c r="B41" s="57">
         <v>1</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="58">
         <v>3.7</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="58">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="59">
         <f t="shared" ref="E41:E43" si="2">C41*D41/B41</f>
         <v>1.9314000000000002</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="58">
+      <c r="B42" s="57">
         <v>1</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="58">
         <v>3.7</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="58">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="59">
         <f t="shared" si="2"/>
         <v>2.4605000000000001</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="58">
+      <c r="B43" s="57">
         <v>1</v>
       </c>
-      <c r="C43" s="59">
+      <c r="C43" s="58">
         <v>3.7</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="58">
         <v>0.435</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="59">
         <f t="shared" si="2"/>
         <v>1.6095000000000002</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="53"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="53"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="53"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="53"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="52"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="53"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="53"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="53"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59" t="s">
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="59">
         <f>SUM(E40:E49)</f>
         <v>6.5009000000000015</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59" t="s">
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="59">
         <v>3.9</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62" t="s">
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="63">
+      <c r="E53" s="62">
         <f>E51/E52</f>
         <v>1.6668974358974362</v>
       </c>
-      <c r="F53" s="64"/>
+      <c r="F53" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7DD3CA18-4A1A-BB4B-99C1-447BC53626E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E25743B3-E4F6-2D4E-8C8F-72C3DF0FFA53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33580" yWindow="15440" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -144,10 +144,7 @@
     <t>things that you can program</t>
   </si>
   <si>
-    <t>amp output</t>
-  </si>
-  <si>
-    <t>budget</t>
+    <t>transformer</t>
   </si>
   <si>
     <t>PE42820</t>
@@ -306,9 +303,6 @@
     <t>preamp</t>
   </si>
   <si>
-    <t>SF2098</t>
-  </si>
-  <si>
     <t>SAW filter</t>
   </si>
   <si>
@@ -318,33 +312,18 @@
     <t>NPA1006</t>
   </si>
   <si>
-    <t>power amplifier</t>
-  </si>
-  <si>
     <t>PE42820MLBA-X</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>Watts</t>
   </si>
   <si>
-    <t>(12.5W max)</t>
-  </si>
-  <si>
     <t>power divider</t>
   </si>
   <si>
     <t>FC0402E1000BST1</t>
   </si>
   <si>
-    <t>IF amp</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>vrms</t>
   </si>
   <si>
@@ -357,34 +336,58 @@
     <t>output z</t>
   </si>
   <si>
-    <t>100 D.E.</t>
-  </si>
-  <si>
-    <t>30nA</t>
-  </si>
-  <si>
-    <t>Vp</t>
-  </si>
-  <si>
-    <t>Vrms</t>
-  </si>
-  <si>
-    <t>DAC output power</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>Ohms</t>
   </si>
   <si>
-    <t>saw filter</t>
+    <t>P/N</t>
+  </si>
+  <si>
+    <t>MEMS</t>
+  </si>
+  <si>
+    <t>PI filter</t>
+  </si>
+  <si>
+    <t>50 D.E.</t>
+  </si>
+  <si>
+    <t>50 S.E.</t>
+  </si>
+  <si>
+    <t>helical Filter</t>
+  </si>
+  <si>
+    <t>power meter</t>
+  </si>
+  <si>
+    <t>out (worse)</t>
+  </si>
+  <si>
+    <t>gain (worse)</t>
+  </si>
+  <si>
+    <t>gain (typ)</t>
+  </si>
+  <si>
+    <t>gain (best)</t>
+  </si>
+  <si>
+    <t>power (worse)</t>
+  </si>
+  <si>
+    <t>power amplifier (12.5W, 41dBm max)</t>
+  </si>
+  <si>
+    <t>amp output (dBm)</t>
+  </si>
+  <si>
+    <t>power (W)</t>
+  </si>
+  <si>
+    <t>IF amp only</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -889,9 +892,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -955,6 +955,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1684,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,7 +1729,7 @@
       <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="81">
+      <c r="H1" s="80">
         <v>915000000</v>
       </c>
       <c r="I1" s="3"/>
@@ -1755,9 +1761,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="81">
+        <v>71</v>
+      </c>
+      <c r="H2" s="80">
         <v>35000000</v>
       </c>
       <c r="I2" s="3"/>
@@ -1788,9 +1794,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="81">
+        <v>83</v>
+      </c>
+      <c r="H3" s="80">
         <f>125000000/4096</f>
         <v>30517.578125</v>
       </c>
@@ -1822,9 +1828,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="80">
+        <v>84</v>
+      </c>
+      <c r="H4" s="79">
         <f>-174+10*LOG10(H3)</f>
         <v>-129.15449934959719</v>
       </c>
@@ -1910,7 +1916,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -2032,11 +2038,11 @@
     </row>
     <row r="9" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="13">
@@ -2074,11 +2080,11 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18">
         <f>Q10-E9</f>
-        <v>-38.03</v>
+        <v>-43.67</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" ref="R9:R28" si="1">10^((Q9-30)/10)*1000000</f>
-        <v>0.15739828644662179</v>
+        <v>4.2953642676488643E-2</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -2092,11 +2098,11 @@
     </row>
     <row r="10" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20">
@@ -2136,11 +2142,11 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="24">
         <f t="shared" ref="Q10:Q27" si="3">Q11-E10</f>
-        <v>-38.03</v>
+        <v>-43.67</v>
       </c>
       <c r="R10" s="30">
         <f t="shared" si="1"/>
-        <v>0.15739828644662179</v>
+        <v>4.2953642676488643E-2</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2157,11 +2163,11 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="20">
@@ -2201,11 +2207,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="24">
         <f t="shared" si="3"/>
-        <v>-38.03</v>
+        <v>-43.67</v>
       </c>
       <c r="R11" s="30">
         <f t="shared" si="1"/>
-        <v>0.15739828644662179</v>
+        <v>4.2953642676488643E-2</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2222,13 +2228,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="71">
+        <v>72</v>
+      </c>
+      <c r="B12" s="70">
         <v>132136</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="20">
@@ -2268,11 +2274,11 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="24">
         <f t="shared" si="3"/>
-        <v>-38.03</v>
+        <v>-43.67</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="1"/>
-        <v>0.15739828644662179</v>
+        <v>4.2953642676488643E-2</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2289,13 +2295,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>82</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="20">
@@ -2335,11 +2341,11 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="24">
         <f t="shared" si="3"/>
-        <v>-38.03</v>
+        <v>-43.67</v>
       </c>
       <c r="R13" s="30">
         <f t="shared" si="1"/>
-        <v>0.15739828644662179</v>
+        <v>4.2953642676488643E-2</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2355,13 +2361,13 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
-        <v>73</v>
+      <c r="A14" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="67" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5"/>
@@ -2401,11 +2407,11 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="24">
         <f t="shared" si="3"/>
-        <v>-38.33</v>
+        <v>-43.97</v>
       </c>
       <c r="R14" s="30">
         <f t="shared" si="1"/>
-        <v>0.1468926277643863</v>
+        <v>4.008667176273021E-2</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2421,14 +2427,14 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
-        <v>73</v>
+      <c r="A15" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>83</v>
+      <c r="C15" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="20">
@@ -2468,11 +2474,11 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="24">
         <f t="shared" si="3"/>
-        <v>-17.829999999999998</v>
+        <v>-23.47</v>
       </c>
       <c r="R15" s="30">
         <f t="shared" si="1"/>
-        <v>16.481623915255096</v>
+        <v>4.4977985489328782</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2488,17 +2494,17 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
-        <v>73</v>
+      <c r="A16" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <v>-0.5</v>
       </c>
       <c r="F16" s="26">
@@ -2535,11 +2541,11 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="24">
         <f t="shared" si="3"/>
-        <v>-19.829999999999998</v>
+        <v>-25.47</v>
       </c>
       <c r="R16" s="30">
         <f t="shared" si="1"/>
-        <v>10.399201658290584</v>
+        <v>2.8379190284415561</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2555,14 +2561,14 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="79" t="s">
-        <v>73</v>
+      <c r="A17" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="68" t="s">
-        <v>83</v>
+      <c r="C17" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="20">
@@ -2602,11 +2608,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="24">
         <f t="shared" si="3"/>
-        <v>-20.329999999999998</v>
+        <v>-25.97</v>
       </c>
       <c r="R17" s="30">
         <f t="shared" si="1"/>
-        <v>9.2682982337934909</v>
+        <v>2.5292979964461457</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2622,13 +2628,13 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="79" t="s">
-        <v>73</v>
+      <c r="A18" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5"/>
@@ -2668,11 +2674,11 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="24">
         <f t="shared" si="3"/>
-        <v>-22.33</v>
+        <v>-27.97</v>
       </c>
       <c r="R18" s="30">
         <f t="shared" si="1"/>
-        <v>5.8479008414448073</v>
+        <v>1.5958791472367311</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2688,71 +2694,71 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="72">
+      <c r="D19" s="68"/>
+      <c r="E19" s="71">
         <v>-7</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <f t="shared" si="12"/>
         <v>0.19952623149688795</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="73">
         <v>7</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="74">
         <f t="shared" si="2"/>
         <v>5.0118723362727229</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="73">
+      <c r="I19" s="68"/>
+      <c r="J19" s="72">
         <f t="shared" si="13"/>
         <v>1.1495875602397148</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="72">
         <f t="shared" si="14"/>
         <v>0.60542055623317403</v>
       </c>
-      <c r="L19" s="73"/>
-      <c r="M19" s="69">
+      <c r="L19" s="72"/>
+      <c r="M19" s="68">
         <f t="shared" si="15"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="72">
         <f t="shared" si="16"/>
         <v>831.76377110267072</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O19" s="68">
         <v>0</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="68">
         <v>-10</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="72">
         <f t="shared" si="3"/>
-        <v>-1.83</v>
-      </c>
-      <c r="R19" s="77">
+        <v>-7.4700000000000006</v>
+      </c>
+      <c r="R19" s="76">
         <f t="shared" si="1"/>
-        <v>656.14526630290527</v>
-      </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69">
+        <v>179.06058540352925</v>
+      </c>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68">
         <v>36</v>
       </c>
-      <c r="U19" s="69">
+      <c r="U19" s="68">
         <f>Q19 - (T19-Q19)*3</f>
-        <v>-115.32</v>
-      </c>
-      <c r="V19" s="76">
+        <v>-137.88</v>
+      </c>
+      <c r="V19" s="75">
         <f t="shared" si="19"/>
         <v>3.6372337255405895E-3</v>
       </c>
@@ -2765,8 +2771,8 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
-        <v>74</v>
+      <c r="A20" s="78" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -2812,11 +2818,11 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="24">
         <f t="shared" si="3"/>
-        <v>-8.83</v>
+        <v>-14.47</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="1"/>
-        <v>130.91819229994064</v>
+        <v>35.727283815192834</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2833,13 +2839,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1">
@@ -2879,11 +2885,11 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="24">
         <f t="shared" si="3"/>
-        <v>-10.23</v>
+        <v>-15.870000000000001</v>
       </c>
       <c r="R21" s="30">
         <f t="shared" si="1"/>
-        <v>94.841846330089453</v>
+        <v>25.882129151530865</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2900,23 +2906,23 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="29">
-        <v>10.8</v>
+        <v>13.47</v>
       </c>
       <c r="F22" s="26">
         <f t="shared" si="12"/>
-        <v>12.022644346174133</v>
-      </c>
-      <c r="G22" s="90">
+        <v>22.233098906514034</v>
+      </c>
+      <c r="G22" s="89">
         <v>10</v>
       </c>
       <c r="H22" s="23">
@@ -2935,21 +2941,21 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24">
         <f t="shared" si="15"/>
-        <v>35.600000000000009</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="16"/>
-        <v>3630.7805477010133</v>
+        <v>6714.288529259522</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="24">
         <f t="shared" si="3"/>
-        <v>-13.23</v>
+        <v>-18.87</v>
       </c>
       <c r="R22" s="30">
         <f t="shared" si="1"/>
-        <v>47.533522594280456</v>
+        <v>12.971792709839523</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2966,64 +2972,64 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="69" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>68</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29">
-        <v>-0.5</v>
+        <v>-0.35</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
+        <v>0.92257142715476315</v>
       </c>
       <c r="G23" s="22">
         <f>ABS(E23)</f>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H23" s="23">
         <f t="shared" si="2"/>
-        <v>1.1220184543019636</v>
+        <v>1.0839269140212036</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="24">
         <f t="shared" si="13"/>
-        <v>1.181532014626274</v>
+        <v>1.181510907701268</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="14"/>
-        <v>0.72445493710378428</v>
+        <v>0.72437735390820457</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="24">
         <f t="shared" si="15"/>
-        <v>35.100000000000009</v>
+        <v>37.92</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="16"/>
-        <v>3235.9365692962824</v>
+        <v>6194.4107507678127</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="24">
         <f t="shared" si="3"/>
-        <v>-2.4300000000000006</v>
+        <v>-5.4000000000000012</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="1"/>
-        <v>571.47863667186675</v>
+        <v>288.4031503126601</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="25">
         <f t="shared" ref="V23:V29" si="26">K23-K21</f>
-        <v>0.11107406333843417</v>
+        <v>0.11099648014285446</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -3033,13 +3039,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1">
@@ -3060,37 +3066,37 @@
       <c r="I24" s="3"/>
       <c r="J24" s="24">
         <f t="shared" si="13"/>
-        <v>1.181532014626274</v>
+        <v>1.181510907701268</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" si="14"/>
-        <v>0.72445493710378428</v>
+        <v>0.72437735390820457</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24">
         <f t="shared" si="15"/>
-        <v>35.100000000000009</v>
+        <v>37.92</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="16"/>
-        <v>3235.9365692962824</v>
+        <v>6194.4107507678127</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="24">
         <f t="shared" si="3"/>
-        <v>-2.9300000000000006</v>
+        <v>-5.7500000000000009</v>
       </c>
       <c r="R24" s="30">
         <f t="shared" si="1"/>
-        <v>509.330871057195</v>
+        <v>266.07250597988059</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="25">
         <f t="shared" si="26"/>
-        <v>1.2352945154470163E-4</v>
+        <v>4.5946255964990357E-5</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3100,23 +3106,23 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="67" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="1">
-        <v>10.8</v>
+        <v>13.47</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="12"/>
-        <v>12.022644346174133</v>
-      </c>
-      <c r="G25" s="90">
+        <v>22.233098906514034</v>
+      </c>
+      <c r="G25" s="89">
         <v>10</v>
       </c>
       <c r="H25" s="23">
@@ -3126,37 +3132,37 @@
       <c r="I25" s="3"/>
       <c r="J25" s="24">
         <f t="shared" si="13"/>
-        <v>1.1843132805155363</v>
+        <v>1.1829638304024119</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="14"/>
-        <v>0.73466599348462724</v>
+        <v>0.72971466101484173</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24">
         <f t="shared" si="15"/>
-        <v>45.900000000000006</v>
+        <v>51.39</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="16"/>
-        <v>38904.514499428071</v>
+        <v>137720.94688939463</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="24">
         <f t="shared" si="3"/>
-        <v>-2.9300000000000006</v>
+        <v>-5.7500000000000009</v>
       </c>
       <c r="R25" s="30">
         <f t="shared" si="1"/>
-        <v>509.330871057195</v>
+        <v>266.07250597988059</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="25">
         <f t="shared" si="26"/>
-        <v>1.0211056380842964E-2</v>
+        <v>5.3373071066371569E-3</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3166,64 +3172,64 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="69" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>68</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
-        <v>-0.5</v>
+        <v>-0.35</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
+        <v>0.92257142715476315</v>
       </c>
       <c r="G26" s="22">
         <f>E26</f>
-        <v>-0.5</v>
+        <v>-0.35</v>
       </c>
       <c r="H26" s="23">
         <f t="shared" si="2"/>
-        <v>0.89125093813374545</v>
+        <v>0.92257142715476315</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="24">
         <f t="shared" si="13"/>
-        <v>1.1843104852342363</v>
+        <v>1.1829632681889317</v>
       </c>
       <c r="K26" s="24">
         <f t="shared" si="14"/>
-        <v>0.73465574301546033</v>
+        <v>0.72971259699340796</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24">
         <f t="shared" si="15"/>
-        <v>45.400000000000006</v>
+        <v>51.04</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="16"/>
-        <v>34673.685045253173</v>
+        <v>127057.41052085414</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="24">
         <f t="shared" si="3"/>
-        <v>7.87</v>
+        <v>7.72</v>
       </c>
       <c r="R26" s="30">
         <f t="shared" ref="R26:R27" si="27">10^((Q26-30)/10)*1000000</f>
-        <v>6123.5039172477318</v>
+        <v>5915.6163417547323</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="25">
         <f t="shared" si="26"/>
-        <v>1.0200805911676047E-2</v>
+        <v>5.3352430852033894E-3</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3233,13 +3239,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="1">
@@ -3260,20 +3266,20 @@
       <c r="I27" s="3"/>
       <c r="J27" s="24">
         <f t="shared" si="13"/>
-        <v>1.1843104852342363</v>
+        <v>1.1829632681889317</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="14"/>
-        <v>0.73465574301546033</v>
+        <v>0.72971259699340796</v>
       </c>
       <c r="L27" s="24"/>
       <c r="M27" s="24">
         <f t="shared" si="15"/>
-        <v>45.400000000000006</v>
+        <v>51.04</v>
       </c>
       <c r="N27" s="24">
         <f t="shared" si="16"/>
-        <v>34673.685045253173</v>
+        <v>127057.41052085414</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3290,7 +3296,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="25">
         <f t="shared" si="26"/>
-        <v>-1.0250469166916965E-5</v>
+        <v>-2.0640214337674934E-6</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3300,13 +3306,13 @@
     </row>
     <row r="28" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="1">
@@ -3327,20 +3333,20 @@
       <c r="I28" s="3"/>
       <c r="J28" s="24">
         <f t="shared" ref="J28:J29" si="28">J27+((H28-1)/N27)</f>
-        <v>1.1843130500061438</v>
+        <v>1.182963968109487</v>
       </c>
       <c r="K28" s="24">
         <f t="shared" ref="K28:K29" si="29">10*LOG10(J28)</f>
-        <v>0.73466514819336393</v>
+        <v>0.7297151665706143</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="24">
         <f t="shared" ref="M28:M29" si="30">E28+M27</f>
-        <v>45.030000000000008</v>
+        <v>50.67</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" ref="N28:N29" si="31">N27*F28</f>
-        <v>31841.975217261253</v>
+        <v>116680.96170609623</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3357,7 +3363,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="25">
         <f t="shared" si="26"/>
-        <v>9.4051779035986272E-6</v>
+        <v>2.5695772063460964E-6</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3371,7 +3377,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="20">
@@ -3391,20 +3397,20 @@
       <c r="I29" s="3"/>
       <c r="J29" s="25">
         <f t="shared" si="28"/>
-        <v>1.2000214735638672</v>
-      </c>
-      <c r="K29" s="89">
+        <v>1.1872507619986836</v>
+      </c>
+      <c r="K29" s="88">
         <f t="shared" si="29"/>
-        <v>0.79189017520003158</v>
+        <v>0.74542456992078554</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="24">
         <f t="shared" si="30"/>
-        <v>45.030000000000008</v>
+        <v>50.67</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="31"/>
-        <v>31841.975217261253</v>
+        <v>116680.96170609623</v>
       </c>
       <c r="O29" s="3">
         <v>9</v>
@@ -3412,7 +3418,7 @@
       <c r="P29" s="3">
         <v>7</v>
       </c>
-      <c r="Q29" s="78">
+      <c r="Q29" s="77">
         <v>7</v>
       </c>
       <c r="R29" s="30">
@@ -3424,7 +3430,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="25">
         <f t="shared" si="26"/>
-        <v>5.7234432184571249E-2</v>
+        <v>1.5711972927377582E-2</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -4271,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C7:N32"/>
+  <dimension ref="C7:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="177" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="177" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4282,564 +4288,789 @@
     <col min="1" max="3" width="9.1640625" style="38"/>
     <col min="4" max="4" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" style="38" customWidth="1"/>
-    <col min="6" max="10" width="9.1640625" style="38"/>
-    <col min="11" max="11" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="38"/>
+    <col min="6" max="6" width="10.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="38"/>
+    <col min="11" max="11" width="2.6640625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="K7" s="86">
-        <f>0.002/65535</f>
-        <v>3.0518043793392845E-8</v>
-      </c>
-      <c r="L7" s="86" t="s">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="85"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D11" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="42">
+        <v>6.99</v>
+      </c>
+      <c r="G11" s="42">
+        <v>7</v>
+      </c>
+      <c r="H11" s="42">
+        <v>7</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="44">
+        <f>F11</f>
+        <v>6.99</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="38">
+        <f>10^(J11/10)/1000</f>
+        <v>5.0003453497697867E-3</v>
+      </c>
+      <c r="M11" s="38">
+        <v>50</v>
+      </c>
+      <c r="N11" s="38">
+        <f>SQRT(L11/M11)</f>
+        <v>1.000034534380667E-2</v>
+      </c>
+      <c r="O11" s="38">
+        <f>SQRT(L11*M11)</f>
+        <v>0.50001726719033346</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="42">
+        <v>-0.35</v>
+      </c>
+      <c r="G12" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="H12" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="44">
+        <f>J11+F12</f>
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="38">
+        <f>10^(J12/10)/1000</f>
+        <v>4.6131757456037946E-3</v>
+      </c>
+      <c r="M12" s="38">
+        <v>200</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" ref="N12:N17" si="0">SQRT(L12/M12)</f>
+        <v>4.8026949443014779E-3</v>
+      </c>
+      <c r="O12" s="38">
+        <f t="shared" ref="O12:O17" si="1">SQRT(L12*M12)</f>
+        <v>0.96053898886029554</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="85"/>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="42">
+        <v>-1.4</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>0</v>
+      </c>
+      <c r="I13" s="84"/>
+      <c r="J13" s="44">
+        <f>J12+F13</f>
+        <v>5.24</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="38">
+        <f>10^(J13/10)/1000</f>
+        <v>3.3419504002611426E-3</v>
+      </c>
+      <c r="M13" s="38">
+        <v>201</v>
+      </c>
+      <c r="N13" s="38">
+        <f t="shared" ref="N13" si="2">SQRT(L13/M13)</f>
+        <v>4.0775751258280762E-3</v>
+      </c>
+      <c r="O13" s="38">
+        <f t="shared" ref="O13" si="3">SQRT(L13*M13)</f>
+        <v>0.81959260029144332</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="43">
+        <v>-14.22</v>
+      </c>
+      <c r="G14" s="43">
+        <v>-14.22</v>
+      </c>
+      <c r="H14" s="43">
+        <v>-14.22</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="44">
+        <f>J13+F14</f>
+        <v>-8.98</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="38">
+        <f>10^(J14/10)/1000</f>
+        <v>1.2647363474711513E-4</v>
+      </c>
+      <c r="M14" s="38">
+        <v>50</v>
+      </c>
+      <c r="N14" s="38">
+        <f t="shared" si="0"/>
+        <v>1.5904316064962688E-3</v>
+      </c>
+      <c r="O14" s="38">
+        <f t="shared" si="1"/>
+        <v>7.9521580324813448E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="91">
+        <v>-1.8</v>
+      </c>
+      <c r="G15" s="91">
+        <v>-1.4</v>
+      </c>
+      <c r="H15" s="91">
+        <v>-1.4</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="44">
+        <f>J14+F15</f>
+        <v>-10.780000000000001</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="38">
+        <f>10^(J15/10)/1000</f>
+        <v>8.3560301823124781E-5</v>
+      </c>
+      <c r="M15" s="38">
+        <v>50</v>
+      </c>
+      <c r="N15" s="38">
+        <f t="shared" si="0"/>
+        <v>1.2927513436320596E-3</v>
+      </c>
+      <c r="O15" s="38">
+        <f t="shared" si="1"/>
+        <v>6.463756718160299E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="42">
+        <v>-7</v>
+      </c>
+      <c r="G16" s="42">
+        <v>-7</v>
+      </c>
+      <c r="H16" s="42">
+        <v>-7</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="44">
+        <f>J15+F16</f>
+        <v>-17.78</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="38">
+        <f>10^(J16/10)/1000</f>
+        <v>1.6672472125510625E-5</v>
+      </c>
+      <c r="M16" s="38">
+        <v>50</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="0"/>
+        <v>5.7745081393155255E-4</v>
+      </c>
+      <c r="O16" s="38">
+        <f t="shared" si="1"/>
+        <v>2.8872540696577628E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="G17" s="43">
+        <v>19.5</v>
+      </c>
+      <c r="H17" s="43">
+        <v>19.5</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="44">
+        <f>J16+F17</f>
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="38">
+        <f>10^(J17/10)/1000</f>
+        <v>9.3756200692587997E-4</v>
+      </c>
+      <c r="M17" s="38">
+        <v>50</v>
+      </c>
+      <c r="N17" s="38">
+        <f t="shared" si="0"/>
+        <v>4.3302702154158464E-3</v>
+      </c>
+      <c r="O17" s="38">
+        <f t="shared" si="1"/>
+        <v>0.21651351077079231</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="43">
+        <v>-3</v>
+      </c>
+      <c r="G18" s="43">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="43">
+        <v>-2</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="44">
+        <f>J17+F18</f>
+        <v>-3.2800000000000011</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="38">
+        <f>10^(J18/10)/1000</f>
+        <v>4.6989410860521526E-4</v>
+      </c>
+      <c r="M18" s="38">
+        <v>50</v>
+      </c>
+      <c r="N18" s="38">
+        <f t="shared" ref="N18:N19" si="4">SQRT(L18/M18)</f>
+        <v>3.0655965442478411E-3</v>
+      </c>
+      <c r="O18" s="38">
+        <f t="shared" ref="O18:O19" si="5">SQRT(L18*M18)</f>
+        <v>0.15327982721239206</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="G19" s="43">
+        <v>19.5</v>
+      </c>
+      <c r="H19" s="43">
+        <v>19.5</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="44">
+        <f>J18+F19</f>
+        <v>14.219999999999999</v>
+      </c>
+      <c r="K19" s="44"/>
+      <c r="L19" s="38">
+        <f>10^(J19/10)/1000</f>
+        <v>2.6424087573219474E-2</v>
+      </c>
+      <c r="M19" s="38">
+        <v>50</v>
+      </c>
+      <c r="N19" s="38">
+        <f t="shared" si="4"/>
+        <v>2.2988730966810443E-2</v>
+      </c>
+      <c r="O19" s="38">
+        <f t="shared" si="5"/>
+        <v>1.1494365483405222</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="43">
+        <v>16.5</v>
+      </c>
+      <c r="G20" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="H20" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="44">
+        <f t="shared" ref="J20:J22" si="6">J19+F20</f>
+        <v>30.72</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="38">
+        <f t="shared" ref="L20:L25" si="7">10^(J20/10)/1000</f>
+        <v>1.1803206356517304</v>
+      </c>
+      <c r="M20" s="38">
+        <v>50</v>
+      </c>
+      <c r="N20" s="38">
+        <f t="shared" ref="N20:N25" si="8">SQRT(L20/M20)</f>
+        <v>0.1536437851428902</v>
+      </c>
+      <c r="O20" s="38">
+        <f t="shared" ref="O20:O25" si="9">SQRT(L20*M20)</f>
+        <v>7.6821892571445103</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="43">
+        <v>-3.4</v>
+      </c>
+      <c r="G21" s="43">
+        <v>-3</v>
+      </c>
+      <c r="H21" s="43">
+        <v>-3</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="44">
+        <f t="shared" si="6"/>
+        <v>27.32</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="38">
+        <f t="shared" si="7"/>
+        <v>0.53951062251512827</v>
+      </c>
+      <c r="M21" s="38">
+        <v>50</v>
+      </c>
+      <c r="N21" s="38">
+        <f t="shared" si="8"/>
+        <v>0.1038759474098916</v>
+      </c>
+      <c r="O21" s="38">
+        <f t="shared" si="9"/>
+        <v>5.1937973704945799</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="G22" s="44">
+        <v>14</v>
+      </c>
+      <c r="H22" s="44">
+        <v>14</v>
+      </c>
+      <c r="I22" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="44">
+        <f t="shared" si="6"/>
+        <v>39.82</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="38">
+        <f t="shared" si="7"/>
+        <v>9.5940063151593389</v>
+      </c>
+      <c r="M22" s="38">
+        <v>50</v>
+      </c>
+      <c r="N22" s="38">
+        <f t="shared" si="8"/>
+        <v>0.43804123813082574</v>
+      </c>
+      <c r="O22" s="38">
+        <f t="shared" si="9"/>
+        <v>21.902061906541288</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="86" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="86" t="s">
+      <c r="F23" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="G23" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="H23" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="I23" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="44">
+        <f>J20+F23</f>
+        <v>30.419999999999998</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="38">
+        <f t="shared" si="7"/>
+        <v>1.101539309541415</v>
+      </c>
+      <c r="M23" s="38">
+        <v>50</v>
+      </c>
+      <c r="N23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.14842771368861107</v>
+      </c>
+      <c r="O23" s="38">
+        <f t="shared" si="9"/>
+        <v>7.421385684430553</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="J10" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="86"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D11" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="43">
-        <v>7</v>
-      </c>
-      <c r="G11" s="42" t="s">
+      <c r="D24" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="G24" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="H24" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="44">
+        <f>J21+F24</f>
+        <v>27.02</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="38">
+        <f t="shared" ref="L24" si="10">10^(J24/10)/1000</f>
+        <v>0.50350060878790504</v>
+      </c>
+      <c r="M24" s="38">
+        <v>50</v>
+      </c>
+      <c r="N24" s="38">
+        <f t="shared" ref="N24" si="11">SQRT(L24/M24)</f>
+        <v>0.10034945030122537</v>
+      </c>
+      <c r="O24" s="38">
+        <f t="shared" ref="O24" si="12">SQRT(L24*M24)</f>
+        <v>5.017472515061268</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="G25" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="H25" s="44">
+        <v>-0.3</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="44">
+        <f>J22+F25</f>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="38">
+        <f t="shared" si="7"/>
+        <v>8.9536476554959457</v>
+      </c>
+      <c r="M25" s="38">
+        <v>50</v>
+      </c>
+      <c r="N25" s="38">
+        <f t="shared" si="8"/>
+        <v>0.42317012313007035</v>
+      </c>
+      <c r="O25" s="38">
+        <f t="shared" si="9"/>
+        <v>21.15850615650352</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F29" s="45"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="L29" s="38">
+        <v>50</v>
+      </c>
+      <c r="M29" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" s="85"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E30" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="47">
+        <f>SUM(F11:F26)</f>
+        <v>38.920000000000009</v>
+      </c>
+      <c r="G30" s="47">
+        <f>SUM(G11:G26)</f>
+        <v>48.580000000000005</v>
+      </c>
+      <c r="H30" s="47">
+        <f>SUM(H11:H26)</f>
+        <v>48.580000000000005</v>
+      </c>
+      <c r="I30" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="45">
-        <f>F11</f>
-        <v>7</v>
-      </c>
-      <c r="J11" s="38">
-        <f>10^(H11/10)/1000</f>
-        <v>5.0118723362727229E-3</v>
-      </c>
-      <c r="K11" s="38">
-        <v>50</v>
-      </c>
-      <c r="L11" s="38">
-        <f>SQRT(J11/K11)</f>
-        <v>1.0011865297009067E-2</v>
-      </c>
-      <c r="M11" s="38">
-        <f>SQRT(J11*K11)</f>
-        <v>0.5005932648504533</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="45">
-        <f>H11+F12</f>
-        <v>7</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" ref="J12:J20" si="0">10^(H12/10)/1000</f>
-        <v>5.0118723362727229E-3</v>
-      </c>
-      <c r="K12" s="38">
-        <v>200</v>
-      </c>
-      <c r="L12" s="38">
-        <f t="shared" ref="L12:L23" si="1">SQRT(J12/K12)</f>
-        <v>5.0059326485045333E-3</v>
-      </c>
-      <c r="M12" s="38">
-        <f t="shared" ref="M12:M23" si="2">SQRT(J12*K12)</f>
-        <v>1.0011865297009066</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="44">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="45">
-        <f t="shared" ref="H13:H23" si="3">H12+F13</f>
-        <v>7</v>
-      </c>
-      <c r="J13" s="38">
-        <f t="shared" si="0"/>
-        <v>5.0118723362727229E-3</v>
-      </c>
-      <c r="K13" s="38">
-        <v>50</v>
-      </c>
-      <c r="L13" s="38">
-        <f t="shared" si="1"/>
-        <v>1.0011865297009067E-2</v>
-      </c>
-      <c r="M13" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5005932648504533</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="92">
-        <v>-24</v>
-      </c>
-      <c r="H14" s="45">
-        <f t="shared" si="3"/>
-        <v>-17</v>
-      </c>
-      <c r="J14" s="38">
-        <f t="shared" si="0"/>
-        <v>1.9952623149688793E-5</v>
-      </c>
-      <c r="K14" s="38">
-        <v>50</v>
-      </c>
-      <c r="L14" s="38">
-        <f t="shared" si="1"/>
-        <v>6.3170599410942421E-4</v>
-      </c>
-      <c r="M14" s="38">
-        <f t="shared" si="2"/>
-        <v>3.1585299705471206E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D15" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="43">
-        <v>-7</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="45">
-        <f t="shared" si="3"/>
-        <v>-24</v>
-      </c>
-      <c r="J15" s="38">
-        <f t="shared" si="0"/>
-        <v>3.9810717055349717E-6</v>
-      </c>
-      <c r="K15" s="38">
-        <v>50</v>
-      </c>
-      <c r="L15" s="38">
-        <f t="shared" si="1"/>
-        <v>2.8217270263209272E-4</v>
-      </c>
-      <c r="M15" s="38">
-        <f t="shared" si="2"/>
-        <v>1.4108635131604636E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D16" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="44">
-        <v>-0.37</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="45">
-        <f t="shared" si="3"/>
-        <v>-24.37</v>
-      </c>
-      <c r="J16" s="38">
-        <f t="shared" si="0"/>
-        <v>3.6559479161312441E-6</v>
-      </c>
-      <c r="K16" s="38">
-        <v>50</v>
-      </c>
-      <c r="L16" s="38">
-        <f t="shared" si="1"/>
-        <v>2.7040517436362953E-4</v>
-      </c>
-      <c r="M16" s="38">
-        <f t="shared" si="2"/>
-        <v>1.3520258718181476E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="44">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="45">
-        <f t="shared" si="3"/>
-        <v>-4.9700000000000024</v>
-      </c>
-      <c r="J17" s="38">
-        <f t="shared" si="0"/>
-        <v>3.1841975217261224E-4</v>
-      </c>
-      <c r="K17" s="38">
-        <v>50</v>
-      </c>
-      <c r="L17" s="38">
-        <f t="shared" si="1"/>
-        <v>2.5235679193261759E-3</v>
-      </c>
-      <c r="M17" s="38">
-        <f t="shared" si="2"/>
-        <v>0.12617839596630881</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D18" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="44">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="45">
-        <f t="shared" si="3"/>
-        <v>-6.9700000000000024</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="44">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="45">
-        <f t="shared" si="3"/>
-        <v>12.429999999999996</v>
-      </c>
-      <c r="J19" s="38">
-        <f t="shared" si="0"/>
-        <v>1.7498466886246559E-2</v>
-      </c>
-      <c r="K19" s="38">
-        <v>50</v>
-      </c>
-      <c r="L19" s="38">
-        <f t="shared" si="1"/>
-        <v>1.8707467432149419E-2</v>
-      </c>
-      <c r="M19" s="38">
-        <f t="shared" si="2"/>
-        <v>0.93537337160747103</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D20" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="44">
-        <v>-2</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="45">
-        <f t="shared" si="3"/>
-        <v>10.429999999999996</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="0"/>
-        <v>1.1040786199020727E-2</v>
-      </c>
-      <c r="K20" s="38">
-        <v>50</v>
-      </c>
-      <c r="L20" s="38">
-        <f t="shared" si="1"/>
-        <v>1.4859869581541237E-2</v>
-      </c>
-      <c r="M20" s="38">
-        <f t="shared" si="2"/>
-        <v>0.74299347907706181</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="44">
-        <v>17.5</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="45">
-        <f t="shared" si="3"/>
-        <v>27.929999999999996</v>
-      </c>
-      <c r="J21" s="38">
-        <f>10^(H21/10)/1000</f>
-        <v>0.62086903423006379</v>
-      </c>
-      <c r="K21" s="38">
-        <v>50</v>
-      </c>
-      <c r="L21" s="38">
-        <f t="shared" si="1"/>
-        <v>0.11143330150633282</v>
-      </c>
-      <c r="M21" s="38">
-        <f t="shared" si="2"/>
-        <v>5.5716650753166403</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="45">
-        <v>14</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="45">
-        <f t="shared" si="3"/>
-        <v>41.929999999999993</v>
-      </c>
-      <c r="I22" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="38">
-        <f t="shared" ref="J22:J23" si="4">10^(H22/10)/1000</f>
-        <v>15.595525028269527</v>
-      </c>
-      <c r="K22" s="38">
-        <v>50</v>
-      </c>
-      <c r="L22" s="38">
-        <f t="shared" si="1"/>
-        <v>0.55848948115912667</v>
-      </c>
-      <c r="M22" s="38">
-        <f t="shared" si="2"/>
-        <v>27.924474057956335</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="45">
-        <v>-0.3</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="45">
-        <f t="shared" si="3"/>
-        <v>41.629999999999995</v>
-      </c>
-      <c r="J23" s="38">
-        <f t="shared" si="4"/>
-        <v>14.554590805819654</v>
-      </c>
-      <c r="K23" s="38">
-        <v>50</v>
-      </c>
-      <c r="L23" s="38">
-        <f t="shared" si="1"/>
-        <v>0.53952925418033915</v>
-      </c>
-      <c r="M23" s="38">
-        <f t="shared" si="2"/>
-        <v>26.97646270901696</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F26" s="45"/>
-      <c r="I26" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F27" s="46"/>
-      <c r="I27" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="38">
-        <v>50</v>
-      </c>
-      <c r="K27" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="86"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E28" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="48">
-        <f>SUM(F11:F24)</f>
-        <v>41.629999999999995</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="86">
+      <c r="L30" s="85">
         <f>0.5*SQRT(2)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="L28" s="86"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E29" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="88">
-        <f>10^(F28/10)/1000</f>
-        <v>14.554590805819654</v>
-      </c>
-      <c r="G29" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="38">
-        <f>J28/SQRT(2)</f>
+      <c r="N30" s="85"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E31" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="87">
+        <f>10^(F30/10)/1000</f>
+        <v>7.7983011052326132</v>
+      </c>
+      <c r="G31" s="87">
+        <f>10^(G30/10)/1000</f>
+        <v>72.110747918290102</v>
+      </c>
+      <c r="H31" s="87">
+        <f>10^(H30/10)/1000</f>
+        <v>72.110747918290102</v>
+      </c>
+      <c r="I31" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="38">
+        <f>L30/SQRT(2)</f>
         <v>0.5</v>
       </c>
-      <c r="L29" s="86"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I30" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" s="38">
-        <f>J29*J29/J27</f>
+      <c r="N31" s="85"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="L32" s="38">
+        <f>L31*L31/L29</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" s="86"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I31" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="38">
-        <f>10*LOG10(J30)+30</f>
+      <c r="M32" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="85"/>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="L33" s="38">
+        <f>10*LOG10(L32)+30</f>
         <v>6.9897000433601875</v>
       </c>
-      <c r="K31" s="86" t="s">
+      <c r="M33" s="85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F32" s="38">
-        <f>10^(1.2)</f>
-        <v>15.848931924611136</v>
-      </c>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F35" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L28:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4861,552 +5092,552 @@
   <sheetData>
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-    </row>
-    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="C7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="53">
+      <c r="B8" s="52">
         <v>0.85</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>1.8</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="53">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="54">
         <f>C8*D8/B8</f>
         <v>0.90423529411764703</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>46</v>
+      <c r="F8" s="55" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>0.85</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <v>1.2</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>0.8</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <f t="shared" ref="E9:E17" si="0">C9*D9/B9</f>
         <v>1.1294117647058823</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>47</v>
+      <c r="F9" s="51" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>0.85</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>3.3</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>1</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>3.8823529411764706</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>48</v>
+      <c r="F10" s="51" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>1</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>5.5</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>2</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>49</v>
+      <c r="F11" s="51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>1</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="57">
         <v>5.5</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>0.5</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="58">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>50</v>
+      <c r="F12" s="51" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>1</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>5.5</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>2</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>49</v>
+      <c r="F13" s="51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>1</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="57">
         <v>5.5</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>2</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="58">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>51</v>
+      <c r="F14" s="51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="57">
+      <c r="B15" s="56">
         <v>1</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="57">
         <v>5.5</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>0.1</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="58">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>52</v>
+      <c r="F15" s="51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="57">
+      <c r="B16" s="56">
         <v>1</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="57">
         <v>5.5</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="57">
         <v>0.1</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="58">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>53</v>
+      <c r="F16" s="51" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="57">
+      <c r="B17" s="56">
         <v>1</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="57">
         <v>5.5</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>1</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="F17" s="52" t="s">
-        <v>54</v>
+      <c r="F17" s="51" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="59">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="58">
         <f>SUM(E8:E17)</f>
         <v>48.265999999999991</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="58">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="59">
-        <v>5.5</v>
-      </c>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="62">
+      <c r="E21" s="61">
         <f>E19/E20</f>
         <v>8.7756363636363623</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+      <c r="B24" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="D25" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="57">
+      <c r="B26" s="56">
         <v>0.85</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="57">
         <v>5.5</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="57">
         <v>6.3</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="58">
         <f t="shared" ref="E26:E28" si="1">C26*D26/B26</f>
         <v>40.764705882352942</v>
       </c>
-      <c r="F26" s="52" t="s">
-        <v>56</v>
+      <c r="F26" s="51" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="57">
+      <c r="B27" s="56">
         <v>1</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="57">
         <v>29</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="57">
         <v>1.8</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="58">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>57</v>
+      <c r="F27" s="51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="57">
+      <c r="B28" s="56">
         <v>1</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="57">
         <v>29</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="57">
         <v>1.8</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="58">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="F28" s="52" t="s">
-        <v>58</v>
+      <c r="F28" s="51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="52"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="59">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="58">
         <f>SUM(E26:E28)</f>
         <v>145.16470588235296</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="51"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="58">
+        <v>29</v>
+      </c>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="59">
-        <v>29</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="62">
+      <c r="E32" s="61">
         <f>E30/E31</f>
         <v>5.0056795131845853</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="37" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
+      <c r="B38" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
     </row>
     <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="E39" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="53">
+      <c r="B40" s="52">
         <v>1</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="53">
         <v>3.7</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="54">
         <f>C40*D40/B40</f>
         <v>0.49950000000000006</v>
       </c>
-      <c r="F40" s="56" t="s">
-        <v>59</v>
+      <c r="F40" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="57">
+      <c r="B41" s="56">
         <v>1</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="57">
         <v>3.7</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="57">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="58">
         <f t="shared" ref="E41:E43" si="2">C41*D41/B41</f>
         <v>1.9314000000000002</v>
       </c>
-      <c r="F41" s="52" t="s">
-        <v>60</v>
+      <c r="F41" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="57">
+      <c r="B42" s="56">
         <v>1</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="57">
         <v>3.7</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="57">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="58">
         <f t="shared" si="2"/>
         <v>2.4605000000000001</v>
       </c>
-      <c r="F42" s="52" t="s">
-        <v>61</v>
+      <c r="F42" s="51" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="57">
+      <c r="B43" s="56">
         <v>1</v>
       </c>
-      <c r="C43" s="58">
+      <c r="C43" s="57">
         <v>3.7</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="57">
         <v>0.435</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="58">
         <f t="shared" si="2"/>
         <v>1.6095000000000002</v>
       </c>
-      <c r="F43" s="52" t="s">
-        <v>62</v>
+      <c r="F43" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="52"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="51"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="52"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="51"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="52"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="51"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="52"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="51"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="52"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="52"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="52"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="51"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="59">
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="58">
         <f>SUM(E40:E49)</f>
         <v>6.5009000000000015</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="51"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58" t="s">
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="58">
+        <v>3.9</v>
+      </c>
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="59">
-        <v>3.9</v>
-      </c>
-      <c r="F52" s="52"/>
-    </row>
-    <row r="53" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="62">
+      <c r="E53" s="61">
         <f>E51/E52</f>
         <v>1.6668974358974362</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E25743B3-E4F6-2D4E-8C8F-72C3DF0FFA53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{71AA6B01-53DC-FF42-8B0E-C7C3096A224E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="5580" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -165,12 +165,6 @@
     <t>watts</t>
   </si>
   <si>
-    <t>ADC Digital</t>
-  </si>
-  <si>
-    <t>DAC Digital</t>
-  </si>
-  <si>
     <t>MCU/PHY</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>29V Supply</t>
   </si>
   <si>
-    <t>5V supply</t>
-  </si>
-  <si>
     <t>TX PA #1</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>antenna IL</t>
   </si>
   <si>
-    <t>cable IL</t>
-  </si>
-  <si>
     <t>connector IL</t>
   </si>
   <si>
@@ -388,6 +376,60 @@
   </si>
   <si>
     <t>IF amp only</t>
+  </si>
+  <si>
+    <t>helical filter</t>
+  </si>
+  <si>
+    <t>SigCarrier</t>
+  </si>
+  <si>
+    <t>3.7V supply</t>
+  </si>
+  <si>
+    <t>-5.5V Supply</t>
+  </si>
+  <si>
+    <t>-5.5V  supply</t>
+  </si>
+  <si>
+    <t>5.5V supply</t>
+  </si>
+  <si>
+    <t>ADC Digital 1.8</t>
+  </si>
+  <si>
+    <t>ADC Analog 1.8</t>
+  </si>
+  <si>
+    <t>ADC Analog 3.3</t>
+  </si>
+  <si>
+    <t>DAC Digital 1.2</t>
+  </si>
+  <si>
+    <t>DAC Digital 3.3</t>
+  </si>
+  <si>
+    <t>DAC Analog 1.2</t>
+  </si>
+  <si>
+    <t>2.5V Rail (ETH, CS VCCIO)</t>
+  </si>
+  <si>
+    <t>1.8V Rail (CS VCCIO)</t>
+  </si>
+  <si>
+    <t>AFE #1 5V</t>
+  </si>
+  <si>
+    <t>AFE #1 -5V</t>
+  </si>
+  <si>
+    <t>AFE #2 5V</t>
+  </si>
+  <si>
+    <t>AFE #2 -5V</t>
   </si>
 </sst>
 </file>
@@ -830,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -936,6 +978,22 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,22 +1003,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1690,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1761,7 +1808,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="80">
         <v>35000000</v>
@@ -1794,7 +1841,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H3" s="80">
         <f>125000000/4096</f>
@@ -1828,7 +1875,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H4" s="79">
         <f>-174+10*LOG10(H3)</f>
@@ -1916,7 +1963,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -2038,11 +2085,11 @@
     </row>
     <row r="9" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="13">
@@ -2080,11 +2127,11 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="18">
         <f>Q10-E9</f>
-        <v>-43.67</v>
+        <v>-42.67</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" ref="R9:R28" si="1">10^((Q9-30)/10)*1000000</f>
-        <v>4.2953642676488643E-2</v>
+        <v>5.4075432294557912E-2</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -2098,11 +2145,11 @@
     </row>
     <row r="10" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20">
@@ -2142,11 +2189,11 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="24">
         <f t="shared" ref="Q10:Q27" si="3">Q11-E10</f>
-        <v>-43.67</v>
+        <v>-42.67</v>
       </c>
       <c r="R10" s="30">
         <f t="shared" si="1"/>
-        <v>4.2953642676488643E-2</v>
+        <v>5.4075432294557912E-2</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2163,62 +2210,62 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="35" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" ref="F11:F12" si="4">10^(E11/10)</f>
-        <v>1</v>
+        <v>0.79432823472428149</v>
       </c>
       <c r="G11" s="22">
         <f t="shared" ref="G11:G12" si="5">ABS(E11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="23">
         <f t="shared" ref="H11:H12" si="6">10^(G11/10)</f>
-        <v>1</v>
+        <v>1.2589254117941673</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="24">
         <f t="shared" ref="J11:J12" si="7">J10+((H11-1)/N10)</f>
-        <v>1</v>
+        <v>1.2589254117941673</v>
       </c>
       <c r="K11" s="24">
         <f t="shared" ref="K11:K12" si="8">10*LOG10(J11)</f>
-        <v>0</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="3">
         <f t="shared" ref="M11:M12" si="9">E11+M10</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" ref="N11:N12" si="10">N10*F11</f>
-        <v>1</v>
+        <v>0.79432823472428149</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="24">
         <f t="shared" si="3"/>
-        <v>-43.67</v>
+        <v>-42.67</v>
       </c>
       <c r="R11" s="30">
         <f t="shared" si="1"/>
-        <v>4.2953642676488643E-2</v>
+        <v>5.4075432294557912E-2</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="25">
         <f t="shared" ref="V11:V14" si="11">K11-K10</f>
-        <v>0</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -2228,13 +2275,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="70">
         <v>132136</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="20">
@@ -2255,20 +2302,20 @@
       <c r="I12" s="3"/>
       <c r="J12" s="24">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.2589254117941673</v>
       </c>
       <c r="K12" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.79432823472428149</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2295,13 +2342,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="20">
@@ -2322,20 +2369,20 @@
       <c r="I13" s="3"/>
       <c r="J13" s="24">
         <f t="shared" ref="J13:J27" si="13">J12+((H13-1)/N12)</f>
-        <v>1.0715193052376064</v>
+        <v>1.3489628825916538</v>
       </c>
       <c r="K13" s="24">
         <f t="shared" ref="K13:K27" si="14">10*LOG10(J13)</f>
-        <v>0.3</v>
+        <v>1.3000000000000007</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="3">
         <f t="shared" ref="M13:M27" si="15">E13+M12</f>
-        <v>-0.3</v>
+        <v>-1.3</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" ref="N13:N27" si="16">N12*F13</f>
-        <v>0.93325430079699101</v>
+        <v>0.74131024130091749</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2352,7 +2399,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="25">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.30000000000000049</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2362,10 +2409,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>17</v>
@@ -2388,20 +2435,20 @@
       <c r="I14" s="3"/>
       <c r="J14" s="24">
         <f t="shared" si="13"/>
-        <v>1.1297959146727978</v>
+        <v>1.4223287871228198</v>
       </c>
       <c r="K14" s="24">
         <f t="shared" si="14"/>
-        <v>0.53</v>
+        <v>1.5300000000000002</v>
       </c>
       <c r="L14" s="24"/>
       <c r="M14" s="3">
         <f t="shared" si="15"/>
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="16"/>
-        <v>104.71285480508995</v>
+        <v>83.176377110267097</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2418,7 +2465,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="25">
         <f t="shared" si="11"/>
-        <v>0.23000000000000004</v>
+        <v>0.22999999999999954</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2428,13 +2475,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="20">
@@ -2455,20 +2502,20 @@
       <c r="I15" s="3"/>
       <c r="J15" s="24">
         <f t="shared" si="13"/>
-        <v>1.1353816012969455</v>
+        <v>1.4293607499562782</v>
       </c>
       <c r="K15" s="24">
         <f t="shared" si="14"/>
-        <v>0.55141852263929469</v>
+        <v>1.5514185226392949</v>
       </c>
       <c r="L15" s="24"/>
       <c r="M15" s="3">
         <f t="shared" si="15"/>
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="16"/>
-        <v>66.069344800759595</v>
+        <v>52.480746024977257</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2495,7 +2542,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
@@ -2522,20 +2569,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="24">
         <f t="shared" si="13"/>
-        <v>1.1372284253372009</v>
+        <v>1.431685763671668</v>
       </c>
       <c r="K16" s="24">
         <f t="shared" si="14"/>
-        <v>0.55847706464067903</v>
+        <v>1.5584770646406789</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="3">
         <f t="shared" si="15"/>
-        <v>17.7</v>
+        <v>16.7</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="16"/>
-        <v>58.884365535558885</v>
+        <v>46.77351412871981</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2552,7 +2599,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="25">
         <f t="shared" si="19"/>
-        <v>7.0585420013843381E-3</v>
+        <v>7.058542001384005E-3</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -2562,13 +2609,13 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="20">
@@ -2589,20 +2636,20 @@
       <c r="I17" s="3"/>
       <c r="J17" s="24">
         <f t="shared" si="13"/>
-        <v>1.1471613368518527</v>
+        <v>1.4441905583905659</v>
       </c>
       <c r="K17" s="24">
         <f t="shared" si="14"/>
-        <v>0.59624501403528196</v>
+        <v>1.5962450140352813</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="3">
         <f t="shared" si="15"/>
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="16"/>
-        <v>37.153522909717246</v>
+        <v>29.512092266663853</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2619,7 +2666,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="25">
         <f t="shared" si="19"/>
-        <v>3.7767949394602929E-2</v>
+        <v>3.7767949394602374E-2</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2629,10 +2676,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="67" t="s">
         <v>17</v>
@@ -2655,20 +2702,20 @@
       <c r="I18" s="3"/>
       <c r="J18" s="24">
         <f t="shared" si="13"/>
-        <v>1.1486251790969992</v>
+        <v>1.4460334265918384</v>
       </c>
       <c r="K18" s="24">
         <f t="shared" si="14"/>
-        <v>0.60178332250763344</v>
+        <v>1.6017833225076323</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="3">
         <f t="shared" si="15"/>
-        <v>36.200000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="16"/>
-        <v>4168.6938347033529</v>
+        <v>3311.3112148259106</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2685,7 +2732,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="25">
         <f t="shared" si="19"/>
-        <v>5.538308472351483E-3</v>
+        <v>5.538308472351039E-3</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2695,7 +2742,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>30</v>
@@ -2721,20 +2768,20 @@
       <c r="I19" s="68"/>
       <c r="J19" s="72">
         <f t="shared" si="13"/>
-        <v>1.1495875602397148</v>
+        <v>1.4472449926682345</v>
       </c>
       <c r="K19" s="72">
         <f t="shared" si="14"/>
-        <v>0.60542055623317403</v>
+        <v>1.6054205562331727</v>
       </c>
       <c r="L19" s="72"/>
       <c r="M19" s="68">
         <f t="shared" si="15"/>
-        <v>29.200000000000003</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="N19" s="72">
         <f t="shared" si="16"/>
-        <v>831.76377110267072</v>
+        <v>660.69344800759586</v>
       </c>
       <c r="O19" s="68">
         <v>0</v>
@@ -2760,7 +2807,7 @@
       </c>
       <c r="V19" s="75">
         <f t="shared" si="19"/>
-        <v>3.6372337255405895E-3</v>
+        <v>3.6372337255403675E-3</v>
       </c>
       <c r="W19" s="27" t="s">
         <v>9</v>
@@ -2772,7 +2819,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -2799,20 +2846,20 @@
       <c r="I20" s="3"/>
       <c r="J20" s="24">
         <f t="shared" si="13"/>
-        <v>1.1500448827125349</v>
+        <v>1.4478207275506523</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" si="14"/>
-        <v>0.60714789861454543</v>
+        <v>1.607147898614544</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="3">
         <f t="shared" si="15"/>
-        <v>27.800000000000004</v>
+        <v>26.800000000000004</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="16"/>
-        <v>602.55958607435753</v>
+        <v>478.63009232263829</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2829,7 +2876,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="25">
         <f t="shared" si="19"/>
-        <v>1.7273423813713995E-3</v>
+        <v>1.7273423813712885E-3</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2839,13 +2886,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1">
@@ -2866,20 +2913,20 @@
       <c r="I21" s="3"/>
       <c r="J21" s="24">
         <f t="shared" si="13"/>
-        <v>1.1516966070199233</v>
+        <v>1.4499001252545016</v>
       </c>
       <c r="K21" s="24">
         <f t="shared" si="14"/>
-        <v>0.61338087376535011</v>
+        <v>1.6133808737653488</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="24">
         <f t="shared" si="15"/>
-        <v>24.800000000000004</v>
+        <v>23.800000000000004</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="16"/>
-        <v>301.99517204020151</v>
+        <v>239.88329190194901</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2896,7 +2943,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="25">
         <f t="shared" ref="V21" si="25">K21-K20</f>
-        <v>6.232975150804676E-3</v>
+        <v>6.232975150804787E-3</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2906,7 +2953,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -2922,7 +2969,7 @@
         <f t="shared" si="12"/>
         <v>22.233098906514034</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G22" s="86">
         <v>10</v>
       </c>
       <c r="H22" s="23">
@@ -2932,20 +2979,20 @@
       <c r="I22" s="3"/>
       <c r="J22" s="24">
         <f t="shared" si="13"/>
-        <v>1.1814984079533564</v>
+        <v>1.4874183697668317</v>
       </c>
       <c r="K22" s="24">
         <f t="shared" si="14"/>
-        <v>0.72433140765223958</v>
+        <v>1.7243314076522385</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="24">
         <f t="shared" si="15"/>
-        <v>38.270000000000003</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="16"/>
-        <v>6714.288529259522</v>
+        <v>5333.3489548762091</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -2962,7 +3009,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="25">
         <f>K22-K20</f>
-        <v>0.11718350903769414</v>
+        <v>0.11718350903769448</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2972,13 +3019,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29">
@@ -2999,20 +3046,20 @@
       <c r="I23" s="3"/>
       <c r="J23" s="24">
         <f t="shared" si="13"/>
-        <v>1.181510907701268</v>
+        <v>1.4874341060171186</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="14"/>
-        <v>0.72437735390820457</v>
+        <v>1.724377353908203</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="24">
         <f t="shared" si="15"/>
-        <v>37.92</v>
+        <v>36.92</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="16"/>
-        <v>6194.4107507678127</v>
+        <v>4920.3953568145089</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3029,7 +3076,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="25">
         <f t="shared" ref="V23:V29" si="26">K23-K21</f>
-        <v>0.11099648014285446</v>
+        <v>0.11099648014285424</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -3039,13 +3086,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1">
@@ -3066,20 +3113,20 @@
       <c r="I24" s="3"/>
       <c r="J24" s="24">
         <f t="shared" si="13"/>
-        <v>1.181510907701268</v>
+        <v>1.4874341060171186</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" si="14"/>
-        <v>0.72437735390820457</v>
+        <v>1.724377353908203</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24">
         <f t="shared" si="15"/>
-        <v>37.92</v>
+        <v>36.92</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="16"/>
-        <v>6194.4107507678127</v>
+        <v>4920.3953568145089</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3096,7 +3143,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="25">
         <f t="shared" si="26"/>
-        <v>4.5946255964990357E-5</v>
+        <v>4.5946255964546268E-5</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3106,7 +3153,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>22</v>
@@ -3122,7 +3169,7 @@
         <f t="shared" si="12"/>
         <v>22.233098906514034</v>
       </c>
-      <c r="G25" s="89">
+      <c r="G25" s="86">
         <v>10</v>
       </c>
       <c r="H25" s="23">
@@ -3132,20 +3179,20 @@
       <c r="I25" s="3"/>
       <c r="J25" s="24">
         <f t="shared" si="13"/>
-        <v>1.1829638304024119</v>
+        <v>1.4892632273269613</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="14"/>
-        <v>0.72971466101484173</v>
+        <v>1.7297146610148402</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24">
         <f t="shared" si="15"/>
-        <v>51.39</v>
+        <v>50.39</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="16"/>
-        <v>137720.94688939463</v>
+        <v>109395.63662720939</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3172,13 +3219,13 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
@@ -3199,20 +3246,20 @@
       <c r="I26" s="3"/>
       <c r="J26" s="24">
         <f t="shared" si="13"/>
-        <v>1.1829632681889317</v>
+        <v>1.4892625195421243</v>
       </c>
       <c r="K26" s="24">
         <f t="shared" si="14"/>
-        <v>0.72971259699340796</v>
+        <v>1.7297125969934066</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24">
         <f t="shared" si="15"/>
-        <v>51.04</v>
+        <v>50.04</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="16"/>
-        <v>127057.41052085414</v>
+        <v>100925.28860766844</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3229,7 +3276,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="25">
         <f t="shared" si="26"/>
-        <v>5.3352430852033894E-3</v>
+        <v>5.3352430852036115E-3</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3239,13 +3286,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="1">
@@ -3266,20 +3313,20 @@
       <c r="I27" s="3"/>
       <c r="J27" s="24">
         <f t="shared" si="13"/>
-        <v>1.1829632681889317</v>
+        <v>1.4892625195421243</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="14"/>
-        <v>0.72971259699340796</v>
+        <v>1.7297125969934066</v>
       </c>
       <c r="L27" s="24"/>
       <c r="M27" s="24">
         <f t="shared" si="15"/>
-        <v>51.04</v>
+        <v>50.04</v>
       </c>
       <c r="N27" s="24">
         <f t="shared" si="16"/>
-        <v>127057.41052085414</v>
+        <v>100925.28860766844</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3296,7 +3343,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="25">
         <f t="shared" si="26"/>
-        <v>-2.0640214337674934E-6</v>
+        <v>-2.0640214335454488E-6</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3306,13 +3353,13 @@
     </row>
     <row r="28" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="1">
@@ -3333,20 +3380,20 @@
       <c r="I28" s="3"/>
       <c r="J28" s="24">
         <f t="shared" ref="J28:J29" si="28">J27+((H28-1)/N27)</f>
-        <v>1.182963968109487</v>
+        <v>1.4892634006898977</v>
       </c>
       <c r="K28" s="24">
         <f t="shared" ref="K28:K29" si="29">10*LOG10(J28)</f>
-        <v>0.7297151665706143</v>
+        <v>1.7297151665706134</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="24">
         <f t="shared" ref="M28:M29" si="30">E28+M27</f>
-        <v>50.67</v>
+        <v>49.67</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" ref="N28:N29" si="31">N27*F28</f>
-        <v>116680.96170609623</v>
+        <v>92682.982337934925</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3363,7 +3410,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="25">
         <f t="shared" si="26"/>
-        <v>2.5695772063460964E-6</v>
+        <v>2.5695772067901856E-6</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3377,7 +3424,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="20">
@@ -3397,20 +3444,20 @@
       <c r="I29" s="3"/>
       <c r="J29" s="25">
         <f t="shared" si="28"/>
-        <v>1.1872507619986836</v>
-      </c>
-      <c r="K29" s="88">
+        <v>1.4946601544521312</v>
+      </c>
+      <c r="K29" s="85">
         <f t="shared" si="29"/>
-        <v>0.74542456992078554</v>
+        <v>1.7454245699207842</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="24">
         <f t="shared" si="30"/>
-        <v>50.67</v>
+        <v>49.67</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="31"/>
-        <v>116680.96170609623</v>
+        <v>92682.982337934925</v>
       </c>
       <c r="O29" s="3">
         <v>9</v>
@@ -4279,8 +4326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C7:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="177" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A8" zoomScale="177" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4300,8 +4347,8 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="F9" s="39"/>
@@ -4309,49 +4356,49 @@
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="95" t="s">
+      <c r="C10" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>114</v>
+      <c r="F10" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>110</v>
       </c>
       <c r="I10" s="40"/>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="85"/>
+      <c r="M10" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="82"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>87</v>
+      <c r="D11" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="42">
         <v>6.99</v>
@@ -4371,7 +4418,7 @@
       </c>
       <c r="K11" s="44"/>
       <c r="L11" s="38">
-        <f>10^(J11/10)/1000</f>
+        <f t="shared" ref="L11:L19" si="0">10^(J11/10)/1000</f>
         <v>5.0003453497697867E-3</v>
       </c>
       <c r="M11" s="38">
@@ -4387,13 +4434,13 @@
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="84" t="s">
+      <c r="C12" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="81" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="42">
@@ -4405,37 +4452,37 @@
       <c r="H12" s="42">
         <v>-0.4</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="81" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="44">
-        <f>J11+F12</f>
+        <f t="shared" ref="J12:J19" si="1">J11+F12</f>
         <v>6.6400000000000006</v>
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="38">
-        <f>10^(J12/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>4.6131757456037946E-3</v>
       </c>
       <c r="M12" s="38">
         <v>200</v>
       </c>
       <c r="N12" s="38">
-        <f t="shared" ref="N12:N17" si="0">SQRT(L12/M12)</f>
+        <f t="shared" ref="N12:N17" si="2">SQRT(L12/M12)</f>
         <v>4.8026949443014779E-3</v>
       </c>
       <c r="O12" s="38">
-        <f t="shared" ref="O12:O17" si="1">SQRT(L12*M12)</f>
+        <f t="shared" ref="O12:O17" si="3">SQRT(L12*M12)</f>
         <v>0.96053898886029554</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="85"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>105</v>
+        <v>66</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="42">
         <v>-1.4</v>
@@ -4446,34 +4493,34 @@
       <c r="H13" s="42">
         <v>0</v>
       </c>
-      <c r="I13" s="84"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="44">
-        <f>J12+F13</f>
+        <f t="shared" si="1"/>
         <v>5.24</v>
       </c>
       <c r="K13" s="44"/>
       <c r="L13" s="38">
-        <f>10^(J13/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>3.3419504002611426E-3</v>
       </c>
       <c r="M13" s="38">
         <v>201</v>
       </c>
       <c r="N13" s="38">
-        <f t="shared" ref="N13" si="2">SQRT(L13/M13)</f>
+        <f t="shared" ref="N13" si="4">SQRT(L13/M13)</f>
         <v>4.0775751258280762E-3</v>
       </c>
       <c r="O13" s="38">
-        <f t="shared" ref="O13" si="3">SQRT(L13*M13)</f>
+        <f t="shared" ref="O13" si="5">SQRT(L13*M13)</f>
         <v>0.81959260029144332</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="85" t="s">
-        <v>119</v>
+      <c r="E14" s="82" t="s">
+        <v>115</v>
       </c>
       <c r="F14" s="43">
         <v>-14.22</v>
@@ -4488,23 +4535,23 @@
         <v>3</v>
       </c>
       <c r="J14" s="44">
-        <f>J13+F14</f>
+        <f t="shared" si="1"/>
         <v>-8.98</v>
       </c>
       <c r="K14" s="44"/>
       <c r="L14" s="38">
-        <f>10^(J14/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2647363474711513E-4</v>
       </c>
       <c r="M14" s="38">
         <v>50</v>
       </c>
       <c r="N14" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5904316064962688E-3</v>
       </c>
       <c r="O14" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9521580324813448E-2</v>
       </c>
     </row>
@@ -4515,48 +4562,48 @@
       <c r="E15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="87">
         <v>-1.8</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="87">
         <v>-1.4</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="87">
         <v>-1.4</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="44">
-        <f>J14+F15</f>
+        <f t="shared" si="1"/>
         <v>-10.780000000000001</v>
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="38">
-        <f>10^(J15/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>8.3560301823124781E-5</v>
       </c>
       <c r="M15" s="38">
         <v>50</v>
       </c>
       <c r="N15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2927513436320596E-3</v>
       </c>
       <c r="O15" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.463756718160299E-2</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="85" t="s">
+      <c r="C16" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>88</v>
+      <c r="E16" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="42">
         <v>-7</v>
@@ -4571,35 +4618,35 @@
         <v>3</v>
       </c>
       <c r="J16" s="44">
-        <f>J15+F16</f>
+        <f t="shared" si="1"/>
         <v>-17.78</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="38">
-        <f>10^(J16/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6672472125510625E-5</v>
       </c>
       <c r="M16" s="38">
         <v>50</v>
       </c>
       <c r="N16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7745081393155255E-4</v>
       </c>
       <c r="O16" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8872540696577628E-2</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="85" t="s">
-        <v>108</v>
+      <c r="C17" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>86</v>
       </c>
       <c r="F17" s="43">
         <v>17.5</v>
@@ -4614,35 +4661,35 @@
         <v>3</v>
       </c>
       <c r="J17" s="44">
-        <f>J16+F17</f>
+        <f t="shared" si="1"/>
         <v>-0.28000000000000114</v>
       </c>
       <c r="K17" s="44"/>
       <c r="L17" s="38">
-        <f>10^(J17/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>9.3756200692587997E-4</v>
       </c>
       <c r="M17" s="38">
         <v>50</v>
       </c>
       <c r="N17" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3302702154158464E-3</v>
       </c>
       <c r="O17" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21651351077079231</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="85" t="s">
+      <c r="C18" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="86" t="s">
-        <v>91</v>
+      <c r="E18" s="83" t="s">
+        <v>87</v>
       </c>
       <c r="F18" s="43">
         <v>-3</v>
@@ -4657,35 +4704,35 @@
         <v>3</v>
       </c>
       <c r="J18" s="44">
-        <f>J17+F18</f>
+        <f t="shared" si="1"/>
         <v>-3.2800000000000011</v>
       </c>
       <c r="K18" s="44"/>
       <c r="L18" s="38">
-        <f>10^(J18/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>4.6989410860521526E-4</v>
       </c>
       <c r="M18" s="38">
         <v>50</v>
       </c>
       <c r="N18" s="38">
-        <f t="shared" ref="N18:N19" si="4">SQRT(L18/M18)</f>
+        <f t="shared" ref="N18:N19" si="6">SQRT(L18/M18)</f>
         <v>3.0655965442478411E-3</v>
       </c>
       <c r="O18" s="38">
-        <f t="shared" ref="O18:O19" si="5">SQRT(L18*M18)</f>
+        <f t="shared" ref="O18:O19" si="7">SQRT(L18*M18)</f>
         <v>0.15327982721239206</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="85" t="s">
-        <v>108</v>
+      <c r="C19" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>86</v>
       </c>
       <c r="F19" s="43">
         <v>17.5</v>
@@ -4696,39 +4743,39 @@
       <c r="H19" s="43">
         <v>19.5</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="82" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="44">
-        <f>J18+F19</f>
+        <f t="shared" si="1"/>
         <v>14.219999999999999</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="38">
-        <f>10^(J19/10)/1000</f>
+        <f t="shared" si="0"/>
         <v>2.6424087573219474E-2</v>
       </c>
       <c r="M19" s="38">
         <v>50</v>
       </c>
       <c r="N19" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2988730966810443E-2</v>
       </c>
       <c r="O19" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1494365483405222</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="85" t="s">
-        <v>108</v>
+      <c r="C20" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>86</v>
       </c>
       <c r="F20" s="43">
         <v>16.5</v>
@@ -4739,36 +4786,36 @@
       <c r="H20" s="43">
         <v>17.5</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="82" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="44">
-        <f t="shared" ref="J20:J22" si="6">J19+F20</f>
+        <f t="shared" ref="J20:J22" si="8">J19+F20</f>
         <v>30.72</v>
       </c>
       <c r="K20" s="44"/>
       <c r="L20" s="38">
-        <f t="shared" ref="L20:L25" si="7">10^(J20/10)/1000</f>
+        <f t="shared" ref="L20:L25" si="9">10^(J20/10)/1000</f>
         <v>1.1803206356517304</v>
       </c>
       <c r="M20" s="38">
         <v>50</v>
       </c>
       <c r="N20" s="38">
-        <f t="shared" ref="N20:N25" si="8">SQRT(L20/M20)</f>
+        <f t="shared" ref="N20:N25" si="10">SQRT(L20/M20)</f>
         <v>0.1536437851428902</v>
       </c>
       <c r="O20" s="38">
-        <f t="shared" ref="O20:O25" si="9">SQRT(L20*M20)</f>
+        <f t="shared" ref="O20:O25" si="11">SQRT(L20*M20)</f>
         <v>7.6821892571445103</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>106</v>
+      <c r="C21" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>102</v>
       </c>
       <c r="F21" s="43">
         <v>-3.4</v>
@@ -4779,37 +4826,37 @@
       <c r="H21" s="43">
         <v>-3</v>
       </c>
-      <c r="I21" s="85"/>
+      <c r="I21" s="82"/>
       <c r="J21" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27.32</v>
       </c>
       <c r="K21" s="44"/>
       <c r="L21" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.53951062251512827</v>
       </c>
       <c r="M21" s="38">
         <v>50</v>
       </c>
       <c r="N21" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1038759474098916</v>
       </c>
       <c r="O21" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.1937973704945799</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>116</v>
+      <c r="C22" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>112</v>
       </c>
       <c r="F22" s="44">
         <v>12.5</v>
@@ -4820,36 +4867,36 @@
       <c r="H22" s="44">
         <v>14</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="I22" s="82" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>39.82</v>
       </c>
       <c r="K22" s="44"/>
       <c r="L22" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5940063151593389</v>
       </c>
       <c r="M22" s="38">
         <v>50</v>
       </c>
       <c r="N22" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.43804123813082574</v>
       </c>
       <c r="O22" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21.902061906541288</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>110</v>
+      <c r="C23" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>106</v>
       </c>
       <c r="F23" s="44">
         <v>-0.3</v>
@@ -4860,7 +4907,7 @@
       <c r="H23" s="44">
         <v>-0.3</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="82" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="44">
@@ -4869,29 +4916,29 @@
       </c>
       <c r="K23" s="44"/>
       <c r="L23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.101539309541415</v>
       </c>
       <c r="M23" s="38">
         <v>50</v>
       </c>
       <c r="N23" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14842771368861107</v>
       </c>
       <c r="O23" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.421385684430553</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="85" t="s">
-        <v>108</v>
+      <c r="C24" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="83" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="44">
@@ -4903,7 +4950,7 @@
       <c r="H24" s="44">
         <v>-0.3</v>
       </c>
-      <c r="I24" s="85" t="s">
+      <c r="I24" s="82" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="44">
@@ -4912,59 +4959,59 @@
       </c>
       <c r="K24" s="44"/>
       <c r="L24" s="38">
-        <f t="shared" ref="L24" si="10">10^(J24/10)/1000</f>
+        <f t="shared" ref="L24" si="12">10^(J24/10)/1000</f>
         <v>0.50350060878790504</v>
       </c>
       <c r="M24" s="38">
         <v>50</v>
       </c>
       <c r="N24" s="38">
-        <f t="shared" ref="N24" si="11">SQRT(L24/M24)</f>
+        <f t="shared" ref="N24" si="13">SQRT(L24/M24)</f>
         <v>0.10034945030122537</v>
       </c>
       <c r="O24" s="38">
-        <f t="shared" ref="O24" si="12">SQRT(L24*M24)</f>
+        <f t="shared" ref="O24" si="14">SQRT(L24*M24)</f>
         <v>5.017472515061268</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>109</v>
+      <c r="C25" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>105</v>
       </c>
       <c r="F25" s="44">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="44">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="H25" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="I25" s="85" t="s">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="82" t="s">
         <v>3</v>
       </c>
       <c r="J25" s="44">
         <f>J22+F25</f>
-        <v>39.520000000000003</v>
+        <v>38.82</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="38">
-        <f t="shared" si="7"/>
-        <v>8.9536476554959457</v>
+        <f t="shared" si="9"/>
+        <v>7.6207901002541334</v>
       </c>
       <c r="M25" s="38">
         <v>50</v>
       </c>
       <c r="N25" s="38">
-        <f t="shared" si="8"/>
-        <v>0.42317012313007035</v>
+        <f t="shared" si="10"/>
+        <v>0.39040466442536603</v>
       </c>
       <c r="O25" s="38">
-        <f t="shared" si="9"/>
-        <v>21.15850615650352</v>
+        <f t="shared" si="11"/>
+        <v>19.520233221268303</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
@@ -4981,8 +5028,8 @@
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F29" s="45"/>
@@ -4991,82 +5038,82 @@
       <c r="L29" s="38">
         <v>50</v>
       </c>
-      <c r="M29" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="N29" s="85"/>
+      <c r="M29" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="82"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E30" s="46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F30" s="47">
         <f>SUM(F11:F26)</f>
-        <v>38.920000000000009</v>
+        <v>38.220000000000006</v>
       </c>
       <c r="G30" s="47">
         <f>SUM(G11:G26)</f>
-        <v>48.580000000000005</v>
+        <v>47.88</v>
       </c>
       <c r="H30" s="47">
         <f>SUM(H11:H26)</f>
-        <v>48.580000000000005</v>
+        <v>47.88</v>
       </c>
       <c r="I30" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="85">
+      <c r="L30" s="82">
         <f>0.5*SQRT(2)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="N30" s="85"/>
+      <c r="N30" s="82"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E31" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="87">
+      <c r="E31" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="84">
         <f>10^(F30/10)/1000</f>
-        <v>7.7983011052326132</v>
-      </c>
-      <c r="G31" s="87">
+        <v>6.6374307040191036</v>
+      </c>
+      <c r="G31" s="84">
         <f>10^(G30/10)/1000</f>
-        <v>72.110747918290102</v>
-      </c>
-      <c r="H31" s="87">
+        <v>61.376200516479472</v>
+      </c>
+      <c r="H31" s="84">
         <f>10^(H30/10)/1000</f>
-        <v>72.110747918290102</v>
-      </c>
-      <c r="I31" s="85" t="s">
-        <v>95</v>
+        <v>61.376200516479472</v>
+      </c>
+      <c r="I31" s="82" t="s">
+        <v>91</v>
       </c>
       <c r="L31" s="38">
         <f>L30/SQRT(2)</f>
         <v>0.5</v>
       </c>
-      <c r="N31" s="85"/>
+      <c r="N31" s="82"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="L32" s="38">
         <f>L31*L31/L29</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M32" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="N32" s="85"/>
+      <c r="M32" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="82"/>
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.2">
       <c r="L33" s="38">
         <f>10*LOG10(L32)+30</f>
         <v>6.9897000433601875</v>
       </c>
-      <c r="M33" s="85" t="s">
+      <c r="M33" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F35" s="85"/>
+      <c r="F35" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5078,27 +5125,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B5:F53"/>
+  <dimension ref="B5:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
     </row>
     <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
@@ -5117,7 +5164,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="52">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C8" s="53">
         <v>1.8</v>
@@ -5127,46 +5174,28 @@
       </c>
       <c r="E8" s="54">
         <f>C8*D8/B8</f>
-        <v>0.90423529411764703</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="C9" s="57">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="58">
-        <f t="shared" ref="E9:E17" si="0">C9*D9/B9</f>
-        <v>1.1294117647058823</v>
-      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="51" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="C10" s="57">
-        <v>3.3</v>
-      </c>
-      <c r="D10" s="57">
-        <v>1</v>
-      </c>
-      <c r="E10" s="58">
-        <f t="shared" si="0"/>
-        <v>3.8823529411764706</v>
-      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="51" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -5174,53 +5203,35 @@
         <v>1</v>
       </c>
       <c r="C11" s="57">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="D11" s="57">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="58">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" ref="E11:E28" si="0">C11*D11/B11</f>
+        <v>0.96</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="56">
-        <v>1</v>
-      </c>
-      <c r="C12" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D12" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="58">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="51" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="56">
-        <v>1</v>
-      </c>
-      <c r="C13" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D13" s="57">
-        <v>2</v>
-      </c>
-      <c r="E13" s="58">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="51" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -5228,71 +5239,44 @@
         <v>1</v>
       </c>
       <c r="C14" s="57">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="D14" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="58">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="56">
-        <v>1</v>
-      </c>
-      <c r="C15" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D15" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="58">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="51" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="56">
-        <v>1</v>
-      </c>
-      <c r="C16" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D16" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="58">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="51" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="56">
-        <v>1</v>
-      </c>
-      <c r="C17" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D17" s="57">
-        <v>1</v>
-      </c>
-      <c r="E17" s="58">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="51" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -5300,84 +5284,134 @@
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
       <c r="E18" s="58"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="51" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
-      <c r="D19" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="58">
-        <f>SUM(E8:E17)</f>
-        <v>48.265999999999991</v>
-      </c>
-      <c r="F19" s="51"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="51" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="56"/>
       <c r="C20" s="57"/>
-      <c r="D20" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="58">
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="56">
+        <v>1</v>
+      </c>
+      <c r="C21" s="57">
         <v>5.5</v>
       </c>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="61">
-        <f>E19/E20</f>
-        <v>8.7756363636363623</v>
-      </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="D21" s="57">
+        <v>2</v>
+      </c>
+      <c r="E21" s="58">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="56">
+        <v>1</v>
+      </c>
+      <c r="C22" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="D22" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="58">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="56">
+        <v>1</v>
+      </c>
+      <c r="C23" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="D23" s="57">
+        <v>2</v>
+      </c>
+      <c r="E23" s="58">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-    </row>
-    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="65"/>
+      <c r="B24" s="56">
+        <v>1</v>
+      </c>
+      <c r="C24" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="57">
+        <v>2</v>
+      </c>
+      <c r="E24" s="58">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="56">
+        <v>1</v>
+      </c>
+      <c r="C25" s="96">
+        <v>5.5</v>
+      </c>
+      <c r="D25" s="96">
+        <v>3</v>
+      </c>
+      <c r="E25" s="58">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="56">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C26" s="57">
         <v>5.5</v>
       </c>
       <c r="D26" s="57">
-        <v>6.3</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="58">
-        <f t="shared" ref="E26:E28" si="1">C26*D26/B26</f>
-        <v>40.764705882352942</v>
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -5385,17 +5419,17 @@
         <v>1</v>
       </c>
       <c r="C27" s="57">
-        <v>29</v>
+        <v>5.5</v>
       </c>
       <c r="D27" s="57">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="58">
-        <f t="shared" si="1"/>
-        <v>52.2</v>
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -5403,17 +5437,17 @@
         <v>1</v>
       </c>
       <c r="C28" s="57">
-        <v>29</v>
+        <v>5.5</v>
       </c>
       <c r="D28" s="57">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="58">
-        <f t="shared" si="1"/>
-        <v>52.2</v>
+        <f t="shared" si="0"/>
+        <v>5.5</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -5430,8 +5464,8 @@
         <v>44</v>
       </c>
       <c r="E30" s="58">
-        <f>SUM(E26:E28)</f>
-        <v>145.16470588235296</v>
+        <f>SUM(E8:E28)</f>
+        <v>63.878599999999992</v>
       </c>
       <c r="F30" s="51"/>
     </row>
@@ -5442,7 +5476,7 @@
         <v>42</v>
       </c>
       <c r="E31" s="58">
-        <v>29</v>
+        <v>5.5</v>
       </c>
       <c r="F31" s="51"/>
     </row>
@@ -5454,106 +5488,127 @@
       </c>
       <c r="E32" s="61">
         <f>E30/E31</f>
-        <v>5.0056795131845853</v>
+        <v>11.614290909090908</v>
       </c>
       <c r="F32" s="62"/>
     </row>
-    <row r="37" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+    </row>
+    <row r="36" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="52">
+        <v>1</v>
+      </c>
+      <c r="C37" s="53">
+        <v>3.7</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E37" s="54">
+        <f>C37*D37/B37</f>
+        <v>0.49950000000000006</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-    </row>
-    <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="51"/>
+      <c r="B38" s="56">
+        <v>1</v>
+      </c>
+      <c r="C38" s="57">
+        <v>3.7</v>
+      </c>
+      <c r="D38" s="57">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E38" s="58">
+        <f t="shared" ref="E38:E40" si="1">C38*D38/B38</f>
+        <v>1.9314000000000002</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="56">
+        <v>1</v>
+      </c>
+      <c r="C39" s="57">
+        <v>3.7</v>
+      </c>
+      <c r="D39" s="57">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E39" s="58">
+        <f t="shared" si="1"/>
+        <v>2.4605000000000001</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="52">
+      <c r="B40" s="56">
         <v>1</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="57">
         <v>3.7</v>
       </c>
-      <c r="D40" s="53">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E40" s="54">
-        <f>C40*D40/B40</f>
-        <v>0.49950000000000006</v>
-      </c>
-      <c r="F40" s="55" t="s">
+      <c r="D40" s="57">
+        <v>0.435</v>
+      </c>
+      <c r="E40" s="58">
+        <f t="shared" si="1"/>
+        <v>1.6095000000000002</v>
+      </c>
+      <c r="F40" s="51" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="56">
-        <v>1</v>
-      </c>
-      <c r="C41" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D41" s="57">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E41" s="58">
-        <f t="shared" ref="E41:E43" si="2">C41*D41/B41</f>
-        <v>1.9314000000000002</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>59</v>
-      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="56">
-        <v>1</v>
-      </c>
-      <c r="C42" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D42" s="57">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E42" s="58">
-        <f t="shared" si="2"/>
-        <v>2.4605000000000001</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>60</v>
-      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="56">
-        <v>1</v>
-      </c>
-      <c r="C43" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D43" s="57">
-        <v>0.435</v>
-      </c>
-      <c r="E43" s="58">
-        <f t="shared" si="2"/>
-        <v>1.6095000000000002</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>61</v>
-      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="51"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="56"/>
@@ -5586,64 +5641,341 @@
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="56"/>
       <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="58"/>
+      <c r="D48" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="58">
+        <f>SUM(E37:E46)</f>
+        <v>6.5009000000000015</v>
+      </c>
       <c r="F48" s="51"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="56"/>
       <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
+      <c r="D49" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="58">
+        <v>3.9</v>
+      </c>
       <c r="F49" s="51"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="51"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57" t="s">
+    <row r="50" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="61">
+        <f>E48/E49</f>
+        <v>1.6668974358974362</v>
+      </c>
+      <c r="F50" s="62"/>
+    </row>
+    <row r="52" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="95"/>
+    </row>
+    <row r="54" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="58">
-        <f>SUM(E40:E49)</f>
-        <v>6.5009000000000015</v>
-      </c>
-      <c r="F51" s="51"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57" t="s">
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="51"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="51"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="51"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="51"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="51"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="51"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="51"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="51"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="51"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="58">
+        <f>SUM(E55:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E67" s="58">
         <v>3.9</v>
       </c>
-      <c r="F52" s="51"/>
-    </row>
-    <row r="53" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60" t="s">
+      <c r="F67" s="51"/>
+    </row>
+    <row r="68" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="59"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="61">
-        <f>E51/E52</f>
+      <c r="E68" s="61">
+        <f>E66/E67</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="62"/>
+    </row>
+    <row r="73" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="95"/>
+    </row>
+    <row r="75" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B75" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="65"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="C76" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="D76" s="58">
+        <f>E32</f>
+        <v>11.614290909090908</v>
+      </c>
+      <c r="E76" s="58">
+        <f t="shared" ref="E76:E80" si="2">C76*D76/B76</f>
+        <v>75.151294117647055</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="C77" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="D77" s="58">
+        <f>E50</f>
         <v>1.6668974358974362</v>
       </c>
-      <c r="F53" s="62"/>
+      <c r="E77" s="58">
+        <f t="shared" si="2"/>
+        <v>10.785806938159883</v>
+      </c>
+      <c r="F77" s="97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="C78" s="57">
+        <v>3.7</v>
+      </c>
+      <c r="D78" s="58">
+        <f>E68</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="56">
+        <v>1</v>
+      </c>
+      <c r="C79" s="57">
+        <v>29</v>
+      </c>
+      <c r="D79" s="57">
+        <v>1</v>
+      </c>
+      <c r="E79" s="58">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="56">
+        <v>1</v>
+      </c>
+      <c r="C80" s="57">
+        <v>29</v>
+      </c>
+      <c r="D80" s="57">
+        <v>1</v>
+      </c>
+      <c r="E80" s="58">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="56"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="51"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="56"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="58">
+        <f>SUM(E76:E80)</f>
+        <v>143.93710105580692</v>
+      </c>
+      <c r="F82" s="51"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="56"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="58">
+        <v>29</v>
+      </c>
+      <c r="F83" s="51"/>
+    </row>
+    <row r="84" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="59"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="61">
+        <f>E82/E83</f>
+        <v>4.9633483122692041</v>
+      </c>
+      <c r="F84" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B53:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/graviton_master.xlsx
+++ b/docs/graviton_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{71AA6B01-53DC-FF42-8B0E-C7C3096A224E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CE6FCF-7250-F243-ABE8-37FFE34F5474}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="5580" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rx_chain" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="power_budget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t xml:space="preserve">Graviton Receiver Analog Front End Cascade Analysis </t>
   </si>
@@ -129,9 +129,6 @@
     <t>AMP</t>
   </si>
   <si>
-    <t>DSA (I.L. + setting)</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
@@ -165,24 +162,12 @@
     <t>watts</t>
   </si>
   <si>
-    <t>MCU/PHY</t>
-  </si>
-  <si>
     <t>Amps</t>
   </si>
   <si>
     <t>OCXO</t>
   </si>
   <si>
-    <t>Analog</t>
-  </si>
-  <si>
-    <t>Switche</t>
-  </si>
-  <si>
-    <t>Switches</t>
-  </si>
-  <si>
     <t>Fans</t>
   </si>
   <si>
@@ -195,18 +180,6 @@
     <t>TX PA #2</t>
   </si>
   <si>
-    <t>DAC (3.3V LDO)</t>
-  </si>
-  <si>
-    <t>ADC (3.3V LDO)</t>
-  </si>
-  <si>
-    <t>CLOCK (3.3V LDO)</t>
-  </si>
-  <si>
-    <t>SYNTH (3.3V LDO)</t>
-  </si>
-  <si>
     <t>3.7V Supply</t>
   </si>
   <si>
@@ -216,233 +189,291 @@
     <t>MEMS filter</t>
   </si>
   <si>
-    <t>TC2-1TG2+</t>
+    <t>transformer (Z = 3:1)</t>
+  </si>
+  <si>
+    <t>MEM2012SC470</t>
+  </si>
+  <si>
+    <t>SKY67150-396LF</t>
+  </si>
+  <si>
+    <t>baseband, fc (Hz)</t>
+  </si>
+  <si>
+    <t>50-Ohm S.E.</t>
+  </si>
+  <si>
+    <t>50-Ohm D.E.</t>
+  </si>
+  <si>
+    <t>100-Ohm D.E.</t>
+  </si>
+  <si>
+    <t>300-Ohm D.E.</t>
+  </si>
+  <si>
+    <t>output Z</t>
+  </si>
+  <si>
+    <t>377-Ohms S.E.</t>
+  </si>
+  <si>
+    <t>connector IL</t>
+  </si>
+  <si>
+    <t>switch IL</t>
+  </si>
+  <si>
+    <t>SAW filter IL</t>
+  </si>
+  <si>
+    <t>subcarrier bw (Hz)</t>
+  </si>
+  <si>
+    <t>subcarrier noise floor (dBm)</t>
+  </si>
+  <si>
+    <t>ADC (250 Msps), Vpp(diff) = 2.0V</t>
+  </si>
+  <si>
+    <t>DAC3484</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>MMG3004NT1</t>
+  </si>
+  <si>
+    <t>preamp</t>
+  </si>
+  <si>
+    <t>SAW filter</t>
+  </si>
+  <si>
+    <t>MMG3006NT1</t>
+  </si>
+  <si>
+    <t>NPA1006</t>
+  </si>
+  <si>
+    <t>PE42820MLBA-X</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>output z</t>
+  </si>
+  <si>
+    <t>P/N</t>
+  </si>
+  <si>
+    <t>MEMS</t>
+  </si>
+  <si>
+    <t>50 S.E.</t>
+  </si>
+  <si>
+    <t>helical Filter</t>
+  </si>
+  <si>
+    <t>power meter</t>
+  </si>
+  <si>
+    <t>out (worse)</t>
+  </si>
+  <si>
+    <t>gain (worse)</t>
+  </si>
+  <si>
+    <t>gain (typ)</t>
+  </si>
+  <si>
+    <t>power amplifier (12.5W, 41dBm max)</t>
+  </si>
+  <si>
+    <t>amp output (dBm)</t>
+  </si>
+  <si>
+    <t>power (W)</t>
+  </si>
+  <si>
+    <t>helical filter</t>
+  </si>
+  <si>
+    <t>SigCarrier</t>
+  </si>
+  <si>
+    <t>3.7V supply</t>
+  </si>
+  <si>
+    <t>-5.5V Supply</t>
+  </si>
+  <si>
+    <t>5.5V supply</t>
+  </si>
+  <si>
+    <t>AFE #1 5V</t>
+  </si>
+  <si>
+    <t>AFE #1 -5V</t>
+  </si>
+  <si>
+    <t>AFE #2 5V</t>
+  </si>
+  <si>
+    <t>AFE #2 -5V</t>
+  </si>
+  <si>
+    <t>ADC (DRVDD 1.8V)</t>
+  </si>
+  <si>
+    <t>ADC (AVDD 3.3V)</t>
+  </si>
+  <si>
+    <t>ADC (AVDD 1.8V)</t>
+  </si>
+  <si>
+    <t>DAC (AVDD 3.3V)</t>
+  </si>
+  <si>
+    <t>DAC (DVDD 1.2V)</t>
+  </si>
+  <si>
+    <t>DAC (DACVDD 1.2)</t>
+  </si>
+  <si>
+    <t>SYNTH (3.3V)</t>
+  </si>
+  <si>
+    <t>CLK (3.3V)</t>
+  </si>
+  <si>
+    <t>MCU (3.0V)</t>
+  </si>
+  <si>
+    <t>2.5V Supply</t>
+  </si>
+  <si>
+    <t>1.8V Supply</t>
+  </si>
+  <si>
+    <t>ETH (3.3V)</t>
+  </si>
+  <si>
+    <t>AFE (3.3)</t>
+  </si>
+  <si>
+    <t>overrating (W)</t>
+  </si>
+  <si>
+    <t>3.8 Supply</t>
+  </si>
+  <si>
+    <t>-5V supply</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>IF Amp</t>
+  </si>
+  <si>
+    <t>Vpp=2Vdiff, Z=100(D.E.), Pin(rms)=5mW(7dBm)</t>
+  </si>
+  <si>
+    <t>antenna matching</t>
+  </si>
+  <si>
+    <t>V/V</t>
+  </si>
+  <si>
+    <t>block RF amplifier</t>
+  </si>
+  <si>
+    <t>NF derived from Spice simulation</t>
+  </si>
+  <si>
+    <t>DSA insersion Loss</t>
+  </si>
+  <si>
+    <t>DSA setting</t>
+  </si>
+  <si>
+    <t>100 D.E.</t>
+  </si>
+  <si>
+    <t>IF amp</t>
+  </si>
+  <si>
+    <t>p (W, worse)</t>
+  </si>
+  <si>
+    <t>vrms (worse)</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>Rp</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>op gain</t>
+  </si>
+  <si>
+    <t>Pin/Pout</t>
+  </si>
+  <si>
+    <t>MEM2012V121R</t>
+  </si>
+  <si>
+    <t>TC1-1TG2+</t>
+  </si>
+  <si>
+    <t>worse case (over spec):</t>
+  </si>
+  <si>
+    <t>typical case (over spec):</t>
+  </si>
+  <si>
+    <t>out (typ)</t>
+  </si>
+  <si>
+    <t>DAC (4.7mArms @ 50-Ohm)</t>
   </si>
   <si>
     <t>TC3-1TG2+</t>
   </si>
   <si>
-    <t>transformer (Z = 3:1)</t>
-  </si>
-  <si>
-    <t>transformer (Z = 2:1)</t>
-  </si>
-  <si>
-    <t>MEM2012SC470</t>
-  </si>
-  <si>
-    <t>SKY67150-396LF</t>
-  </si>
-  <si>
-    <t>baseband, fc (Hz)</t>
-  </si>
-  <si>
-    <t>50-Ohm S.E.</t>
-  </si>
-  <si>
-    <t>50-Ohm D.E.</t>
-  </si>
-  <si>
-    <t>100-Ohm D.E.</t>
-  </si>
-  <si>
-    <t>300-Ohm D.E.</t>
-  </si>
-  <si>
-    <t>output Z</t>
-  </si>
-  <si>
-    <t>377-Ohms S.E.</t>
-  </si>
-  <si>
-    <t>antenna IL</t>
-  </si>
-  <si>
-    <t>connector IL</t>
-  </si>
-  <si>
-    <t>switch IL</t>
-  </si>
-  <si>
-    <t>SAW filter IL</t>
-  </si>
-  <si>
-    <t>subcarrier bw (Hz)</t>
-  </si>
-  <si>
-    <t>subcarrier noise floor (dBm)</t>
-  </si>
-  <si>
-    <t>ADC (250 Msps), Vpp(diff) = 2.0V</t>
-  </si>
-  <si>
-    <t>DAC3484</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>mixer</t>
-  </si>
-  <si>
-    <t>MMG3004NT1</t>
-  </si>
-  <si>
-    <t>preamp</t>
-  </si>
-  <si>
-    <t>SAW filter</t>
-  </si>
-  <si>
-    <t>MMG3006NT1</t>
-  </si>
-  <si>
-    <t>NPA1006</t>
-  </si>
-  <si>
-    <t>PE42820MLBA-X</t>
-  </si>
-  <si>
-    <t>Watts</t>
-  </si>
-  <si>
-    <t>power divider</t>
-  </si>
-  <si>
-    <t>FC0402E1000BST1</t>
-  </si>
-  <si>
-    <t>vrms</t>
-  </si>
-  <si>
-    <t>irms</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>output z</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Ohms</t>
-  </si>
-  <si>
-    <t>P/N</t>
-  </si>
-  <si>
-    <t>MEMS</t>
-  </si>
-  <si>
-    <t>PI filter</t>
-  </si>
-  <si>
-    <t>50 D.E.</t>
-  </si>
-  <si>
-    <t>50 S.E.</t>
-  </si>
-  <si>
-    <t>helical Filter</t>
-  </si>
-  <si>
-    <t>power meter</t>
-  </si>
-  <si>
-    <t>out (worse)</t>
-  </si>
-  <si>
-    <t>gain (worse)</t>
-  </si>
-  <si>
-    <t>gain (typ)</t>
-  </si>
-  <si>
-    <t>gain (best)</t>
-  </si>
-  <si>
-    <t>power (worse)</t>
-  </si>
-  <si>
-    <t>power amplifier (12.5W, 41dBm max)</t>
-  </si>
-  <si>
-    <t>amp output (dBm)</t>
-  </si>
-  <si>
-    <t>power (W)</t>
-  </si>
-  <si>
-    <t>IF amp only</t>
-  </si>
-  <si>
-    <t>helical filter</t>
-  </si>
-  <si>
-    <t>SigCarrier</t>
-  </si>
-  <si>
-    <t>3.7V supply</t>
-  </si>
-  <si>
-    <t>-5.5V Supply</t>
-  </si>
-  <si>
-    <t>-5.5V  supply</t>
-  </si>
-  <si>
-    <t>5.5V supply</t>
-  </si>
-  <si>
-    <t>ADC Digital 1.8</t>
-  </si>
-  <si>
-    <t>ADC Analog 1.8</t>
-  </si>
-  <si>
-    <t>ADC Analog 3.3</t>
-  </si>
-  <si>
-    <t>DAC Digital 1.2</t>
-  </si>
-  <si>
-    <t>DAC Digital 3.3</t>
-  </si>
-  <si>
-    <t>DAC Analog 1.2</t>
-  </si>
-  <si>
-    <t>2.5V Rail (ETH, CS VCCIO)</t>
-  </si>
-  <si>
-    <t>1.8V Rail (CS VCCIO)</t>
-  </si>
-  <si>
-    <t>AFE #1 5V</t>
-  </si>
-  <si>
-    <t>AFE #1 -5V</t>
-  </si>
-  <si>
-    <t>AFE #2 5V</t>
-  </si>
-  <si>
-    <t>AFE #2 -5V</t>
+    <t>impedance matching</t>
+  </si>
+  <si>
+    <t>digital attenuation</t>
+  </si>
+  <si>
+    <t>matching (attenuation approximate, depends on matching)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +559,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -872,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -904,7 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -912,7 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -971,7 +1015,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -984,16 +1027,33 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,8 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1737,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1776,7 +1834,7 @@
       <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="80">
+      <c r="H1" s="77">
         <v>915000000</v>
       </c>
       <c r="I1" s="3"/>
@@ -1808,9 +1866,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="80">
+        <v>56</v>
+      </c>
+      <c r="H2" s="77">
         <v>35000000</v>
       </c>
       <c r="I2" s="3"/>
@@ -1841,9 +1899,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="80">
+        <v>66</v>
+      </c>
+      <c r="H3" s="77">
         <f>125000000/4096</f>
         <v>30517.578125</v>
       </c>
@@ -1875,9 +1933,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="79">
+        <v>67</v>
+      </c>
+      <c r="H4" s="76">
         <f>-174+10*LOG10(H3)</f>
         <v>-129.15449934959719</v>
       </c>
@@ -1963,7 +2021,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -2085,11 +2143,11 @@
     </row>
     <row r="9" spans="1:27" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="13">
@@ -2102,36 +2160,36 @@
       <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="92">
         <f>10^(G9/10)</f>
         <v>1</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="16">
+      <c r="J9" s="90">
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <f t="shared" ref="K9:K10" si="0">10*LOG10(J9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17">
+      <c r="L9" s="15"/>
+      <c r="M9" s="16">
         <v>0</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <f>F9</f>
         <v>1</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17">
         <f>Q10-E9</f>
-        <v>-42.67</v>
-      </c>
-      <c r="R9" s="19">
+        <v>-34.81</v>
+      </c>
+      <c r="R9" s="18">
         <f t="shared" ref="R9:R28" si="1">10^((Q9-30)/10)*1000000</f>
-        <v>5.4075432294557912E-2</v>
+        <v>0.33036954103681448</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -2145,60 +2203,60 @@
     </row>
     <row r="10" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="35" t="s">
-        <v>75</v>
+      <c r="C10" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <f>10^(E10/10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <f>ABS(E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="93">
         <f t="shared" ref="H10:H29" si="2">10^(G10/10)</f>
         <v>1</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <f>J9+((H10-1)/N9)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="3">
         <f>E10+M9</f>
         <v>0</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <f>N9*F10</f>
         <v>1</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <f t="shared" ref="Q10:Q27" si="3">Q11-E10</f>
-        <v>-42.67</v>
-      </c>
-      <c r="R10" s="30">
+        <v>-34.81</v>
+      </c>
+      <c r="R10" s="28">
         <f t="shared" si="1"/>
-        <v>5.4075432294557912E-2</v>
+        <v>0.33036954103681448</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="25">
+      <c r="V10" s="23">
         <f>K10-K9</f>
         <v>0</v>
       </c>
@@ -2210,62 +2268,62 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="35" t="s">
-        <v>116</v>
+      <c r="C11" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="E11" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="F11" s="20">
         <f t="shared" ref="F11:F12" si="4">10^(E11/10)</f>
-        <v>0.79432823472428149</v>
-      </c>
-      <c r="G11" s="22">
+        <v>0.89125093813374545</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" ref="G11:G12" si="5">ABS(E11)</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="93">
         <f t="shared" ref="H11:H12" si="6">10^(G11/10)</f>
-        <v>1.2589254117941673</v>
+        <v>1.1220184543019636</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <f t="shared" ref="J11:J12" si="7">J10+((H11-1)/N10)</f>
-        <v>1.2589254117941673</v>
-      </c>
-      <c r="K11" s="24">
+        <v>1.1220184543019636</v>
+      </c>
+      <c r="K11" s="22">
         <f t="shared" ref="K11:K12" si="8">10*LOG10(J11)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="L11" s="24"/>
+        <v>0.50000000000000056</v>
+      </c>
+      <c r="L11" s="22"/>
       <c r="M11" s="3">
         <f t="shared" ref="M11:M12" si="9">E11+M10</f>
-        <v>-1</v>
-      </c>
-      <c r="N11" s="24">
+        <v>-0.5</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" ref="N11:N12" si="10">N10*F11</f>
-        <v>0.79432823472428149</v>
+        <v>0.89125093813374545</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <f t="shared" si="3"/>
-        <v>-42.67</v>
-      </c>
-      <c r="R11" s="30">
+        <v>-34.81</v>
+      </c>
+      <c r="R11" s="28">
         <f t="shared" si="1"/>
-        <v>5.4075432294557912E-2</v>
+        <v>0.33036954103681448</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="25">
-        <f t="shared" ref="V11:V14" si="11">K11-K10</f>
-        <v>1.0000000000000002</v>
+      <c r="V11" s="23">
+        <f t="shared" ref="V11:V29" si="11">K11-K10</f>
+        <v>0.50000000000000056</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -2275,64 +2333,64 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="70">
+        <v>57</v>
+      </c>
+      <c r="B12" s="68">
         <v>132136</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>76</v>
+      <c r="C12" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="E12" s="19">
+        <v>-0.2</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
+        <v>0.95499258602143589</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="93">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.0471285480508996</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <f t="shared" si="7"/>
-        <v>1.2589254117941673</v>
-      </c>
-      <c r="K12" s="24">
+        <v>1.1748975549395297</v>
+      </c>
+      <c r="K12" s="22">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="L12" s="24"/>
+        <v>0.70000000000000073</v>
+      </c>
+      <c r="L12" s="22"/>
       <c r="M12" s="3">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="N12" s="24">
+        <v>-0.7</v>
+      </c>
+      <c r="N12" s="22">
         <f t="shared" si="10"/>
-        <v>0.79432823472428149</v>
+        <v>0.85113803820237632</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="24">
+      <c r="Q12" s="22">
         <f t="shared" si="3"/>
-        <v>-43.67</v>
-      </c>
-      <c r="R12" s="30">
+        <v>-35.31</v>
+      </c>
+      <c r="R12" s="28">
         <f t="shared" si="1"/>
-        <v>4.2953642676488643E-2</v>
+        <v>0.2944421633798755</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="25">
+      <c r="V12" s="23">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -2342,64 +2400,64 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>-0.3</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <f t="shared" ref="F13:F29" si="12">10^(E13/10)</f>
         <v>0.93325430079699101</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f>ABS(E13)</f>
         <v>0.3</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="93">
         <f t="shared" si="2"/>
         <v>1.0715193052376064</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <f t="shared" ref="J13:J27" si="13">J12+((H13-1)/N12)</f>
-        <v>1.3489628825916538</v>
-      </c>
-      <c r="K13" s="24">
+        <v>1.2589254117941675</v>
+      </c>
+      <c r="K13" s="22">
         <f t="shared" ref="K13:K27" si="14">10*LOG10(J13)</f>
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="L13" s="24"/>
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="L13" s="22"/>
       <c r="M13" s="3">
         <f t="shared" ref="M13:M27" si="15">E13+M12</f>
-        <v>-1.3</v>
-      </c>
-      <c r="N13" s="24">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="22">
         <f t="shared" ref="N13:N27" si="16">N12*F13</f>
-        <v>0.74131024130091749</v>
+        <v>0.79432823472428138</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="24">
+      <c r="Q13" s="22">
         <f t="shared" si="3"/>
-        <v>-43.67</v>
-      </c>
-      <c r="R13" s="30">
+        <v>-35.510000000000005</v>
+      </c>
+      <c r="R13" s="28">
         <f t="shared" si="1"/>
-        <v>4.2953642676488643E-2</v>
+        <v>0.2811900830398934</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="25">
+      <c r="V13" s="23">
         <f t="shared" si="11"/>
-        <v>0.30000000000000049</v>
+        <v>0.30000000000000038</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2408,64 +2466,64 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
-        <v>69</v>
+      <c r="A14" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>20.5</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <f t="shared" si="12"/>
         <v>112.20184543019634</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>0.23</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="93">
         <f t="shared" si="2"/>
         <v>1.0543868963912588</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="24">
+      <c r="J14" s="23">
         <f t="shared" si="13"/>
-        <v>1.4223287871228198</v>
-      </c>
-      <c r="K14" s="24">
+        <v>1.3273944577297396</v>
+      </c>
+      <c r="K14" s="22">
         <f t="shared" si="14"/>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="L14" s="24"/>
+        <v>1.2300000000000004</v>
+      </c>
+      <c r="L14" s="22"/>
       <c r="M14" s="3">
         <f t="shared" si="15"/>
-        <v>19.2</v>
-      </c>
-      <c r="N14" s="24">
+        <v>19.5</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="16"/>
-        <v>83.176377110267097</v>
+        <v>89.125093813374534</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="24">
+      <c r="Q14" s="22">
         <f t="shared" si="3"/>
-        <v>-43.97</v>
-      </c>
-      <c r="R14" s="30">
+        <v>-35.81</v>
+      </c>
+      <c r="R14" s="28">
         <f t="shared" si="1"/>
-        <v>4.008667176273021E-2</v>
+        <v>0.26242185433844373</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="25">
+      <c r="V14" s="23">
         <f t="shared" si="11"/>
-        <v>0.22999999999999954</v>
+        <v>0.22999999999999932</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2474,64 +2532,64 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
-        <v>69</v>
+      <c r="A15" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>78</v>
+      <c r="C15" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>-2</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <f t="shared" ref="F15" si="17">10^(E15/10)</f>
         <v>0.63095734448019325</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <f>ABS(E15)</f>
         <v>2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="93">
         <f t="shared" ref="H15" si="18">10^(G15/10)</f>
         <v>1.5848931924611136</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="24">
+      <c r="J15" s="23">
         <f t="shared" si="13"/>
-        <v>1.4293607499562782</v>
-      </c>
-      <c r="K15" s="24">
+        <v>1.3339570672871093</v>
+      </c>
+      <c r="K15" s="22">
         <f t="shared" si="14"/>
-        <v>1.5514185226392949</v>
-      </c>
-      <c r="L15" s="24"/>
+        <v>1.2514185226392951</v>
+      </c>
+      <c r="L15" s="22"/>
       <c r="M15" s="3">
         <f t="shared" si="15"/>
-        <v>17.2</v>
-      </c>
-      <c r="N15" s="24">
+        <v>17.5</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="16"/>
-        <v>52.480746024977257</v>
+        <v>56.234132519034894</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="24">
+      <c r="Q15" s="22">
         <f t="shared" si="3"/>
-        <v>-23.47</v>
-      </c>
-      <c r="R15" s="30">
+        <v>-15.309999999999999</v>
+      </c>
+      <c r="R15" s="28">
         <f t="shared" si="1"/>
-        <v>4.4977985489328782</v>
+        <v>29.444216337987555</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="25">
-        <f t="shared" ref="V15:V20" si="19">K15-K14</f>
+      <c r="V15" s="23">
+        <f t="shared" si="11"/>
         <v>2.1418522639294668E-2</v>
       </c>
       <c r="W15" s="3"/>
@@ -2541,65 +2599,64 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
-        <v>69</v>
+      <c r="A16" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>33</v>
+        <v>71</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>121</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="48">
-        <v>-0.5</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="E16" s="94">
+        <v>16.5</v>
+      </c>
+      <c r="F16" s="24">
         <f t="shared" si="12"/>
-        <v>0.89125093813374545</v>
-      </c>
-      <c r="G16" s="22">
-        <f>ABS(E16)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="23">
+        <v>44.668359215096324</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="H16" s="93">
         <f t="shared" si="2"/>
-        <v>1.1220184543019636</v>
+        <v>2.2387211385683394</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="24">
+      <c r="J16" s="23">
         <f t="shared" si="13"/>
-        <v>1.431685763671668</v>
-      </c>
-      <c r="K16" s="24">
+        <v>1.3559849902420698</v>
+      </c>
+      <c r="K16" s="22">
         <f t="shared" si="14"/>
-        <v>1.5584770646406789</v>
-      </c>
-      <c r="L16" s="24"/>
+        <v>1.3225488223670676</v>
+      </c>
+      <c r="L16" s="22"/>
       <c r="M16" s="3">
         <f t="shared" si="15"/>
-        <v>16.7</v>
-      </c>
-      <c r="N16" s="24">
+        <v>34</v>
+      </c>
+      <c r="N16" s="22">
         <f t="shared" si="16"/>
-        <v>46.77351412871981</v>
+        <v>2511.8864315095802</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="24">
+      <c r="Q16" s="22">
         <f t="shared" si="3"/>
-        <v>-25.47</v>
-      </c>
-      <c r="R16" s="30">
+        <v>-17.309999999999999</v>
+      </c>
+      <c r="R16" s="28">
         <f t="shared" si="1"/>
-        <v>2.8379190284415561</v>
+        <v>18.578044550916985</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="25">
-        <f t="shared" si="19"/>
-        <v>7.058542001384005E-3</v>
+      <c r="V16" s="23">
+        <f t="shared" si="11"/>
+        <v>7.1130299727772517E-2</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -2608,65 +2665,65 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
-        <v>69</v>
+      <c r="A17" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="20">
-        <v>-2</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" ref="F17" si="20">10^(E17/10)</f>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="G17" s="22">
+      <c r="E17" s="19">
+        <v>-1.3</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" ref="F17" si="19">10^(E17/10)</f>
+        <v>0.74131024130091738</v>
+      </c>
+      <c r="G17" s="21">
         <f>ABS(E17)</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="23">
-        <f t="shared" ref="H17" si="21">10^(G17/10)</f>
-        <v>1.5848931924611136</v>
+        <v>1.3</v>
+      </c>
+      <c r="H17" s="93">
+        <f t="shared" ref="H17" si="20">10^(G17/10)</f>
+        <v>1.3489628825916538</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <f t="shared" si="13"/>
-        <v>1.4441905583905659</v>
-      </c>
-      <c r="K17" s="24">
+        <v>1.3561239148678865</v>
+      </c>
+      <c r="K17" s="22">
         <f t="shared" si="14"/>
-        <v>1.5962450140352813</v>
-      </c>
-      <c r="L17" s="24"/>
+        <v>1.322993746966753</v>
+      </c>
+      <c r="L17" s="22"/>
       <c r="M17" s="3">
         <f t="shared" si="15"/>
-        <v>14.7</v>
-      </c>
-      <c r="N17" s="24">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N17" s="22">
         <f t="shared" si="16"/>
-        <v>29.512092266663853</v>
+        <v>1862.0871366628671</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="24">
+      <c r="Q17" s="22">
         <f t="shared" si="3"/>
-        <v>-25.97</v>
-      </c>
-      <c r="R17" s="30">
+        <v>-0.80999999999999939</v>
+      </c>
+      <c r="R17" s="28">
         <f t="shared" si="1"/>
-        <v>2.5292979964461457</v>
+        <v>829.85076751442193</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="25">
-        <f t="shared" si="19"/>
-        <v>3.7767949394602374E-2</v>
+      <c r="V17" s="23">
+        <f t="shared" si="11"/>
+        <v>4.4492459968537013E-4</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2675,64 +2732,62 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>17</v>
+      <c r="A18" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="20">
-        <v>20.5</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" ref="F18" si="22">10^(E18/10)</f>
-        <v>112.20184543019634</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0.23</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" ref="H18" si="23">10^(G18/10)</f>
-        <v>1.0543868963912588</v>
+      <c r="E18" s="46">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" ref="F18" si="21">10^(E18/10)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
+        <f>ABS(E18)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="93">
+        <f t="shared" ref="H18" si="22">10^(G18/10)</f>
+        <v>1</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <f t="shared" si="13"/>
-        <v>1.4460334265918384</v>
-      </c>
-      <c r="K18" s="24">
+        <v>1.3561239148678865</v>
+      </c>
+      <c r="K18" s="22">
         <f t="shared" si="14"/>
-        <v>1.6017833225076323</v>
-      </c>
-      <c r="L18" s="24"/>
+        <v>1.322993746966753</v>
+      </c>
+      <c r="L18" s="22"/>
       <c r="M18" s="3">
         <f t="shared" si="15"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="N18" s="24">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N18" s="22">
         <f t="shared" si="16"/>
-        <v>3311.3112148259106</v>
+        <v>1862.0871366628671</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="24">
+      <c r="Q18" s="22">
         <f t="shared" si="3"/>
-        <v>-27.97</v>
-      </c>
-      <c r="R18" s="30">
+        <v>-2.1099999999999994</v>
+      </c>
+      <c r="R18" s="28">
         <f t="shared" si="1"/>
-        <v>1.5958791472367311</v>
+        <v>615.17687270986801</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="25">
-        <f t="shared" si="19"/>
-        <v>5.538308472351039E-3</v>
+      <c r="V18" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2741,142 +2796,140 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="71" t="s">
+      <c r="A19" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="71">
+      <c r="D19" s="66"/>
+      <c r="E19" s="69">
         <v>-7</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="70">
         <f t="shared" si="12"/>
         <v>0.19952623149688795</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="71">
         <v>7</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="72">
         <f t="shared" si="2"/>
         <v>5.0118723362727229</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="72">
+      <c r="I19" s="66"/>
+      <c r="J19" s="91">
         <f t="shared" si="13"/>
-        <v>1.4472449926682345</v>
-      </c>
-      <c r="K19" s="72">
+        <v>1.3582784178754432</v>
+      </c>
+      <c r="K19" s="70">
         <f t="shared" si="14"/>
-        <v>1.6054205562331727</v>
-      </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="68">
+        <v>1.3298880010177159</v>
+      </c>
+      <c r="L19" s="70"/>
+      <c r="M19" s="66">
         <f t="shared" si="15"/>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="N19" s="72">
+        <v>25.700000000000003</v>
+      </c>
+      <c r="N19" s="70">
         <f t="shared" si="16"/>
-        <v>660.69344800759586</v>
-      </c>
-      <c r="O19" s="68">
+        <v>371.53522909717242</v>
+      </c>
+      <c r="O19" s="66">
         <v>0</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="66">
         <v>-10</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="70">
         <f t="shared" si="3"/>
-        <v>-7.4700000000000006</v>
-      </c>
-      <c r="R19" s="76">
+        <v>-2.1099999999999994</v>
+      </c>
+      <c r="R19" s="73">
         <f t="shared" si="1"/>
-        <v>179.06058540352925</v>
-      </c>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68">
+        <v>615.17687270986801</v>
+      </c>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66">
         <v>36</v>
       </c>
-      <c r="U19" s="68">
+      <c r="U19" s="66">
         <f>Q19 - (T19-Q19)*3</f>
-        <v>-137.88</v>
-      </c>
-      <c r="V19" s="75">
-        <f t="shared" si="19"/>
-        <v>3.6372337255403675E-3</v>
-      </c>
-      <c r="W19" s="27" t="s">
+        <v>-116.44</v>
+      </c>
+      <c r="V19" s="72">
+        <f t="shared" si="11"/>
+        <v>6.8942540509628891E-3</v>
+      </c>
+      <c r="W19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>23</v>
+      <c r="A20" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1">
-        <v>-1.4</v>
-      </c>
-      <c r="F20" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="12"/>
-        <v>0.72443596007499012</v>
-      </c>
-      <c r="G20" s="22">
+        <v>0.50118723362727224</v>
+      </c>
+      <c r="G20" s="21">
         <f>ABS(E20)</f>
-        <v>1.4</v>
-      </c>
-      <c r="H20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="93">
         <f t="shared" si="2"/>
-        <v>1.3803842646028848</v>
+        <v>1.9952623149688797</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="24">
+      <c r="J20" s="23">
         <f t="shared" si="13"/>
-        <v>1.4478207275506523</v>
-      </c>
-      <c r="K20" s="24">
+        <v>1.3609572010352189</v>
+      </c>
+      <c r="K20" s="22">
         <f t="shared" si="14"/>
-        <v>1.607147898614544</v>
-      </c>
-      <c r="L20" s="24"/>
+        <v>1.3384446785836979</v>
+      </c>
+      <c r="L20" s="22"/>
       <c r="M20" s="3">
         <f t="shared" si="15"/>
-        <v>26.800000000000004</v>
-      </c>
-      <c r="N20" s="24">
+        <v>22.700000000000003</v>
+      </c>
+      <c r="N20" s="22">
         <f t="shared" si="16"/>
-        <v>478.63009232263829</v>
+        <v>186.20871366628666</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="24">
+      <c r="Q20" s="22">
         <f t="shared" si="3"/>
-        <v>-14.47</v>
-      </c>
-      <c r="R20" s="30">
+        <v>-9.11</v>
+      </c>
+      <c r="R20" s="28">
         <f t="shared" si="1"/>
-        <v>35.727283815192834</v>
+        <v>122.74392311584066</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="25">
-        <f t="shared" si="19"/>
-        <v>1.7273423813712885E-3</v>
+      <c r="V20" s="23">
+        <f t="shared" si="11"/>
+        <v>8.556677565981996E-3</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2886,64 +2939,64 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F21" s="26">
+        <v>-1.4</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="12"/>
-        <v>0.50118723362727224</v>
-      </c>
-      <c r="G21" s="22">
+        <v>0.72443596007499012</v>
+      </c>
+      <c r="G21" s="21">
         <f>ABS(E21)</f>
-        <v>3</v>
-      </c>
-      <c r="H21" s="23">
-        <f t="shared" ref="H21" si="24">10^(G21/10)</f>
-        <v>1.9952623149688797</v>
+        <v>1.4</v>
+      </c>
+      <c r="H21" s="93">
+        <f t="shared" ref="H21" si="23">10^(G21/10)</f>
+        <v>1.3803842646028848</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <f t="shared" si="13"/>
-        <v>1.4499001252545016</v>
-      </c>
-      <c r="K21" s="24">
+        <v>1.3629999854845256</v>
+      </c>
+      <c r="K21" s="22">
         <f t="shared" si="14"/>
-        <v>1.6133808737653488</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24">
+        <v>1.3449585120958885</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22">
         <f t="shared" si="15"/>
-        <v>23.800000000000004</v>
-      </c>
-      <c r="N21" s="24">
+        <v>21.300000000000004</v>
+      </c>
+      <c r="N21" s="22">
         <f t="shared" si="16"/>
-        <v>239.88329190194901</v>
+        <v>134.89628825916532</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="24">
+      <c r="Q21" s="22">
         <f t="shared" si="3"/>
-        <v>-15.870000000000001</v>
-      </c>
-      <c r="R21" s="30">
+        <v>-12.11</v>
+      </c>
+      <c r="R21" s="28">
         <f t="shared" si="1"/>
-        <v>25.882129151530865</v>
+        <v>61.517687270986734</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="25">
-        <f t="shared" ref="V21" si="25">K21-K20</f>
-        <v>6.232975150804787E-3</v>
+      <c r="V21" s="23">
+        <f t="shared" si="11"/>
+        <v>6.5138335121905921E-3</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2953,65 +3006,69 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29">
-        <v>13.47</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="C22" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27">
+        <v>9</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="12"/>
-        <v>22.233098906514034</v>
-      </c>
-      <c r="G22" s="86">
-        <v>10</v>
-      </c>
-      <c r="H22" s="23">
+        <v>7.9432823472428176</v>
+      </c>
+      <c r="G22" s="83">
+        <v>6.7</v>
+      </c>
+      <c r="H22" s="93">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4.6773514128719835</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <f t="shared" si="13"/>
-        <v>1.4874183697668317</v>
-      </c>
-      <c r="K22" s="24">
+        <v>1.3902605681167697</v>
+      </c>
+      <c r="K22" s="22">
         <f t="shared" si="14"/>
-        <v>1.7243314076522385</v>
-      </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24">
+        <v>1.4309620506694034</v>
+      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22">
         <f t="shared" si="15"/>
-        <v>37.270000000000003</v>
-      </c>
-      <c r="N22" s="24">
+        <v>30.300000000000004</v>
+      </c>
+      <c r="N22" s="22">
         <f t="shared" si="16"/>
-        <v>5333.3489548762091</v>
+        <v>1071.5193052376064</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="24">
+      <c r="Q22" s="22">
         <f t="shared" si="3"/>
-        <v>-18.87</v>
-      </c>
-      <c r="R22" s="30">
+        <v>-13.51</v>
+      </c>
+      <c r="R22" s="28">
         <f t="shared" si="1"/>
-        <v>12.971792709839523</v>
+        <v>44.565624839750249</v>
       </c>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="3">
+        <v>20.100000000000001</v>
+      </c>
       <c r="U22" s="3"/>
-      <c r="V22" s="25">
-        <f>K22-K20</f>
-        <v>0.11718350903769448</v>
-      </c>
-      <c r="W22" s="3"/>
+      <c r="V22" s="23">
+        <f t="shared" si="11"/>
+        <v>8.6003538573514948E-2</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -3019,64 +3076,64 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29">
-        <v>-0.35</v>
-      </c>
-      <c r="F23" s="26">
+        <v>140</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27">
+        <v>-0.49</v>
+      </c>
+      <c r="F23" s="24">
         <f t="shared" si="12"/>
-        <v>0.92257142715476315</v>
-      </c>
-      <c r="G23" s="22">
+        <v>0.89330548373329532</v>
+      </c>
+      <c r="G23" s="21">
         <f>ABS(E23)</f>
-        <v>0.35</v>
-      </c>
-      <c r="H23" s="23">
+        <v>0.49</v>
+      </c>
+      <c r="H23" s="93">
         <f t="shared" si="2"/>
-        <v>1.0839269140212036</v>
+        <v>1.1194378834671515</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="24">
+      <c r="J23" s="23">
         <f t="shared" si="13"/>
-        <v>1.4874341060171186</v>
-      </c>
-      <c r="K23" s="24">
+        <v>1.3903720340351935</v>
+      </c>
+      <c r="K23" s="22">
         <f t="shared" si="14"/>
-        <v>1.724377353908203</v>
-      </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24">
+        <v>1.431310237864506</v>
+      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22">
         <f t="shared" si="15"/>
-        <v>36.92</v>
-      </c>
-      <c r="N23" s="24">
+        <v>29.810000000000006</v>
+      </c>
+      <c r="N23" s="22">
         <f t="shared" si="16"/>
-        <v>4920.3953568145089</v>
+        <v>957.19407129484455</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="24">
+      <c r="Q23" s="22">
         <f t="shared" si="3"/>
-        <v>-5.4000000000000012</v>
-      </c>
-      <c r="R23" s="30">
+        <v>-4.51</v>
+      </c>
+      <c r="R23" s="28">
         <f t="shared" si="1"/>
-        <v>288.4031503126601</v>
+        <v>353.99734108343478</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="25">
-        <f t="shared" ref="V23:V29" si="26">K23-K21</f>
-        <v>0.11099648014285424</v>
+      <c r="V23" s="23">
+        <f t="shared" si="11"/>
+        <v>3.4818719510254503E-4</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -3086,64 +3143,64 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <f>ABS(E24)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="93">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="24">
+      <c r="J24" s="23">
         <f t="shared" si="13"/>
-        <v>1.4874341060171186</v>
-      </c>
-      <c r="K24" s="24">
+        <v>1.3903720340351935</v>
+      </c>
+      <c r="K24" s="22">
         <f t="shared" si="14"/>
-        <v>1.724377353908203</v>
-      </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24">
+        <v>1.431310237864506</v>
+      </c>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22">
         <f t="shared" si="15"/>
-        <v>36.92</v>
-      </c>
-      <c r="N24" s="24">
+        <v>29.810000000000006</v>
+      </c>
+      <c r="N24" s="22">
         <f t="shared" si="16"/>
-        <v>4920.3953568145089</v>
+        <v>957.19407129484455</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="24">
+      <c r="Q24" s="22">
         <f t="shared" si="3"/>
-        <v>-5.7500000000000009</v>
-      </c>
-      <c r="R24" s="30">
+        <v>-5</v>
+      </c>
+      <c r="R24" s="28">
         <f t="shared" si="1"/>
-        <v>266.07250597988059</v>
+        <v>316.22776601683785</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="25">
-        <f t="shared" si="26"/>
-        <v>4.5946255964546268E-5</v>
+      <c r="V24" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -3153,63 +3210,63 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="1">
-        <v>13.47</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="12"/>
-        <v>22.233098906514034</v>
-      </c>
-      <c r="G25" s="86">
-        <v>10</v>
-      </c>
-      <c r="H25" s="23">
+        <v>15.848931924611136</v>
+      </c>
+      <c r="G25" s="83">
+        <v>7.7</v>
+      </c>
+      <c r="H25" s="93">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5.8884365535558905</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="24">
+      <c r="J25" s="23">
         <f t="shared" si="13"/>
-        <v>1.4892632273269613</v>
-      </c>
-      <c r="K25" s="24">
+        <v>1.3954790825430714</v>
+      </c>
+      <c r="K25" s="22">
         <f t="shared" si="14"/>
-        <v>1.7297146610148402</v>
-      </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24">
+        <v>1.4472333104019715</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22">
         <f t="shared" si="15"/>
-        <v>50.39</v>
-      </c>
-      <c r="N25" s="24">
+        <v>41.81</v>
+      </c>
+      <c r="N25" s="22">
         <f t="shared" si="16"/>
-        <v>109395.63662720939</v>
+        <v>15170.50367459337</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="24">
+      <c r="Q25" s="22">
         <f t="shared" si="3"/>
-        <v>-5.7500000000000009</v>
-      </c>
-      <c r="R25" s="30">
+        <v>-5</v>
+      </c>
+      <c r="R25" s="28">
         <f t="shared" si="1"/>
-        <v>266.07250597988059</v>
+        <v>316.22776601683785</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="25">
-        <f t="shared" si="26"/>
-        <v>5.3373071066371569E-3</v>
+      <c r="V25" s="23">
+        <f t="shared" si="11"/>
+        <v>1.5923072537465499E-2</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3219,64 +3276,64 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>116</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="12"/>
-        <v>0.92257142715476315</v>
-      </c>
-      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="G26" s="21">
         <f>E26</f>
-        <v>-0.35</v>
-      </c>
-      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+      <c r="H26" s="93">
         <f t="shared" si="2"/>
-        <v>0.92257142715476315</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <f t="shared" si="13"/>
-        <v>1.4892625195421243</v>
-      </c>
-      <c r="K26" s="24">
+        <v>1.3954790825430714</v>
+      </c>
+      <c r="K26" s="22">
         <f t="shared" si="14"/>
-        <v>1.7297125969934066</v>
-      </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24">
+        <v>1.4472333104019715</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22">
         <f t="shared" si="15"/>
-        <v>50.04</v>
-      </c>
-      <c r="N26" s="24">
+        <v>41.81</v>
+      </c>
+      <c r="N26" s="22">
         <f t="shared" si="16"/>
-        <v>100925.28860766844</v>
+        <v>15170.50367459337</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="24">
+      <c r="Q26" s="22">
         <f t="shared" si="3"/>
-        <v>7.72</v>
-      </c>
-      <c r="R26" s="30">
-        <f t="shared" ref="R26:R27" si="27">10^((Q26-30)/10)*1000000</f>
-        <v>5915.6163417547323</v>
+        <v>7</v>
+      </c>
+      <c r="R26" s="28">
+        <f t="shared" ref="R26:R27" si="24">10^((Q26-30)/10)*1000000</f>
+        <v>5011.8723362727214</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="25">
-        <f t="shared" si="26"/>
-        <v>5.3352430852036115E-3</v>
+      <c r="V26" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3286,13 +3343,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="1">
@@ -3302,48 +3359,48 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <f>E27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="93">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="24">
+      <c r="J27" s="23">
         <f t="shared" si="13"/>
-        <v>1.4892625195421243</v>
-      </c>
-      <c r="K27" s="24">
+        <v>1.3954790825430714</v>
+      </c>
+      <c r="K27" s="22">
         <f t="shared" si="14"/>
-        <v>1.7297125969934066</v>
-      </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24">
+        <v>1.4472333104019715</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22">
         <f t="shared" si="15"/>
-        <v>50.04</v>
-      </c>
-      <c r="N27" s="24">
+        <v>41.81</v>
+      </c>
+      <c r="N27" s="22">
         <f t="shared" si="16"/>
-        <v>100925.28860766844</v>
+        <v>15170.50367459337</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="24">
+      <c r="Q27" s="22">
         <f t="shared" si="3"/>
-        <v>7.37</v>
-      </c>
-      <c r="R27" s="30">
-        <f t="shared" si="27"/>
-        <v>5457.5786109127084</v>
+        <v>7</v>
+      </c>
+      <c r="R27" s="28">
+        <f t="shared" si="24"/>
+        <v>5011.8723362727214</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="25">
-        <f t="shared" si="26"/>
-        <v>-2.0640214335454488E-6</v>
+      <c r="V27" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -3353,64 +3410,64 @@
     </row>
     <row r="28" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="1">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="12"/>
-        <v>0.9183325964835809</v>
-      </c>
-      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
         <f>ABS(E28)</f>
-        <v>0.37</v>
-      </c>
-      <c r="H28" s="23">
+        <v>0</v>
+      </c>
+      <c r="H28" s="93">
         <f t="shared" si="2"/>
-        <v>1.0889300933334334</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="24">
-        <f t="shared" ref="J28:J29" si="28">J27+((H28-1)/N27)</f>
-        <v>1.4892634006898977</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" ref="K28:K29" si="29">10*LOG10(J28)</f>
-        <v>1.7297151665706134</v>
-      </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24">
-        <f t="shared" ref="M28:M29" si="30">E28+M27</f>
-        <v>49.67</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" ref="N28:N29" si="31">N27*F28</f>
-        <v>92682.982337934925</v>
+      <c r="J28" s="23">
+        <f t="shared" ref="J28:J29" si="25">J27+((H28-1)/N27)</f>
+        <v>1.3954790825430714</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" ref="K28:K29" si="26">10*LOG10(J28)</f>
+        <v>1.4472333104019715</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22">
+        <f t="shared" ref="M28:M29" si="27">E28+M27</f>
+        <v>41.81</v>
+      </c>
+      <c r="N28" s="22">
+        <f t="shared" ref="N28:N29" si="28">N27*F28</f>
+        <v>15170.50367459337</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="24">
+      <c r="Q28" s="22">
         <f>Q29-E28</f>
-        <v>7.37</v>
-      </c>
-      <c r="R28" s="30">
+        <v>7</v>
+      </c>
+      <c r="R28" s="28">
         <f t="shared" si="1"/>
-        <v>5457.5786109127084</v>
+        <v>5011.8723362727214</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="25">
-        <f t="shared" si="26"/>
-        <v>2.5695772067901856E-6</v>
+      <c r="V28" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -3424,40 +3481,40 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>0</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>27</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="93">
         <f t="shared" si="2"/>
         <v>501.18723362727269</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="25">
+      <c r="J29" s="23">
+        <f t="shared" si="25"/>
+        <v>1.4284501192572285</v>
+      </c>
+      <c r="K29" s="82">
+        <f t="shared" si="26"/>
+        <v>1.5486507964381349</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22">
+        <f t="shared" si="27"/>
+        <v>41.81</v>
+      </c>
+      <c r="N29" s="22">
         <f t="shared" si="28"/>
-        <v>1.4946601544521312</v>
-      </c>
-      <c r="K29" s="85">
-        <f t="shared" si="29"/>
-        <v>1.7454245699207842</v>
-      </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24">
-        <f t="shared" si="30"/>
-        <v>49.67</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="31"/>
-        <v>92682.982337934925</v>
+        <v>15170.50367459337</v>
       </c>
       <c r="O29" s="3">
         <v>9</v>
@@ -3465,21 +3522,23 @@
       <c r="P29" s="3">
         <v>7</v>
       </c>
-      <c r="Q29" s="77">
+      <c r="Q29" s="74">
         <v>7</v>
       </c>
-      <c r="R29" s="30">
-        <f t="shared" ref="R29" si="32">10^((Q29-30)/10)*1000000</f>
+      <c r="R29" s="28">
+        <f t="shared" ref="R29" si="29">10^((Q29-30)/10)*1000000</f>
         <v>5011.8723362727214</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="25">
-        <f t="shared" si="26"/>
-        <v>1.5711972927377582E-2</v>
-      </c>
-      <c r="W29" s="3"/>
+      <c r="V29" s="23">
+        <f t="shared" si="11"/>
+        <v>0.10141748603616341</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
@@ -3490,16 +3549,16 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="33"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="24"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3508,11 +3567,11 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -3528,7 +3587,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="24"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3616,8 +3675,8 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3645,8 +3704,8 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3674,8 +3733,8 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3691,8 +3750,8 @@
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="36" t="s">
-        <v>35</v>
+      <c r="C37" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3700,13 +3759,13 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3734,8 +3793,8 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3750,11 +3809,11 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3767,8 +3826,8 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3796,8 +3855,8 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3825,8 +3884,8 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -3854,8 +3913,8 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -3883,8 +3942,8 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -3912,8 +3971,8 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -3941,8 +4000,8 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -3970,8 +4029,8 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -3999,8 +4058,8 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -4028,8 +4087,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -4057,8 +4116,8 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -4086,8 +4145,8 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -4115,8 +4174,8 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -4144,8 +4203,8 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4324,811 +4383,856 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C7:P35"/>
+  <dimension ref="C7:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="177" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" style="38"/>
-    <col min="4" max="4" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="38"/>
-    <col min="11" max="11" width="2.6640625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="38"/>
+    <col min="1" max="3" width="9.1640625" style="36"/>
+    <col min="4" max="4" width="13.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="36"/>
+    <col min="11" max="11" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="91" t="s">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M7" s="79"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" s="82"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="88" t="s">
+      <c r="F10" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" s="79"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="79"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="40">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="G12" s="40">
+        <v>-2.6</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="42">
+        <f>F12</f>
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="J12" s="42">
+        <f>G12</f>
+        <v>-2.6</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="96">
+        <f>10^(I12/10)/1000</f>
+        <v>5.5590425727040352E-4</v>
+      </c>
+      <c r="M12" s="36">
+        <v>50</v>
+      </c>
+      <c r="N12" s="97">
+        <f>SQRT(L12*M12)</f>
+        <v>0.16671896371894881</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="102">
+        <v>-0.35</v>
+      </c>
+      <c r="G13" s="102">
+        <v>-0.4</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="42">
+        <f>I12+F13</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J13" s="42">
+        <f>J12+G13</f>
+        <v>-3</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="97">
+        <f>10^(I13/10)/1000</f>
+        <v>5.1286138399136484E-4</v>
+      </c>
+      <c r="M13" s="36">
+        <v>50</v>
+      </c>
+      <c r="N13" s="97">
+        <f t="shared" ref="N13" si="0">SQRT(L13*M13)</f>
+        <v>0.16013453468745661</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C14" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="101">
+        <v>-0.2</v>
+      </c>
+      <c r="G14" s="101">
+        <v>-0.2</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" ref="I14:I27" si="1">I13+F14</f>
+        <v>-3.1</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" ref="J14:J27" si="2">J13+G14</f>
+        <v>-3.2</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="97">
+        <f t="shared" ref="L14:L27" si="3">10^(I14/10)/1000</f>
+        <v>4.897788193684461E-4</v>
+      </c>
+      <c r="M14" s="36">
+        <v>51</v>
+      </c>
+      <c r="N14" s="97">
+        <f t="shared" ref="N14:N27" si="4">SQRT(L14*M14)</f>
+        <v>0.15804657474235484</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="41">
+        <v>-4.7</v>
+      </c>
+      <c r="G15" s="41">
+        <v>-4.7</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="1"/>
+        <v>-7.8000000000000007</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="2"/>
+        <v>-7.9</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="97">
+        <f t="shared" si="3"/>
+        <v>1.6595869074375599E-4</v>
+      </c>
+      <c r="M15" s="36">
+        <v>52</v>
+      </c>
+      <c r="N15" s="97">
+        <f t="shared" si="4"/>
+        <v>9.2896996284461811E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="106">
+        <v>-1.8</v>
+      </c>
+      <c r="G16" s="106">
+        <v>-1.4</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="42">
+        <f t="shared" si="1"/>
+        <v>-9.6000000000000014</v>
+      </c>
+      <c r="J16" s="42">
+        <f t="shared" si="2"/>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="97">
+        <f t="shared" si="3"/>
+        <v>1.0964781961431842E-4</v>
+      </c>
+      <c r="M16" s="36">
+        <v>53</v>
+      </c>
+      <c r="N16" s="97">
+        <f t="shared" si="4"/>
+        <v>7.6232108980133009E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="100"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="106">
+        <v>-7.3</v>
+      </c>
+      <c r="G17" s="106">
+        <v>-7.3</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="1"/>
+        <v>-16.900000000000002</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" si="2"/>
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="97">
+        <f t="shared" ref="L17" si="5">10^(I17/10)/1000</f>
+        <v>2.0417379446695281E-5</v>
+      </c>
+      <c r="M17" s="36">
+        <v>54</v>
+      </c>
+      <c r="N17" s="97">
+        <f t="shared" ref="N17" si="6">SQRT(L17*M17)</f>
+        <v>3.3204495028859353E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="D18" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="40">
+        <v>-7</v>
+      </c>
+      <c r="G18" s="40">
+        <v>-7</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="42">
+        <f t="shared" si="1"/>
+        <v>-23.900000000000002</v>
+      </c>
+      <c r="J18" s="42">
+        <f t="shared" si="2"/>
+        <v>-23.6</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="97">
+        <f t="shared" si="3"/>
+        <v>4.0738027780411222E-6</v>
+      </c>
+      <c r="M18" s="36">
+        <v>54</v>
+      </c>
+      <c r="N18" s="97">
+        <f t="shared" si="4"/>
+        <v>1.4831903115049686E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="41">
+        <v>19</v>
+      </c>
+      <c r="G19" s="41">
+        <v>20.5</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="1"/>
+        <v>-4.9000000000000021</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.1000000000000014</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="97">
+        <f t="shared" si="3"/>
+        <v>3.2359365692962805E-4</v>
+      </c>
+      <c r="M19" s="36">
+        <v>55</v>
+      </c>
+      <c r="N19" s="97">
+        <f t="shared" si="4"/>
+        <v>0.13340783759258504</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="41">
+        <v>-3</v>
+      </c>
+      <c r="G20" s="41">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="42">
+        <f t="shared" si="1"/>
+        <v>-7.9000000000000021</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="2"/>
+        <v>-5.1000000000000014</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="97">
+        <f t="shared" si="3"/>
+        <v>1.6218100973589288E-4</v>
+      </c>
+      <c r="M20" s="36">
+        <v>56</v>
+      </c>
+      <c r="N20" s="97">
+        <f t="shared" si="4"/>
+        <v>9.5300244203307266E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="41">
+        <v>16.5</v>
+      </c>
+      <c r="G21" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="2"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="L21" s="97">
+        <f t="shared" si="3"/>
+        <v>7.2443596007498974E-3</v>
+      </c>
+      <c r="M21" s="36">
+        <v>57</v>
+      </c>
+      <c r="N21" s="97">
+        <f t="shared" si="4"/>
+        <v>0.64259512699890908</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="41">
+        <v>0</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="2"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="97">
+        <f t="shared" si="3"/>
+        <v>7.2443596007498974E-3</v>
+      </c>
+      <c r="M22" s="36">
+        <v>58</v>
+      </c>
+      <c r="N22" s="97">
+        <f t="shared" si="4"/>
+        <v>0.64820741807194249</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="41">
+        <v>16.5</v>
+      </c>
+      <c r="G23" s="41">
+        <v>17.5</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="42">
+        <f t="shared" si="1"/>
+        <v>25.099999999999998</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="2"/>
+        <v>29.9</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="97">
+        <f t="shared" si="3"/>
+        <v>0.32359365692962827</v>
+      </c>
+      <c r="M23" s="36">
+        <v>59</v>
+      </c>
+      <c r="N23" s="97">
+        <f t="shared" si="4"/>
+        <v>4.3694422709137681</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="42">
+        <v>16.5</v>
+      </c>
+      <c r="G24" s="42">
+        <v>18.5</v>
+      </c>
+      <c r="H24" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="103">
+        <f t="shared" si="1"/>
+        <v>41.599999999999994</v>
+      </c>
+      <c r="J24" s="103">
+        <f t="shared" si="2"/>
+        <v>48.4</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="97">
+        <f t="shared" si="3"/>
+        <v>14.454397707459266</v>
+      </c>
+      <c r="M24" s="36">
+        <v>60</v>
+      </c>
+      <c r="N24" s="97">
+        <f t="shared" si="4"/>
+        <v>29.449344007083688</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="42">
+        <v>-0.3</v>
+      </c>
+      <c r="G25" s="42">
+        <v>-0.3</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="42">
+        <f t="shared" si="1"/>
+        <v>41.3</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="2"/>
+        <v>48.1</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="97">
+        <f t="shared" si="3"/>
+        <v>13.489628825916556</v>
+      </c>
+      <c r="M25" s="36">
+        <v>61</v>
+      </c>
+      <c r="N25" s="97">
+        <f t="shared" si="4"/>
+        <v>28.685664684314183</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="42">
+        <v>-0.3</v>
+      </c>
+      <c r="G26" s="42">
+        <v>-0.3</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J26" s="42">
+        <f t="shared" si="2"/>
+        <v>47.800000000000004</v>
+      </c>
+      <c r="K26" s="42"/>
+      <c r="L26" s="97">
+        <f t="shared" si="3"/>
+        <v>12.589254117941671</v>
+      </c>
+      <c r="M26" s="36">
+        <v>62</v>
+      </c>
+      <c r="N26" s="97">
+        <f t="shared" si="4"/>
+        <v>27.938034206299907</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="42">
-        <v>6.99</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="F27" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="42">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="2"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="97">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M27" s="36">
+        <v>63</v>
+      </c>
+      <c r="N27" s="97">
+        <f t="shared" si="4"/>
+        <v>25.099800796022265</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="L30" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="79">
+        <v>150</v>
+      </c>
+      <c r="N30" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F31" s="43"/>
+      <c r="G31" s="41"/>
+      <c r="L31" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="36">
+        <f>1/(1/60+1/60+1/25)</f>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="N31" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="45">
+        <f>SUM(F12:F28)</f>
+        <v>40</v>
+      </c>
+      <c r="G32" s="45">
+        <f>SUM(G12:G28)</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="98">
+        <f>M31/(M30+M31)</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="N32" s="79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E33" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="81">
+        <f>10^(F32/10)/1000</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="81">
+        <f>10^(G32/10)/1000</f>
+        <v>47.863009232263991</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E35" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="42">
+        <f>I24-41</f>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="L35" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="36">
+        <f>350/150</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E36" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="42">
+        <f>J24-41</f>
+        <v>7.3999999999999986</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="F37" s="79"/>
+      <c r="L37" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="36">
+        <f>M35*M32</f>
+        <v>0.19444444444444448</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L39" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="36">
+        <f>100/50*M37^2</f>
+        <v>7.5617283950617314E-2</v>
+      </c>
+      <c r="N39" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="42">
-        <v>7</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="44">
-        <f>F11</f>
-        <v>6.99</v>
-      </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="38">
-        <f t="shared" ref="L11:L19" si="0">10^(J11/10)/1000</f>
-        <v>5.0003453497697867E-3</v>
-      </c>
-      <c r="M11" s="38">
-        <v>50</v>
-      </c>
-      <c r="N11" s="38">
-        <f>SQRT(L11/M11)</f>
-        <v>1.000034534380667E-2</v>
-      </c>
-      <c r="O11" s="38">
-        <f>SQRT(L11*M11)</f>
-        <v>0.50001726719033346</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="42">
-        <v>-0.35</v>
-      </c>
-      <c r="G12" s="42">
-        <v>-0.4</v>
-      </c>
-      <c r="H12" s="42">
-        <v>-0.4</v>
-      </c>
-      <c r="I12" s="81" t="s">
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M40" s="42">
+        <f>10*LOG10(M39)</f>
+        <v>-11.213789258420794</v>
+      </c>
+      <c r="N40" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="44">
-        <f t="shared" ref="J12:J19" si="1">J11+F12</f>
-        <v>6.6400000000000006</v>
-      </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="38">
-        <f t="shared" si="0"/>
-        <v>4.6131757456037946E-3</v>
-      </c>
-      <c r="M12" s="38">
-        <v>200</v>
-      </c>
-      <c r="N12" s="38">
-        <f t="shared" ref="N12:N17" si="2">SQRT(L12/M12)</f>
-        <v>4.8026949443014779E-3</v>
-      </c>
-      <c r="O12" s="38">
-        <f t="shared" ref="O12:O17" si="3">SQRT(L12*M12)</f>
-        <v>0.96053898886029554</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="82"/>
-      <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="42">
-        <v>-1.4</v>
-      </c>
-      <c r="G13" s="42">
-        <v>0</v>
-      </c>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="44">
-        <f t="shared" si="1"/>
-        <v>5.24</v>
-      </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="38">
-        <f t="shared" si="0"/>
-        <v>3.3419504002611426E-3</v>
-      </c>
-      <c r="M13" s="38">
-        <v>201</v>
-      </c>
-      <c r="N13" s="38">
-        <f t="shared" ref="N13" si="4">SQRT(L13/M13)</f>
-        <v>4.0775751258280762E-3</v>
-      </c>
-      <c r="O13" s="38">
-        <f t="shared" ref="O13" si="5">SQRT(L13*M13)</f>
-        <v>0.81959260029144332</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="43">
-        <v>-14.22</v>
-      </c>
-      <c r="G14" s="43">
-        <v>-14.22</v>
-      </c>
-      <c r="H14" s="43">
-        <v>-14.22</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="44">
-        <f t="shared" si="1"/>
-        <v>-8.98</v>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="38">
-        <f t="shared" si="0"/>
-        <v>1.2647363474711513E-4</v>
-      </c>
-      <c r="M14" s="38">
-        <v>50</v>
-      </c>
-      <c r="N14" s="38">
-        <f t="shared" si="2"/>
-        <v>1.5904316064962688E-3</v>
-      </c>
-      <c r="O14" s="38">
-        <f t="shared" si="3"/>
-        <v>7.9521580324813448E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="87">
-        <v>-1.8</v>
-      </c>
-      <c r="G15" s="87">
-        <v>-1.4</v>
-      </c>
-      <c r="H15" s="87">
-        <v>-1.4</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="44">
-        <f t="shared" si="1"/>
-        <v>-10.780000000000001</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="38">
-        <f t="shared" si="0"/>
-        <v>8.3560301823124781E-5</v>
-      </c>
-      <c r="M15" s="38">
-        <v>50</v>
-      </c>
-      <c r="N15" s="38">
-        <f t="shared" si="2"/>
-        <v>1.2927513436320596E-3</v>
-      </c>
-      <c r="O15" s="38">
-        <f t="shared" si="3"/>
-        <v>6.463756718160299E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="42">
-        <v>-7</v>
-      </c>
-      <c r="G16" s="42">
-        <v>-7</v>
-      </c>
-      <c r="H16" s="42">
-        <v>-7</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="44">
-        <f t="shared" si="1"/>
-        <v>-17.78</v>
-      </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="38">
-        <f t="shared" si="0"/>
-        <v>1.6672472125510625E-5</v>
-      </c>
-      <c r="M16" s="38">
-        <v>50</v>
-      </c>
-      <c r="N16" s="38">
-        <f t="shared" si="2"/>
-        <v>5.7745081393155255E-4</v>
-      </c>
-      <c r="O16" s="38">
-        <f t="shared" si="3"/>
-        <v>2.8872540696577628E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="43">
-        <v>17.5</v>
-      </c>
-      <c r="G17" s="43">
-        <v>19.5</v>
-      </c>
-      <c r="H17" s="43">
-        <v>19.5</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="44">
-        <f t="shared" si="1"/>
-        <v>-0.28000000000000114</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="38">
-        <f t="shared" si="0"/>
-        <v>9.3756200692587997E-4</v>
-      </c>
-      <c r="M17" s="38">
-        <v>50</v>
-      </c>
-      <c r="N17" s="38">
-        <f t="shared" si="2"/>
-        <v>4.3302702154158464E-3</v>
-      </c>
-      <c r="O17" s="38">
-        <f t="shared" si="3"/>
-        <v>0.21651351077079231</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="43">
-        <v>-3</v>
-      </c>
-      <c r="G18" s="43">
-        <v>-2</v>
-      </c>
-      <c r="H18" s="43">
-        <v>-2</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="44">
-        <f t="shared" si="1"/>
-        <v>-3.2800000000000011</v>
-      </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="38">
-        <f t="shared" si="0"/>
-        <v>4.6989410860521526E-4</v>
-      </c>
-      <c r="M18" s="38">
-        <v>50</v>
-      </c>
-      <c r="N18" s="38">
-        <f t="shared" ref="N18:N19" si="6">SQRT(L18/M18)</f>
-        <v>3.0655965442478411E-3</v>
-      </c>
-      <c r="O18" s="38">
-        <f t="shared" ref="O18:O19" si="7">SQRT(L18*M18)</f>
-        <v>0.15327982721239206</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="43">
-        <v>17.5</v>
-      </c>
-      <c r="G19" s="43">
-        <v>19.5</v>
-      </c>
-      <c r="H19" s="43">
-        <v>19.5</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="44">
-        <f t="shared" si="1"/>
-        <v>14.219999999999999</v>
-      </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="38">
-        <f t="shared" si="0"/>
-        <v>2.6424087573219474E-2</v>
-      </c>
-      <c r="M19" s="38">
-        <v>50</v>
-      </c>
-      <c r="N19" s="38">
-        <f t="shared" si="6"/>
-        <v>2.2988730966810443E-2</v>
-      </c>
-      <c r="O19" s="38">
-        <f t="shared" si="7"/>
-        <v>1.1494365483405222</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="43">
-        <v>16.5</v>
-      </c>
-      <c r="G20" s="43">
-        <v>17.5</v>
-      </c>
-      <c r="H20" s="43">
-        <v>17.5</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="44">
-        <f t="shared" ref="J20:J22" si="8">J19+F20</f>
-        <v>30.72</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="38">
-        <f t="shared" ref="L20:L25" si="9">10^(J20/10)/1000</f>
-        <v>1.1803206356517304</v>
-      </c>
-      <c r="M20" s="38">
-        <v>50</v>
-      </c>
-      <c r="N20" s="38">
-        <f t="shared" ref="N20:N25" si="10">SQRT(L20/M20)</f>
-        <v>0.1536437851428902</v>
-      </c>
-      <c r="O20" s="38">
-        <f t="shared" ref="O20:O25" si="11">SQRT(L20*M20)</f>
-        <v>7.6821892571445103</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="43">
-        <v>-3.4</v>
-      </c>
-      <c r="G21" s="43">
-        <v>-3</v>
-      </c>
-      <c r="H21" s="43">
-        <v>-3</v>
-      </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="44">
-        <f t="shared" si="8"/>
-        <v>27.32</v>
-      </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="38">
-        <f t="shared" si="9"/>
-        <v>0.53951062251512827</v>
-      </c>
-      <c r="M21" s="38">
-        <v>50</v>
-      </c>
-      <c r="N21" s="38">
-        <f t="shared" si="10"/>
-        <v>0.1038759474098916</v>
-      </c>
-      <c r="O21" s="38">
-        <f t="shared" si="11"/>
-        <v>5.1937973704945799</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="44">
-        <v>12.5</v>
-      </c>
-      <c r="G22" s="44">
-        <v>14</v>
-      </c>
-      <c r="H22" s="44">
-        <v>14</v>
-      </c>
-      <c r="I22" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="44">
-        <f t="shared" si="8"/>
-        <v>39.82</v>
-      </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="38">
-        <f t="shared" si="9"/>
-        <v>9.5940063151593389</v>
-      </c>
-      <c r="M22" s="38">
-        <v>50</v>
-      </c>
-      <c r="N22" s="38">
-        <f t="shared" si="10"/>
-        <v>0.43804123813082574</v>
-      </c>
-      <c r="O22" s="38">
-        <f t="shared" si="11"/>
-        <v>21.902061906541288</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="G23" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="H23" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="I23" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="44">
-        <f>J20+F23</f>
-        <v>30.419999999999998</v>
-      </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="38">
-        <f t="shared" si="9"/>
-        <v>1.101539309541415</v>
-      </c>
-      <c r="M23" s="38">
-        <v>50</v>
-      </c>
-      <c r="N23" s="38">
-        <f t="shared" si="10"/>
-        <v>0.14842771368861107</v>
-      </c>
-      <c r="O23" s="38">
-        <f t="shared" si="11"/>
-        <v>7.421385684430553</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="G24" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="H24" s="44">
-        <v>-0.3</v>
-      </c>
-      <c r="I24" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="44">
-        <f>J21+F24</f>
-        <v>27.02</v>
-      </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="38">
-        <f t="shared" ref="L24" si="12">10^(J24/10)/1000</f>
-        <v>0.50350060878790504</v>
-      </c>
-      <c r="M24" s="38">
-        <v>50</v>
-      </c>
-      <c r="N24" s="38">
-        <f t="shared" ref="N24" si="13">SQRT(L24/M24)</f>
-        <v>0.10034945030122537</v>
-      </c>
-      <c r="O24" s="38">
-        <f t="shared" ref="O24" si="14">SQRT(L24*M24)</f>
-        <v>5.017472515061268</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="44">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="44">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="44">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="44">
-        <f>J22+F25</f>
-        <v>38.82</v>
-      </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="38">
-        <f t="shared" si="9"/>
-        <v>7.6207901002541334</v>
-      </c>
-      <c r="M25" s="38">
-        <v>50</v>
-      </c>
-      <c r="N25" s="38">
-        <f t="shared" si="10"/>
-        <v>0.39040466442536603</v>
-      </c>
-      <c r="O25" s="38">
-        <f t="shared" si="11"/>
-        <v>19.520233221268303</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F29" s="45"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="L29" s="38">
-        <v>50</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="N29" s="82"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E30" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="47">
-        <f>SUM(F11:F26)</f>
-        <v>38.220000000000006</v>
-      </c>
-      <c r="G30" s="47">
-        <f>SUM(G11:G26)</f>
-        <v>47.88</v>
-      </c>
-      <c r="H30" s="47">
-        <f>SUM(H11:H26)</f>
-        <v>47.88</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="82">
-        <f>0.5*SQRT(2)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="N30" s="82"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E31" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="84">
-        <f>10^(F30/10)/1000</f>
-        <v>6.6374307040191036</v>
-      </c>
-      <c r="G31" s="84">
-        <f>10^(G30/10)/1000</f>
-        <v>61.376200516479472</v>
-      </c>
-      <c r="H31" s="84">
-        <f>10^(H30/10)/1000</f>
-        <v>61.376200516479472</v>
-      </c>
-      <c r="I31" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="38">
-        <f>L30/SQRT(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N31" s="82"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="L32" s="38">
-        <f>L31*L31/L29</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M32" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="N32" s="82"/>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="L33" s="38">
-        <f>10*LOG10(L32)+30</f>
-        <v>6.9897000433601875</v>
-      </c>
-      <c r="M33" s="82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F35" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L28:M28"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B5:F84"/>
+  <dimension ref="B5:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5139,843 +5243,862 @@
   <sheetData>
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+    </row>
+    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-    </row>
-    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="50">
+        <v>0.85</v>
+      </c>
+      <c r="C8" s="51">
+        <v>3.8</v>
+      </c>
+      <c r="D8" s="52">
+        <f>E43</f>
+        <v>5.812400000000002</v>
+      </c>
+      <c r="E8" s="52">
+        <f>C8*D8</f>
+        <v>22.087120000000006</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="54">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="55">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="56">
+        <f>C9*D9</f>
+        <v>13.2</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="54">
+        <v>1</v>
+      </c>
+      <c r="C10" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="56">
+        <f>C10*D10</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="54">
+        <v>1</v>
+      </c>
+      <c r="C11" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="55">
+        <v>2.4</v>
+      </c>
+      <c r="E11" s="56">
+        <f>C11*D11</f>
+        <v>13.2</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="54">
+        <v>1</v>
+      </c>
+      <c r="C12" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="56">
+        <f>C12*D12</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="54">
+        <v>1</v>
+      </c>
+      <c r="C13" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="55">
+        <v>2</v>
+      </c>
+      <c r="E13" s="56">
+        <f t="shared" ref="E13:E16" si="0">C13*D13/B13</f>
+        <v>11</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="52">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="54">
         <v>1</v>
       </c>
-      <c r="C8" s="53">
-        <v>1.8</v>
-      </c>
-      <c r="D8" s="53">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="E8" s="54">
-        <f>C8*D8/B8</f>
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="56">
-        <v>1</v>
-      </c>
-      <c r="C11" s="57">
-        <v>1.2</v>
-      </c>
-      <c r="D11" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="58">
-        <f t="shared" ref="E11:E28" si="0">C11*D11/B11</f>
-        <v>0.96</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="56">
-        <v>1</v>
-      </c>
-      <c r="C14" s="57">
-        <v>3.3</v>
-      </c>
-      <c r="D14" s="57">
-        <v>1</v>
-      </c>
-      <c r="E14" s="58">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="56">
-        <v>1</v>
-      </c>
-      <c r="C21" s="57">
+      <c r="C14" s="55">
         <v>5.5</v>
       </c>
-      <c r="D21" s="57">
-        <v>2</v>
-      </c>
-      <c r="E21" s="58">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="56">
-        <v>1</v>
-      </c>
-      <c r="C22" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D22" s="57">
+      <c r="D14" s="55">
         <v>0.5</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E14" s="56">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="56">
+      <c r="F14" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="54">
         <v>1</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C15" s="88">
         <v>5.5</v>
       </c>
-      <c r="D23" s="57">
-        <v>2</v>
-      </c>
-      <c r="E23" s="58">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="56">
-        <v>1</v>
-      </c>
-      <c r="C24" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D24" s="57">
-        <v>2</v>
-      </c>
-      <c r="E24" s="58">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="56">
-        <v>1</v>
-      </c>
-      <c r="C25" s="96">
-        <v>5.5</v>
-      </c>
-      <c r="D25" s="96">
+      <c r="D15" s="88">
         <v>3</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E15" s="56">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="F25" s="51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="56">
+      <c r="F15" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="54">
         <v>1</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C16" s="55">
         <v>5.5</v>
       </c>
-      <c r="D26" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="58">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="56">
+      <c r="D16" s="55">
         <v>1</v>
       </c>
-      <c r="C27" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D27" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="58">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="56">
-        <v>1</v>
-      </c>
-      <c r="C28" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D28" s="57">
-        <v>1</v>
-      </c>
-      <c r="E28" s="58">
+      <c r="E16" s="56">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>51</v>
+      <c r="F16" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="49"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="56">
+        <f>SUM(E8:E16)</f>
+        <v>85.337119999999999</v>
+      </c>
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="56">
+        <f>E18*1.1</f>
+        <v>93.870832000000007</v>
+      </c>
+      <c r="F19" s="49"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="56">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="59">
+        <f>E19/E20</f>
+        <v>17.067424000000003</v>
+      </c>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+    </row>
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="50">
+        <v>1</v>
+      </c>
+      <c r="C26" s="51">
+        <v>3.8</v>
+      </c>
+      <c r="D26" s="51">
+        <v>0.245</v>
+      </c>
+      <c r="E26" s="52">
+        <f>C26*D26/B26</f>
+        <v>0.93099999999999994</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="54">
+        <v>1</v>
+      </c>
+      <c r="C27" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E27" s="56">
+        <f t="shared" ref="E27:E38" si="1">C27*D27/B27</f>
+        <v>1.9836</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="54">
+        <v>1</v>
+      </c>
+      <c r="C28" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D28" s="55">
+        <v>0.182</v>
+      </c>
+      <c r="E28" s="56">
+        <f t="shared" si="1"/>
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="51"/>
+      <c r="B29" s="54">
+        <v>1</v>
+      </c>
+      <c r="C29" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D29" s="88">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" si="1"/>
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="58">
-        <f>SUM(E8:E28)</f>
-        <v>63.878599999999992</v>
-      </c>
-      <c r="F30" s="51"/>
+      <c r="B30" s="54">
+        <v>1</v>
+      </c>
+      <c r="C30" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D30" s="55">
+        <v>0.65</v>
+      </c>
+      <c r="E30" s="56">
+        <f t="shared" si="1"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57" t="s">
+      <c r="B31" s="54">
+        <v>1</v>
+      </c>
+      <c r="C31" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D31" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="54">
+        <v>1</v>
+      </c>
+      <c r="C32" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D32" s="88">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E32" s="56">
+        <f t="shared" si="1"/>
+        <v>1.4629999999999999</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="54">
+        <v>1</v>
+      </c>
+      <c r="C33" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D33" s="88">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E33" s="56">
+        <f t="shared" si="1"/>
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="54">
+        <v>1</v>
+      </c>
+      <c r="C34" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D34" s="88">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="1"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="54">
+        <v>1</v>
+      </c>
+      <c r="C35" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D35" s="88">
+        <v>1</v>
+      </c>
+      <c r="E35" s="56">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="54">
+        <v>1</v>
+      </c>
+      <c r="C36" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D36" s="88">
+        <v>1</v>
+      </c>
+      <c r="E36" s="56">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="54">
+        <v>1</v>
+      </c>
+      <c r="C37" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D37" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="56">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="54">
+        <v>1</v>
+      </c>
+      <c r="C38" s="55">
+        <v>3.8</v>
+      </c>
+      <c r="D38" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="56">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="49"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="56">
+        <f>SUM(E26:E38)</f>
+        <v>20.079200000000004</v>
+      </c>
+      <c r="F40" s="49"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="56">
+        <f>E40*1.1</f>
+        <v>22.087120000000006</v>
+      </c>
+      <c r="F41" s="49"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="56">
+        <v>3.8</v>
+      </c>
+      <c r="F42" s="49"/>
+    </row>
+    <row r="43" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E43" s="59">
+        <f>E41/E42</f>
+        <v>5.812400000000002</v>
+      </c>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="45" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="109"/>
+    </row>
+    <row r="47" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="49"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="49"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="49"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="49"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="49"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="49"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="49"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="49"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="49"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="56">
+        <f>SUM(E48:E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="49"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="56">
         <v>5.5</v>
       </c>
-      <c r="F31" s="51"/>
-    </row>
-    <row r="32" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60" t="s">
+      <c r="F60" s="49"/>
+    </row>
+    <row r="61" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="57"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="59">
+        <f>E59/E60</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="60"/>
+    </row>
+    <row r="66" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="109"/>
+    </row>
+    <row r="68" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="61">
-        <f>E30/E31</f>
-        <v>11.614290909090908</v>
-      </c>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="34" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-    </row>
-    <row r="36" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="51"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="52">
-        <v>1</v>
-      </c>
-      <c r="C37" s="53">
+      <c r="F68" s="63"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="C69" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="D69" s="56">
+        <f>E21</f>
+        <v>17.067424000000003</v>
+      </c>
+      <c r="E69" s="56">
+        <f t="shared" ref="E69:E73" si="2">C69*D69/B69</f>
+        <v>110.43627294117648</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="C70" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="D70" s="56">
+        <f>E43</f>
+        <v>5.812400000000002</v>
+      </c>
+      <c r="E70" s="56">
+        <f t="shared" si="2"/>
+        <v>37.609647058823541</v>
+      </c>
+      <c r="F70" s="89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="C71" s="55">
         <v>3.7</v>
       </c>
-      <c r="D37" s="53">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E37" s="54">
-        <f>C37*D37/B37</f>
-        <v>0.49950000000000006</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="56">
-        <v>1</v>
-      </c>
-      <c r="C38" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D38" s="57">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E38" s="58">
-        <f t="shared" ref="E38:E40" si="1">C38*D38/B38</f>
-        <v>1.9314000000000002</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="56">
-        <v>1</v>
-      </c>
-      <c r="C39" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D39" s="57">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E39" s="58">
-        <f t="shared" si="1"/>
-        <v>2.4605000000000001</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="56">
-        <v>1</v>
-      </c>
-      <c r="C40" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D40" s="57">
-        <v>0.435</v>
-      </c>
-      <c r="E40" s="58">
-        <f t="shared" si="1"/>
-        <v>1.6095000000000002</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="51"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="51"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="51"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="51"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="51"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="51"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="51"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="58">
-        <f>SUM(E37:E46)</f>
-        <v>6.5009000000000015</v>
-      </c>
-      <c r="F48" s="51"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="58">
-        <v>3.9</v>
-      </c>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="61">
-        <f>E48/E49</f>
-        <v>1.6668974358974362</v>
-      </c>
-      <c r="F50" s="62"/>
-    </row>
-    <row r="52" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="95"/>
-    </row>
-    <row r="54" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B54" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="51"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="55"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="51"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="56"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="51"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="56"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="51"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="51"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="56"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="51"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="56"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="51"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="51"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="51"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="56"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="51"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="51"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="56"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="58">
-        <f>SUM(E55:E64)</f>
+      <c r="D71" s="56">
+        <f>E61</f>
         <v>0</v>
       </c>
-      <c r="F66" s="51"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="56"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="58">
-        <v>3.9</v>
-      </c>
-      <c r="F67" s="51"/>
-    </row>
-    <row r="68" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="59"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="61">
-        <f>E66/E67</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="62"/>
-    </row>
-    <row r="73" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="95"/>
-    </row>
-    <row r="75" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B75" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="65"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="C76" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D76" s="58">
-        <f>E32</f>
-        <v>11.614290909090908</v>
-      </c>
-      <c r="E76" s="58">
-        <f t="shared" ref="E76:E80" si="2">C76*D76/B76</f>
-        <v>75.151294117647055</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="C77" s="57">
-        <v>5.5</v>
-      </c>
-      <c r="D77" s="58">
-        <f>E50</f>
-        <v>1.6668974358974362</v>
-      </c>
-      <c r="E77" s="58">
-        <f t="shared" si="2"/>
-        <v>10.785806938159883</v>
-      </c>
-      <c r="F77" s="97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="C78" s="57">
-        <v>3.7</v>
-      </c>
-      <c r="D78" s="58">
-        <f>E68</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="58">
+      <c r="E71" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F78" s="97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="56">
+      <c r="F71" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="54">
         <v>1</v>
       </c>
-      <c r="C79" s="57">
+      <c r="C72" s="55">
         <v>29</v>
       </c>
-      <c r="D79" s="57">
+      <c r="D72" s="55">
         <v>1</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E72" s="56">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="F79" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="56">
+      <c r="F72" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="54">
         <v>1</v>
       </c>
-      <c r="C80" s="57">
+      <c r="C73" s="55">
         <v>29</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D73" s="55">
         <v>1</v>
       </c>
-      <c r="E80" s="58">
+      <c r="E73" s="56">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="F80" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="56"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="51"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="56"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="58">
-        <f>SUM(E76:E80)</f>
-        <v>143.93710105580692</v>
-      </c>
-      <c r="F82" s="51"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="56"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57" t="s">
+      <c r="F73" s="49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="49"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="56">
+        <f>SUM(E69:E73)</f>
+        <v>206.04592000000002</v>
+      </c>
+      <c r="F75" s="49"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="56">
+        <v>29</v>
+      </c>
+      <c r="F76" s="49"/>
+    </row>
+    <row r="77" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="57"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="58">
-        <v>29</v>
-      </c>
-      <c r="F83" s="51"/>
-    </row>
-    <row r="84" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="59"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="61">
-        <f>E82/E83</f>
-        <v>4.9633483122692041</v>
-      </c>
-      <c r="F84" s="62"/>
+      <c r="E77" s="59">
+        <f>E75/E76</f>
+        <v>7.1050317241379322</v>
+      </c>
+      <c r="F77" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B46:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
